--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3000" windowWidth="38400" windowHeight="24000"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15260"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="639">
   <si>
     <t>Citation</t>
   </si>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>Perez et al. 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boris Pe ́rez, Dar ́ıo Correal 
-, Herna ́n Astudillo </t>
   </si>
   <si>
     <r>
@@ -2518,9 +2514,6 @@
   <si>
     <t xml:space="preserve">In future work, we plan to study the process of issue removal to determine which issues are the most costly to remove and generally extend this analysis to a wider range of project domains and sizes. 
 </t>
-  </si>
-  <si>
-    <t>Nayebi 2019</t>
   </si>
   <si>
     <t xml:space="preserve">Maleknaz Nayebi, Yuanfang Cai,Rick Kazman, Guenther Ruhe, Qiong Feng, Chris Carlson, Francis Chew </t>
@@ -11468,9 +11461,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Besker, Martini and Bosch </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -12760,9 +12750,6 @@
     <t>Requirements volatility is a major issue in software (SW) development, causing problems such as project delays and cost overruns. Even though there is a considerable amount of research related to requirement volatility, the majority of it is inclined toward project management aspects. The relationship between SW architecture design and requirements volatility has not been researched widely, even though changing requirements may for example lead to higher defect density during testing. An exploratory case study was conducted to study how requirements volatility affects SW architecture design. Fifteen semi-structured, thematic interviews were conducted in the case company, which provides the selection of software products for business customers and consumers. The research revealed the factors, such as requirements uncertainty and dynamic business environment, causing requirements volatility in the case company. The study identified the challenges that requirements volatility posed to SW architecture design, including scheduling and architectural technical debt. In addition, this study discusses means of mitigating the factors that cause requirements volatility and addressing the challenges posed by requirements volatility. SW architects are strongly influenced by requirement volatility. Thus understanding the factors causing requirements volatility as well as means to mitigate the challenges has high industrial relevance.</t>
   </si>
   <si>
-    <t>ICSSP 2017</t>
-  </si>
-  <si>
     <t>Software and System Process</t>
   </si>
   <si>
@@ -12798,32 +12785,6 @@
   </si>
   <si>
     <t>Martini et al 2015</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Antonio Martini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>⇑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>, Jan Bosch, Michel Chaudron</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Investigating Architectural Technical Debt accumulation and refactoring over time: A multiple-case study </t>
@@ -14467,9 +14428,6 @@
     </r>
   </si>
   <si>
-    <t>Curtis et al2012</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bill Curtis, Jay Sappidi, and Alexandra Szynkarski, </t>
   </si>
   <si>
@@ -15978,12 +15936,98 @@
   <si>
     <t>Weak Aspects</t>
   </si>
+  <si>
+    <t>Nayebi et al. 2019</t>
+  </si>
+  <si>
+    <t>Curtis et al 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan MacCormack, Daniel J. Sturtevant </t>
+  </si>
+  <si>
+    <t>MacComark and Sturteant 2016</t>
+  </si>
+  <si>
+    <t>Besker, Martini and Bosch 2017</t>
+  </si>
+  <si>
+    <t>Damian A. Tamburri 2019</t>
+  </si>
+  <si>
+    <t>Boris Perez; Dario Correal; Hernan Astudillo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Antonio Martini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>, Jan Bosch, Michel Chaudron</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeremy Ludwig; Steven Xu; Frederick Webber</t>
+  </si>
+  <si>
+    <t>Confernce</t>
+  </si>
+  <si>
+    <t>Conferene</t>
+  </si>
+  <si>
+    <t>Symposium</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>ICSSP 2017 Proceedings of the 2017 International Conference on Software and System Process</t>
+  </si>
+  <si>
+    <t>Book series</t>
+  </si>
+  <si>
+    <t>Measurement,Social networking (online),Computer architecture,Software architecture,Software systems,Software design</t>
+  </si>
+  <si>
+    <t>Identify architectural smells using SNA (Social Network Analysis) via graph based approuch to make predictions about software design dependencies, evolution and properties of the system.</t>
+  </si>
+  <si>
+    <t>Not available</t>
+  </si>
+  <si>
+    <t>The ongoing research has primary focused on the definition of the dependency graph and the evaluation of the depend- ency predictor. The definition of the dependency graph was complemented with a statistical analysis of software versions and the evolution of SNA metrics (tackling RQ1). In this line, it was analysed how past decisions reflected in the software structure affect the future occurrence of dependencies, and smells thereof (tackling RQ3). In addition, it was analysed the descriptive power of both topological and content-based fea- tures for defining the similarity of components (tackling RQ2). The descriptive power of software-related metrics remains to be evaluated. Regarding smell prediction, evaluations focused on defining preliminary filtering strategies for cycles and hubs (tackling RQ4).
+At present, the research is oriented to perform a systematic study with more systems (and versions) to corroborate the initial findings reported in [9, 10]. Moreover, considering the errors in which learned models could incur, additional studies are being performed to introduce mechanisms of reinforcement learning to feed the predictions with new information obtained from the environment (or from the architect), as a means to establish the confidence of predictions and reducing the probability of false positives.
+Once the prediction technique is fully evaluated, it will be incorporated into a tool to evaluate the capabilities of the approach in a study with subjects in the context of real software projects. Finally, it is expected to include other types of architectural smells [15] in the work.</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Software architecture health monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilateral cloud security architecture Design smells Technical debt Design debt Cloud computing security Design refactoring </t>
+  </si>
+  <si>
+    <t>Computer architecture,Software engineering,Business,History,Sonar detection,Microprocessors</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -16218,11 +16262,6 @@
       <sz val="24"/>
       <color indexed="14"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="22"/>
-      <name val="Times Roman"/>
     </font>
     <font>
       <sz val="9"/>
@@ -16570,10 +16609,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="45" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16602,7 +16638,7 @@
     <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="50" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16610,6 +16646,9 @@
     </xf>
     <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -17762,9 +17801,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17775,7 +17814,7 @@
     <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="53" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="102.83203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="33.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="19" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
@@ -17796,7 +17835,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17805,52 +17844,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>4</v>
@@ -17859,28 +17898,28 @@
         <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="409.5" customHeight="1">
+    <row r="2" spans="1:28" ht="355" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -17891,52 +17930,56 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="F2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="6">
+        <v>5</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="S2" s="8"/>
       <c r="T2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -17951,76 +17994,76 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="9">
         <v>2017</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="10" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>28</v>
       </c>
       <c r="L3" s="11">
         <v>16</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="R3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>36</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>37</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
       <c r="Y3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>39</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="AB3" s="13"/>
     </row>
@@ -18029,77 +18072,77 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="F4" s="9">
         <v>2018</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="L4" s="11">
         <v>9</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="P4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>53</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>54</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" s="12" t="s">
         <v>55</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>56</v>
       </c>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AA4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="409.5" customHeight="1">
@@ -18107,83 +18150,83 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>64</v>
       </c>
       <c r="F5" s="9">
         <v>2018</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="L5" s="11">
         <v>4</v>
       </c>
       <c r="M5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="P5" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="Q5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="R5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="S5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="U5" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>76</v>
       </c>
       <c r="V5" s="14"/>
       <c r="W5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="Z5" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AB5" s="16" t="s">
         <v>81</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="409.5" customHeight="1">
@@ -18191,65 +18234,65 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>83</v>
+        <v>616</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="9">
         <v>2019</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>86</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="L6" s="11">
         <v>10</v>
       </c>
       <c r="M6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="P6" s="10" t="s">
         <v>90</v>
-      </c>
-      <c r="O6" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="P6" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="T6" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="U6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="V6" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
@@ -18263,61 +18306,65 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="F7" s="9">
         <v>2019</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="L7" s="14">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="12" t="s">
+      <c r="O7" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="Q7" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>110</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="V7" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>113</v>
       </c>
       <c r="W7" s="14"/>
       <c r="X7" s="14"/>
@@ -18331,56 +18378,60 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9">
         <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18" t="s">
+      <c r="K8" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="L8" s="14">
+        <v>10</v>
+      </c>
+      <c r="M8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="12" t="s">
+      <c r="O8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P8" s="12" t="s">
-        <v>124</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="U8" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="V8" s="14"/>
       <c r="W8" s="14"/>
@@ -18395,60 +18446,64 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C9" s="9">
         <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="9">
         <v>2016</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="L9" s="13">
+        <v>10</v>
+      </c>
+      <c r="M9" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="N9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="10" t="s">
+      <c r="O9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="Q9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="V9" s="14"/>
       <c r="W9" s="14"/>
@@ -18463,60 +18518,64 @@
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C10" s="11">
         <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="9">
         <v>2016</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="10" t="s">
+      <c r="L10" s="13">
+        <v>11</v>
+      </c>
+      <c r="M10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="N10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="10" t="s">
+      <c r="O10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="P10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="Q10" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="R10" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="T10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" s="12" t="s">
+      <c r="U10" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="V10" s="14"/>
       <c r="W10" s="14"/>
@@ -18531,57 +18590,61 @@
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11" s="11">
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F11" s="9">
         <v>2018</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="12" t="s">
+      <c r="K11" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="L11" s="14">
+        <v>2</v>
+      </c>
+      <c r="M11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="N11" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="L11" s="14"/>
-      <c r="M11" s="12" t="s">
+      <c r="O11" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>166</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>168</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="U11" s="14"/>
       <c r="V11" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="W11" s="14"/>
       <c r="X11" s="14"/>
@@ -18595,57 +18658,63 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>171</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>173</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="J12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="10" t="s">
+      <c r="K12" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="L12" s="13">
+        <v>2</v>
+      </c>
+      <c r="M12" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="10" t="s">
+      <c r="O12" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="P12" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="O12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="R12" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
+      <c r="T12" s="14" t="s">
+        <v>633</v>
+      </c>
       <c r="U12" s="14"/>
       <c r="V12" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
@@ -18659,60 +18728,64 @@
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C13" s="9">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F13" s="9">
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="12" t="s">
+      <c r="K13" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="L13" s="14">
+        <v>8</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="T13" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="U13" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>198</v>
       </c>
       <c r="V13" s="14"/>
       <c r="W13" s="14"/>
@@ -18727,56 +18800,60 @@
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C14" s="20">
         <v>12</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F14" s="9">
         <v>2016</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="L14" s="13">
+        <v>3</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="N14" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="10" t="s">
+      <c r="O14" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="P14" s="12" t="s">
         <v>207</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>209</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="V14" s="14"/>
       <c r="W14" s="14"/>
@@ -18786,33 +18863,55 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="22" customHeight="1">
+    <row r="15" spans="1:28" ht="238" customHeight="1">
       <c r="A15" s="9">
         <v>20</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>635</v>
+      </c>
       <c r="D15" s="22" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+        <v>211</v>
+      </c>
+      <c r="F15" s="23">
+        <v>2019</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="J15" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="L15" s="14">
+        <v>8</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>632</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
       <c r="P15" s="14"/>
       <c r="Q15" s="14"/>
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
+      <c r="T15" s="14" t="s">
+        <v>634</v>
+      </c>
       <c r="U15" s="14"/>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
@@ -18827,60 +18926,64 @@
         <v>21</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C16" s="25">
         <v>36</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F16" s="9">
         <v>2015</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="14"/>
-      <c r="I16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="L16" s="13">
+        <v>10</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="N16" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="R16" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="T16" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="S16" s="12" t="s">
+      <c r="U16" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
@@ -18895,60 +18998,64 @@
         <v>22</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C17" s="9">
         <v>75</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F17" s="9">
         <v>2014</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="12" t="s">
+      <c r="K17" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="L17" s="14">
+        <v>8</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="N17" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="L17" s="14"/>
-      <c r="M17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="P17" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="O17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="P17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="T17" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>242</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>244</v>
       </c>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
@@ -18963,60 +19070,64 @@
         <v>27</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C18" s="11">
         <v>9</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F18" s="9">
         <v>2016</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="12" t="s">
+      <c r="L18" s="14">
+        <v>8</v>
+      </c>
+      <c r="M18" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="10" t="s">
+      <c r="N18" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="L18" s="14"/>
-      <c r="M18" s="12" t="s">
+      <c r="O18" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="P18" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="Q18" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="P18" s="12" t="s">
+      <c r="R18" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="T18" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="U18" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -19031,58 +19142,64 @@
         <v>30</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C19" s="9">
         <v>13</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F19" s="9">
         <v>2018</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="L19" s="14">
+        <v>16</v>
+      </c>
+      <c r="M19" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12" t="s">
+      <c r="N19" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="P19" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="O19" s="12" t="s">
+      <c r="Q19" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="R19" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="S19" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="R19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="U19" s="12" t="s">
         <v>269</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
@@ -19097,58 +19214,64 @@
         <v>38</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C20" s="9">
         <v>3</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F20" s="9">
         <v>2016</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="12" t="s">
+      <c r="K20" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="L20" s="14">
+        <v>4</v>
+      </c>
+      <c r="M20" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="N20" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="P20" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="Q20" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="P20" s="10" t="s">
+      <c r="R20" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="U20" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="U20" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -19163,58 +19286,64 @@
         <v>48</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="9">
+        <v>108</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="C21" s="9">
-        <v>96</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="J21" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="12" t="s">
+      <c r="K21" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="L21" s="14">
+        <v>10</v>
+      </c>
+      <c r="M21" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="N21" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="12" t="s">
+      <c r="O21" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="N21" s="12" t="s">
+      <c r="P21" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="O21" s="10" t="s">
+      <c r="Q21" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="R21" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="S21" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="R21" s="12" t="s">
+      <c r="T21" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="S21" s="10" t="s">
+      <c r="U21" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>301</v>
       </c>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
@@ -19229,53 +19358,57 @@
         <v>47</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C22" s="9">
         <v>21</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F22" s="9">
         <v>2015</v>
       </c>
       <c r="G22" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="12" t="s">
+      <c r="L22" s="14">
+        <v>8</v>
+      </c>
+      <c r="M22" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="12" t="s">
+      <c r="N22" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="12" t="s">
+      <c r="O22" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="P22" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>310</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
@@ -19291,52 +19424,56 @@
         <v>20</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>313</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="F23" s="9">
         <v>2019</v>
       </c>
       <c r="G23" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="12" t="s">
+      <c r="L23" s="14">
+        <v>8</v>
+      </c>
+      <c r="M23" s="12" t="s">
         <v>317</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="12" t="s">
-        <v>319</v>
       </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="R23" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
@@ -19351,54 +19488,58 @@
         <v>33</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C24" s="9">
         <v>137</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F24" s="9">
         <v>2012</v>
       </c>
       <c r="G24" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="H24" s="17"/>
-      <c r="I24" s="18" t="s">
+      <c r="L24" s="14">
+        <v>10</v>
+      </c>
+      <c r="M24" s="12" t="s">
         <v>328</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="N24" s="14"/>
       <c r="O24" s="12" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="T24" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>333</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>335</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
@@ -19413,60 +19554,64 @@
         <v>26</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F25" s="9">
         <v>2019</v>
       </c>
       <c r="G25" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="10" t="s">
+      <c r="L25" s="14">
+        <v>2</v>
+      </c>
+      <c r="M25" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="J25" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="N25" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12" t="s">
+      <c r="O25" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="P25" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="Q25" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="P25" s="12" t="s">
+      <c r="R25" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="S25" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="T25" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="R25" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="S25" s="12" t="s">
+      <c r="U25" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
@@ -19481,54 +19626,58 @@
         <v>28</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="9">
         <v>5</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F26" s="9">
         <v>2018</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K26" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29" t="s">
+      <c r="L26" s="13">
+        <v>4</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="J26" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K26" s="30" t="s">
+      <c r="N26" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="L26" s="13"/>
-      <c r="M26" s="10" t="s">
+      <c r="O26" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>356</v>
       </c>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="S26" s="14"/>
       <c r="T26" s="16" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
@@ -19543,60 +19692,64 @@
         <v>31</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C27" s="9">
         <v>17</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F27" s="9">
         <v>2015</v>
       </c>
       <c r="G27" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K27" s="30" t="s">
         <v>363</v>
       </c>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29" t="s">
+      <c r="L27" s="13">
+        <v>8</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K27" s="30" t="s">
+      <c r="N27" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="10" t="s">
+      <c r="O27" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="P27" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="O27" s="12" t="s">
+      <c r="Q27" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="P27" s="12" t="s">
+      <c r="R27" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="S27" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="T27" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="R27" s="12" t="s">
+      <c r="U27" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>373</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
@@ -19611,49 +19764,53 @@
         <v>44</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C28" s="9">
         <v>23</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="F28" s="9">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K28" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="H28" s="13"/>
-      <c r="I28" s="10" t="s">
+      <c r="L28" s="13">
+        <v>4</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K28" s="10" t="s">
+      <c r="N28" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="10" t="s">
+      <c r="O28" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="O28" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
@@ -19668,47 +19825,57 @@
       <c r="A29" s="9">
         <v>43</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="13" t="s">
+        <v>619</v>
+      </c>
+      <c r="C29" s="14">
+        <v>35</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>618</v>
+      </c>
       <c r="E29" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F29" s="32">
         <v>2016</v>
       </c>
       <c r="G29" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="J29" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29" t="s">
+      <c r="K29" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="L29" s="13">
+        <v>13</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="N29" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="10" t="s">
+      <c r="O29" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>389</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="16" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
@@ -19723,56 +19890,60 @@
         <v>51</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="10" t="s">
+      <c r="K30" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="L30" s="13">
+        <v>11</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="10" t="s">
-        <v>399</v>
       </c>
       <c r="N30" s="14"/>
       <c r="O30" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
@@ -19787,56 +19958,60 @@
         <v>52</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C31" s="9">
         <v>3</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="J31" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="H31" s="13"/>
-      <c r="I31" s="10" t="s">
+      <c r="L31" s="13">
+        <v>8</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="N31" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="10" t="s">
+      <c r="O31" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="N31" s="12" t="s">
-        <v>413</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>414</v>
-      </c>
       <c r="P31" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
@@ -19851,54 +20026,58 @@
         <v>63</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C32" s="9">
         <v>4</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F32" s="9">
         <v>2019</v>
       </c>
       <c r="G32" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>420</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>421</v>
       </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37" t="s">
+      <c r="L32" s="13">
+        <v>31</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="K32" s="10" t="s">
+      <c r="N32" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="10" t="s">
+      <c r="O32" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="N32" s="12" t="s">
+      <c r="P32" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -19913,56 +20092,60 @@
         <v>73</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C33" s="9">
         <v>8</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E33" s="34" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F33" s="9">
         <v>2018</v>
       </c>
       <c r="G33" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>432</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37" t="s">
+      <c r="L33" s="13">
+        <v>5</v>
+      </c>
+      <c r="M33" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="J33" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K33" s="10" t="s">
+      <c r="N33" s="12" t="s">
         <v>435</v>
-      </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="O33" s="14"/>
       <c r="P33" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="S33" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>439</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -19977,58 +20160,62 @@
         <v>69</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>442</v>
+        <v>620</v>
       </c>
       <c r="C34" s="9">
         <v>21</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E34" s="38" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F34" s="9">
         <v>2017</v>
       </c>
       <c r="G34" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="H34" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>444</v>
+      </c>
+      <c r="L34" s="13">
+        <v>11</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37" t="s">
+      <c r="N34" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="J34" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="K34" s="16" t="s">
+      <c r="O34" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="10" t="s">
+      <c r="P34" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="T34" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="U34" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -20043,52 +20230,56 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C35" s="9">
         <v>28</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E35" s="34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="39" t="s">
+        <v>456</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>628</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>457</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="L35" s="13">
+        <v>8</v>
+      </c>
+      <c r="M35" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37" t="s">
+      <c r="N35" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K35" s="16" t="s">
+      <c r="O35" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>464</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="16" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
@@ -20103,52 +20294,56 @@
         <v>66</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C36" s="9">
         <v>12</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F36" s="9">
         <v>2016</v>
       </c>
       <c r="G36" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="H36" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="J36" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="L36" s="13">
+        <v>8</v>
+      </c>
+      <c r="M36" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37" t="s">
+      <c r="N36" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="K36" s="16" t="s">
+      <c r="O36" s="12" t="s">
         <v>472</v>
-      </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>475</v>
       </c>
       <c r="P36" s="14"/>
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="U36" s="16" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
@@ -20163,57 +20358,61 @@
         <v>96</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C37" s="9">
         <v>0</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F37" s="9">
         <v>2017</v>
       </c>
       <c r="G37" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="H37" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K37" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="L37" s="41">
+        <v>10</v>
+      </c>
+      <c r="M37" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37" t="s">
+      <c r="N37" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="J37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="K37" s="16" t="s">
+      <c r="P37" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="L37" s="41"/>
-      <c r="M37" s="16" t="s">
+      <c r="Q37" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="N37" s="12" t="s">
+      <c r="R37" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="T37" s="16" t="s">
         <v>486</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="T37" s="16" t="s">
-        <v>490</v>
       </c>
       <c r="U37" s="41"/>
       <c r="V37" s="14"/>
@@ -20229,49 +20428,53 @@
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C38" s="9">
         <v>65</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>492</v>
+        <v>623</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F38" s="9">
         <v>2015</v>
       </c>
       <c r="G38" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="H38" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="K38" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="L38" s="41">
+        <v>17</v>
+      </c>
+      <c r="M38" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="N38" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>494</v>
-      </c>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37" t="s">
-        <v>495</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>496</v>
-      </c>
-      <c r="L38" s="41"/>
-      <c r="M38" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>499</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="16" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="U38" s="41"/>
       <c r="V38" s="14"/>
@@ -20287,39 +20490,43 @@
         <v>24</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C39" s="9">
         <v>15</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F39" s="9">
         <v>2018</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="H39" s="44"/>
-      <c r="I39" s="45" t="s">
-        <v>505</v>
+        <v>499</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="44" t="s">
+        <v>500</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K39" s="42" t="s">
-        <v>506</v>
-      </c>
-      <c r="L39" s="41"/>
+        <v>501</v>
+      </c>
+      <c r="L39" s="41">
+        <v>27</v>
+      </c>
       <c r="M39" s="16" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
@@ -20327,7 +20534,7 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="16" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="U39" s="41"/>
       <c r="V39" s="14"/>
@@ -20343,39 +20550,43 @@
         <v>77</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C40" s="9">
         <v>9</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="F40" s="9">
         <v>2019</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="H40" s="28"/>
+        <v>508</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="I40" s="29" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K40" s="42" t="s">
-        <v>515</v>
-      </c>
-      <c r="L40" s="41"/>
+        <v>510</v>
+      </c>
+      <c r="L40" s="41">
+        <v>11</v>
+      </c>
       <c r="M40" s="16" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -20383,7 +20594,7 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="16" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="U40" s="41"/>
       <c r="V40" s="14"/>
@@ -20399,33 +20610,43 @@
         <v>78</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="46"/>
+        <v>514</v>
+      </c>
+      <c r="C41" s="14">
+        <v>12</v>
+      </c>
+      <c r="D41" s="45" t="s">
+        <v>624</v>
+      </c>
       <c r="E41" s="31" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F41" s="9">
         <v>2017</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="H41" s="28"/>
+        <v>516</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="I41" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="J41" s="14"/>
+        <v>517</v>
+      </c>
+      <c r="J41" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="K41" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="L41" s="41"/>
+        <v>518</v>
+      </c>
+      <c r="L41" s="41">
+        <v>5</v>
+      </c>
       <c r="M41" s="16" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="14"/>
@@ -20433,7 +20654,7 @@
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="16" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="U41" s="41"/>
       <c r="V41" s="14"/>
@@ -20449,47 +20670,53 @@
         <v>81</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C42" s="14"/>
+        <v>617</v>
+      </c>
+      <c r="C42" s="14">
+        <v>105</v>
+      </c>
       <c r="D42" s="16" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="E42" s="31" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>530</v>
-      </c>
-      <c r="H42" s="28"/>
+        <v>524</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="I42" s="29" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="L42" s="41"/>
+        <v>526</v>
+      </c>
+      <c r="L42" s="41">
+        <v>9</v>
+      </c>
       <c r="M42" s="16" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P42" s="14"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="16" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="U42" s="41"/>
       <c r="V42" s="14"/>
@@ -20505,49 +20732,55 @@
         <v>82</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="47" t="s">
-        <v>528</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>536</v>
+        <v>617</v>
+      </c>
+      <c r="C43" s="14">
+        <v>103</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>522</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>530</v>
       </c>
       <c r="F43" s="9">
         <v>2012</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="H43" s="41"/>
+        <v>531</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>628</v>
+      </c>
       <c r="I43" s="16" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="L43" s="41"/>
+        <v>533</v>
+      </c>
+      <c r="L43" s="41">
+        <v>5</v>
+      </c>
       <c r="M43" s="16" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="P43" s="49"/>
+        <v>483</v>
+      </c>
+      <c r="P43" s="48"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="T43" s="16" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="U43" s="41"/>
       <c r="V43" s="14"/>
@@ -20563,45 +20796,53 @@
         <v>85</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>539</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" s="51">
+        <v>2018</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>541</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>630</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="J44" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="K44" s="41" t="s">
+        <v>637</v>
+      </c>
+      <c r="L44" s="41">
+        <v>13</v>
+      </c>
+      <c r="M44" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="50" t="s">
+      <c r="N44" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="E44" s="51" t="s">
-        <v>546</v>
-      </c>
-      <c r="F44" s="52">
-        <v>2018</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="H44" s="41"/>
-      <c r="I44" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>551</v>
-      </c>
       <c r="O44" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
       <c r="S44" s="14"/>
       <c r="T44" s="16" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="U44" s="41"/>
       <c r="V44" s="14"/>
@@ -20617,51 +20858,57 @@
         <v>88</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C45" s="14">
+        <v>2</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>548</v>
+      </c>
+      <c r="E45" s="53" t="s">
+        <v>549</v>
+      </c>
+      <c r="F45" s="51">
+        <v>2019</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="J45" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="L45" s="41">
+        <v>5</v>
+      </c>
+      <c r="M45" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="53" t="s">
+      <c r="N45" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="O45" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="P45" s="12" t="s">
         <v>555</v>
-      </c>
-      <c r="F45" s="52">
-        <v>2019</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>556</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>558</v>
-      </c>
-      <c r="L45" s="41"/>
-      <c r="M45" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>560</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="P45" s="12" t="s">
-        <v>561</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="12" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="S45" s="14"/>
-      <c r="T45" s="55" t="s">
-        <v>563</v>
+      <c r="T45" s="54" t="s">
+        <v>557</v>
       </c>
       <c r="U45" s="41"/>
       <c r="V45" s="14"/>
@@ -20677,49 +20924,55 @@
         <v>90</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C46" s="14">
+        <v>6</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>559</v>
+      </c>
+      <c r="E46" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="F46" s="51">
+        <v>2019</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>562</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="53" t="s">
+      <c r="L46" s="41">
+        <v>10</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="N46" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="F46" s="52">
-        <v>2019</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>567</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="L46" s="41"/>
-      <c r="M46" s="16" t="s">
-        <v>571</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>572</v>
-      </c>
       <c r="O46" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P46" s="14"/>
       <c r="Q46" s="14"/>
       <c r="R46" s="12" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="S46" s="14"/>
       <c r="T46" s="16" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="U46" s="41"/>
       <c r="V46" s="14"/>
@@ -20735,49 +20988,55 @@
         <v>91</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C47" s="14">
+        <v>10</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>570</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="F47" s="51">
+        <v>2018</v>
+      </c>
+      <c r="G47" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>573</v>
+      </c>
+      <c r="L47" s="41">
+        <v>9</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="N47" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="53" t="s">
+      <c r="O47" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P47" s="12" t="s">
         <v>576</v>
-      </c>
-      <c r="E47" s="56" t="s">
-        <v>577</v>
-      </c>
-      <c r="F47" s="52">
-        <v>2018</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="16" t="s">
-        <v>434</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="L47" s="41"/>
-      <c r="M47" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>582</v>
       </c>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="16" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="U47" s="41"/>
       <c r="V47" s="14"/>
@@ -20793,34 +21052,40 @@
         <v>97</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>579</v>
+      </c>
+      <c r="E48" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="F48" s="51">
+        <v>2017</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>581</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>583</v>
+      </c>
+      <c r="L48" s="41">
+        <v>4</v>
+      </c>
+      <c r="M48" s="16" t="s">
         <v>584</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="53" t="s">
-        <v>585</v>
-      </c>
-      <c r="E48" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="F48" s="52">
-        <v>2017</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>587</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="L48" s="41"/>
-      <c r="M48" s="16" t="s">
-        <v>590</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="14"/>
@@ -20829,7 +21094,7 @@
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="16" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="U48" s="41"/>
       <c r="V48" s="14"/>
@@ -20845,45 +21110,51 @@
         <v>40</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="C49" s="14">
+        <v>3</v>
+      </c>
+      <c r="D49" s="52" t="s">
+        <v>586</v>
+      </c>
+      <c r="E49" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="F49" s="51">
+        <v>2019</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>588</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>589</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>591</v>
+      </c>
+      <c r="L49" s="41">
+        <v>18</v>
+      </c>
+      <c r="M49" s="16" t="s">
         <v>592</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="53" t="s">
-        <v>592</v>
-      </c>
-      <c r="E49" s="57" t="s">
-        <v>593</v>
-      </c>
-      <c r="F49" s="52">
-        <v>2019</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>594</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>596</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="L49" s="41"/>
-      <c r="M49" s="16" t="s">
-        <v>598</v>
       </c>
       <c r="N49" s="14"/>
       <c r="O49" s="12" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
       <c r="R49" s="14"/>
       <c r="S49" s="14"/>
       <c r="T49" s="16" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="U49" s="41"/>
       <c r="V49" s="14"/>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="15260"/>
+    <workbookView xWindow="40" yWindow="240" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="634">
   <si>
     <t>Citation</t>
   </si>
@@ -4961,12 +4961,6 @@
     </r>
   </si>
   <si>
-    <t>Tommasel, A.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Applying Social Network Analysis Techniques to Architectural Smell Prediction  </t>
-  </si>
-  <si>
     <t>Li et al. 2015</t>
   </si>
   <si>
@@ -15997,18 +15991,7 @@
     <t>Book series</t>
   </si>
   <si>
-    <t>Measurement,Social networking (online),Computer architecture,Software architecture,Software systems,Software design</t>
-  </si>
-  <si>
-    <t>Identify architectural smells using SNA (Social Network Analysis) via graph based approuch to make predictions about software design dependencies, evolution and properties of the system.</t>
-  </si>
-  <si>
     <t>Not available</t>
-  </si>
-  <si>
-    <t>The ongoing research has primary focused on the definition of the dependency graph and the evaluation of the depend- ency predictor. The definition of the dependency graph was complemented with a statistical analysis of software versions and the evolution of SNA metrics (tackling RQ1). In this line, it was analysed how past decisions reflected in the software structure affect the future occurrence of dependencies, and smells thereof (tackling RQ3). In addition, it was analysed the descriptive power of both topological and content-based fea- tures for defining the similarity of components (tackling RQ2). The descriptive power of software-related metrics remains to be evaluated. Regarding smell prediction, evaluations focused on defining preliminary filtering strategies for cycles and hubs (tackling RQ4).
-At present, the research is oriented to perform a systematic study with more systems (and versions) to corroborate the initial findings reported in [9, 10]. Moreover, considering the errors in which learned models could incur, additional studies are being performed to introduce mechanisms of reinforcement learning to feed the predictions with new information obtained from the environment (or from the architect), as a means to establish the confidence of predictions and reducing the probability of false positives.
-Once the prediction technique is fully evaluated, it will be incorporated into a tool to evaluate the capabilities of the approach in a study with subjects in the context of real software projects. Finally, it is expected to include other types of architectural smells [15] in the work.</t>
   </si>
   <si>
     <t>2</t>
@@ -16329,7 +16312,7 @@
       <name val="Times Roman"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16339,12 +16322,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -16483,7 +16460,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -16546,11 +16523,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
@@ -17799,11 +17771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB49"/>
+  <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17835,7 +17807,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17844,52 +17816,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>600</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>4</v>
@@ -17898,25 +17870,25 @@
         <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="Y1" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="355" customHeight="1">
@@ -17930,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -18234,7 +18206,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
@@ -18464,7 +18436,7 @@
         <v>129</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>130</v>
@@ -18676,7 +18648,7 @@
         <v>172</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>173</v>
@@ -18710,7 +18682,7 @@
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="12" t="s">
@@ -18818,7 +18790,7 @@
         <v>200</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>201</v>
@@ -18863,56 +18835,70 @@
       <c r="AA14" s="14"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="238" customHeight="1">
+    <row r="15" spans="1:28" ht="409.5" customHeight="1">
       <c r="A15" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>635</v>
-      </c>
-      <c r="D15" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="22">
+        <v>36</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="23">
-        <v>2019</v>
+      <c r="E15" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F15" s="9">
+        <v>2015</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="I15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="13">
+        <v>10</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="K15" s="14" t="s">
-        <v>631</v>
-      </c>
-      <c r="L15" s="14">
-        <v>8</v>
-      </c>
-      <c r="M15" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="U15" s="14"/>
+      <c r="N15" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="T15" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>224</v>
+      </c>
       <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
@@ -18921,69 +18907,69 @@
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="409.5" customHeight="1">
+    <row r="16" spans="1:28" ht="320.25" customHeight="1">
       <c r="A16" s="9">
-        <v>21</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="C16" s="25">
-        <v>36</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>214</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="9">
+        <v>75</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>227</v>
       </c>
       <c r="F16" s="9">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="L16" s="13">
-        <v>10</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>219</v>
+        <v>230</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="L16" s="14">
+        <v>8</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>232</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>225</v>
+        <v>238</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>239</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="V16" s="14"/>
       <c r="W16" s="14"/>
@@ -18993,69 +18979,69 @@
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
     </row>
-    <row r="17" spans="1:28" ht="320.25" customHeight="1">
+    <row r="17" spans="1:28" ht="409.5" customHeight="1">
       <c r="A17" s="9">
-        <v>22</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="C17" s="9">
-        <v>75</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>228</v>
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="11">
+        <v>9</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="F17" s="9">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>232</v>
+        <v>131</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L17" s="14">
         <v>8</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="V17" s="14"/>
       <c r="W17" s="14"/>
@@ -19067,67 +19053,67 @@
     </row>
     <row r="18" spans="1:28" ht="409.5" customHeight="1">
       <c r="A18" s="9">
-        <v>27</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C18" s="11">
-        <v>9</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>243</v>
+        <v>30</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="9">
+        <v>13</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>256</v>
       </c>
       <c r="F18" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>244</v>
+        <v>2018</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>257</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>246</v>
+        <v>215</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>629</v>
       </c>
       <c r="L18" s="14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>250</v>
+        <v>261</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S18" s="12" t="s">
-        <v>253</v>
+        <v>264</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="V18" s="14"/>
       <c r="W18" s="14"/>
@@ -19137,69 +19123,69 @@
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
     </row>
-    <row r="19" spans="1:28" ht="409.5" customHeight="1">
+    <row r="19" spans="1:28" ht="372.25" customHeight="1">
       <c r="A19" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C19" s="9">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="F19" s="9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>44</v>
+        <v>626</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="L19" s="14">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="P19" s="10" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>267</v>
+        <v>279</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>280</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
@@ -19209,69 +19195,69 @@
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
     </row>
-    <row r="20" spans="1:28" ht="372.25" customHeight="1">
+    <row r="20" spans="1:28" ht="409.5" customHeight="1">
       <c r="A20" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="C20" s="9">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="F20" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>273</v>
+        <v>2015</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>286</v>
       </c>
       <c r="H20" s="14" t="s">
-        <v>628</v>
+        <v>44</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="L20" s="14">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="O20" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>279</v>
+        <v>290</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>292</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>283</v>
+        <v>294</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="T20" s="10" t="s">
+        <v>296</v>
       </c>
       <c r="U20" s="12" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="V20" s="14"/>
       <c r="W20" s="14"/>
@@ -19281,70 +19267,64 @@
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
     </row>
-    <row r="21" spans="1:28" ht="409.5" customHeight="1">
-      <c r="A21" s="9">
-        <v>48</v>
+    <row r="21" spans="1:28" ht="333.25" customHeight="1">
+      <c r="A21" s="23">
+        <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="C21" s="9">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>287</v>
+        <v>127</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>299</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
-      <c r="G21" s="18" t="s">
-        <v>288</v>
+      <c r="G21" s="10" t="s">
+        <v>300</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>638</v>
+        <v>46</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>302</v>
       </c>
       <c r="L21" s="14">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="O21" s="10" t="s">
-        <v>293</v>
+        <v>304</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>305</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>295</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="Q21" s="14"/>
       <c r="R21" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="S21" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="T21" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>299</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="S21" s="14"/>
+      <c r="T21" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
@@ -19353,64 +19333,62 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28" ht="333.25" customHeight="1">
-      <c r="A22" s="26">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="9">
-        <v>21</v>
+    <row r="22" spans="1:28" ht="409.5" customHeight="1">
+      <c r="A22" s="9">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>630</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>127</v>
+        <v>310</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="F22" s="9">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>44</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>46</v>
+        <v>215</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="L22" s="14">
         <v>8</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>307</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
       <c r="P22" s="12" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="12" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="S22" s="14"/>
-      <c r="T22" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="U22" s="14"/>
+      <c r="T22" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="U22" s="12" t="s">
+        <v>319</v>
+      </c>
       <c r="V22" s="14"/>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
@@ -19421,59 +19399,61 @@
     </row>
     <row r="23" spans="1:28" ht="409.5" customHeight="1">
       <c r="A23" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>61</v>
+        <v>320</v>
+      </c>
+      <c r="C23" s="9">
+        <v>137</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F23" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="14" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="H23" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="12" t="s">
-        <v>315</v>
+      <c r="I23" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="L23" s="14">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+      <c r="O23" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="P23" s="12" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="Q23" s="14"/>
-      <c r="R23" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="S23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="12" t="s">
+        <v>329</v>
+      </c>
       <c r="T23" s="10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="V23" s="14"/>
       <c r="W23" s="14"/>
@@ -19483,63 +19463,69 @@
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="409.5" customHeight="1">
+    <row r="24" spans="1:28" ht="345.25" customHeight="1">
       <c r="A24" s="9">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="C24" s="9">
-        <v>137</v>
+        <v>332</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="F24" s="9">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="H24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I24" s="18" t="s">
-        <v>326</v>
+      <c r="I24" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>327</v>
+        <v>174</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="L24" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="N24" s="14"/>
+        <v>337</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>338</v>
+      </c>
       <c r="O24" s="12" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+        <v>340</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>250</v>
+      </c>
       <c r="S24" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>332</v>
+        <v>342</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
@@ -19549,69 +19535,63 @@
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
     </row>
-    <row r="25" spans="1:28" ht="345.25" customHeight="1">
+    <row r="25" spans="1:28" ht="409.5" customHeight="1">
       <c r="A25" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="9">
+        <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>335</v>
+        <v>345</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>346</v>
       </c>
       <c r="F25" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="H25" s="13" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="H25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="10" t="s">
-        <v>337</v>
+      <c r="I25" s="26" t="s">
+        <v>348</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="L25" s="14">
-        <v>2</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>339</v>
+        <v>131</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="L25" s="13">
+        <v>4</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>350</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="P25" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>343</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
       <c r="R25" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>344</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="S25" s="14"/>
       <c r="T25" s="16" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="V25" s="14"/>
       <c r="W25" s="14"/>
@@ -19623,61 +19603,67 @@
     </row>
     <row r="26" spans="1:28" ht="409.5" customHeight="1">
       <c r="A26" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
       <c r="C26" s="9">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>348</v>
+        <v>357</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>358</v>
       </c>
       <c r="F26" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I26" s="29" t="s">
-        <v>350</v>
+        <v>2015</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>360</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>351</v>
+        <v>174</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>361</v>
       </c>
       <c r="L26" s="13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
+        <v>364</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>366</v>
+      </c>
       <c r="R26" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="S26" s="14"/>
+        <v>367</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>365</v>
+      </c>
       <c r="T26" s="16" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="V26" s="14"/>
       <c r="W26" s="14"/>
@@ -19689,68 +19675,58 @@
     </row>
     <row r="27" spans="1:28" ht="409.5" customHeight="1">
       <c r="A27" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="C27" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>360</v>
+        <v>198</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>370</v>
       </c>
       <c r="F27" s="9">
-        <v>2015</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="H27" s="28" t="s">
-        <v>628</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>362</v>
+        <v>2016</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>372</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="30" t="s">
-        <v>363</v>
+      <c r="K27" s="10" t="s">
+        <v>373</v>
       </c>
       <c r="L27" s="13">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="U27" s="12" t="s">
-        <v>371</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
@@ -19759,60 +19735,62 @@
       <c r="AA27" s="14"/>
       <c r="AB27" s="14"/>
     </row>
-    <row r="28" spans="1:28" ht="409.5" customHeight="1">
+    <row r="28" spans="1:28" ht="358.25" customHeight="1">
       <c r="A28" s="9">
-        <v>44</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="9">
-        <v>23</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="F28" s="9">
+        <v>43</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="C28" s="14">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="F28" s="29">
         <v>2016</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>628</v>
-      </c>
-      <c r="I28" s="10" t="s">
-        <v>374</v>
+      <c r="G28" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="26" t="s">
+        <v>380</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>375</v>
+        <v>381</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>382</v>
       </c>
       <c r="L28" s="13">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
-      <c r="T28" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="U28" s="14"/>
+      <c r="T28" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>387</v>
+      </c>
       <c r="V28" s="14"/>
       <c r="W28" s="14"/>
       <c r="X28" s="14"/>
@@ -19821,61 +19799,65 @@
       <c r="AA28" s="14"/>
       <c r="AB28" s="14"/>
     </row>
-    <row r="29" spans="1:28" ht="358.25" customHeight="1">
+    <row r="29" spans="1:28" ht="333.25" customHeight="1">
       <c r="A29" s="9">
-        <v>43</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>619</v>
-      </c>
-      <c r="C29" s="14">
-        <v>35</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>618</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>380</v>
-      </c>
-      <c r="F29" s="32">
-        <v>2016</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="H29" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="29" t="s">
-        <v>382</v>
+        <v>51</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2019</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>392</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>384</v>
+        <v>393</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="L29" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="N29" s="12" t="s">
-        <v>386</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="N29" s="14"/>
       <c r="O29" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+        <v>396</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>399</v>
+      </c>
       <c r="S29" s="14"/>
-      <c r="T29" s="16" t="s">
-        <v>388</v>
+      <c r="T29" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="V29" s="14"/>
       <c r="W29" s="14"/>
@@ -19885,65 +19867,65 @@
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
     </row>
-    <row r="30" spans="1:28" ht="333.25" customHeight="1">
+    <row r="30" spans="1:28" ht="409.5" customHeight="1">
       <c r="A30" s="9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>395</v>
+        <v>215</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="L30" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M30" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="N30" s="14"/>
-      <c r="O30" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>400</v>
-      </c>
+      <c r="Q30" s="14"/>
       <c r="R30" s="12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="10" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
@@ -19955,63 +19937,61 @@
     </row>
     <row r="31" spans="1:28" ht="409.5" customHeight="1">
       <c r="A31" s="9">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C31" s="9">
-        <v>3</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>406</v>
+        <v>4</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>416</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
-      <c r="G31" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>408</v>
+      <c r="G31" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="H31" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>418</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="L31" s="13">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="Q31" s="14"/>
-      <c r="R31" s="12" t="s">
-        <v>413</v>
-      </c>
+      <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="10" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
@@ -20023,61 +20003,63 @@
     </row>
     <row r="32" spans="1:28" ht="409.5" customHeight="1">
       <c r="A32" s="9">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="C32" s="9">
-        <v>4</v>
-      </c>
-      <c r="D32" s="33" t="s">
-        <v>417</v>
-      </c>
-      <c r="E32" s="34" t="s">
-        <v>418</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>428</v>
       </c>
       <c r="F32" s="9">
-        <v>2019</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>419</v>
-      </c>
-      <c r="H32" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>420</v>
+        <v>2018</v>
+      </c>
+      <c r="G32" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>430</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L32" s="13">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>424</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O32" s="14"/>
       <c r="P32" s="12" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
+      <c r="R32" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>435</v>
+      </c>
       <c r="T32" s="10" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -20089,63 +20071,65 @@
     </row>
     <row r="33" spans="1:28" ht="409.5" customHeight="1">
       <c r="A33" s="9">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>428</v>
+        <v>618</v>
       </c>
       <c r="C33" s="9">
-        <v>8</v>
-      </c>
-      <c r="D33" s="33" t="s">
-        <v>429</v>
-      </c>
-      <c r="E33" s="34" t="s">
-        <v>430</v>
+        <v>21</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="35" t="s">
+        <v>439</v>
       </c>
       <c r="F33" s="9">
-        <v>2018</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>431</v>
-      </c>
-      <c r="H33" s="36" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I33" s="37" t="s">
-        <v>432</v>
+      <c r="I33" s="34" t="s">
+        <v>441</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K33" s="10" t="s">
-        <v>433</v>
+        <v>393</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="L33" s="13">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="O33" s="14"/>
+        <v>444</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>445</v>
+      </c>
       <c r="P33" s="12" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="12" t="s">
-        <v>252</v>
+        <v>447</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="T33" s="10" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -20157,65 +20141,59 @@
     </row>
     <row r="34" spans="1:28" ht="409.5" customHeight="1">
       <c r="A34" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>620</v>
+        <v>451</v>
       </c>
       <c r="C34" s="9">
-        <v>21</v>
-      </c>
-      <c r="D34" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>441</v>
+        <v>28</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>453</v>
       </c>
       <c r="F34" s="9">
-        <v>2017</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="H34" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>443</v>
+        <v>2016</v>
+      </c>
+      <c r="G34" s="36" t="s">
+        <v>454</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>626</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>455</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>395</v>
+        <v>174</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L34" s="13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>448</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
-      <c r="R34" s="12" t="s">
-        <v>449</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="T34" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="U34" s="12" t="s">
-        <v>452</v>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>461</v>
       </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -20227,59 +20205,59 @@
     </row>
     <row r="35" spans="1:28" ht="409.5" customHeight="1">
       <c r="A35" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="C35" s="9">
-        <v>28</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>455</v>
+        <v>12</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>464</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
-      <c r="G35" s="39" t="s">
-        <v>456</v>
-      </c>
-      <c r="H35" s="36" t="s">
-        <v>628</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>457</v>
+      <c r="G35" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="H35" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>466</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="L35" s="13">
         <v>8</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="16" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
@@ -20291,60 +20269,66 @@
     </row>
     <row r="36" spans="1:28" ht="409.5" customHeight="1">
       <c r="A36" s="9">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="C36" s="9">
-        <v>12</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="E36" s="40" t="s">
-        <v>466</v>
+        <v>0</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>475</v>
       </c>
       <c r="F36" s="9">
-        <v>2016</v>
-      </c>
-      <c r="G36" s="39" t="s">
-        <v>467</v>
-      </c>
-      <c r="H36" s="36" t="s">
+        <v>2017</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I36" s="37" t="s">
-        <v>468</v>
+      <c r="I36" s="34" t="s">
+        <v>627</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>290</v>
+        <v>477</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="L36" s="13">
-        <v>8</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>470</v>
+        <v>478</v>
+      </c>
+      <c r="L36" s="38">
+        <v>10</v>
+      </c>
+      <c r="M36" s="16" t="s">
+        <v>479</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+        <v>481</v>
+      </c>
+      <c r="P36" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>482</v>
+      </c>
       <c r="T36" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>474</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="U36" s="38"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
@@ -20355,66 +20339,58 @@
     </row>
     <row r="37" spans="1:28" ht="409.5" customHeight="1">
       <c r="A37" s="9">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="C37" s="9">
-        <v>0</v>
-      </c>
-      <c r="D37" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="E37" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>621</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>486</v>
+      </c>
+      <c r="F37" s="9">
+        <v>2015</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="H37" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>488</v>
+      </c>
+      <c r="J37" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="F37" s="9">
-        <v>2017</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="L37" s="41">
-        <v>10</v>
+      <c r="K37" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="L37" s="38">
+        <v>17</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>485</v>
-      </c>
-      <c r="R37" s="12" t="s">
-        <v>484</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>484</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
       <c r="T37" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="U37" s="41"/>
+        <v>493</v>
+      </c>
+      <c r="U37" s="38"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
@@ -20425,58 +20401,56 @@
     </row>
     <row r="38" spans="1:28" ht="409.5" customHeight="1">
       <c r="A38" s="9">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="C38" s="9">
-        <v>65</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>623</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>488</v>
+        <v>15</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>495</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>496</v>
       </c>
       <c r="F38" s="9">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>490</v>
+        <v>497</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="I38" s="41" t="s">
+        <v>498</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>491</v>
-      </c>
-      <c r="L38" s="41">
-        <v>17</v>
+        <v>131</v>
+      </c>
+      <c r="K38" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="L38" s="38">
+        <v>27</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>494</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="O38" s="14"/>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="U38" s="41"/>
+        <v>502</v>
+      </c>
+      <c r="U38" s="38"/>
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
@@ -20487,46 +20461,46 @@
     </row>
     <row r="39" spans="1:28" ht="409.5" customHeight="1">
       <c r="A39" s="9">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="C39" s="9">
-        <v>15</v>
-      </c>
-      <c r="D39" s="33" t="s">
-        <v>497</v>
-      </c>
-      <c r="E39" s="43" t="s">
-        <v>498</v>
+        <v>9</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>505</v>
       </c>
       <c r="F39" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="H39" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I39" s="44" t="s">
-        <v>500</v>
+      <c r="I39" s="26" t="s">
+        <v>507</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>501</v>
-      </c>
-      <c r="L39" s="41">
-        <v>27</v>
+        <v>393</v>
+      </c>
+      <c r="K39" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="L39" s="38">
+        <v>11</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
@@ -20534,9 +20508,9 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="U39" s="41"/>
+        <v>511</v>
+      </c>
+      <c r="U39" s="38"/>
       <c r="V39" s="14"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
@@ -20545,48 +20519,48 @@
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="409.5" customHeight="1">
+    <row r="40" spans="1:28" ht="318.25" customHeight="1">
       <c r="A40" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C40" s="9">
-        <v>9</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>506</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>507</v>
+        <v>512</v>
+      </c>
+      <c r="C40" s="14">
+        <v>12</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>622</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>513</v>
       </c>
       <c r="F40" s="9">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="H40" s="28" t="s">
+        <v>514</v>
+      </c>
+      <c r="H40" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="29" t="s">
-        <v>509</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="K40" s="42" t="s">
-        <v>510</v>
-      </c>
-      <c r="L40" s="41">
-        <v>11</v>
+      <c r="I40" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="J40" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="L40" s="38">
+        <v>5</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -20594,9 +20568,9 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="U40" s="41"/>
+        <v>519</v>
+      </c>
+      <c r="U40" s="38"/>
       <c r="V40" s="14"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
@@ -20605,58 +20579,60 @@
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="318.25" customHeight="1">
+    <row r="41" spans="1:28" ht="404.25" customHeight="1">
       <c r="A41" s="9">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>514</v>
+        <v>615</v>
       </c>
       <c r="C41" s="14">
-        <v>12</v>
-      </c>
-      <c r="D41" s="45" t="s">
-        <v>624</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>515</v>
+        <v>105</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>521</v>
       </c>
       <c r="F41" s="9">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="H41" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>131</v>
+        <v>522</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="J41" s="12" t="s">
+        <v>174</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="L41" s="41">
-        <v>5</v>
+        <v>524</v>
+      </c>
+      <c r="L41" s="38">
+        <v>9</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="O41" s="14"/>
+        <v>526</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>481</v>
+      </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="U41" s="41"/>
+        <v>527</v>
+      </c>
+      <c r="U41" s="38"/>
       <c r="V41" s="14"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
@@ -20665,60 +20641,62 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
     </row>
-    <row r="42" spans="1:28" ht="404.25" customHeight="1">
+    <row r="42" spans="1:28" ht="398.75" customHeight="1">
       <c r="A42" s="9">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C42" s="14">
-        <v>105</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>523</v>
+        <v>103</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>528</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="H42" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="29" t="s">
-        <v>525</v>
+        <v>529</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>526</v>
-      </c>
-      <c r="L42" s="41">
-        <v>9</v>
+        <v>531</v>
+      </c>
+      <c r="L42" s="38">
+        <v>5</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P42" s="14"/>
+        <v>481</v>
+      </c>
+      <c r="P42" s="45"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
+      <c r="S42" s="12" t="s">
+        <v>534</v>
+      </c>
       <c r="T42" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="U42" s="41"/>
+        <v>535</v>
+      </c>
+      <c r="U42" s="38"/>
       <c r="V42" s="14"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
@@ -20727,62 +20705,60 @@
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="398.75" customHeight="1">
+    <row r="43" spans="1:28" ht="387" customHeight="1">
       <c r="A43" s="9">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>617</v>
+        <v>536</v>
       </c>
       <c r="C43" s="14">
-        <v>103</v>
+        <v>1</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>530</v>
-      </c>
-      <c r="F43" s="9">
-        <v>2012</v>
+        <v>538</v>
+      </c>
+      <c r="F43" s="48">
+        <v>2018</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="H43" s="41" t="s">
+        <v>539</v>
+      </c>
+      <c r="H43" s="38" t="s">
         <v>628</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="L43" s="41">
-        <v>5</v>
+        <v>541</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="L43" s="38">
+        <v>13</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P43" s="48"/>
+        <v>481</v>
+      </c>
+      <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
-      <c r="S43" s="12" t="s">
-        <v>536</v>
-      </c>
+      <c r="S43" s="14"/>
       <c r="T43" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="U43" s="41"/>
+        <v>544</v>
+      </c>
+      <c r="U43" s="38"/>
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
@@ -20791,60 +20767,64 @@
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="387" customHeight="1">
+    <row r="44" spans="1:28" ht="409.5" customHeight="1">
       <c r="A44" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="C44" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="F44" s="51">
-        <v>2018</v>
+        <v>547</v>
+      </c>
+      <c r="F44" s="48">
+        <v>2019</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>630</v>
+        <v>548</v>
+      </c>
+      <c r="H44" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="K44" s="41" t="s">
-        <v>637</v>
-      </c>
-      <c r="L44" s="41">
-        <v>13</v>
+        <v>174</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="L44" s="38">
+        <v>5</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P44" s="14"/>
+        <v>481</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>553</v>
+      </c>
       <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
+      <c r="R44" s="12" t="s">
+        <v>554</v>
+      </c>
       <c r="S44" s="14"/>
-      <c r="T44" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="U44" s="41"/>
+      <c r="T44" s="51" t="s">
+        <v>555</v>
+      </c>
+      <c r="U44" s="38"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
@@ -20855,62 +20835,60 @@
     </row>
     <row r="45" spans="1:28" ht="409.5" customHeight="1">
       <c r="A45" s="9">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="C45" s="14">
-        <v>2</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>548</v>
-      </c>
-      <c r="E45" s="53" t="s">
-        <v>549</v>
-      </c>
-      <c r="F45" s="51">
+        <v>6</v>
+      </c>
+      <c r="D45" s="49" t="s">
+        <v>557</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="F45" s="48">
         <v>2019</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="H45" s="41" t="s">
+        <v>559</v>
+      </c>
+      <c r="H45" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>174</v>
+        <v>561</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>552</v>
-      </c>
-      <c r="L45" s="41">
-        <v>5</v>
+        <v>562</v>
+      </c>
+      <c r="L45" s="38">
+        <v>10</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P45" s="12" t="s">
-        <v>555</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="12" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="S45" s="14"/>
-      <c r="T45" s="54" t="s">
-        <v>557</v>
-      </c>
-      <c r="U45" s="41"/>
+      <c r="T45" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="U45" s="38"/>
       <c r="V45" s="14"/>
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
@@ -20921,60 +20899,60 @@
     </row>
     <row r="46" spans="1:28" ht="409.5" customHeight="1">
       <c r="A46" s="9">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="C46" s="14">
-        <v>6</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>559</v>
-      </c>
-      <c r="E46" s="53" t="s">
-        <v>560</v>
-      </c>
-      <c r="F46" s="51">
-        <v>2019</v>
+        <v>10</v>
+      </c>
+      <c r="D46" s="49" t="s">
+        <v>568</v>
+      </c>
+      <c r="E46" s="52" t="s">
+        <v>569</v>
+      </c>
+      <c r="F46" s="48">
+        <v>2018</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="H46" s="41" t="s">
+        <v>570</v>
+      </c>
+      <c r="H46" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>563</v>
+        <v>174</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="L46" s="41">
-        <v>10</v>
+        <v>571</v>
+      </c>
+      <c r="L46" s="38">
+        <v>9</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P46" s="14"/>
+        <v>445</v>
+      </c>
+      <c r="P46" s="12" t="s">
+        <v>574</v>
+      </c>
       <c r="Q46" s="14"/>
-      <c r="R46" s="12" t="s">
-        <v>567</v>
-      </c>
+      <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="U46" s="41"/>
+        <v>575</v>
+      </c>
+      <c r="U46" s="38"/>
       <c r="V46" s="14"/>
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
@@ -20983,62 +20961,56 @@
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
     </row>
-    <row r="47" spans="1:28" ht="409.5" customHeight="1">
+    <row r="47" spans="1:28" ht="337.25" customHeight="1">
       <c r="A47" s="9">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="C47" s="14">
-        <v>10</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>570</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>571</v>
-      </c>
-      <c r="F47" s="51">
-        <v>2018</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="H47" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>578</v>
+      </c>
+      <c r="F47" s="48">
+        <v>2017</v>
+      </c>
+      <c r="G47" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="H47" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>432</v>
+        <v>580</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>174</v>
+        <v>215</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="L47" s="41">
-        <v>9</v>
+        <v>581</v>
+      </c>
+      <c r="L47" s="38">
+        <v>4</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>575</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>576</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="U47" s="41"/>
+        <v>583</v>
+      </c>
+      <c r="U47" s="38"/>
       <c r="V47" s="14"/>
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
@@ -21047,56 +21019,58 @@
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
     </row>
-    <row r="48" spans="1:28" ht="337.25" customHeight="1">
+    <row r="48" spans="1:28" ht="409.5" customHeight="1">
       <c r="A48" s="9">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>578</v>
+        <v>619</v>
       </c>
       <c r="C48" s="14">
-        <v>0</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>579</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>580</v>
-      </c>
-      <c r="F48" s="51">
-        <v>2017</v>
-      </c>
-      <c r="G48" s="35" t="s">
-        <v>581</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="D48" s="49" t="s">
+        <v>584</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="F48" s="48">
+        <v>2019</v>
+      </c>
+      <c r="G48" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>217</v>
+        <v>588</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>583</v>
-      </c>
-      <c r="L48" s="41">
-        <v>4</v>
+        <v>589</v>
+      </c>
+      <c r="L48" s="38">
+        <v>18</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
+      <c r="O48" s="12" t="s">
+        <v>481</v>
+      </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="U48" s="41"/>
+        <v>591</v>
+      </c>
+      <c r="U48" s="38"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
@@ -21104,66 +21078,6 @@
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
-    </row>
-    <row r="49" spans="1:28" ht="409.5" customHeight="1">
-      <c r="A49" s="9">
-        <v>40</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C49" s="14">
-        <v>3</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>586</v>
-      </c>
-      <c r="E49" s="56" t="s">
-        <v>587</v>
-      </c>
-      <c r="F49" s="51">
-        <v>2019</v>
-      </c>
-      <c r="G49" s="35" t="s">
-        <v>588</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>24</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="J49" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="K49" s="16" t="s">
-        <v>591</v>
-      </c>
-      <c r="L49" s="41">
-        <v>18</v>
-      </c>
-      <c r="M49" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="N49" s="14"/>
-      <c r="O49" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="16" t="s">
-        <v>593</v>
-      </c>
-      <c r="U49" s="41"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21173,15 +21087,15 @@
     <hyperlink ref="N11" r:id="rId4" display="https://github.com/arsadeghi/ACME-Generator"/>
     <hyperlink ref="V11" r:id="rId5" display="AndroidandArchitecture.InAndroidDevelopersBlog.https://android-developers"/>
     <hyperlink ref="V12" r:id="rId6" display="http://blog.hello2morrow.com/2016/08/how-to-organize-your-code"/>
-    <hyperlink ref="U24" r:id="rId7" display="http://www.sonarsource.org/evaluate-your-"/>
-    <hyperlink ref="N26" r:id="rId8" display="sourceforge.net"/>
-    <hyperlink ref="U31" r:id="rId9" display="https://doi.org/10.5381/jot.2013.12.2.a1"/>
-    <hyperlink ref="D33" r:id="rId10" display="Clemente Izurieta "/>
-    <hyperlink ref="U33" r:id="rId11" display="dagstuhl.de/16162"/>
-    <hyperlink ref="D34" r:id="rId12" display="Terese Besker "/>
-    <hyperlink ref="D35" r:id="rId13" display="Areti Ampatzoglou "/>
-    <hyperlink ref="D36" r:id="rId14" display="Antonio Martini "/>
-    <hyperlink ref="M42" r:id="rId15" display="cwe.mitre.org"/>
+    <hyperlink ref="U23" r:id="rId7" display="http://www.sonarsource.org/evaluate-your-"/>
+    <hyperlink ref="N25" r:id="rId8" display="sourceforge.net"/>
+    <hyperlink ref="U30" r:id="rId9" display="https://doi.org/10.5381/jot.2013.12.2.a1"/>
+    <hyperlink ref="D32" r:id="rId10" display="Clemente Izurieta "/>
+    <hyperlink ref="U32" r:id="rId11" display="dagstuhl.de/16162"/>
+    <hyperlink ref="D33" r:id="rId12" display="Terese Besker "/>
+    <hyperlink ref="D34" r:id="rId13" display="Areti Ampatzoglou "/>
+    <hyperlink ref="D35" r:id="rId14" display="Antonio Martini "/>
+    <hyperlink ref="M41" r:id="rId15" display="cwe.mitre.org"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="240" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="668">
   <si>
     <t>Citation</t>
   </si>
@@ -8053,541 +8053,6 @@
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
-      <t>As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>—</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">for more details see Arvanitou et al. [6]: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">	- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">The software is a popular OSS project </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">in </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>sourceforge.net</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">	- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">The software has more than 20 versions </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">(official releases). We have included this criterion for similar reasons to c1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">	- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>The software contains more than 300 classes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">. This criteri- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> -on ensures that we will not include “toy examples” in our  -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">dataset. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>The software is written in java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">. We include this criterion </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">because the employed metric calculation tools analyse Java bytecode. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> - -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Coupling and cohesion at the package level have been quantified using three metrics: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ACa </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">– </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Average Coupling Afferent </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">TCIP </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">– </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Total Coupling Intensity between Packages</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Symbol"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>CaPC - Cohesion among Package Classes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other).  - -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Data Collection and Analysis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">. Each package of our dataset (i.e., row) is characterized by five variables: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>TD Princi- pal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ACa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, TCIP, and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>CaPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">. To answer the aforementioned research questions we perform: (a) Spearman and Pearson Cor- relation between </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ACa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, TCIP and TD, and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">CaPC </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">and TD Prin- cipal, (b) Univariate Regression Analysis with dependent vari- ables: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ACa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, TCIP and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>CaPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">, and (c) hypothesis testing to check the discriminative power of TD to identify classes with low cohesion and high coupling. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">The main tool to perform the analysis was the SonarQube.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
       <t xml:space="preserve">To achieve this goal we have performed a large-scale empirical study on more than 1,000 packages written in Java and ex- plored the aforementioned relationship. </t>
     </r>
     <r>
@@ -8891,138 +8356,6 @@
   <si>
     <r>
       <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Architectural Technical Debt (ATD) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Visualization of ATD and Its Interest </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Electrical Architecture at Volvo Car Group </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">It was defined three levels:  -- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Logical View </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> -- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Design View </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> -- </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="13"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Deployment and Efficiency </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t> -In general, it was defined as a set of car components domain where there is a set of ECU for each specific domain, and for each ECU, there is a set of LC (Logical Component). The author defined a weight scale (0,1,2). 0 is the weight between LCs in the same ECU, 1 is the weight between LCs in deferent ECUs but in the same domain, and weight 2 means that the communication between LCs is between different ECUs deferents Domain.  - -After defined the Architecture of the components, the Architect check the deployment and compare with the original Architecture. The cost of interest is calculate according the formula proposed by the authors.  - -It was created a specific Graphic Dependency Tool to show the “Misplaced LC interest”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="13"/>
         <color indexed="8"/>
         <rFont val="Times Roman"/>
@@ -9429,21 +8762,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t>Design Structural Matrix -- Direct DSM  -- Visubility DSM - -Modularity -- Measure component coupling -- Measure Fan-In/Fan-out - -Maintenance costs - -Measure defect-related activity according the bug occurrence and file related to bug. - -Financial Analysis using code of line as a parameter. According the number of LOC modify. The authors proposed a spent effort of LOC changed in file.</t>
   </si>
   <si>
     <t>Empirical Study of two different systems created in C/C++ with two different architecturee. The first in a Hierarchical Architecture and the Second as a Core-Perifphery Architeture.</t>
@@ -15973,12 +15291,6 @@
     <t>Jeremy Ludwig; Steven Xu; Frederick Webber</t>
   </si>
   <si>
-    <t>Confernce</t>
-  </si>
-  <si>
-    <t>Conferene</t>
-  </si>
-  <si>
     <t>Symposium</t>
   </si>
   <si>
@@ -16004,13 +15316,823 @@
   </si>
   <si>
     <t>Computer architecture,Software engineering,Business,History,Sonar detection,Microprocessors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Architectural Technical Debt (ATD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Visualization of ATD and Its Interest </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Electrical Architecture at Volvo Car Group </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">It was defined three levels:  +- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Logical View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> +- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Design View </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> +- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Deployment and Efficiency </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> +In general, it was defined as a set of car components domain where there is a set of ECU for each specific domain, and for each ECU, there is a set of LC (Logical Component). The author defined a weight scale (0,1,2). 0 is the weight between LCs in the same ECU, 1 is the weight between LCs in deferent ECUs but in the same domain, and weight 2 means that the communication between LCs is between different ECUs deferents Domain.  + +After defined the Architecture of the components, the Architect check the deployment and compare with the original Architecture. The cost of interest is calculate according the formula proposed by the authors.  + +It was created a specific Graphic Dependency Tool to show the “Misplaced LC interest”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>—</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">	- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">The software is a popular OSS project </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">in </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>sourceforge.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">	- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">The software has more than 20 versions </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">(official releases). We have included this criterion for similar reasons to c1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">	- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>The software contains more than 300 classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. This criteri- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> +on ensures that we will not include “toy examples” in our  +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">dataset. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>The software is written in java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. We include this criterion </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">because the employed metric calculation tools analyse Java bytecode. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t> + +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Coupling and cohesion at the package level have been quantified using three metrics: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">ACa </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Average Coupling Afferent </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">TCIP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">– </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Total Coupling Intensity between Packages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> +
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Symbol"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>CaPC - Cohesion among Package Classes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other).  + +</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Data Collection and Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. Each package of our dataset (i.e., row) is characterized by five variables: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>TD Princi- pal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ACa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, TCIP, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>CaPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">. To answer the aforementioned research questions we perform: (a) Spearman and Pearson Cor- relation between </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ACa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, TCIP and TD, and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">CaPC </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">and TD Prin- cipal, (b) Univariate Regression Analysis with dependent vari- ables: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ACa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, TCIP and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>CaPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">, and (c) hypothesis testing to check the discriminative power of TD to identify classes with low cohesion and high coupling. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+The main tool to perform the analysis was the SonarQube.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Package modularity via Sonaqube using TD index from cohesion and coupling.</t>
+  </si>
+  <si>
+    <t>[4] E. M. Arvanitou, A. Ampatzoglou, K. Tzouvalidis, A. Chatzigeorgiou,
+P. Avgeriou, and I. Deligiannis, “Assessing Change Proneness at the Architecture Level: An Empirical Validation”, International Workshop on Emerging Trends in Software Design and Architecture (WETSoDA 2017), IEEE, 2017.
+[5] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou,
+“Introducing a ripple effect measure: a theoretical and empirical validation”, 9th Int. Symposium on Empirical Software Engineering and Measurement (ESEM ‘15), IEEE, 22–23 October 2015, China.
+[6] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou.
+“Software Metrics Fluctuation: A Property for Assisting the Metric
+Selection Process”, Information and Software Technology, 72 (4), 2016.
+[7] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou, “A Method for Assessing Class Change Proneness”, 21st International Conference on Evaluation and Assessment in Software Engineering
+(EASE’ 17), ACM, 15-16 June 2017, Sweden.</t>
+  </si>
+  <si>
+    <t>The study selected popular open projects that is available; the proposed metrics are simple to calculate; the proposed correlation is easy to understand</t>
+  </si>
+  <si>
+    <t>The study shoud be provide a repliaction kit</t>
+  </si>
+  <si>
+    <t>roblem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes, results: yes, final: good</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>Skiada et al. 2018</t>
+  </si>
+  <si>
+    <t>There is no ADTM process, there is no how to calculate ATD cust</t>
+  </si>
+  <si>
+    <t>[3] D.Durisic,M.Nilsson,M.Staron,andJ.Hansson.Measuringtheimpact of changes to the complexity and coupling properties of automotive software systems. 86(5):1275–1293. [7] Z. Li, P. Avgeriou, and P. Liang. A systematic mapping study on technical debt and its management. Journal of Systems and Software, 101(0):193 – 220, 2015.
+[8] A. Martini, J. Bosch, and M. Chaudron. Architecture technical debt: Understanding causes and a qualitative model. In Software Engineering and Advanced Applications (SEAA), 2014 40th EUROMICRO Confer- ence on, pages 85–92, Aug 2014.
+[9] R. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas. In search of a metric for managing architectural technical debt. In 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), pages 91–100.</t>
+  </si>
+  <si>
+    <t>The study was performed in a real case industry application</t>
+  </si>
+  <si>
+    <t>There is no repliaction kit to reproduce the study</t>
+  </si>
+  <si>
+    <t>In this paper, we present a novel approach for visualizing the debt and the interest together. Such visualization helps the stakeholders identifying and prioritizing ATD, by under- standing the impact of different ATD items (specifically non- allowed dependencies) on efficiency. The validation interviews with the stakeholders at VCG confirmed that such tool would be valuable for architects and other stakeholders. It is important for calculate the performance communication between the components in a automotive domain, but can be used in a network distributed system such as a microservice system.</t>
+  </si>
+  <si>
+    <t>In the future we plan to continue our research on what other ATD items can be found and what other impact measures can be combined together for having the complete picture of ATD and its interest, which would greatly help the decision making of the main stakeholders. We also plan to investigate the reasoning behind the architectural violations, whatever they are intentional or not, and whatever or which the architectural violations benefit the final product. Finally, stakeholders that were part of the early evaluation of the tool said that it would be valuable to see the evolution of the debt. They wanted to see if the tendency is that the debt increases or decreases over time, as well as see what impact planned or potential future changes would have.</t>
+  </si>
+  <si>
+    <t>Since there is only one studied system, the resulting method- ology is entirely based on such studied case and could there- fore potentially be limited to similarly designed architectures, e.g. where an intended architecture is realized as logical components deployed to ECUs.</t>
+  </si>
+  <si>
+    <t>[9] Garcia, J., Popescu, D., Edwards, G., Medvidovic, N.: Identifying
+architectural bad smells. In: Proc. CSMR 2009. IEEE, Germany (2009); [12] Letouzey, J.L.: The SQALE method for evaluating technical debt. In:
+Proc. 3rd Int. Work. on Managing Technical Debt (June 2012)</t>
+  </si>
+  <si>
+    <t>In future work, we are interested in verifying how much architectural issues affect the overall quality, with the aim of giving different relevance to architecture and design issues w.r.t. coding ones in a TDI. We plan to investigate the role of code and architectural smells in TD, since they are associated to known solutions, that can speed up their resolution process. We would like also to work on the definition of a new TDI, with a focus on code and architectural debt, and experiment it on a large dataset of projects. In the TDI computation we would like to consider: 1) Code and Architectural smells detection; 2) Code and architecture/design metrics; 3) History of a system, including code changes and lifespan of smells; 4) Identification of problems more critical than others, to weight the collected analysis elements (e.g., metrics, smells, issues) according to their relevance in existing (past) projects.</t>
+  </si>
+  <si>
+    <t>roblem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no, results: yes, final: regular</t>
+  </si>
+  <si>
+    <t>It was collected five tools to check TD index about ATD. It was observed how to calculate de TD index and the unit measure.</t>
+  </si>
+  <si>
+    <t>The study should be created an experimentation using real systems to compare each tool evaluated.</t>
+  </si>
+  <si>
+    <t>There is no data collected to compare the used tools. There is no Design research and there is no an experiment to evaluate the tools using a set of data.</t>
+  </si>
+  <si>
+    <t>The cost was calculated using resolution cost. Only tools Cast and SonarGraph has a ATD index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Letouzey, J.L.: The SQALE method for evaluating technical debt. In:
+Proc. 3rd Int. Work. on Managing Technical Debt (June 2012); [9] Garcia, J., Popescu, D., Edwards, G., Medvidovic, N.: Identifying
+architectural bad smells. In: Proc. CSMR 2009. IEEE, Germany (2009); </t>
+  </si>
+  <si>
+    <t>The dataset was not available to reproduce the study.</t>
+  </si>
+  <si>
+    <t>The authors studied a real case for three years and collect data from two large systems about effort and spend the maintenance. The authors analyzed the SVC repository, the bug tracker related to commits, the files changes, and refactoring propagation cust to maintain the systems.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study did not explain the architectural debt used to refactoring in architectural system maintenance. We examine only two systems, albeit with very different designs and from two different firms. We cannot be sure that the findings would apply to other firms or sys- tems. </t>
+  </si>
+  <si>
+    <t>Our study generates a number of avenues for future work. First, it provides a benchmark for future studies that seek to examine the relationship between measures of architecture and the costs associated with maintenance and adaptation. Second, it provides methods for evaluating the technical debt associated with software architecture, which could be verified via future empirical studies across a larger number of contexts and systems. Finally, while we focus only on the costs associated with corrective maintenance, a significant amount of the value from refactoring is likely to come from an increase in developer productivity when responding to new requirements. It is our hope that the methods we describe can provide a springboard for undertaking such enquiries.</t>
+  </si>
+  <si>
+    <t>Complexity, coupling and cyclical dependencies  using DSM (Dependent Structure Matrix). The time spends on maintenance.</t>
+  </si>
+  <si>
+    <t>Brooks, FrederickP., 1975. The Mythical Man-Month.; Kruchten, P, Nord, R.L., Ozkaya, M., 2012a. Technical Debt: from metaphor to theory to practice. IEEE Softw 29 (6), 18–21.
+Kruchten, P., Gonzalez, M., Ozkaya, I., Nord, R.L., Kruchten, N., 2012b. Change prop- agation as a measure of structural technical debt. WICSA/ECSA.
+Li, Z., Avgeriou, P., Liang, P., 2015. A systematic mapping on technical debt and its management. J. Syst. Softw 101, 193–220. ; Guo, Y., Seaman, C.A, 2011. Portfolio approach to technical debt management. 2nd Workshop on Managing Technical Debt. ACM.; Baldwin, C., MacCormack, A., Rusnak, J., 2014. Hidden structure: using network methods to map system architecture. Res. Policy 43 (8), 1381–1397.; MacCormack, A., Baldwin, C., Rusnak, J., 2012. Exploring the duality between prod- uct and organizational architectures: a test of the ’mirroring’ hypothesis. Res. Policy 41 (8), 1309–1324.;  MacCormack, A., Rusnak, J., Baldwin, C., 2006. Exploring the structure of complex software designs: an empirical study of open source and proprietary code. Man- age. Sci. 52 (7), 1015–1030. ; Sosa, Manuel, Eppinger, Steven, Rowles, Craig, 2007. A network approach to define modularity of components in complex products. Trans.ASME 129, 1118–1129.</t>
+  </si>
+  <si>
+    <t>The cust was based on the time spends on maintanance record in issue tracker. The authors defined a standard cost of U$ 100 per hour to calculate the cust of activity.</t>
+  </si>
+  <si>
+    <t>Design Structural Matrix +- Direct DSM  +- Visubility DSM + + Modularity +- Measure component coupling +- Measure Fan-In/Fan- costs +  +Measure defect-related activity according the bug occurrence and file related to bug. + + Financial Analysis using code of line as a parameter. According the number of LOC modify. The authors proposed a spent effort of LOC changed in file. OLR to do Regression. Refactoring.</t>
+  </si>
+  <si>
+    <t>[6] F. A. Fontana, I. Pigazzini, R. Roveda, and M. Zanoni, “Automatic detection of instability architectural smells,” Proceedings - 2016 IEEE International Conference on Software Maintenance and Evolution, IC- SME 2016, pp. 433–437, 2017.; [9] R. Roveda, F. A. Fontana, I. Pigazzini, and M. Zanoni, “Towards an architectural debt index,” in 2018 44th Euromicro Conference on Software Engineering and Advanced Applications (SEAA), pp. 408–416, IEEE, 2018.</t>
+  </si>
+  <si>
+    <t>The authors studied an evolution process of identifying and tracking architectural smells in corpus qualitas.</t>
+  </si>
+  <si>
+    <t>Architecture Smells: +- Unstable Dependency +- Hub-like Dependency +- Cyclic Dependency + +Criticality +- Reference Packages +- Dependencies +- Cycle Sharing + +PageRank + +It was used the Arcan Tool to detect the three Architecture Smells. + +Criticitality of Architec. The authors studied 14 open source java projects (from Qualitas Corpus). Data mining, evolution smells through the versions, correlation among architectural smells. ASTracker to track architectural smells evoluation. Use Jaccard Similarity index to compare set of files between analysed consecutive versions.</t>
+  </si>
+  <si>
+    <t>As future work, we plan to extend our tooling to mine archi- tectural smells directly from Git repositories, thus allowing us to link the current information to code churn and investigate the effects of smells on change rates.</t>
+  </si>
+  <si>
+    <t>The study evaluates only a few projects in java language from Qualitas Corpus. Maybe it does not apply to the industry or other software languages.</t>
+  </si>
+  <si>
+    <t>The architectural debt index using architectural smells and tracking the index's evolution throughout a system’s history was not precise; for example, the authors should be created a formula to represent the architectural debt index. They were even using a demonstration of evaluation of each architectural smell individually, but a general formula was not created.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="56" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -16311,6 +16433,12 @@
       <color indexed="23"/>
       <name val="Times Roman"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -16455,8 +16583,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -16623,7 +16763,11 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17774,8 +17918,8 @@
   <dimension ref="A1:AB48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17807,7 +17951,7 @@
   <sheetData>
     <row r="1" spans="1:28" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17816,52 +17960,52 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>4</v>
@@ -17870,25 +18014,25 @@
         <v>5</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="355" customHeight="1">
@@ -17902,7 +18046,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -18206,7 +18350,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
@@ -18436,7 +18580,7 @@
         <v>129</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>623</v>
+        <v>44</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>130</v>
@@ -18648,7 +18792,7 @@
         <v>172</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>624</v>
+        <v>44</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>173</v>
@@ -18682,7 +18826,7 @@
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="U12" s="14"/>
       <c r="V12" s="12" t="s">
@@ -18790,7 +18934,7 @@
         <v>200</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>201</v>
@@ -18816,24 +18960,24 @@
       <c r="P14" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="Q14" s="14"/>
+      <c r="Q14" s="14" t="s">
+        <v>479</v>
+      </c>
       <c r="R14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="S14" s="14"/>
+      <c r="S14" s="14" t="s">
+        <v>651</v>
+      </c>
       <c r="T14" s="10" t="s">
         <v>208</v>
       </c>
       <c r="U14" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
+      <c r="V14" s="14" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="15" spans="1:28" ht="409.5" customHeight="1">
       <c r="A15" s="9">
@@ -19083,7 +19227,7 @@
         <v>215</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L18" s="14">
         <v>16</v>
@@ -19146,7 +19290,7 @@
         <v>271</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>272</v>
@@ -19155,7 +19299,7 @@
         <v>273</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="L19" s="14">
         <v>4</v>
@@ -19227,7 +19371,7 @@
         <v>288</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="L20" s="14">
         <v>10</v>
@@ -19341,7 +19485,7 @@
         <v>309</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>310</v>
@@ -19540,7 +19684,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>60</v>
+        <v>637</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
@@ -19576,102 +19720,136 @@
         <v>350</v>
       </c>
       <c r="N25" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="O25" s="12" t="s">
+      <c r="P25" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="R25" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="12" t="s">
+      <c r="S25" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="T25" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="S25" s="14"/>
-      <c r="T25" s="16" t="s">
+      <c r="U25" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="U25" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
+      <c r="V25" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y25" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z25" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA25" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB25" s="14" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="26" spans="1:28" ht="409.5" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C26" s="9">
         <v>17</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="24" t="s">
         <v>357</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>358</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>621</v>
+      </c>
+      <c r="I26" s="26" t="s">
         <v>359</v>
-      </c>
-      <c r="H26" s="25" t="s">
-        <v>626</v>
-      </c>
-      <c r="I26" s="26" t="s">
-        <v>360</v>
       </c>
       <c r="J26" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L26" s="13">
         <v>8</v>
       </c>
       <c r="M26" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="N26" s="12" t="s">
+      <c r="P26" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="O26" s="12" t="s">
+      <c r="Q26" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="P26" s="12" t="s">
+      <c r="R26" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="S26" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="T26" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="U26" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="S26" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
+      <c r="V26" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="Z26" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA26" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="AB26" s="14" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="27" spans="1:28" ht="409.5" customHeight="1">
       <c r="A27" s="9">
@@ -19687,245 +19865,299 @@
         <v>198</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L27" s="13">
         <v>4</v>
       </c>
       <c r="M27" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
+      <c r="V27" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="X27" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y27" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z27" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="28" spans="1:28" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C28" s="14">
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F28" s="29">
         <v>2016</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H28" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I28" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K28" s="27" t="s">
         <v>380</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>382</v>
       </c>
       <c r="L28" s="13">
         <v>13</v>
       </c>
       <c r="M28" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="O28" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q28" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>660</v>
+      </c>
+      <c r="T28" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="U28" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="O28" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
+      <c r="V28" s="14" t="s">
+        <v>659</v>
+      </c>
+      <c r="W28" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="X28" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z28" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="29" spans="1:28" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C29" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H29" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L29" s="13">
         <v>11</v>
       </c>
       <c r="M29" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>664</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q29" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="S29" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="T29" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="U29" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="R29" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="S29" s="14"/>
-      <c r="T29" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="14"/>
-      <c r="Y29" s="14"/>
-      <c r="Z29" s="14"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
+      <c r="V29" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>663</v>
+      </c>
+      <c r="X29" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="30" spans="1:28" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H30" s="13" t="s">
         <v>44</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="J30" s="12" t="s">
         <v>215</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="L30" s="13">
         <v>8</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="12" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="U30" s="12" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
@@ -19940,58 +20172,58 @@
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J31" s="12" t="s">
         <v>131</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L31" s="13">
         <v>31</v>
       </c>
       <c r="M31" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="O31" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="P31" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="10" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="U31" s="12" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
@@ -20006,60 +20238,60 @@
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H32" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J32" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L32" s="13">
         <v>5</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="O32" s="14"/>
       <c r="P32" s="12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="R32" s="12" t="s">
         <v>250</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="T32" s="10" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="V32" s="14"/>
       <c r="W32" s="14"/>
@@ -20074,62 +20306,62 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C33" s="9">
         <v>21</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L33" s="13">
         <v>11</v>
       </c>
       <c r="M33" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="O33" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="P33" s="12" t="s">
         <v>443</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>444</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>446</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="R33" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="T33" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="U33" s="12" t="s">
         <v>447</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>448</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>450</v>
       </c>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
@@ -20144,56 +20376,56 @@
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C34" s="9">
         <v>28</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="J34" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L34" s="13">
         <v>8</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="16" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="V34" s="14"/>
       <c r="W34" s="14"/>
@@ -20208,56 +20440,56 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C35" s="9">
         <v>12</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J35" s="12" t="s">
         <v>288</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L35" s="13">
         <v>8</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="16" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="U35" s="16" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="14"/>
@@ -20272,61 +20504,61 @@
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>44</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="L36" s="38">
         <v>10</v>
       </c>
       <c r="M36" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="N36" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="P36" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="N36" s="12" t="s">
+      <c r="Q36" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="R36" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="T36" s="16" t="s">
         <v>481</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>483</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>484</v>
       </c>
       <c r="U36" s="38"/>
       <c r="V36" s="14"/>
@@ -20342,53 +20574,53 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>24</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K37" s="39" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L37" s="38">
         <v>17</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P37" s="14"/>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="16" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="U37" s="38"/>
       <c r="V37" s="14"/>
@@ -20404,43 +20636,43 @@
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H38" s="54" t="s">
         <v>44</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J38" s="12" t="s">
         <v>131</v>
       </c>
       <c r="K38" s="39" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L38" s="38">
         <v>27</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="O38" s="14"/>
       <c r="P38" s="14"/>
@@ -20448,7 +20680,7 @@
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="16" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="U38" s="38"/>
       <c r="V38" s="14"/>
@@ -20464,43 +20696,43 @@
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C39" s="9">
         <v>9</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K39" s="39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="L39" s="38">
         <v>11</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="O39" s="14"/>
       <c r="P39" s="14"/>
@@ -20508,7 +20740,7 @@
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
       <c r="T39" s="16" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="U39" s="38"/>
       <c r="V39" s="14"/>
@@ -20524,43 +20756,43 @@
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C40" s="14">
         <v>12</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>44</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>131</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L40" s="38">
         <v>5</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O40" s="14"/>
       <c r="P40" s="14"/>
@@ -20568,7 +20800,7 @@
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
       <c r="T40" s="16" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="U40" s="38"/>
       <c r="V40" s="14"/>
@@ -20584,53 +20816,53 @@
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C41" s="14">
         <v>105</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>24</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J41" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L41" s="38">
         <v>9</v>
       </c>
       <c r="M41" s="16" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P41" s="14"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="16" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="U41" s="38"/>
       <c r="V41" s="14"/>
@@ -20646,55 +20878,55 @@
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C42" s="14">
         <v>103</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="J42" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="L42" s="38">
         <v>5</v>
       </c>
       <c r="M42" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P42" s="45"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
       <c r="S42" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="T42" s="16" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U42" s="38"/>
       <c r="V42" s="14"/>
@@ -20710,53 +20942,53 @@
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="F43" s="48">
         <v>2018</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="K43" s="38" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="L43" s="38">
         <v>13</v>
       </c>
       <c r="M43" s="16" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P43" s="14"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="U43" s="38"/>
       <c r="V43" s="14"/>
@@ -20772,57 +21004,57 @@
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C44" s="14">
         <v>2</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F44" s="48">
         <v>2019</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="J44" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="L44" s="38">
         <v>5</v>
       </c>
       <c r="M44" s="16" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="Q44" s="14"/>
       <c r="R44" s="12" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="S44" s="14"/>
       <c r="T44" s="51" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="U44" s="38"/>
       <c r="V44" s="14"/>
@@ -20838,55 +21070,55 @@
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C45" s="14">
         <v>6</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F45" s="48">
         <v>2019</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L45" s="38">
         <v>10</v>
       </c>
       <c r="M45" s="16" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P45" s="14"/>
       <c r="Q45" s="14"/>
       <c r="R45" s="12" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="S45" s="14"/>
       <c r="T45" s="16" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="U45" s="38"/>
       <c r="V45" s="14"/>
@@ -20902,55 +21134,55 @@
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C46" s="14">
         <v>10</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F46" s="48">
         <v>2018</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="J46" s="12" t="s">
         <v>174</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L46" s="38">
         <v>9</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="Q46" s="14"/>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="16" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="U46" s="38"/>
       <c r="V46" s="14"/>
@@ -20966,40 +21198,40 @@
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F47" s="48">
         <v>2017</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>44</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="J47" s="12" t="s">
         <v>215</v>
       </c>
       <c r="K47" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="L47" s="38">
         <v>4</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="N47" s="14"/>
       <c r="O47" s="14"/>
@@ -21008,7 +21240,7 @@
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
       <c r="T47" s="16" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="U47" s="38"/>
       <c r="V47" s="14"/>
@@ -21024,51 +21256,51 @@
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C48" s="14">
         <v>3</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F48" s="48">
         <v>2019</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>24</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K48" s="16" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L48" s="38">
         <v>18</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="N48" s="14"/>
       <c r="O48" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="16" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="U48" s="38"/>
       <c r="V48" s="14"/>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="25140" windowHeight="15020"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="705">
   <si>
     <t>Citation</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>2019 IEEE/ACM International Conference on Technical Debt (TechDebt)</t>
-  </si>
-  <si>
-    <t>System Engineering, Technical Debt</t>
   </si>
   <si>
     <t xml:space="preserve">Architectural technical debt, Software architecture, Architectural technical debt management,  @@ -501,9 +498,6 @@
   </si>
   <si>
     <t>Jornal Information and Software Technology</t>
-  </si>
-  <si>
-    <t>Software Technolog</t>
   </si>
   <si>
     <t xml:space="preserve">Measurement System Software management Refactoring @@ -1881,9 +1875,6 @@
     <t>Software engerineering</t>
   </si>
   <si>
-    <t xml:space="preserve">Software Architecture; Software Maintenance; Technical Debt </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -3140,9 +3131,6 @@
   </si>
   <si>
     <t>Quality of software architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Architectural technical debt; modularity metric; commit; software architecture </t>
   </si>
   <si>
     <r>
@@ -4330,10 +4318,6 @@
     <t>Technical Debt</t>
   </si>
   <si>
-    <t xml:space="preserve">software artchitecture; software metrics; architectural debt; 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is a presentation about Sonargraph is a static analyzer tool with a focus on software architecture and metrics. The motivation to create Sonargraph came from the assumption that architectural debt (aka structural debt) is the most toxic form of technical debt. </t>
   </si>
   <si>
@@ -4798,9 +4782,6 @@
     <t>Applied computing</t>
   </si>
   <si>
-    <t xml:space="preserve">Architectural debt; Tool experimentation; Architecture as- sessment </t>
-  </si>
-  <si>
     <t xml:space="preserve">In this paper, we provide our ex- perience report in using three known tools to capture in- formation that can be useful to identify and evaluate the architectural debt of an application.     To evaluate 3 tools (Sonargraph, SonarQube and Fusion) to check architectural debt.
@@ -5065,9 +5046,6 @@
 </t>
   </si>
   <si>
-    <t>Software Engineering and Advanced Application.</t>
-  </si>
-  <si>
     <t xml:space="preserve">architectural technical debt, agile software development, development speed, software life-cycle, influencing factors, qualitative model, Grounded Theory </t>
   </si>
   <si>
@@ -6088,9 +6066,6 @@
     <t>Proceedings of the 1st International Workshop on Bringing Architectural Design Thinking into Developers' Daily Activities</t>
   </si>
   <si>
-    <t>Architecture Desing Thinking.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -7705,10 +7680,6 @@
     <t xml:space="preserve">2019 IEEE/ACM International Conference on Technical Debt (TechDebt) </t>
   </si>
   <si>
-    <t xml:space="preserve">Software Architecture, Software Quality, Soft- ware Maintenance 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Present a tool called DV8 and theirs features. The objective of DV8 is to measure software modularity, detect architecture anti-patterns as technical debts, quantify the maintenance cost of each instance of an anti-pattern, and enable return on investment analyses of architectural debts. Different from other tools, DV8 integrates data from both source code and revision history. We now elaborate on each of DV8’s capabilities. 
 </t>
   </si>
@@ -7968,9 +7939,6 @@
   </si>
   <si>
     <t xml:space="preserve">2018 44th Euromicro Conference on Software Engineering and Advanced Applications </t>
-  </si>
-  <si>
-    <t xml:space="preserve">coupling; cohesion; modularity; technical debt </t>
   </si>
   <si>
     <r>
@@ -10303,68 +10271,6 @@
     <t>Izurieta et al. 2018</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Clemente Izurieta </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Kali Kimball </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">David Rice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Tessa Valentien</t>
-    </r>
-  </si>
-  <si>
     <t>A position study to investigate technical debt associated with security weaknesses</t>
   </si>
   <si>
@@ -10526,9 +10432,6 @@
     </r>
   </si>
   <si>
-    <t>Security TD</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -10773,51 +10676,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Terese Besker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Antonio Martini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Jan Bosch</t>
-    </r>
-  </si>
-  <si>
     <t>The pricey bill of technical debt: When and by whom will it be paid?</t>
   </si>
   <si>
@@ -11361,143 +11219,19 @@
     <t>Ampatzoglou et al 2016</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
+    <t xml:space="preserve">The Perception of Technical Debt in the Embedded Systems Domain: An Industrial Case Study  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical Debt Management (TDM) has drawn the attention of software industries during the last years, including embedded systems. However, we currently lack an overview of how practitioners from this application domain perceive tech- nical debt. To this end, we conducted a multiple case study in the embedded systems industry, to investigate: (a) the expected life- time of components that have TD, (b) the most frequently occur- ring types of TD in them, and (c) the significance of TD against run-time quality attributes. The case study was performed on seven embedded systems industries (telecommunications, print- ing, smart manufacturing, sensors, etc.) from five countries (Greece, Netherlands, Sweden, Austria, and Finland). The results of the case study suggest that: (a) maintainability is more serious- ly considered when the expected lifetime of components is larger than ten years; (b) the most frequent types of debt are test, archi- tectural, and code debt; and (c) in embedded systems the run- time qualities are prioritized compared to design-time qualities that are usually associated with TD. The obtained results can be useful for both researchers and practitioners: the former can focus their research on the most industrially-relevant aspects of TD, whereas the latter can be informed about the most common types of TD and how to focus their TDM processes. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Areti Ampatzoglou </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Apostolos Ampatzoglou </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Alexander Chatzigeorgiou </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Paris Avgeriou </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Pekka Abrahamsson </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Antonio Martini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">The Perception of Technical Debt in the Embedded Systems Domain: An Industrial Case Study  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Technical Debt Management (TDM) has drawn the attention of software industries during the last years, including embedded systems. However, we currently lack an overview of how practitioners from this application domain perceive tech- nical debt. To this end, we conducted a multiple case study in the embedded systems industry, to investigate: (a) the expected life- time of components that have TD, (b) the most frequently occur- ring types of TD in them, and (c) the significance of TD against run-time quality attributes. The case study was performed on seven embedded systems industries (telecommunications, print- ing, smart manufacturing, sensors, etc.) from five countries (Greece, Netherlands, Sweden, Austria, and Finland). The results of the case study suggest that: (a) maintainability is more serious- ly considered when the expected lifetime of components is larger than ten years; (b) the most frequent types of debt are test, archi- tectural, and code debt; and (c) in embedded systems the run- time qualities are prioritized compared to design-time qualities that are usually associated with TD. The obtained results can be useful for both researchers and practitioners: the former can focus their research on the most industrially-relevant aspects of TD, whereas the latter can be informed about the most common types of TD and how to focus their TDM processes. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">IEEE 8th International Workshop on Managing Technical Debt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">technical debt; embedded systems; industry; case study </t>
     </r>
     <r>
       <rPr>
@@ -11888,51 +11622,6 @@
   </si>
   <si>
     <t>Martini, Besker and Bosch 2016</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Antonio Martini </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">Terese Besker </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="13"/>
-        <color indexed="20"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Jan Bosch</t>
-    </r>
   </si>
   <si>
     <t>The Introduction of Technical Debt Tracking in Large Companies</t>
@@ -13877,26 +13566,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">software metrics; software structural quality; technical debt; static analysis; benchmarking </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="13"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
@@ -14191,9 +13860,6 @@
   </si>
   <si>
     <t>Kumar et al 2018</t>
-  </si>
-  <si>
-    <t>Manoj Kumar, M. and Nandakumar, A.</t>
   </si>
   <si>
     <t xml:space="preserve">Exploring multilateral cloud computing security architectural design debt in terms of technical debt  </t>
@@ -14548,9 +14214,6 @@
   </si>
   <si>
     <t>Sierra et al 2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra, G., Tahmid, A., Shihab, E. and Tsantalis, N.	</t>
   </si>
   <si>
     <t xml:space="preserve">Is Self-Admitted Technical Debt a Good Indicator of Architectural Divergences?  	</t>
@@ -15267,9 +14930,6 @@
     <t>Damian A. Tamburri 2019</t>
   </si>
   <si>
-    <t>Boris Perez; Dario Correal; Hernan Astudillo</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="14"/>
@@ -15286,9 +14946,6 @@
       </rPr>
       <t>, Jan Bosch, Michel Chaudron</t>
     </r>
-  </si>
-  <si>
-    <t>Jeremy Ludwig; Steven Xu; Frederick Webber</t>
   </si>
   <si>
     <t>Symposium</t>
@@ -16127,12 +15784,325 @@
   <si>
     <t>The architectural debt index using architectural smells and tracking the index's evolution throughout a system’s history was not precise; for example, the authors should be created a formula to represent the architectural debt index. They were even using a demonstration of evaluation of each architectural smell individually, but a general formula was not created.</t>
   </si>
+  <si>
+    <t>[5] “ISO/IEC 25010:2011 Systems and Software Engineering – Systems and
+Software Quality Requirements and Evaluation (SQuaRE) – Systm and
+Software Quality Models,” Mar. 2011.; [6] “SQALE Software Quality Assessment based on Lifecycle Expectations,” Feb.
+2017. [Online]. Available: www.sqale.org
+[7] S. Wagner, K. Lochmann, L. Heinemann, M. Klas, A. Trendowicz, R. Plosch,
+A. Seidi, A. Goeb, and J. Streit, “The Quamoco product quality modelling and
+assessment approach.” IEEE, Jun. 2012, pp. 1133–1142.; [2] [Online] Available: cwe.mitre.org Common Weakness Enumeration; [22] Recommendation ITU-T X.1525. Common Weakness Scoring System (CWSS). [Online] Available: www.itu.int/rec/T-REC-X.1525/en;[10] Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162; [21] Santos, J. C. S., Tarrit, K., and Mirakhorli, M. “A Catalog of Security Architecture Weaknesses,” 2017 IEEE International Conference on Software Architecture (ICSA). 2017.; [24] [Online]Available:design.se.rit.edu/catalog/index.html</t>
+  </si>
+  <si>
+    <t>Security TD using a catalog of Security Issues provided by CWE (Common Weakness Enumeration)</t>
+  </si>
+  <si>
+    <t>An approach to identify Security TD based on CWSS (Common Weakness Scoring System) A pilot study.</t>
+  </si>
+  <si>
+    <t>There is a lack of study in Security TD. The approuch based in a security catalog widely used in community.</t>
+  </si>
+  <si>
+    <t>There is no data to proof the approuch. For example: maybe the authors shoud be use a real system to validate the proposal.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: no, hypothesis: no, experimentation: no, results: yes, final: weak</t>
+  </si>
+  <si>
+    <t>Good. Due to the applied approuch to identificy the security TD and there is a formula to calculate the Principal of Security TD</t>
+  </si>
+  <si>
+    <t>The is no validation in a real software system to proof the proposed approuch</t>
+  </si>
+  <si>
+    <t>Boris Perez, Dario Correal, Hernan Astudillo</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Clemente Izurieta , Kali Kimball , David Rice , Tessa Valentien</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Terese Besker, Antonio Martini, Jan Bosch</t>
+    </r>
+  </si>
+  <si>
+    <t>Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini,</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color indexed="20"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>Antonio Martini, Terese Besker, Jan Bosch</t>
+    </r>
+  </si>
+  <si>
+    <t>Jeremy Ludwig,  Steven Xu, Frederick Webber</t>
+  </si>
+  <si>
+    <t>Name of Venue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Software Engineering: Software Engineering in Practice. </t>
+  </si>
+  <si>
+    <t>International Conference on Automated Software Engineering (ASE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Software Engineering Companion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Software Engineering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Mobile Software Engineering and Systems 
+</t>
+  </si>
+  <si>
+    <t>Symposium on Applied Computing</t>
+  </si>
+  <si>
+    <t>Conference on Software Achitecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Conference on Software Architecture
+</t>
+  </si>
+  <si>
+    <t>International Conference on Software Engineering + +</t>
+  </si>
+  <si>
+    <t>International Conference on Software Architecture Companion (ICSA-C)</t>
+  </si>
+  <si>
+    <t>Conference on Software Architecture and European Conference on Software Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Technical Debt (TechDebt) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euromicro Conference on Software Engineering and Advanced Applications </t>
+  </si>
+  <si>
+    <t>International Workshop on Managing Technical Debt (MTD)</t>
+  </si>
+  <si>
+    <t>Journal of Systems and Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Software Maintenance and Evolution (ICSME)
+</t>
+  </si>
+  <si>
+    <t>European Conference on Software Architecture</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">International Conference on Technical Debt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">International Workshop on Managing Technical Debt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>International Conference on Software and System Process</t>
+  </si>
+  <si>
+    <t>International Conference on Software Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Software Maintenance and Evolution (ICSME) </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">International Conference on Systems, Man, and Cybernetics (SMC) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Springer Nature Singapore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SANER</t>
+  </si>
+  <si>
+    <t>International Conference on Software Architecture Workshops (ICSAW)</t>
+  </si>
+  <si>
+    <t>TRANSACTIONS ON COMPUTATIONAL SOCIAL SYSTEMS</t>
+  </si>
+  <si>
+    <t>Software Technology</t>
+  </si>
+  <si>
+    <t>Software Engineering and Advanced Application</t>
+  </si>
+  <si>
+    <t>Architecture Desing Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Architecture, Software Maintenance, Technical Debt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural technical debt, modularity metric, commit, software architecture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">software artchitecture, software metrics, architectural debt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural deb, Tool experimentation, Architecture assessment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Architecture, Software Quality, Software Maintenance 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coupling, cohesion, modularity, technical debt </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">technical debt, embedded systems, industry case study </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">software metrics, software structural quality, technical debt, static analysis, benchmarking </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>M. Manoj Kumar, A. Nandakumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G Sierra, A Tahmid, E Shihab, N Tsantalis.	</t>
+  </si>
+  <si>
+    <t>international ACM Sigsoft conference on Quality of software architectures + +</t>
+  </si>
+  <si>
+    <t>International Workshop on Bringing Architectural Design Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Workshop on Managing Technical Debt (MTD)
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -16323,11 +16293,6 @@
       <u/>
       <sz val="13"/>
       <color indexed="20"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
     <font>
@@ -16583,24 +16548,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -16706,13 +16674,13 @@
     <xf numFmtId="49" fontId="32" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16721,7 +16689,7 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="43" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -16747,27 +16715,31 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="49" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17915,11 +17887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB48"/>
+  <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17931,27 +17903,27 @@
     <col min="5" max="5" width="53" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="102.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="33.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.33203125" style="1" customWidth="1"/>
-    <col min="12" max="13" width="54.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="70" style="1" customWidth="1"/>
-    <col min="15" max="15" width="24.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="48.1640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="44.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="45" style="1" customWidth="1"/>
-    <col min="19" max="19" width="28.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="62.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="59.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="57.1640625" style="1" customWidth="1"/>
-    <col min="23" max="28" width="12.6640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="16.33203125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="16.33203125" style="1"/>
+    <col min="8" max="10" width="33.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="1" customWidth="1"/>
+    <col min="13" max="14" width="54.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="70" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.83203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="48.1640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="44.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="45" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.83203125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="62.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="59.1640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="57.1640625" style="1" customWidth="1"/>
+    <col min="24" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="16.33203125" style="1" customWidth="1"/>
+    <col min="31" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="28" customHeight="1">
+    <row r="1" spans="1:29" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>589</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17960,82 +17932,85 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>592</v>
+        <v>573</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>593</v>
+        <v>574</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>595</v>
+        <v>661</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>608</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>604</v>
+        <v>584</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="355" customHeight="1">
+    <row r="2" spans="1:29" ht="355" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -18046,7 +18021,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>617</v>
+        <v>655</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -18058,1417 +18033,1476 @@
         <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="M2" s="6">
+        <v>5</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6">
-        <v>5</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="T2" s="8"/>
+      <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="8"/>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="8"/>
       <c r="W2" s="8"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
-    <row r="3" spans="1:28" ht="409.5" customHeight="1">
+    <row r="3" spans="1:29" ht="409.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="F3" s="9">
         <v>2017</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="M3" s="11">
+        <v>16</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="O3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="11">
-        <v>16</v>
-      </c>
-      <c r="M3" s="10" t="s">
+      <c r="P3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="Q3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="R3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="12" t="s">
+      <c r="S3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V3" s="13"/>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB3" s="13"/>
+      <c r="AC3" s="13"/>
     </row>
-    <row r="4" spans="1:28" ht="409.5" customHeight="1">
+    <row r="4" spans="1:29" ht="409.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F4" s="9">
         <v>2018</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="J4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="M4" s="11">
+        <v>9</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="O4" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="L4" s="11">
-        <v>9</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="P4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="Q4" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="R4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="S4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="12" t="s">
+      <c r="T4" s="14"/>
+      <c r="U4" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="V4" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="14"/>
-      <c r="T4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="V4" s="14"/>
       <c r="W4" s="14"/>
       <c r="X4" s="14"/>
-      <c r="Y4" s="12" t="s">
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>59</v>
-      </c>
     </row>
-    <row r="5" spans="1:28" ht="409.5" customHeight="1">
+    <row r="5" spans="1:29" ht="409.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>63</v>
       </c>
       <c r="F5" s="9">
         <v>2018</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="M5" s="11">
+        <v>4</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="P5" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="L5" s="11">
-        <v>4</v>
-      </c>
-      <c r="M5" s="10" t="s">
+      <c r="Q5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="R5" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="S5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="P5" s="12" t="s">
+      <c r="T5" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="U5" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="W5" s="14"/>
+      <c r="X5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="Z5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Y5" s="12" t="s">
+      <c r="AC5" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Z5" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="6" spans="1:28" ht="409.5" customHeight="1">
+    <row r="6" spans="1:29" ht="409.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F6" s="9">
         <v>2019</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="11">
+        <v>10</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="10" t="s">
+      <c r="O6" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L6" s="11">
-        <v>10</v>
-      </c>
-      <c r="M6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="R6" s="14"/>
+      <c r="S6" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="12" t="s">
+      <c r="V6" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="W6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="T6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="W6" s="14"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
       <c r="AA6" s="14"/>
       <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
     </row>
-    <row r="7" spans="1:28" ht="409.5" customHeight="1">
+    <row r="7" spans="1:29" ht="409.5" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F7" s="9">
         <v>2019</v>
       </c>
       <c r="G7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I7" s="10" t="s">
+      <c r="M7" s="14">
+        <v>12</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="P7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="L7" s="14">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="s">
+      <c r="Q7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="R7" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="10" t="s">
+      <c r="S7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="P7" s="12" t="s">
+      <c r="T7" s="14"/>
+      <c r="U7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="V7" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="S7" s="14"/>
-      <c r="T7" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="W7" s="14"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
       <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
     </row>
-    <row r="8" spans="1:28" ht="409.5" customHeight="1">
+    <row r="8" spans="1:29" ht="409.5" customHeight="1">
       <c r="A8" s="9">
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="9">
         <v>50</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>702</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="M8" s="14">
+        <v>10</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="18" t="s">
+      <c r="O8" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="P8" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="Q8" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="L8" s="14">
-        <v>10</v>
-      </c>
-      <c r="M8" s="12" t="s">
+      <c r="R8" s="14"/>
+      <c r="S8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="T8" s="14"/>
+      <c r="U8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="O8" s="12" t="s">
+      <c r="V8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S8" s="14"/>
-      <c r="T8" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="V8" s="14"/>
       <c r="W8" s="14"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
     </row>
-    <row r="9" spans="1:28" ht="409.5" customHeight="1">
+    <row r="9" spans="1:29" ht="409.5" customHeight="1">
       <c r="A9" s="9">
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C9" s="9">
         <v>30</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" s="9">
         <v>2016</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M9" s="13">
+        <v>10</v>
+      </c>
+      <c r="N9" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="10" t="s">
+      <c r="O9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="P9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="Q9" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="L9" s="13">
-        <v>10</v>
-      </c>
-      <c r="M9" s="10" t="s">
+      <c r="R9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="T9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="P9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="R9" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="V9" s="14"/>
       <c r="W9" s="14"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
       <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
     </row>
-    <row r="10" spans="1:28" ht="409.5" customHeight="1">
+    <row r="10" spans="1:29" ht="409.5" customHeight="1">
       <c r="A10" s="9">
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="11">
         <v>67</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F10" s="9">
         <v>2016</v>
       </c>
       <c r="G10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="13">
+        <v>11</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="10" t="s">
+      <c r="P10" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K10" s="10" t="s">
+      <c r="Q10" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="13">
-        <v>11</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="R10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="N10" s="10" t="s">
+      <c r="S10" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="O10" s="10" t="s">
+      <c r="U10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="V10" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="T10" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="V10" s="14"/>
       <c r="W10" s="14"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
       <c r="AA10" s="14"/>
       <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
     </row>
-    <row r="11" spans="1:28" ht="359.25" customHeight="1">
+    <row r="11" spans="1:29" ht="359.25" customHeight="1">
       <c r="A11" s="9">
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C11" s="11">
         <v>5</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F11" s="9">
         <v>2018</v>
       </c>
       <c r="G11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="14">
+        <v>2</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="P11" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="Q11" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="L11" s="14">
-        <v>2</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="R11" s="14"/>
+      <c r="S11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T11" s="14"/>
+      <c r="U11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="V11" s="14"/>
+      <c r="W11" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S11" s="14"/>
-      <c r="T11" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="U11" s="14"/>
-      <c r="V11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="W11" s="14"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
       <c r="AA11" s="14"/>
       <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
     </row>
-    <row r="12" spans="1:28" ht="395.25" customHeight="1">
+    <row r="12" spans="1:29" ht="395.25" customHeight="1">
       <c r="A12" s="9">
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="M12" s="13">
+        <v>2</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="O12" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="10" t="s">
+      <c r="P12" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="Q12" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="K12" s="12" t="s">
+      <c r="R12" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="L12" s="13">
-        <v>2</v>
-      </c>
-      <c r="M12" s="10" t="s">
+      <c r="S12" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="V12" s="14"/>
+      <c r="W12" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N12" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="R12" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="U12" s="14"/>
-      <c r="V12" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="14"/>
       <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
     </row>
-    <row r="13" spans="1:28" ht="409.5" customHeight="1">
+    <row r="13" spans="1:29" ht="409.5" customHeight="1">
       <c r="A13" s="9">
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C13" s="9">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F13" s="9">
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="M13" s="14">
+        <v>8</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="K13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="L13" s="14">
-        <v>8</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="U13" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="V13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="Q13" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="S13" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="T13" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="V13" s="14"/>
       <c r="W13" s="14"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
     </row>
-    <row r="14" spans="1:28" ht="409.5" customHeight="1">
+    <row r="14" spans="1:29" ht="409.5" customHeight="1">
       <c r="A14" s="9">
         <v>17</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C14" s="20">
         <v>12</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F14" s="9">
         <v>2016</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="M14" s="13">
+        <v>3</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>620</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="Q14" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="R14" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T14" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="V14" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="L14" s="13">
-        <v>3</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="R14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S14" s="14" t="s">
-        <v>651</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="U14" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="V14" s="14" t="s">
-        <v>645</v>
+      <c r="W14" s="14" t="s">
+        <v>624</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="409.5" customHeight="1">
+    <row r="15" spans="1:29" ht="409.5" customHeight="1">
       <c r="A15" s="9">
         <v>21</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C15" s="22">
         <v>36</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F15" s="9">
         <v>2015</v>
       </c>
       <c r="G15" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="13">
+        <v>10</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="S15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="T15" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="L15" s="13">
-        <v>10</v>
-      </c>
-      <c r="M15" s="10" t="s">
+      <c r="U15" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="V15" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="T15" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="V15" s="14"/>
       <c r="W15" s="14"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
       <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="320.25" customHeight="1">
+    <row r="16" spans="1:29" ht="320.25" customHeight="1">
       <c r="A16" s="9">
         <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C16" s="9">
         <v>75</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F16" s="9">
         <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="M16" s="14">
+        <v>8</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q16" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="H16" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="T16" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="L16" s="14">
-        <v>8</v>
-      </c>
-      <c r="M16" s="12" t="s">
+      <c r="U16" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="V16" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="V16" s="14"/>
       <c r="W16" s="14"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
       <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
     </row>
-    <row r="17" spans="1:28" ht="409.5" customHeight="1">
+    <row r="17" spans="1:29" ht="409.5" customHeight="1">
       <c r="A17" s="9">
         <v>27</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F17" s="9">
         <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="M17" s="14">
+        <v>8</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q17" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="R17" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="H17" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K17" s="10" t="s">
+      <c r="T17" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="L17" s="14">
-        <v>8</v>
-      </c>
-      <c r="M17" s="12" t="s">
+      <c r="U17" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N17" s="12" t="s">
+      <c r="V17" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="S17" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T17" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="U17" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="V17" s="14"/>
       <c r="W17" s="14"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
     </row>
-    <row r="18" spans="1:28" ht="409.5" customHeight="1">
+    <row r="18" spans="1:29" ht="409.5" customHeight="1">
       <c r="A18" s="9">
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>603</v>
+      </c>
+      <c r="M18" s="14">
+        <v>16</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="T18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>624</v>
-      </c>
-      <c r="L18" s="14">
-        <v>16</v>
-      </c>
-      <c r="M18" s="12" t="s">
+      <c r="U18" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="V18" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="O18" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="R18" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="U18" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="V18" s="14"/>
       <c r="W18" s="14"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
     </row>
-    <row r="19" spans="1:28" ht="372.25" customHeight="1">
+    <row r="19" spans="1:29" ht="372.25" customHeight="1">
       <c r="A19" s="9">
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="L19" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="M19" s="14">
+        <v>4</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="S19" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="U19" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="K19" s="14" t="s">
-        <v>626</v>
-      </c>
-      <c r="L19" s="14">
-        <v>4</v>
-      </c>
-      <c r="M19" s="12" t="s">
+      <c r="V19" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="N19" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="U19" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
     </row>
-    <row r="20" spans="1:28" ht="409.5" customHeight="1">
+    <row r="20" spans="1:29" ht="409.5" customHeight="1">
       <c r="A20" s="9">
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C20" s="9">
         <v>108</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="L20" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="M20" s="14">
+        <v>10</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="S20" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="T20" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="U20" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="K20" s="14" t="s">
-        <v>628</v>
-      </c>
-      <c r="L20" s="14">
-        <v>10</v>
-      </c>
-      <c r="M20" s="12" t="s">
+      <c r="V20" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="N20" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="P20" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q20" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="R20" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="S20" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="T20" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="U20" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="V20" s="14"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="14"/>
       <c r="AA20" s="14"/>
       <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
     </row>
-    <row r="21" spans="1:28" ht="333.25" customHeight="1">
+    <row r="21" spans="1:29" ht="333.25" customHeight="1">
       <c r="A21" s="23">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C21" s="9">
         <v>21</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="M21" s="14">
+        <v>8</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="R21" s="14"/>
+      <c r="S21" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="T21" s="14"/>
+      <c r="U21" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="H21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="L21" s="14">
-        <v>8</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="S21" s="14"/>
-      <c r="T21" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="U21" s="14"/>
       <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
@@ -19476,1860 +19510,1961 @@
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
     </row>
-    <row r="22" spans="1:28" ht="409.5" customHeight="1">
+    <row r="22" spans="1:29" ht="409.5" customHeight="1">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>215</v>
+        <v>671</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="L22" s="14">
+        <v>209</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="M22" s="14">
         <v>8</v>
       </c>
-      <c r="M22" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="N22" s="14"/>
+      <c r="N22" s="12" t="s">
+        <v>307</v>
+      </c>
       <c r="O22" s="14"/>
-      <c r="P22" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="S22" s="14"/>
-      <c r="T22" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="U22" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="V22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="R22" s="14"/>
+      <c r="S22" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T22" s="14"/>
+      <c r="U22" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>311</v>
+      </c>
       <c r="W22" s="14"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
       <c r="AA22" s="14"/>
       <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
     </row>
-    <row r="23" spans="1:28" ht="409.5" customHeight="1">
+    <row r="23" spans="1:29" ht="409.5" customHeight="1">
       <c r="A23" s="9">
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C23" s="9">
         <v>137</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="M23" s="14">
+        <v>10</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="U23" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="V23" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="H23" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L23" s="14">
-        <v>10</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="N23" s="14"/>
-      <c r="O23" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="V23" s="14"/>
       <c r="W23" s="14"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="14"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
     </row>
-    <row r="24" spans="1:28" ht="345.25" customHeight="1">
+    <row r="24" spans="1:29" ht="345.25" customHeight="1">
       <c r="A24" s="9">
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="M24" s="14">
+        <v>2</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="R24" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="U24" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="10" t="s">
+      <c r="V24" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="L24" s="14">
-        <v>2</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="N24" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="V24" s="14"/>
       <c r="W24" s="14"/>
       <c r="X24" s="14"/>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
     </row>
-    <row r="25" spans="1:28" ht="409.5" customHeight="1">
+    <row r="25" spans="1:29" ht="409.5" customHeight="1">
       <c r="A25" s="9">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>637</v>
+        <v>616</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>349</v>
-      </c>
-      <c r="L25" s="13">
+        <v>339</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L25" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="M25" s="13">
         <v>4</v>
       </c>
-      <c r="M25" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="N25" s="12" t="s">
-        <v>630</v>
+      <c r="N25" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="P25" s="14" t="s">
-        <v>631</v>
+        <v>609</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="U25" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>632</v>
+        <v>610</v>
+      </c>
+      <c r="R25" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="V25" s="12" t="s">
+        <v>344</v>
       </c>
       <c r="W25" s="14" t="s">
-        <v>633</v>
+        <v>611</v>
       </c>
       <c r="X25" s="14" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="Y25" s="14" t="s">
-        <v>635</v>
+        <v>613</v>
       </c>
       <c r="Z25" s="14" t="s">
-        <v>636</v>
+        <v>614</v>
       </c>
       <c r="AA25" s="14" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="AB25" s="14" t="s">
-        <v>479</v>
+        <v>617</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="409.5" customHeight="1">
+    <row r="26" spans="1:29" ht="409.5" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C26" s="9">
         <v>17</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H26" s="25" t="s">
+        <v>600</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="M26" s="13">
+        <v>8</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="O26" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="P26" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>618</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y26" s="14" t="s">
+        <v>620</v>
+      </c>
+      <c r="Z26" s="14" t="s">
+        <v>614</v>
+      </c>
+      <c r="AA26" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="I26" s="26" t="s">
-        <v>359</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="L26" s="13">
-        <v>8</v>
-      </c>
-      <c r="M26" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="P26" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>639</v>
-      </c>
-      <c r="W26" s="14" t="s">
-        <v>640</v>
-      </c>
-      <c r="X26" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA26" s="14" t="s">
-        <v>644</v>
-      </c>
       <c r="AB26" s="14" t="s">
-        <v>643</v>
+        <v>623</v>
+      </c>
+      <c r="AC26" s="14" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="409.5" customHeight="1">
+    <row r="27" spans="1:29" ht="409.5" customHeight="1">
       <c r="A27" s="9">
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C27" s="9">
         <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="L27" s="13">
+        <v>360</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="M27" s="13">
         <v>4</v>
       </c>
-      <c r="M27" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>373</v>
+      <c r="N27" s="10" t="s">
+        <v>362</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="P27" s="14"/>
+        <v>363</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14" t="s">
-        <v>652</v>
-      </c>
+      <c r="T27" s="14"/>
+      <c r="U27" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="V27" s="14"/>
       <c r="W27" s="14" t="s">
-        <v>648</v>
+        <v>631</v>
       </c>
       <c r="X27" s="14" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="Z27" s="14" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="AA27" s="14" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="AB27" s="14" t="s">
-        <v>646</v>
+        <v>628</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>625</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="358.25" customHeight="1">
+    <row r="28" spans="1:29" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>614</v>
+        <v>595</v>
       </c>
       <c r="C28" s="14">
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>613</v>
+        <v>594</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F28" s="29">
         <v>2016</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I28" s="26" t="s">
-        <v>378</v>
-      </c>
-      <c r="J28" s="12" t="s">
-        <v>379</v>
-      </c>
-      <c r="K28" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="L28" s="13">
+        <v>368</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="K28" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="M28" s="13">
         <v>13</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="N28" s="12" t="s">
-        <v>661</v>
+      <c r="N28" s="10" t="s">
+        <v>371</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="P28" s="14" t="s">
-        <v>658</v>
+        <v>640</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>372</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>479</v>
+        <v>637</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>352</v>
+        <v>463</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>660</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>384</v>
-      </c>
-      <c r="V28" s="14" t="s">
-        <v>659</v>
+        <v>342</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>374</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="X28" s="14" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="Y28" s="14" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="Z28" s="14" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB28" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="AC28" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="AA28" s="14" t="s">
-        <v>656</v>
-      </c>
-      <c r="AB28" s="14" t="s">
-        <v>657</v>
-      </c>
     </row>
-    <row r="29" spans="1:28" ht="333.25" customHeight="1">
+    <row r="29" spans="1:29" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="M29" s="13">
+        <v>11</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="T29" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="V29" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K29" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="L29" s="13">
-        <v>11</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>664</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="P29" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="T29" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>662</v>
-      </c>
       <c r="W29" s="14" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>667</v>
+        <v>642</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="Z29" s="14" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AA29" s="14" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
       <c r="AB29" s="14" t="s">
-        <v>665</v>
+        <v>645</v>
+      </c>
+      <c r="AC29" s="14" t="s">
+        <v>644</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="409.5" customHeight="1">
+    <row r="30" spans="1:29" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C30" s="9">
         <v>3</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="L30" s="13">
+        <v>393</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="M30" s="13">
         <v>8</v>
       </c>
-      <c r="M30" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="N30" s="12" t="s">
-        <v>406</v>
+      <c r="N30" s="10" t="s">
+        <v>395</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="S30" s="14"/>
-      <c r="T30" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="U30" s="12" t="s">
-        <v>410</v>
-      </c>
-      <c r="V30" s="14"/>
+        <v>397</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R30" s="14"/>
+      <c r="S30" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="T30" s="14"/>
+      <c r="U30" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="V30" s="12" t="s">
+        <v>400</v>
+      </c>
       <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
     </row>
-    <row r="31" spans="1:28" ht="409.5" customHeight="1">
+    <row r="31" spans="1:29" ht="409.5" customHeight="1">
       <c r="A31" s="9">
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="E31" s="31" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H31" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I31" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="L31" s="13">
+        <v>405</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="M31" s="13">
         <v>31</v>
       </c>
-      <c r="M31" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="N31" s="12" t="s">
-        <v>418</v>
+      <c r="N31" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q31" s="14"/>
+        <v>409</v>
+      </c>
+      <c r="Q31" s="12" t="s">
+        <v>410</v>
+      </c>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="U31" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="V31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="V31" s="12" t="s">
+        <v>412</v>
+      </c>
       <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
     </row>
-    <row r="32" spans="1:28" ht="409.5" customHeight="1">
+    <row r="32" spans="1:29" ht="409.5" customHeight="1">
       <c r="A32" s="9">
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>424</v>
+        <v>656</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="27" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="H32" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I32" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K32" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="L32" s="13">
+        <v>416</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="M32" s="13">
         <v>5</v>
       </c>
-      <c r="M32" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="N32" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="O32" s="14"/>
-      <c r="P32" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="12" t="s">
-        <v>250</v>
+      <c r="N32" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="O32" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="P32" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>463</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="T32" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="14"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
+        <v>243</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="V32" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="W32" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="X32" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z32" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="AA32" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="AB32" s="14" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC32" s="14" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="33" spans="1:28" ht="409.5" customHeight="1">
+    <row r="33" spans="1:29" ht="409.5" customHeight="1">
       <c r="A33" s="9">
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="C33" s="9">
         <v>21</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>435</v>
+        <v>657</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="H33" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="L33" s="13">
+        <v>425</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>425</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="M33" s="13">
         <v>11</v>
       </c>
-      <c r="M33" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="N33" s="12" t="s">
-        <v>441</v>
+      <c r="N33" s="10" t="s">
+        <v>427</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="12" t="s">
-        <v>444</v>
-      </c>
+        <v>429</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="R33" s="14"/>
       <c r="S33" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="T33" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="V33" s="14"/>
+        <v>431</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="U33" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>434</v>
+      </c>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
     </row>
-    <row r="34" spans="1:28" ht="409.5" customHeight="1">
+    <row r="34" spans="1:29" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C34" s="9">
         <v>28</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>449</v>
+        <v>658</v>
       </c>
       <c r="E34" s="31" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="I34" s="34" t="s">
-        <v>452</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="L34" s="13">
+        <v>438</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>680</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="M34" s="13">
         <v>8</v>
       </c>
-      <c r="M34" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>455</v>
+      <c r="N34" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="P34" s="14"/>
+        <v>440</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>441</v>
+      </c>
       <c r="Q34" s="14"/>
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
-      <c r="T34" s="16" t="s">
-        <v>457</v>
-      </c>
+      <c r="T34" s="14"/>
       <c r="U34" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="V34" s="14"/>
+        <v>442</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>443</v>
+      </c>
       <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
       <c r="AA34" s="14"/>
       <c r="AB34" s="14"/>
+      <c r="AC34" s="14"/>
     </row>
-    <row r="35" spans="1:28" ht="409.5" customHeight="1">
+    <row r="35" spans="1:29" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C35" s="9">
         <v>12</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>460</v>
+        <v>659</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="L35" s="13">
+        <v>447</v>
+      </c>
+      <c r="J35" s="34" t="s">
+        <v>447</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="M35" s="13">
         <v>8</v>
       </c>
-      <c r="M35" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="N35" s="12" t="s">
-        <v>466</v>
+      <c r="N35" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="P35" s="14"/>
+        <v>450</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>451</v>
+      </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
-      <c r="T35" s="16" t="s">
-        <v>468</v>
-      </c>
+      <c r="T35" s="14"/>
       <c r="U35" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="V35" s="14"/>
+        <v>452</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>453</v>
+      </c>
       <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
     </row>
-    <row r="36" spans="1:28" ht="409.5" customHeight="1">
+    <row r="36" spans="1:29" ht="409.5" customHeight="1">
       <c r="A36" s="9">
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>622</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K36" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="L36" s="38">
+        <v>601</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="M36" s="38">
         <v>10</v>
       </c>
-      <c r="M36" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="N36" s="12" t="s">
-        <v>477</v>
+      <c r="N36" s="16" t="s">
+        <v>460</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="T36" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="U36" s="38"/>
-      <c r="V36" s="14"/>
+        <v>463</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="U36" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="V36" s="38"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="14"/>
       <c r="AA36" s="14"/>
       <c r="AB36" s="14"/>
+      <c r="AC36" s="14"/>
     </row>
-    <row r="37" spans="1:28" ht="409.5" customHeight="1">
+    <row r="37" spans="1:29" ht="409.5" customHeight="1">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>485</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="K37" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="L37" s="38">
+        <v>469</v>
+      </c>
+      <c r="J37" s="34" t="s">
+        <v>469</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="L37" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="M37" s="38">
         <v>17</v>
       </c>
-      <c r="M37" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="N37" s="12" t="s">
-        <v>488</v>
+      <c r="N37" s="16" t="s">
+        <v>471</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="P37" s="14"/>
+        <v>472</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>473</v>
+      </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
-      <c r="T37" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="U37" s="38"/>
-      <c r="V37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="V37" s="38"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
+      <c r="AC37" s="14"/>
     </row>
-    <row r="38" spans="1:28" ht="409.5" customHeight="1">
+    <row r="38" spans="1:29" ht="409.5" customHeight="1">
       <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="H38" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>495</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="K38" s="39" t="s">
-        <v>496</v>
-      </c>
-      <c r="L38" s="38">
+        <v>479</v>
+      </c>
+      <c r="J38" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L38" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="M38" s="38">
         <v>27</v>
       </c>
-      <c r="M38" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="N38" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="O38" s="14"/>
+      <c r="N38" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="O38" s="12" t="s">
+        <v>482</v>
+      </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="U38" s="38"/>
-      <c r="V38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="V38" s="38"/>
       <c r="W38" s="14"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
+      <c r="AC38" s="14"/>
     </row>
-    <row r="39" spans="1:28" ht="409.5" customHeight="1">
+    <row r="39" spans="1:29" ht="409.5" customHeight="1">
       <c r="A39" s="9">
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="C39" s="9">
         <v>9</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="H39" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>390</v>
-      </c>
-      <c r="K39" s="39" t="s">
-        <v>505</v>
-      </c>
-      <c r="L39" s="38">
+        <v>488</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="K39" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="L39" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="M39" s="38">
         <v>11</v>
       </c>
-      <c r="M39" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="N39" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="O39" s="14"/>
+      <c r="N39" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O39" s="12" t="s">
+        <v>491</v>
+      </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="T39" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="U39" s="38"/>
-      <c r="V39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="V39" s="38"/>
       <c r="W39" s="14"/>
       <c r="X39" s="14"/>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
     </row>
-    <row r="40" spans="1:28" ht="318.25" customHeight="1">
+    <row r="40" spans="1:29" ht="318.25" customHeight="1">
       <c r="A40" s="9">
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C40" s="14">
         <v>12</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>512</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="K40" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="L40" s="38">
+        <v>496</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="K40" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="M40" s="38">
         <v>5</v>
       </c>
-      <c r="M40" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="N40" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="O40" s="14"/>
+      <c r="N40" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>499</v>
+      </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
       <c r="S40" s="14"/>
-      <c r="T40" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="U40" s="38"/>
-      <c r="V40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="V40" s="38"/>
       <c r="W40" s="14"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="14"/>
       <c r="AA40" s="14"/>
       <c r="AB40" s="14"/>
+      <c r="AC40" s="14"/>
     </row>
-    <row r="41" spans="1:28" ht="404.25" customHeight="1">
+    <row r="41" spans="1:29" ht="404.25" customHeight="1">
       <c r="A41" s="9">
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="C41" s="14">
         <v>105</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="H41" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>520</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K41" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="L41" s="38">
+        <v>504</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="M41" s="38">
         <v>9</v>
       </c>
-      <c r="M41" s="16" t="s">
-        <v>522</v>
-      </c>
-      <c r="N41" s="12" t="s">
-        <v>523</v>
+      <c r="N41" s="16" t="s">
+        <v>506</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="P41" s="14"/>
+        <v>507</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>462</v>
+      </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
-      <c r="T41" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="U41" s="38"/>
-      <c r="V41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="V41" s="38"/>
       <c r="W41" s="14"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
     </row>
-    <row r="42" spans="1:28" ht="398.75" customHeight="1">
+    <row r="42" spans="1:29" ht="398.75" customHeight="1">
       <c r="A42" s="9">
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>612</v>
+        <v>593</v>
       </c>
       <c r="C42" s="14">
         <v>103</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>621</v>
+        <v>600</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K42" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="L42" s="38">
+        <v>511</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="K42" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="M42" s="38">
         <v>5</v>
       </c>
-      <c r="M42" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="N42" s="12" t="s">
-        <v>530</v>
+      <c r="N42" s="16" t="s">
+        <v>512</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="14"/>
+        <v>513</v>
+      </c>
+      <c r="P42" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q42" s="45"/>
       <c r="R42" s="14"/>
-      <c r="S42" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="T42" s="16" t="s">
-        <v>532</v>
-      </c>
-      <c r="U42" s="38"/>
-      <c r="V42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="V42" s="38"/>
       <c r="W42" s="14"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
     </row>
-    <row r="43" spans="1:28" ht="387" customHeight="1">
+    <row r="43" spans="1:29" ht="387" customHeight="1">
       <c r="A43" s="9">
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>534</v>
+        <v>700</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="F43" s="48">
         <v>2018</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="H43" s="38" t="s">
-        <v>623</v>
+        <v>602</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="K43" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="L43" s="38">
+        <v>519</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="K43" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="L43" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="M43" s="38">
         <v>13</v>
       </c>
-      <c r="M43" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="N43" s="12" t="s">
-        <v>540</v>
+      <c r="N43" s="16" t="s">
+        <v>521</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="P43" s="14"/>
+        <v>522</v>
+      </c>
+      <c r="P43" s="12" t="s">
+        <v>462</v>
+      </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
-      <c r="T43" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="U43" s="38"/>
-      <c r="V43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="V43" s="38"/>
       <c r="W43" s="14"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
     </row>
-    <row r="44" spans="1:28" ht="409.5" customHeight="1">
+    <row r="44" spans="1:29" ht="409.5" customHeight="1">
       <c r="A44" s="9">
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="C44" s="14">
         <v>2</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="F44" s="48">
         <v>2019</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="H44" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="L44" s="38">
+        <v>528</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="M44" s="38">
         <v>5</v>
       </c>
-      <c r="M44" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="N44" s="12" t="s">
-        <v>549</v>
+      <c r="N44" s="16" t="s">
+        <v>530</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="S44" s="14"/>
-      <c r="T44" s="51" t="s">
-        <v>552</v>
-      </c>
-      <c r="U44" s="38"/>
-      <c r="V44" s="14"/>
+        <v>462</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="R44" s="14"/>
+      <c r="S44" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="T44" s="14"/>
+      <c r="U44" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="V44" s="38"/>
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
       <c r="Z44" s="14"/>
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
     </row>
-    <row r="45" spans="1:28" ht="409.5" customHeight="1">
+    <row r="45" spans="1:29" ht="409.5" customHeight="1">
       <c r="A45" s="9">
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="C45" s="14">
         <v>6</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>554</v>
+        <v>701</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="F45" s="48">
         <v>2019</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="H45" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>557</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="K45" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="L45" s="38">
+        <v>538</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="M45" s="38">
         <v>10</v>
       </c>
-      <c r="M45" s="16" t="s">
-        <v>560</v>
-      </c>
-      <c r="N45" s="12" t="s">
-        <v>561</v>
+      <c r="N45" s="16" t="s">
+        <v>541</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="P45" s="14"/>
+        <v>542</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>462</v>
+      </c>
       <c r="Q45" s="14"/>
-      <c r="R45" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="S45" s="14"/>
-      <c r="T45" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="U45" s="38"/>
-      <c r="V45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="T45" s="14"/>
+      <c r="U45" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="V45" s="38"/>
       <c r="W45" s="14"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
       <c r="Z45" s="14"/>
       <c r="AA45" s="14"/>
       <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
     </row>
-    <row r="46" spans="1:28" ht="409.5" customHeight="1">
+    <row r="46" spans="1:29" ht="409.5" customHeight="1">
       <c r="A46" s="9">
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>564</v>
+        <v>545</v>
       </c>
       <c r="C46" s="14">
         <v>10</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>565</v>
+        <v>546</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>566</v>
+        <v>547</v>
       </c>
       <c r="F46" s="48">
         <v>2018</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>567</v>
+        <v>548</v>
       </c>
       <c r="H46" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="J46" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="K46" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="L46" s="38">
+        <v>416</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>679</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="M46" s="38">
         <v>9</v>
       </c>
-      <c r="M46" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="N46" s="12" t="s">
-        <v>570</v>
+      <c r="N46" s="16" t="s">
+        <v>550</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>442</v>
+        <v>551</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q46" s="14"/>
+        <v>429</v>
+      </c>
+      <c r="Q46" s="12" t="s">
+        <v>552</v>
+      </c>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
-      <c r="T46" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="U46" s="38"/>
-      <c r="V46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="V46" s="38"/>
       <c r="W46" s="14"/>
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="14"/>
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
+      <c r="AC46" s="14"/>
     </row>
-    <row r="47" spans="1:28" ht="337.25" customHeight="1">
+    <row r="47" spans="1:29" ht="337.25" customHeight="1">
       <c r="A47" s="9">
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>574</v>
+        <v>555</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="F47" s="48">
         <v>2017</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="H47" s="38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K47" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="L47" s="38">
+        <v>558</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>687</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>559</v>
+      </c>
+      <c r="M47" s="38">
         <v>4</v>
       </c>
-      <c r="M47" s="16" t="s">
-        <v>579</v>
-      </c>
-      <c r="N47" s="14"/>
+      <c r="N47" s="16" t="s">
+        <v>560</v>
+      </c>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
       <c r="Q47" s="14"/>
       <c r="R47" s="14"/>
       <c r="S47" s="14"/>
-      <c r="T47" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="U47" s="38"/>
-      <c r="V47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="V47" s="38"/>
       <c r="W47" s="14"/>
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="14"/>
       <c r="AA47" s="14"/>
       <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
     </row>
-    <row r="48" spans="1:28" ht="409.5" customHeight="1">
+    <row r="48" spans="1:29" ht="409.5" customHeight="1">
       <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>616</v>
+        <v>597</v>
       </c>
       <c r="C48" s="14">
         <v>3</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>581</v>
+        <v>562</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="F48" s="48">
         <v>2019</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>583</v>
+        <v>564</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="K48" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="L48" s="38">
+        <v>565</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>688</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>567</v>
+      </c>
+      <c r="M48" s="38">
         <v>18</v>
       </c>
-      <c r="M48" s="16" t="s">
-        <v>587</v>
-      </c>
-      <c r="N48" s="14"/>
-      <c r="O48" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="P48" s="14"/>
+      <c r="N48" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="O48" s="14"/>
+      <c r="P48" s="12" t="s">
+        <v>462</v>
+      </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
-      <c r="T48" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="U48" s="38"/>
-      <c r="V48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="16" t="s">
+        <v>569</v>
+      </c>
+      <c r="V48" s="38"/>
       <c r="W48" s="14"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
+      <c r="AC48" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="A Proposed Model-driven Approach to Manage Architectural Technical Debt Life Cycle "/>
-    <hyperlink ref="U4" r:id="rId2" display="http://dx.doi.org/10.1109/2"/>
-    <hyperlink ref="U8" r:id="rId3" display="http://dx.doi.org/10.1145/1882362.1882373"/>
-    <hyperlink ref="N11" r:id="rId4" display="https://github.com/arsadeghi/ACME-Generator"/>
-    <hyperlink ref="V11" r:id="rId5" display="AndroidandArchitecture.InAndroidDevelopersBlog.https://android-developers"/>
-    <hyperlink ref="V12" r:id="rId6" display="http://blog.hello2morrow.com/2016/08/how-to-organize-your-code"/>
-    <hyperlink ref="U23" r:id="rId7" display="http://www.sonarsource.org/evaluate-your-"/>
-    <hyperlink ref="N25" r:id="rId8" display="sourceforge.net"/>
-    <hyperlink ref="U30" r:id="rId9" display="https://doi.org/10.5381/jot.2013.12.2.a1"/>
+    <hyperlink ref="V4" r:id="rId2" display="http://dx.doi.org/10.1109/2"/>
+    <hyperlink ref="V8" r:id="rId3" display="http://dx.doi.org/10.1145/1882362.1882373"/>
+    <hyperlink ref="O11" r:id="rId4" display="https://github.com/arsadeghi/ACME-Generator"/>
+    <hyperlink ref="W11" r:id="rId5" display="AndroidandArchitecture.InAndroidDevelopersBlog.https://android-developers"/>
+    <hyperlink ref="W12" r:id="rId6" display="http://blog.hello2morrow.com/2016/08/how-to-organize-your-code"/>
+    <hyperlink ref="V23" r:id="rId7" display="http://www.sonarsource.org/evaluate-your-"/>
+    <hyperlink ref="O25" r:id="rId8" display="sourceforge.net"/>
+    <hyperlink ref="V30" r:id="rId9" display="https://doi.org/10.5381/jot.2013.12.2.a1"/>
     <hyperlink ref="D32" r:id="rId10" display="Clemente Izurieta "/>
-    <hyperlink ref="U32" r:id="rId11" display="dagstuhl.de/16162"/>
+    <hyperlink ref="V32" r:id="rId11" display="dagstuhl.de/16162"/>
     <hyperlink ref="D33" r:id="rId12" display="Terese Besker "/>
     <hyperlink ref="D34" r:id="rId13" display="Areti Ampatzoglou "/>
     <hyperlink ref="D35" r:id="rId14" display="Antonio Martini "/>
-    <hyperlink ref="M41" r:id="rId15" display="cwe.mitre.org"/>
+    <hyperlink ref="N41" r:id="rId15" display="cwe.mitre.org"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="25140" windowHeight="15020"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="33460" windowHeight="20020"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="719">
   <si>
     <t>Citation</t>
   </si>
@@ -10884,9 +10884,6 @@
     <t>Survey and interviews with practionners from Skandinavia software industry area.</t>
   </si>
   <si>
-    <t>36% of effort in Software development cycle is effort about TD.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="13"/>
@@ -11232,158 +11229,6 @@
         <rFont val="Times New Roman"/>
       </rPr>
       <t xml:space="preserve">IEEE 8th International Workshop on Managing Technical Debt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">To check how practitioners percept Technical Debt in Embedded Systems about Quality Attributes. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What is the relationship between the expected lifetime of components and technical debt? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What types of technical debt (e.g., code, architectural, etc.) are more frequently occurring in embedded sys- tems? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What is the significance of building maintainable soft- ware systems (with low TD) compared to satisfying other quality attributes?  - -Case study in seven technology companies:  -Telecomunication -Automotive -Mobile -Sensors -Priting -Smart Manufacturing -Media Devices </t>
     </r>
     <r>
       <rPr>
@@ -16096,6 +15941,198 @@
   <si>
     <t xml:space="preserve">International Workshop on Managing Technical Debt (MTD)
 </t>
+  </si>
+  <si>
+    <t>[33] E. Tom, A. Aurum, and R. Vidgen, “An exploration of technical debt,” Journal of Systems and Software, vol. 86, no. 6, 2013, pp. 1498-1516.; [1] A. Ampatzoglou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou, “The financial aspect of managing technical debt: A systematic literature review,” Information and Software Technology, vol. 64, 2015, pp. 52.</t>
+  </si>
+  <si>
+    <t>36% of effort in Software development cycle is effort about whole TD.</t>
+  </si>
+  <si>
+    <t>This is the first study surveying the estimated magnitude of the interest paid on the accumulated TD in terms of perceived wasted time and effort. The study has shown that software development practitioners estimate that 36 % of all development time is wasted due to TD and that Complex Architectural Design and Requirement TD generates the most negative impact on daily software development work.</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. In future studies, we plan to include physical measurements and observations, to create a stronger reliability of the data. The result of this research may be affected by some threats to validity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. </t>
+  </si>
+  <si>
+    <t>Good, due to demonstrate how important is the effort waste with TD (36%) and the study showed that Software Architecture and Requirements are the aspects most important because waste more time to fix TD.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no, results: yes, final: good</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To check how practitioners percept Technical Debt in Embedded Systems about Quality Attributes. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What is the relationship between the expected lifetime of components and technical debt? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What types of technical debt (e.g., code, architectural, etc.) are more frequently occurring in embedded sys- tems? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What is the significance of building maintainable software systems (with low TD) compared to satisfying other quality attributes?  + +Case study in seven technology companies:  +Telecomunication + Automotive + Mobile + Sensors + Priting + Smart Manufacturing + Media Devices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Yes, it was evaluated each version about a lot of types of TD, including ATD. However, the ATD was identified manually via interviews.</t>
+  </si>
+  <si>
+    <t>It was used interviews for each company</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: no, results: yes, final: good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good, due to Architectural Technical Debt's findings as an essential kind of TD that happens in the context of embedded systems.</t>
+  </si>
+  <si>
+    <t>The study did not show how to measure the TD.</t>
+  </si>
+  <si>
+    <t>The study collected real data from a real industry of software embedded using questionaries and interviews about the effort spent on Technical Debt in the embedded system. Thus, the study identified that test TD, code TD, and Architectural TD were highlighted as main kinds of TD, and qualities attributes as functionality, reliability, and performance were the most important in this context.</t>
+  </si>
+  <si>
+    <t>There are no details about how to identify the TD, and there are no explicit future works.</t>
   </si>
 </sst>
 </file>
@@ -16548,8 +16585,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16734,12 +16774,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -17890,8 +17931,8 @@
   <dimension ref="A1:AC48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -17923,7 +17964,7 @@
   <sheetData>
     <row r="1" spans="1:29" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -17932,55 +17973,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
@@ -17989,25 +18030,25 @@
         <v>5</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="Z1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="355" customHeight="1">
@@ -18021,7 +18062,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -18115,7 +18156,7 @@
         <v>24</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>25</v>
@@ -18280,7 +18321,7 @@
         <v>63</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="M5" s="11">
         <v>4</v>
@@ -18337,7 +18378,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C6" s="11">
         <v>4</v>
@@ -18361,7 +18402,7 @@
         <v>82</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>44</v>
@@ -18436,7 +18477,7 @@
         <v>97</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K7" s="12" t="s">
         <v>98</v>
@@ -18511,13 +18552,13 @@
         <v>113</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="K8" s="12" t="s">
         <v>114</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M8" s="14">
         <v>10</v>
@@ -18582,7 +18623,7 @@
         <v>126</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K9" s="12" t="s">
         <v>127</v>
@@ -18657,7 +18698,7 @@
         <v>142</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K10" s="12" t="s">
         <v>127</v>
@@ -18732,7 +18773,7 @@
         <v>156</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K11" s="12" t="s">
         <v>157</v>
@@ -18809,7 +18850,7 @@
         <v>170</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="M12" s="13">
         <v>2</v>
@@ -18834,7 +18875,7 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="V12" s="14"/>
       <c r="W12" s="12" t="s">
@@ -18945,19 +18986,19 @@
         <v>195</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>196</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>197</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="M14" s="13">
         <v>3</v>
@@ -18975,13 +19016,13 @@
         <v>201</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S14" s="12" t="s">
         <v>134</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="U14" s="10" t="s">
         <v>202</v>
@@ -18990,7 +19031,7 @@
         <v>203</v>
       </c>
       <c r="W14" s="14" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="409.5" customHeight="1">
@@ -19022,7 +19063,7 @@
         <v>208</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K15" s="12" t="s">
         <v>209</v>
@@ -19100,7 +19141,7 @@
         <v>236</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L16" s="10" t="s">
         <v>224</v>
@@ -19247,13 +19288,13 @@
         <v>251</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>209</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M18" s="14">
         <v>16</v>
@@ -19316,19 +19357,19 @@
         <v>264</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I19" s="12" t="s">
         <v>265</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M19" s="14">
         <v>4</v>
@@ -19397,13 +19438,13 @@
         <v>279</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K20" s="12" t="s">
         <v>280</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M20" s="14">
         <v>10</v>
@@ -19520,7 +19561,7 @@
         <v>301</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>302</v>
@@ -19541,7 +19582,7 @@
         <v>305</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>209</v>
@@ -19608,7 +19649,7 @@
         <v>316</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>209</v>
@@ -19677,13 +19718,13 @@
         <v>327</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>170</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M24" s="14">
         <v>2</v>
@@ -19728,7 +19769,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
@@ -19752,13 +19793,13 @@
         <v>339</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>127</v>
       </c>
       <c r="L25" s="27" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M25" s="13">
         <v>4</v>
@@ -19767,22 +19808,22 @@
         <v>340</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="P25" s="12" t="s">
         <v>341</v>
       </c>
       <c r="Q25" s="14" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="R25" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S25" s="12" t="s">
         <v>342</v>
       </c>
       <c r="T25" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U25" s="16" t="s">
         <v>343</v>
@@ -19791,25 +19832,25 @@
         <v>344</v>
       </c>
       <c r="W25" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="X25" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y25" s="14" t="s">
         <v>611</v>
       </c>
-      <c r="X25" s="14" t="s">
+      <c r="Z25" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="Y25" s="14" t="s">
+      <c r="AA25" s="14" t="s">
         <v>613</v>
       </c>
-      <c r="Z25" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA25" s="14" t="s">
+      <c r="AB25" s="14" t="s">
         <v>615</v>
       </c>
-      <c r="AB25" s="14" t="s">
-        <v>617</v>
-      </c>
       <c r="AC25" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="409.5" customHeight="1">
@@ -19835,13 +19876,13 @@
         <v>348</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I26" s="26" t="s">
         <v>349</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>170</v>
@@ -19856,7 +19897,7 @@
         <v>351</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="P26" s="12" t="s">
         <v>352</v>
@@ -19880,25 +19921,25 @@
         <v>357</v>
       </c>
       <c r="W26" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="X26" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="X26" s="14" t="s">
+      <c r="Z26" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="AA26" s="14" t="s">
         <v>619</v>
       </c>
-      <c r="Y26" s="14" t="s">
+      <c r="AB26" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="AC26" s="14" t="s">
         <v>620</v>
-      </c>
-      <c r="Z26" s="14" t="s">
-        <v>614</v>
-      </c>
-      <c r="AA26" s="14" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>623</v>
-      </c>
-      <c r="AC26" s="14" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="409.5" customHeight="1">
@@ -19924,13 +19965,13 @@
         <v>359</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>360</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>170</v>
@@ -19959,25 +20000,25 @@
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="14" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="X27" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y27" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="Y27" s="14" t="s">
-        <v>629</v>
-      </c>
       <c r="Z27" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="AA27" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB27" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="AA27" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>628</v>
-      </c>
       <c r="AC27" s="14" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="358.25" customHeight="1">
@@ -19985,13 +20026,13 @@
         <v>43</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C28" s="14">
         <v>35</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>366</v>
@@ -20009,7 +20050,7 @@
         <v>368</v>
       </c>
       <c r="J28" s="26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="K28" s="12" t="s">
         <v>369</v>
@@ -20024,22 +20065,22 @@
         <v>371</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P28" s="12" t="s">
         <v>372</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="R28" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S28" s="14" t="s">
         <v>342</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="U28" s="16" t="s">
         <v>373</v>
@@ -20048,25 +20089,25 @@
         <v>374</v>
       </c>
       <c r="W28" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="X28" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>630</v>
+      </c>
+      <c r="Z28" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA28" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB28" s="14" t="s">
         <v>633</v>
       </c>
-      <c r="Y28" s="14" t="s">
-        <v>632</v>
-      </c>
-      <c r="Z28" s="14" t="s">
+      <c r="AC28" s="14" t="s">
         <v>634</v>
-      </c>
-      <c r="AA28" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB28" s="14" t="s">
-        <v>635</v>
-      </c>
-      <c r="AC28" s="14" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:29" ht="333.25" customHeight="1">
@@ -20098,7 +20139,7 @@
         <v>379</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="K29" s="12" t="s">
         <v>380</v>
@@ -20113,7 +20154,7 @@
         <v>382</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P29" s="12" t="s">
         <v>383</v>
@@ -20128,7 +20169,7 @@
         <v>386</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="U29" s="10" t="s">
         <v>387</v>
@@ -20137,25 +20178,25 @@
         <v>388</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="X29" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y29" s="14" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z29" s="14" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA29" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB29" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="AC29" s="14" t="s">
         <v>642</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>646</v>
-      </c>
-      <c r="Z29" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="AA29" s="14" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB29" s="14" t="s">
-        <v>645</v>
-      </c>
-      <c r="AC29" s="14" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="409.5" customHeight="1">
@@ -20187,7 +20228,7 @@
         <v>393</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>209</v>
@@ -20309,7 +20350,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E32" s="31" t="s">
         <v>414</v>
@@ -20327,7 +20368,7 @@
         <v>416</v>
       </c>
       <c r="J32" s="34" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>170</v>
@@ -20345,13 +20386,13 @@
         <v>419</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>243</v>
@@ -20366,25 +20407,25 @@
         <v>422</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="X32" s="14" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z32" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="Y32" s="14" t="s">
+      <c r="AA32" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="Z32" s="14" t="s">
+      <c r="AB32" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="AA32" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="AB32" s="14" t="s">
-        <v>654</v>
-      </c>
       <c r="AC32" s="14" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="409.5" customHeight="1">
@@ -20392,13 +20433,13 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C33" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>423</v>
@@ -20439,154 +20480,190 @@
       <c r="Q33" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="R33" s="14"/>
+      <c r="R33" s="14" t="s">
+        <v>461</v>
+      </c>
       <c r="S33" s="12" t="s">
         <v>431</v>
       </c>
       <c r="T33" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="U33" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="U33" s="10" t="s">
+      <c r="V33" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="V33" s="12" t="s">
-        <v>434</v>
-      </c>
       <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
+      <c r="X33" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="Y33" s="14" t="s">
+        <v>706</v>
+      </c>
+      <c r="Z33" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="AA33" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB33" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="34" spans="1:29" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="C34" s="9">
+        <v>33</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>656</v>
+      </c>
+      <c r="E34" s="31" t="s">
         <v>435</v>
-      </c>
-      <c r="C34" s="9">
-        <v>28</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>658</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>436</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="36" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" s="33" t="s">
+        <v>598</v>
+      </c>
+      <c r="I34" s="34" t="s">
         <v>437</v>
       </c>
-      <c r="H34" s="33" t="s">
-        <v>600</v>
-      </c>
-      <c r="I34" s="34" t="s">
-        <v>438</v>
-      </c>
       <c r="J34" s="34" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>170</v>
       </c>
       <c r="L34" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M34" s="13">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="O34" s="12" t="s">
+      <c r="Q34" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="R34" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="S34" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="T34" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="U34" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="V34" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="V34" s="16" t="s">
-        <v>443</v>
-      </c>
       <c r="W34" s="14"/>
-      <c r="X34" s="14"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
+      <c r="X34" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="Z34" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="AC34" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="35" spans="1:29" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C35" s="9">
         <v>12</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>42</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J35" s="34" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>280</v>
       </c>
       <c r="L35" s="16" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M35" s="13">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="P35" s="12" t="s">
         <v>449</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
       <c r="U35" s="16" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="V35" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="W35" s="14"/>
+        <v>451</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>703</v>
+      </c>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
@@ -20599,64 +20676,64 @@
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E36" s="37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>42</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L36" s="16" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M36" s="38">
         <v>10</v>
       </c>
       <c r="N36" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="O36" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="P36" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="O36" s="12" t="s">
+      <c r="Q36" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="P36" s="12" t="s">
+      <c r="R36" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="S36" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="U36" s="16" t="s">
         <v>463</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="U36" s="16" t="s">
-        <v>465</v>
       </c>
       <c r="V36" s="38"/>
       <c r="W36" s="14"/>
@@ -20672,56 +20749,56 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H37" s="33" t="s">
         <v>23</v>
       </c>
       <c r="I37" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J37" s="34" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L37" s="39" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M37" s="38">
         <v>17</v>
       </c>
       <c r="N37" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="P37" s="12" t="s">
         <v>471</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>472</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>473</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="V37" s="38"/>
       <c r="W37" s="14"/>
@@ -20737,46 +20814,46 @@
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H38" s="54" t="s">
         <v>42</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="J38" s="55" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>127</v>
       </c>
       <c r="L38" s="39" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M38" s="38">
         <v>27</v>
       </c>
       <c r="N38" s="16" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -20784,7 +20861,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="16" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="V38" s="38"/>
       <c r="W38" s="14"/>
@@ -20800,46 +20877,46 @@
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C39" s="9">
         <v>9</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H39" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I39" s="26" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J39" s="26" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K39" s="12" t="s">
         <v>380</v>
       </c>
       <c r="L39" s="39" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M39" s="38">
         <v>11</v>
       </c>
       <c r="N39" s="16" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="P39" s="14"/>
       <c r="Q39" s="14"/>
@@ -20847,7 +20924,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
       <c r="U39" s="16" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="V39" s="38"/>
       <c r="W39" s="14"/>
@@ -20863,46 +20940,46 @@
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C40" s="14">
         <v>12</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E40" s="28" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="16" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H40" s="25" t="s">
         <v>42</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>127</v>
       </c>
       <c r="L40" s="16" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M40" s="38">
         <v>5</v>
       </c>
       <c r="N40" s="16" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14"/>
@@ -20910,7 +20987,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
       <c r="U40" s="16" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="V40" s="38"/>
       <c r="W40" s="14"/>
@@ -20926,56 +21003,56 @@
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C41" s="14">
         <v>105</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E41" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H41" s="25" t="s">
         <v>23</v>
       </c>
       <c r="I41" s="26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J41" s="26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>170</v>
       </c>
       <c r="L41" s="16" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M41" s="38">
         <v>9</v>
       </c>
       <c r="N41" s="16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
       <c r="U41" s="16" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="V41" s="38"/>
       <c r="W41" s="14"/>
@@ -20991,58 +21068,58 @@
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C42" s="14">
         <v>103</v>
       </c>
       <c r="D42" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="16" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="H42" s="38" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>170</v>
       </c>
       <c r="L42" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M42" s="38">
         <v>5</v>
       </c>
       <c r="N42" s="16" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q42" s="45"/>
       <c r="R42" s="14"/>
       <c r="S42" s="14"/>
       <c r="T42" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="U42" s="16" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="V42" s="38"/>
       <c r="W42" s="14"/>
@@ -21058,56 +21135,56 @@
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="E43" s="47" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F43" s="48">
         <v>2018</v>
       </c>
       <c r="G43" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="H43" s="38" t="s">
+        <v>600</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="H43" s="38" t="s">
-        <v>602</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="J43" s="16" t="s">
-        <v>685</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>520</v>
-      </c>
       <c r="L43" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M43" s="38">
         <v>13</v>
       </c>
       <c r="N43" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="V43" s="38"/>
       <c r="W43" s="14"/>
@@ -21123,28 +21200,28 @@
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C44" s="14">
         <v>2</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F44" s="48">
         <v>2019</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H44" s="38" t="s">
         <v>42</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>169</v>
@@ -21153,30 +21230,30 @@
         <v>170</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M44" s="38">
         <v>5</v>
       </c>
       <c r="N44" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="P44" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q44" s="12" t="s">
         <v>530</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>531</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>532</v>
       </c>
       <c r="R44" s="14"/>
       <c r="S44" s="12" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="T44" s="14"/>
       <c r="U44" s="51" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="V44" s="38"/>
       <c r="W44" s="14"/>
@@ -21192,58 +21269,58 @@
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C45" s="14">
         <v>6</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F45" s="48">
         <v>2019</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H45" s="38" t="s">
         <v>42</v>
       </c>
       <c r="I45" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="K45" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>538</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>686</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="L45" s="16" t="s">
-        <v>540</v>
       </c>
       <c r="M45" s="38">
         <v>10</v>
       </c>
       <c r="N45" s="16" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q45" s="14"/>
       <c r="R45" s="14"/>
       <c r="S45" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="T45" s="14"/>
       <c r="U45" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="V45" s="38"/>
       <c r="W45" s="14"/>
@@ -21259,22 +21336,22 @@
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C46" s="14">
         <v>10</v>
       </c>
       <c r="D46" s="49" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E46" s="52" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F46" s="48">
         <v>2018</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H46" s="38" t="s">
         <v>42</v>
@@ -21283,34 +21360,34 @@
         <v>416</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>170</v>
       </c>
       <c r="L46" s="16" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M46" s="38">
         <v>9</v>
       </c>
       <c r="N46" s="16" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="P46" s="12" t="s">
         <v>429</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="R46" s="14"/>
       <c r="S46" s="14"/>
       <c r="T46" s="14"/>
       <c r="U46" s="16" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="V46" s="38"/>
       <c r="W46" s="14"/>
@@ -21326,43 +21403,43 @@
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C47" s="14">
         <v>0</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E47" s="53" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F47" s="48">
         <v>2017</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H47" s="38" t="s">
         <v>42</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>209</v>
       </c>
       <c r="L47" s="16" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M47" s="38">
         <v>4</v>
       </c>
       <c r="N47" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O47" s="14"/>
       <c r="P47" s="14"/>
@@ -21371,7 +21448,7 @@
       <c r="S47" s="14"/>
       <c r="T47" s="14"/>
       <c r="U47" s="16" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="V47" s="38"/>
       <c r="W47" s="14"/>
@@ -21387,54 +21464,54 @@
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C48" s="14">
         <v>3</v>
       </c>
       <c r="D48" s="49" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="E48" s="53" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F48" s="48">
         <v>2019</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>23</v>
       </c>
       <c r="I48" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="L48" s="16" t="s">
         <v>565</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="L48" s="16" t="s">
-        <v>567</v>
       </c>
       <c r="M48" s="38">
         <v>18</v>
       </c>
       <c r="N48" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="16" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="V48" s="38"/>
       <c r="W48" s="14"/>
@@ -21464,7 +21541,6 @@
     <hyperlink ref="N41" r:id="rId15" display="cwe.mitre.org"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38140" yWindow="-2240" windowWidth="37900" windowHeight="22940"/>
+    <workbookView xWindow="-38220" yWindow="-2200" windowWidth="37920" windowHeight="21680"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
   <si>
     <t>Paper Id</t>
   </si>
@@ -136,9 +136,6 @@
       <t xml:space="preserve">
 </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Architectural Technical Debt (ATD) is a metaphor used to describe consciously decisions taken by software ar- chitects to accomplish short-term goals but possibly negatively affecting the long-term health of the system. However, difficulties arise when repayment strategies are defined because software architects need to be aware of the consequences of these strategies over others decisions in the software architecture. This article proposes REBEL, a semi-automated model-driven approach that exploits natural language processing, machine learning and model checking techniques on heterogeneous project artifacts to build a model that allows to locate and visualize the impact produced by the consciously injected ATD and its repayment strategy on the other architectural decisions. The technique is illustrated with a data analytics project in Colombia where software architects are unaware of the consequences of the repayment strategies. This proposal seeks to support teams of architects to make explicit the current and future impact of the ATD injected as a result of decisions taken, focusing on the architectural level rather than code level. </t>
   </si>
   <si>
     <t>Conference</t>
@@ -229,10 +226,6 @@
   </si>
   <si>
     <t>Software Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Measurement System Software management Refactoring -Estimation Technical Debt Modularization Software Architecture </t>
   </si>
   <si>
     <t>Embedded case study in a large company</t>
@@ -308,32 +301,8 @@
     <t xml:space="preserve">architectural smells, architectural debt index, severity index, technical debt </t>
   </si>
   <si>
-    <t>Approuch: architecture smells detection - -Tool: Arcan
- - -Method: Identify the most critical smells in terms of negative impact on a project. The ATD Index was compared with SonarQube to confirm that code issue is not related to architectural level. - -Tool: Arcan can detect: -- Unstable Dependency (UD): describes a subsystem (com- ponent) that depends on other subsystems that are less stable than itself. This may cause a ripple effect of changes in the system [18]. Detected on packages.
-- Hub-Like Dependency (HL): this smell arises when an abstraction has (outgoing and ingoing) dependencies with a large number of other abstractions [19]. Detected on classes and packages.
-- Cyclic Dependency (CD): refers to a subsystem (compo- nent) that is involved in a chain of relations that break the desirable acyclic nature of a subsystem’s dependency structure. The subsystems involved in a dependency cycle can be hardly released, maintained or reused in isola- tion [18]. Detected on classes and packages and according to different shapes [12].
-- Implicit Cross Package Dependency (ICPD): captures hidden dependencies among files belonging to different packages [20], [21]. For hidden dependencies, we mean co-change relations that we can find only in the history of the project and not in the code. Files changed frequently together with hidden dependencies lead to a lack of modularity. Detected on files. - -Tool: Apache Commons BCEL (The Byte Code Engineering Library). All computations are based on the dependency graph built from reading the project compiled files.
- - -</t>
-  </si>
-  <si>
     <t>It was computed 109 open source projects from Qualitas Corpus We evaluated the ADI also according to these categories and the size of the projects in terms of number of packages.   </t>
-  </si>
-  <si>
-    <t>Arcan  - -Calculate the Architecture Smells via formula proposed by authors.</t>
   </si>
   <si>
     <t>The authors cited good references, tools, and important related works about Technical Debt Index. A particular highlight to SonarQube. 
@@ -349,9 +318,6 @@
     <t xml:space="preserve">The data validation should be performed in a real industrial project. </t>
   </si>
   <si>
-    <t>The authors would also like to detect different categories of AS (architectural smells) that could impact different quality attributes, such as performance and security; in this direction, we could identify and compute different ADI index profiles according to the AS's impact on specific quality attributes.</t>
-  </si>
-  <si>
     <t>Snipes et al. 2018</t>
   </si>
   <si>
@@ -365,9 +331,6 @@
   </si>
   <si>
     <t xml:space="preserve">In large-scale software systems, the majority of defective files are architecturally connected, and the architecture connections usually exhibit design flaws, which are associated with higher change-proneness among files and higher mainte- nance costs. As software evolves with bug fixes, new features, or improvements, unresolved architecture design flaws can con- tribute to maintenance difficulties. The impact on effort due to architecture design flaws has been difficult to quantify and justify. In this paper, we conducted a case study where we identified flawed architecture relations and quantified their effects on maintenance activities. Using data from this project’s source code and revision history, we identified file groups where files are architecturally connected and participated in flawed architecture designs, quantified the maintenance activities in the detected files, and assessed the penalty related to these files </t>
-  </si>
-  <si>
-    <t>Software engerineering</t>
   </si>
   <si>
     <t xml:space="preserve">Software Architecture, Software Maintenance, Technical Debt </t>
@@ -432,9 +395,6 @@
     <t xml:space="preserve">41st International Conference on Software Engineering: Software Engineering in Practice. </t>
   </si>
   <si>
-    <t xml:space="preserve">International Conference on Software Engineering: Software Engineering in Practice. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Architecture debt, Cost-benefit analysis, Longitudinal study, Refactoring </t>
   </si>
   <si>
@@ -443,19 +403,6 @@
 Real-world empirical study of architecture debt over a long period of time with the goal of demonstrating the benefit of improving a product’s software architecture by paying down architecture debt (through refactoring)</t>
   </si>
   <si>
-    <t xml:space="preserve">we captured the project’s DL and PC scores, we calculated the architecture roots, and we calculated the architecture flaws. 
-For the qualitative analysis, which is independent of the architecture debt analysis, we conducted a survey and multiple interviews to collect the opinions and experiences of the Brighsquid team, so that we could better understand the implications and outcomes of the refactoring activity 
-For quantitative analysis, we analyzed two versions of the system—before and after refactoring  - -For each of these snapshots, we used DV8 to analyze the architecture from the three aspects elaborated in the previous section, collecting: 1) DL (Decoupling level)and PC (Propagation cost) scores, 2) the number of instances of architecture flaws and their scopes, and 3) the in- stances of architecture roots and their scopes. 
-For these two periods of history, in addition to counting the total numbers of issues opened and fixed and the numbers of bug issues opened and fixed, we also calculated the changed lines of code (LOC) to fix each bug. We further counted the average numbers of days required for bugs to be fixed in the before and after versions. Our rationale for these measures is that if the architecture refactoring was successful it would become easier for developers to find and fix bugs and to develop new features. In this case the time and LOC spent should be significantly shortened after refactoring. The output of this analysis will allow us to answer RQ2.  - -The refactoring activities were recorded as 106 change requests, which consumed 563.8 person hours of effort. We linked these refactoring issues to the commits that were related to 7 cliques, 23 crossings, and 4 unstable interfaces that we detected from architecture debt analysis before refactoring. We found that about 34% of the commits, 28% of the time, and 37% of lines of code during the refactoring period were related to the removal of architecture debt.  - -The time and lines of code needed to close change requests are significantly lower than the required time and lines of code before refactoring (p-value = 0.001 and 0.002). Considering these measures as proxies for productivity, the analysis of architecture debt correctly motivated the architecture refactoring to increase developer productivity. 
-</t>
-  </si>
-  <si>
     <t>You can see the prior column with these contents.</t>
   </si>
   <si>
@@ -465,9 +412,6 @@
   <si>
     <t xml:space="preserve">Our current study covers a period of two years and reports on the process and major findings from identifying and paying down the architecture debt in the module structure of Bright- Squid’s platform. In this study we have observed substantial quality and productivity improvements made over the period of intervention and analysis. Understanding the architecture flaws and initiating refactoring helped the company to reduce their build time by about 83%, reduced the average time to resolve issues by 72%, and reduce bug-fixing effort from an average of 102 LOC per bug to just 34. How do we know that these improvements all accrued to the architecture debt repayment? Again, we can not claim causality based on a single case study. However, we believe that we can make an argument based on a preponderance of evidence all pointing in the same direction. The number and size of the architecture flaws went down, productivity measures went up, the key stakeholders felt that the refactoring benefited their ability to manage the code base 
 </t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Feng et al. 2019</t>
@@ -496,27 +440,6 @@
   <si>
     <t xml:space="preserve">In this paper, we propose a novel model, Active Hotspot (AH), that can be used to detect and monitor the emergence and evolution of software degradation by tracking how files and their relations are changed within each issue, such as adding a new feature or fixing a bug. In other words, we use issues as first-class entities of evolution, and data sources of our analysis [15]. Concretely, we first track and treat the source files that are modified to address multiple issues as seed files, calculate their architectural and semantic relations through four propagation pattern (which will be described in next paragraph) with other modified files, and form the minimal number of file groups, each of which is an active hotspot (or hotspot).   To study how changes propagate from/to seed files, we manually examined a large number of relations among files modified to address various issues. We have identified 4 recurring and repetitive patterns over many projects: 1) dissemination— changes to one file propagate to multiple dependent files (one- to-many); 2) concentration—changes to multiple files cause another file to change (many-to-one); 3) domino—changes to one file cause ripple effects to a sequence of dependent files; and 4) scattershot—changes that scatter in multiple files without syntactic dependencies. 
-</t>
-  </si>
-  <si>
-    <t>Techniques: - -It is analyzed source code and tracking issues during software evolution using history of source code repository. - -Hotspot (seedfiles, propagation files) - -Propagation patterns (dissemination, concentratin, domino, schater shot) - -Use code repository, issue tracking and analysis through release evolution.  - -Tools:  -Understand -Simian -DV8 -R (statistical) - -Algorithm 1: Generate Hotspots from Seedfiles and a list of Propagation Patterns 
-  </t>
   </si>
   <si>
@@ -547,9 +470,6 @@
 Different from most code, design, or architecture smell detection tools, the number of files within hotpots do not increase with the size of the project, meaning that developers </t>
   </si>
   <si>
-    <t>[20] D. I. Sjøberg, A. Yamashita, B. C. Anda, A. Mockus, and T. Dyba ̊, “Quantifying the effect of code smells on maintenance effort,” IEEE Transactions on Software Engineering, vol. 39, no. 8, pp. 1144–1156, 2013.</t>
-  </si>
-  <si>
     <t>Li et al. 2014</t>
   </si>
   <si>
@@ -614,46 +534,7 @@
     <t>Software Engineering</t>
   </si>
   <si>
-    <t xml:space="preserve">Management, Measurement, Design, Economics. </t>
-  </si>
-  <si>
     <t>Since our goal was the development of a method, or else to design an artifact to be used in practice. To develop a process to identify and quantify ATD itens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was defined a set of cases that defined the types of ATD to be used in the study case. - -It was created a framework called Anacondeb to identify the ATD and identify the principal and the interest of ATD for each release analysed with the steak holders. - -It was defined a set of formulas to calculate the itens studied as following:  -- Calculating technical debt evolution over time 
-- Calculating the growth of Interest 
- -Components of anacondebt:  -- Time spans for ATD evolution analysis 
-- Estimating the growth of the interest 
-— 	Internal propagation factors: growth of the source.  -
-— 	External propagation factors: number of ATD-related increments planned.  -
-— 	External propagation factors: number of external users in the ecosystem  -
-— 	Internal propagation factor: growth of complexity as a multiplier  -
-— 	Impact on development speed  -
-— 	Impact on maintainability (internal quality)  -
-—	Impact on qualities  -
-— 	Impact on learning:  -
-— 	Impact on revenues  -
-- Indicators for ATD refactoring decision (RQ1)  -— Growth of Interest on the Principal 
-— Growth of Impact 
-— Refactoring decisions 
-— </t>
   </si>
   <si>
     <t xml:space="preserve">This research process can be seen as a longitudinal case study, in which a method is created and evaluated. The difference is that, instead of developing the method offline and evaluating it once, we continuously refined the method with multiple and iterative evaluations of the artifact involving several stakeholders in several organizations. </t>
@@ -678,14 +559,6 @@
 The aim of study was to provide a tool for taking decisions on if and when ATD should be refactor (RQ1). We have shown how the method can be used for such purpose, and how it was found useful by the architects. The method provides indicators that would estimate the important factors responsible for the growth of interest (RQ2) and therefore would warn the organization (including non-technical stakeholders) that the refactoring is urgent. As an example of the impact on non-technical stakeholders, a product manager participating in one of the session commented: “I entered in this room with an idea, but I’m leaving with a completely new perspective </t>
   </si>
   <si>
-    <t>[20]  J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.  - -[2]  R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.  -
- -</t>
-  </si>
-  <si>
     <t>Xiao et al. 2016</t>
   </si>
   <si>
@@ -705,16 +578,6 @@
   </si>
   <si>
     <t xml:space="preserve">Software Architecture, Software Quality, Technical Debt </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Although the concept of TD has been influential, it has until now largely been a metaphor. The dierences with real (financial) debt are crucial. A real debt always starts from a principal, and grows with a certain interest rate. How to quantify the principal and interest rate in software investments has been a challenge. Our goal is to advance the understanding and management of architectural debt, a type of technical debt, by quantifying it.  -We define the concept of architectural debt (ArchDebt) as a tuple consisting of: 1) a group of architecturally connected files, and 2) a model of the maintenance cost growth for such files. Based on this definition, we contribute an approach to automatically locate architecture debts. Once we locate each debt we model its growth using regression models. Our approach to identify ArchDebt has two parts. We first create a novel history coupling probability (HCP) matrix to manifest the probability of changing one file when another file is changed. Then we index file groups through the lens of 4 patterns of prototypical architectural flaws that have been shown to correlate with reduced software quality [21], namely hub, anchor-submissive, anchor-dominant, and modularity violation. 
-Given an ArchDebt, we quantify the maintenance costs (approximated by bug-fixing churn) spent on the files involved in the debt. From the costs incurred in each release, we can model the growth trend using linear, logarithmic, exponential or polynomial regression models. These models represent coherent scenarios of stable, reducing, increasing, and fluctuating maintenance interest rates respectively. Finally, we rank the identified architectural debts according to the maintenance costs they have accumulated. 
-We have evaluated our approach using seven Apache open source projects, and identified many instances (between 74 and 204) of ArchDebts in each project. The results show that a significant portion (from 51% to 85%) of the main- tenance e↵ort in each project is consumed by paying inter- est on these debts, and that non-trivial portions (20% to 61% ) of the maintenance e↵ort is consumed by just five ArchDebts, which represent a small portion of all error- prone files. Our evaluation also revealed that about half of the identified debts fit linear regression models, indicating a steady increase in the penalty that these debts incur. About 1/3, 1/10, and less than 1/10 of all debts fit polynomial, logarithmic, and exponential models respectively, indicating the interest rate trends of these debts can vary drastically. Finally, we qualitatively analyzed the design problems be- hind debts, and how these evolve over time.  - -To evaluate the effectiveness of our approach, we investi- gate the following research question: -RQ: Whether the file groups identified in ArchDebts generate and grow significant amount of maintenance costs? That is, are they true and significant debts? If the identified file groups only consume a small portion of overall maintenance efort, then they do not deserve much attention. Similarly, if the identified file groups cover a large portion of the system itself, it is not surprising if they also consume the majority of maintenance efort. In both cases, we cannot claim that they are debts worthy of attention. 
-</t>
   </si>
   <si>
     <t xml:space="preserve">We chose 7 Apache open source projects as our evalua- tion subjects. These projects di↵er in scale, application do- main, length of history, and many other project character- istics. They are: Camel—a integration framework based on Enterprise Integration Patterns; Cassandra—a distributed DBMS; CXF—a Web services framework; Hadoop—a frame- work for reliable, scalable, distributed computing; HBase— the Hadoop distributed, scalable, big data store; PDFBox— a library for working with PDF documents; and Wicket—a component-based web application framework. 
@@ -732,41 +595,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[19] Z. Li, P. Avgeriou, and P. Liang. A systematic mapping study on technical debt and its management. J. Syst. Softw., 101(C):193–220, Mar. 2015.
-architectural smells [22]
-[22] R. Mo, J. Garcia, Y. Cai, and N. Medvidovic. Mapping architectural decay instances to dependency models, 2013.
-architectural anti-patterns [13][24]
-[13] I. Griffith and C Izurieta. Design pattern decay: The case for class grime. 2014
-[24] L. Peters. Technical debt: The ultimate antipattern - the biggest costs may be hidden, widespread, and long term, 2014.
-complex architectural behavioral dependencies [5]
-[5] J. Brondum and L. Zhu. Visualising architectural dependencies. In Proceedings of the Third International Workshop on Managing Technical Debt, MTD ’12, pages 7–14, Piscataway, NJ, USA, 2012. IEEE Press.
-violations of good architectural practices [8]
-[8] B. Curtis, J. Sappidi, and A. Szynkarski. Estimating the principal of an application’s technical debt. IEEE Software, 29(6):34–42, 2012.
-architectural compliance issues [16]
-[16] R. Kazman and S. J. Carriere. Playing detective: Reconstructing software architecture from available evidence. Automated Software Engineering, 6(2):107–138, Apr. 1999.
-Alves et al. [1] organized 13 types of TD and their key in- dicators, including Architectural TD
-[1] N. S. Alves, L. F. Ribeiro, V. Caires, T. S. Mendes, and R. O. Spinola. Towards an ontology of terms on technical debt. In Managing Technical Debt (MTD), 2014 Sixth International Workshop on, pages 1–7. IEEE, 2014.
-Everton et al. [9] proposed an approach to identify dif- ferent types of “self-admitted” TD in software projects, by reviewing the comments left by developers.
-[9] E. da S. Maldonado and E. Shihab. Detecting and quantifying di↵erent types of self-admitted technical debt. SIGSOFT Softw. Eng. Notes, Apr. 2015.
-Martini et al. [20] conceptualized two patterns of Architectural TD: contagious debt and vicious circle.
-[20] A. Martini and J. Bosch. The danger of architectural technical debt: Contagious debt and vicious circles. In Software Architecture (WICSA), 2015 12th Working IEEE/IFIP Conference on, pages 1–10, May 2015.
-Zimmermann et al. [28]
-[28] T. Zimmermann, P. Weißgerber, S. Diehl, and
-A. Zeller. Mining version histories to guide software changes. In Proc. 26th International Conference on Software Engineering, pages 563–572, May 2004.
-Kagdi et al. [14]
-[14] H. Kagdi, M. Gethers, D. Poshyvanyk, and M. L. Collard. Blending conceptual and evolutionary couplings to support change impact analysis in source code. In Proc. 17th Working Conference on Reverse Engineering, pages 119–128, Oct. 2010.
-Gethers et al. [11]
-[11] M. Gethers, B. Dit, H. Kagdi, and D. Poshyvanyk. Integrated impact analysis for managing software changes. In Proceedings of the 34th International Conference on Software Engineering, ICSE ’12, pages 430–440, Piscataway, NJ, USA, 2012. IEEE Press.
-Beck et al. [4]
-[4] F. Beck and S. Diehl. Evaluating the impact of software evolution on software clustering. In Proc. 17th Working Conference on Reverse Engineering, pages 99–108, Oct. 2010.
-Girba et al. [12]
-[12] T. Gˆırba, S. Ducasse, A. Kuhn, R. Marinescu, and
-R. Daniel. Using concept analysis to detect co-change patterns. In Ninth International Workshop on Principles of Software Evolution: In Conjunction with the 6th ESEC/FSE Joint Meeting, IWPSE ’07, pages 83–89, New York, NY, USA, 2007. ACM.
-Zazworka et al. [27]
-[27] N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull. Comparing four approaches for technical debt identification. Software Quality Journal, pages 1–24, 2013.
-</t>
-  </si>
-  <si>
     <t>Verdecchia 2018</t>
   </si>
   <si>
@@ -1076,9 +904,6 @@
   </si>
   <si>
     <t>Journal of Software: Evolution and Process</t>
-  </si>
-  <si>
-    <t>Software Evolutokn</t>
   </si>
   <si>
     <t>It was created a taxonomy about Class of ATD.  @@ -1466,9 +1291,6 @@
     <t xml:space="preserve">In recent years, research and industry's attention has been focused on maintaining a system that would both decrease time to market in the short term and assure a sustainable feature output and smooth maintenance operations in the long run. A related phenomenon has been identified in Architectural Technical Debt: if the system architecture is sub-optimal for long-term business goals, it needs to be refactored. A key property of the system assuring long-term goals consists on modularity, or else the ability to decouple different components: such property allows the product to be evolved without costly changes pervading the whole system. However, understanding the business benefits of refactoring to achieve modularity is not trivial, especially for large refactorings involving substantial architectural changes. We have conducted a case study in a large company, analyzing a case of refactoring a component to achieve modularity. We report a comparative study of a refactored against a non-refactored component. We found that the modularization would be repaid in several months of development and maintenance. We present a method to calculate the effort saved by the modularization and an equation for calculating and quantifying the development and maintenance benefits of refactoring. </t>
   </si>
   <si>
-    <t xml:space="preserve">Software Management, Refactoring, Estimation, Technical Debt, Modularization, Software Architecture. </t>
-  </si>
-  <si>
     <t xml:space="preserve">We have conducted a case study in a large company, analyzing a case of refactoring a component to achieve modularity. We report a comparative study of a refactored against a non-refactored component. We found that the modularization would be repaid in several months of development and maintenance. We present a method to calculate the effort saved by the modularization and an equation for calculating and quantifying the development and maintenance benefits of refactoring.     RQ – How can we estimate, in a quantitative way, the benefits of modularizing a component?  @@ -1581,9 +1403,6 @@
   </si>
   <si>
     <t>International Workshop on Bringing Architectural Design Thinking</t>
-  </si>
-  <si>
-    <t>Architecture Desing Thinking</t>
   </si>
   <si>
     <t>Software architecture health monitor</t>
@@ -1756,10 +1575,6 @@
     <t>International Conference on Software Architecture Companion (ICSA-C)</t>
   </si>
   <si>
-    <t xml:space="preserve">Measurement,Social networking (online),Computer architecture,Software architecture,Software systems,Software design
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was defined a SNA (Socia Network Analysis) metric to identify the architectural smells.  </t>
   </si>
   <si>
@@ -1955,15 +1770,6 @@
     <t>International Workshop on Managing Technical Debt (MTD)</t>
   </si>
   <si>
-    <t>Software,
-Visualization,
-Computer architecture,
-Stakeholders,
-Context,
-Automotive engineering,
-Complex systems</t>
-  </si>
-  <si>
     <t xml:space="preserve">Misplaced LC interest based on scale of weight proposed by the authors. </t>
   </si>
   <si>
@@ -2077,9 +1883,6 @@
   </si>
   <si>
     <t>System Architecture</t>
-  </si>
-  <si>
-    <t>Technical Debt, Software Architeture, Software</t>
   </si>
   <si>
     <t>Design Structural Matrix @@ -2411,9 +2214,6 @@
   </si>
   <si>
     <t>The Introduction of Technical Debt Tracking in Large Companies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large software compani e s ne e d to support continuous and fast delivery of customer value both in the short and long term. However, this can be hindered if both evolution and maintenance of existing systems are hampered by Technical Debt. Although a lot of theoretical work on Technical Debt has been recently produced, its practical management lacks empirical studies. In this paper we investigate the state of practice in several companies in order to understand how they start tracking Technical Debt. We combined different methodologies: we conducted a survey, involving 226 respondents from 15 organizations and a more in-depth multiple case-study in three organizations, where Technical Debt was tracked: we involved 13 interviews and 79 Technical Debt issues analysis. We found that the development time dedicated to manage Technical Debt is substantial (around 25% of the overall development) but not systematic: only a few participants methodically track Technical Debt. By studying the approaches in the companies participating in the case-study, we understood how companies start tracking Technical Debt and what are the initial benefits and challenges. Finally, we propose a S trategic Adoption Model based to define and adopt a dedicated process for tracking Technical Debt. </t>
   </si>
   <si>
     <t>Asia Pacific Software Engineering Conference</t>
@@ -2492,9 +2292,6 @@
     <t>Aaramaa et al 2017</t>
   </si>
   <si>
-    <t>Sanja Aaramaa, Sandun Dasanayake Sandun Dasanayake, Markku Oivo  Markku Oivo, Jouni  Markkula  Jouni Markkula, Samuli  Saukkonen</t>
-  </si>
-  <si>
     <t>Requirements volatility in software architecture design: An exploratory case study</t>
   </si>
   <si>
@@ -2519,16 +2316,7 @@
 RQ3: What are means to address the identified challenges in SW development? </t>
   </si>
   <si>
-    <t xml:space="preserve">Case study -Interviews -Capture Software Process Requerimento and Software architecture
-</t>
-  </si>
-  <si>
     <t>Case study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No, even using ilght-weight documentation it can contribute to requirements volatility and increase the risk of creating architectural technical debt. </t>
   </si>
   <si>
     <t xml:space="preserve">This industrial case study was conducted to explore the challenges that requirements volatility poses to SW architecture design. Fifteen SW experts involved in SW architecture design in various business units were interviewed using a semi-structured interview as a guide. 
@@ -2548,10 +2336,6 @@
 Journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Architectural Technical Debt Software management Software architecture -Agile software development Software life-cycle Qualitative model </t>
-  </si>
-  <si>
     <t>A multiple-case study.  Interviews in 5 different companies.  </t>
@@ -2591,28 +2375,6 @@
 </t>
   </si>
   <si>
-    <t>Interview about maturity of control of evolvability - -Interviews told about SonarQube integrated into the CI/CD pipeline - -Ciclomatic complexity was most used by interviews as Code Smell. - -Most important challenges in Evolvability of microservices: -- Service cutting -- No system centric view -- Mastering Technologies -- Technological Heterogeneric -- missing docs -- architectural complexity -- integrated legacy code -- distributed coordniation team -- inadaquete testing -- microservices intgration -- Breaking Apis Changes -- Distributed Code Repositories -</t>
-  </si>
-  <si>
     <t xml:space="preserve">We conducted 17 interviews with software professionals from 10 companies and talked with them about the evolva- bility assurance for 14 different Microservice-based systems. We found that systems developed for an external customer in a project-like manner generally relied more on central governance for the assurance. Continuous product develop- ment of internal systems exhibited more decentralization and team autonomy for the assurance process. Guidelines like architectural principles or rules for service communication were seen as important to provide a consistent basis for evolvability and to frame an otherwise diverse technology usage. While participants saw automation and tool support as important for evolvability assurance, they still relied a lot on manual activities like code review or boy scouting. Tool and metric usage was very focused on source code quality. No architectural tools and metrics were applied, even though most reported challenges and issues like service cutting were related to software architecture. This may indicate the im- portance of Architectural Technical Debt (ATD) management for Microservices. Likewise, no tools or metrics specifically designed for service orientation were used, even though most participants stated the significance of their underlying design principles. Participants generally perceived their fairly new Microservices as decently evolvable, even though things like distributed code repositories and difficult macroarchitectural assessment would make the assurance process more complex. Future work that covers the areas of maintenance, evolution, and technical debt in the context of Microservices should take these findings and industry sentiments into account. In partic- ular, academia can support industry with methods, metrics, or tools that aid macroarchitectural assessment of Microservices or provide a more system-centric view. We perceived tool support for service cutting activities and metrics to evaluate service granularity, coupling, or cohesion as concrete gaps that could save industry a lot of refactoring efforts. Finally, issues in the area of human evolvability factors with Microservices like the handling of hyped technologies as well as coordinating and exchanging knowledge between decentralized teams were described as important by participants. 
 </t>
   </si>
@@ -2626,10 +2388,6 @@
     <t xml:space="preserve">This paper identifies a small, essential set of static software code metrics linked to the software product quality characteristics of reliability and maintainability and to the most commonly identified sources of technical debt. A plug-in is created for the Understand code visualization and static analysis tool that calculates and aggregates the metrics. The plug-in produces a high-level interactive html report as well as developer-level information needed to address quality issues using Understand. A script makes use of Git, Understand, and the plug-in to compile results for a list of GitHub repositories into a single file. The primary contribution of this work is to describe an open-source plug-in to measure and visualize architectural complexity based on the propagation cost and core size metrics, which are not currently found in other tools. The plug-in should be useful to researchers and practitioners interested in these two metrics and as an expedient starting point to experimentation with metric collection and aggregation for groups of GitHub repositories. The plug-in was developed as a first step in an ongoing project aimed at applying case-based reasoning to the issue of software product quality. </t>
   </si>
   <si>
-    <t xml:space="preserve">softwareproductquality,technicaldebt,reliability, maintainability, architecture, metrics, static code analysis 
-</t>
-  </si>
-  <si>
     <t>Curtis et al 2012</t>
   </si>
   <si>
@@ -2640,9 +2398,6 @@
   </si>
   <si>
     <t>IEEE Newspaper</t>
-  </si>
-  <si>
-    <t>Analysis of systems using language parse, detect violations and quality attributes like performance, robustness, security, changeabliity</t>
   </si>
   <si>
     <t xml:space="preserve">business applications is formidable. For instance, even when applying the con- servative parameters in estimate 1, the average application is estimated to have $361,000 of TD-principal for each 100 KLOC. When the more realistic parameters of estimate 3 are applied, executives will likely dismiss the esti- mated size of TD-principal as exces- sive. However, when large estimates result from accurate parameters for an organization’s hours to fix and cost per hour, then the percent of violations to be fixed can be varied to determine how many violations can be remediated within existing budgets and which vio- lations to prioritize. We urge caution in interpreting the 
@@ -2672,9 +2427,6 @@
   </si>
   <si>
     <t>Cloud Computing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multilateral cloud security architecture Design smells Technical debt Design debt Cloud computing security Design refactoring </t>
   </si>
   <si>
     <t>Refactoring for Cloud Computing Security</t>
@@ -2717,29 +2469,13 @@
     <t>SANER 2019</t>
   </si>
   <si>
-    <t>SANER</t>
-  </si>
-  <si>
-    <t>Engenharia de Software</t>
-  </si>
-  <si>
     <t xml:space="preserve">Self-Admitted Technical Debt, Software Re-Engineering, Software Architecture, Architecture Recovery 
 </t>
   </si>
   <si>
-    <t>Recover architecture of components using dependences - -SATD identification - -Architecture Violoation</t>
-  </si>
-  <si>
     <t>Bogner et al 2018</t>
   </si>
   <si>
-    <t>Justus Bogner,Jonas  Fritzsch  Jonas Fritzsch, Stefan Wagner  Stefan Wagner ,Alfred  Zimmermann</t>
-  </si>
-  <si>
     <t>Limiting technical debt with maintainability assurance: an industry survey on used techniques and differences with service- and microservice-based systems</t>
   </si>
   <si>
@@ -2749,21 +2485,6 @@
   <si>
     <t xml:space="preserve">Maintainability, software quality control, survey, industry, service-based systems, micro service-based systems 
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ervice-Based Systems (SBSs) promised to bring a number of structural benefits to software maintainability, which has been sup- ported by several studies (e.g. [16, 18]). In recent years, an agile, light-weight, and DevOps-focused service-oriented variant called Microservice-Based Systems (μSBSs) gained popularity and is now trying to renew this promise for a second time. While service orien- tation can bring several benefits, the different levels of abstraction make it also important to revise and adapt design, development, and quality control mechanisms, as for example reported by Voelz and Goeb [23]. Especially in the context of microservices, technological heterogeneity and decentralization of control can have negative impacts on the maintainability of a composed application, if not treated appropriately. 
-We therefore created a survey for software professionals to gain insights into their notion of maintainability assurance, more specif- ically a) their used processes, tools, and metrics, b) potentially different treatment of SBSs and μSBSs w.r.t. maintainability control, and c) influences on their satisfaction w.r.t. their maintainability- related actions. Note that while we are aware of existing differences between Service-Oriented Architecture (SOA) and Microservices [5], we focused on their similarities in this paper and explicitly chose the term “Service-Based Systems”, which is not as connected to enterprise-wide governance, standardization, and centralization as SOA. In the following sections, we present related work done in this area, the scope and design of our survey, the concrete results, as well as a more in-depth discussion and threats to validity. We conclude with a summary and outlook on follow-up research. 
-</t>
-  </si>
-  <si>
-    <t>Survey with 60 participants that develop micro-services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Because there is little scientific research on the industry state of practice w.r.t. maintainability control in general and for SBSs and μSBSs specifically, we created a survey to find out about a) applied processes, tools, and metrics, b) satisfaction with this quality at- tribute, and c) potentially different treatment of systems based on service orientation. When analyzing the answers of 60 software professionals, we discovered that a combined 60% of our sample do not address maintainability at all or only implicitly at a very basic level. A combined 40% reported explicit handling, but only 10 participants reported using a systematic process. Furthermore, 40% of participants were not satisfied with the state of maintain- ability of their software. 35% were somewhat satisfied and only 25% reported to be pleased with the maintainability of their system. Lastly, ∼67% reported to not treat SBSs and μSBSs with special maintainability controls. ∼26% applied somewhat different controls and only ∼7% mentioned significantly different treatment. Since the sample population is limited in size however, further research in this area is necessary to confirm similar distribution in other parts of the population, probably also exclusively with companies that specialize in the development of SBSs and μSBSs. 
-Regardless of the sample size though, some interesting points with potential impact for future research can be highlighted. First, there was extremely little reported usage of methods, tools, and met- rics that focused specifically on evolvability. While issues related to architecture-level evolvability were very present amongst the reported symptoms (e.g. architectural erosion or complexity or more time needed to add new functionality), very few participants reported actually addressing them. To avoid technical debt in a long-living software system, industry needs to improve their qual- ity control: they need to go beyond source code level metrics and also include an architecture-centric view on software evolution, potentially with scenario-based methods. 
-A second take-away from this work is the suggested useful- ness of using a systematic process for maintainability control. While very few reported using such an approach, the vast major- ity of these 10 participants believed that this increased software quality and even wanted to invest more time for maintainability. People that used tools were also more likely to invest more time. To strengthen this, there was an overall correlation between the level of sophistication w.r.t. maintainability control and the reported sat- isfaction with this quality attribute: participants that used explicit and systematic approaches were more likely to be satisfied with the state of maintainability of their software. Moreover, no direct link between a hindrance in productivity and the level of sophistication of applied actions could be found. 
-Lastly, the neglect of service-oriented particularities for quality control – especially on the metrics side – combined with the reported trust in the base level maintainability of service ori- entation could pose a threat for the quality of a long-living SBS. Aspects like service granularity, service cohesion, or service cou- pling can easily become problematic when not tended to and can significantly hinder the maintenance and evolution of such a system. Luckily, there was a correlation between treating service-oriented systems differently and the level of sophistication of applied ac- tions (on top of using tool support). So there is hope that with a 
-rise in the general proficiency of maintainability control, under- standing for a different treatment of SBSs and μSBSs will grow as well. When looking specifically at the differences with treating Mi- croservices however, there is an even wider gap. Of the participants that reported different treatment, no one mentioned how poten- tial maintainability-related problems with increased technological heterogeneity, decentralization of control, or appropriate service granularity could be addressed. While these topics do not neces- sarily have to negatively impact maintainability, they still hold the potential to do so, if not executed with some care. Since this is a rather young topic, qualitative interviews with experts in the field of Microservices would most likely be a more effective approach. </t>
   </si>
   <si>
     <t>Andrzej Zalewski 2017</t>
@@ -3563,117 +3284,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">In this paper we propose and define a new index, more oriented to the evaluation of architectural violations. We describe in detail the index, called Architectural Debt Index, that we integrated in a tool developed for architectural smell detection. The index is based on the detection of architectural smells, their criticality and their history. 
-The aim of our index is to evaluate the internal quality of a project in terms of: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">the detected architectural smells, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">2) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">their history, 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">3) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">their severity (the most critical ones) and 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">4) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">architecture design metrics. The index value of a project with a large number of smells and also critical smells (high severity) will be higher with respect to a project with less smells and low severity. 
-Hence in this work, we aim to answer the following research questions:
-RQ1 How should a new index be formulated to more exhaustively evaluate architectural debt?
-RQ2 How can we estimate the severity of an architectural smell?
-RQ3 Is the new index based on architectural smell detection independent from another existing index based on code level issues?
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It was defined a formula to calculate ATD index and Architectural Smell Impact Score.
-n: number of AS instances in a project P;
-AS : k-instance of an architectural smell; k
-W : the total number of dependencies involved in at least one AS for all the AS in the project;
-AS I S (ASk ): the Architectural Smell Impact Score (de- fined below in IV-A);
-w(ASk): the Architectural Smell Weight, i.e., the number of dependencies associated to the ASk;
-• History(ASk): the score associated to the trend evolu- tion of the ASk (defined below in IV-B).
-PageRank: The P ageRank(ASk ) estimates whether the AS is located in an important part of the project, where the importance is defined by the value of the PageRank algorithm executed on the dependency graph of the project (to evaluate if many parts (subsystems) depend on the part where the AS is involved) 
-	the vertex v is a node of the dependency graph associated to a project; 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">PR(v) is the value of PageRank of the vertex v; 
-N is the total number of AS in the project; 
-Pk is a vertex with at least a link directed to v; 
-n is the number of the pk vertexes; 
-C (pk ) is the number of links of vertex pk ; 
-d (damping factor) is a custom factor fixed at 0.85, a default value defined by Brin and Page [23]. It can be changed according to the PageRank value needed for every vertex and its minimum associated level of 
-P ageRank. 
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Via evaluation history of version analysis.
 Hence, the factor of the ADI index related to the history of a project, History(ASk), is defined as the weight assigned to the trend of each type of smell. 
 Decreate trend: when the number of classes, files or packages involved in an AS is decreasing. 
@@ -4365,23 +3975,6 @@
 RQ1: Do quantitative measures of architecture complexity change significantly before/after refactoring? 
 RQ2: Do quantitative project measures of quality change significantly before/after refactoring? 
 RQ3: Do qualitative perceptions of architectural quality change before/after and does this match the quantitative changes? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In our architecture analysis, we attempted to detect, measure, and assess the consequences of architecture debt in two ways: 1) by calculating architecture-based maintainability metrics on the before- and after-refactoring versions of Bright- Squid’s software, and 2) by identifying the architecture flaws and architecture roots in their software. 
-Maintainability metrics suite 
-- Decoupling Level (DL), introduced by Mo et al. [16] . Mo et al.’s algorithm first clusters source files into a design rule hierarchy (DRH) 
-- Propagation Cost (PC), proposed by MacCormack et al. [13]  to measure how tightly coupled a system is. The calcu- lation of PC is based on a matrix model of the dependencies among files. 
-architecture flaws 
-- Clique: A group of files that are interconnected, forming a strongly connected component.
-- Package cycle: typically the package structure of a software system should form a hierarchical structure. 
-- Improper inheritance 
-- Modularity violation: Modules designed properly with information hiding in mind should be able to change independently from each other. 
-- Crossing: if a file has many dependents and depends on many other files, that is, having high fan-in and high fan-out, then this file will appear to be at the center of a cross in its DSM (Design Structure Matrix)
-- Unstable interface: if a highly influential file is changed frequently with other files that directly or indirectly depend on it, then we call it an Unstable Interface. 
-Architecture Roots 
-Xiao et al. [22] proposed a new software architecture model, design rule space (DRSpace), which contain a set of related files. These DRSpaces can model various aspects of a software system, such as a feature, a pattern, etc. 
-Tool: we employed DV83—a commercial version of the Titan architecture analysis tool suite [22] to analyze the architecture of each system version to assess architecture debt 
-</t>
   </si>
   <si>
     <r>
@@ -4649,29 +4242,6 @@
       <t xml:space="preserve"> that derives a set of formulas.
 The authors created a specific approach framework (Crawl, Index, Model and Rank) to identify ArchDebt.
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It was calculated the cost of interest for identifying ArchDebt.
-The maintenance costs spent on this debt fit a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>linear regression model</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: DebtModel(rt) where the unit is x line of code to fix errors. </t>
     </r>
   </si>
   <si>
@@ -6264,174 +5834,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">The cost to pay ATDI is estimated in hours according a formula proposed by authros. It is the sum of effort the existing component with new effort to support the existing component.
-The Total Cost </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">T </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">of release n is a function of the implementation and rework costs, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Ci </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Cr </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>T F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Ci</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Cr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">)
-In this paper, we assume that it is simply the sum. 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. Foundations on technical debt 
-	[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. 
-	[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. 
-	[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. 
-	[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. 
-	[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. 
-	[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. 
-B. Metrics to guide refactoring and re-architecting process 
-	[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. 
-	[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. 
-	[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. 
-	[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM 
-C. Tool support 
-	[27]  O. Gaudin, “Evaluate your technical debt with Sonar,” Sonar, Jun. 
-2009. Available: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>http://www.sonarsource.org/evaluate-your-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> technical-debt-with-sonar (Accessed: Apr. 2012). 
-[28]  S. Penchikala, “Architecture analysis tool SonarJ 6.0 supports structural debt index and quality model,” InfoQ, Aug. 2010. Available: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>http://www.infoq.com/news/2010/08/sonarj-6.0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve"> (Accessed: Mar. 2012). 
-[29]  C. Hinsman, N. Sangal, and J. Stafford, “Achieving agility through architecture visibility,” Proc. 5th Int. Conf. Quality of Software Architectures: Architectures for Adaptive Software Systems (QoSA ’09), ACM Press, Jun. 2009, pp. 116–129, doi: 10.1007/978-3-642- 02351-4_8. 
-[30]  J. Bohnet and J. Dollner, “Monitoring code quality and development activity by software maps,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 9–16, doi: 10.1145/1985362.1985365. 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="10"/>
         <color indexed="8"/>
@@ -7923,17 +7325,6 @@
         <rFont val="Times Roman"/>
       </rPr>
       <t xml:space="preserve">2018 ACM/IEEE International Conference on Technical Debt 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">International Conference on Technical Debt 
 </t>
     </r>
   </si>
@@ -8151,17 +7542,6 @@
         <rFont val="Times Roman"/>
       </rPr>
       <t xml:space="preserve">IEEE 8th International Workshop on Managing Technical Debt 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">International Workshop on Managing Technical Debt 
 </t>
     </r>
   </si>
@@ -9010,9 +8390,6 @@
 </t>
   </si>
   <si>
-    <t>For the technical debt metaphor to be useful, its constructs must be measurable or at least estimable from measurable elements of software. For- tunately, we can estimate the viola- tions underlying TD-principal via tech- niques such as static analysis of the software’s nonfunctional, structural characteristics.3 Violations of struc- tural quality are often difficult to de- tect through standard testing but are frequent causes of severe operational problems.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Analyse a set of application from Cast database system tWe analyzed these applications us- ing CAST’s Application Intelligence Platform (AIP),7 which analyzes an en- tire application using more than 1,200 rules to detect violations of good ar- chitectural and coding practice. We drew these rules from software engi- neering literature, repositories such as the Common Weakness Enumeration (CWE; </t>
     </r>
@@ -9352,11 +8729,474 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">International Conference on Technical Debt 
-</t>
-  </si>
-  <si>
-    <t>Maintainability 
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">To flesh out the above-mentioned objective, three main RQs were formulated. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">RQ1: Are there any community smells emerging in the process of software architecting? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">RQ2: Provided that architectural community smells do exist, can the extent of the impact for reported community smells be measured? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">RQ3: Can social debt be addressed and mitigated? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+The results, in this paper, stem from a longitudinal, real-life industrial case study and were confirmed using industrial focus groups. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">More specifically, to confirm the validity of the architec- tural social debt community smells and their measurement framework reported in this paper, the connected notions were stressed in two industry–academy mixed focus groups as part of a Dagstuhl Seminar on Technical Debt.1 The focus groups counted a total of nine senior members from several top industrial players, including Google, CAST Software, HP Inc., and VNomic. As part of the results of the focus groups, the validity of the architectural social debt community smells reported in this paper along with the DAHLIA framework to manage them was confirmed. Furthermore, the involved prac- titioners allowed a deeper exploration of previously unknown dimensions over the social debt phenomenon. For example, the definition and ramifications of social debt as a metaphor were refined with an even deeper relation to technical debt—a form of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>sociotechnical debt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, wherefore the social causes always lead to nasty technical phenomena as well (e.g., code churn, unwanted changes, replicated code, and more). This latter form of sociotechnical debt reflects additional project cost which is caused by suboptimal sociotechnical decisions but manifests as negative and invisible characteristics in source code or connected software artifacts (e.g., requirements, software architecture, documentation, and so on) rather than delays or communication friction across the organizational structure. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">This paper reports on patterns in the process of architecting and ways in which the connected debt can be measured and managed. The patterns in question were observed in an industrial case study and found that they result in what is called social debt, i.e., a picture of the current state of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">things burdened by suboptimal sociotechnical decisions. In the case of the patterns reported in this paper, a considerable part of architectural decisions or the very process of archi- tecting in a certain way had a negative and (previously) invisible sociotechnical connotation. This paper also reports on a practice observed in the case study to mitigate some of the nasty consequences connected to emerging social debt. Finally, the manuscript outlined DAHLIA, a sample metric for architectures to make (some) social debt explicit by measuring architectural (in)communicability, i.e., the likelihood that the developers’ network is (un)aware of architecture decisions. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">This paper contributions and discussions lead to the con- clusion that social debt and software architectures are tightly knit together and with technical debt as well and deserve further attention in the future. Further studies are planned to elaborate on the findings, expanding the understanding of the relations between social debt, its technical counterpart, and software architectures possibly with an immersive study in industry. Also, further studies are planned to understand the differences between social debt in closed-source industries (as reported in this paper) and open source, to possibly find successful architecting patterns elicited from open source, if any. In addition, several points highlighted in this paper remain open, for example: 1) what is the full mapping between software engineering economics concepts and the notion of social debt? 2) what is the role of interest repayment strategies as well as economic formulations around debt contraction and repayment as mapped to social debt? 3) what is the relation between effort-estimation techniques, the consequent organizational structure decisions, and the emergence of social debt? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="22"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Finally, further studies are being planned to elaborate further on the proposed metric for software architecture communi- cability, demonstrating its representation condition [12] and applying it in industrial practice in the operational form, with the goal of providing more solid and quantitative validation for it. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Good, due to the study show an approuch to identify the ATD, Monitoring and Calculate the effort to fix it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also, the method can be supported by a tool: possible future work is related to the development of support to input the estimation data to be combined with the modularity tool in order to make the estimation more cost efficient. </t>
+  </si>
+  <si>
+    <t>It was necessary to do many interviews with developers to get the estimation effort about ATD fix. So, the process to calculate the effort of ATD fix majority manual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors proposed a manual method to calculate the effort to fix the ATD. </t>
+  </si>
+  <si>
+    <t>The authors done a case study in a large IT company using a large software product in long term with real data. The authors proposed a method to identify ATD focus on files that should be refactored and the methods helps to calculate the estimation effort to fix this ATD. A formula quantifying the refactoring benefits.</t>
+  </si>
+  <si>
+    <t>P. Kruchten, R. L. Nord, and I. Ozkaya, “Technical Debt: From Metaphor to Theory and Practice,” IEEE Softw., vol. 29, no. 6, pp. 18–21, 2012.
+R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.
+A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study,” Inf. Softw. Technol.
+R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka, “A Case Study in Locating the Architectural Roots of Technical Debt,” in Proceedings of the 37th International Conference on Software Engineering - Volume 2, Piscataway, NJ, USA, 2015, pp. 179–188.
+V . Antinyan, M. Staron, W . Meding, P . Osterstrom, E. Wikstrom, J. Wranker, A. Henriksson, and J. Hansson, “Identifying risky areas of software code in Agile/Lean software development: An industrial experience report,” in 2014 Software Evolution Week - IEEE Conference on Software Maintenance, Reengineering and Reverse Engineering (CSMR-WCRE), 2014, pp. 154–163.</t>
+  </si>
+  <si>
+    <t>The next step, already in the authors’ plan, consists of conducting a version of this investigation involving a large sample of respondents from a large set of companies, in order to further strengthen the current case study-specific findings with a broad, quantitative investigation. Another important next step is to analyze the customer-related information used during the prioritization activity in order to understand how they are compared to the ATD effects in order to prioritize ATD refactoring against feature development.</t>
+  </si>
+  <si>
+    <t>Good, due to the authors showed a list of important aspects regarding to ATD causes such as Double effort, Big delivers, Code changes, complement tests, quality issues, hidden TD, Wrong estimation, Contagius ATD, Developer idling</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no results: yes, final: regular</t>
+  </si>
+  <si>
+    <t>There is no identification of ATD itens</t>
+  </si>
+  <si>
+    <t>The authors showed a list of important aspects regarding to ATD causes such as Double effort, Big delivers, Code changes, complement tests, quality issues, hidden TD, Wrong estimation, Contagius ATD, Developer idling</t>
+  </si>
+  <si>
+    <t>C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, and A. Vetro, “Using technical debt data in decision making: Potential decision approaches,” in 2012 Third International Workshop on Managing Technical Debt (MTD), 2012, pp. 45–48.
+“The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles,” in accepted for publication at WICSA 2015, Montreal, Canada.
+ ISO - International Organization for Standardization, “System and software quality models.” [Online]. Available: http://www.iso.org/iso/catalogue_detail.htm?csnumber=5 2075. [Accessed: 08-Mar-2015].</t>
+  </si>
+  <si>
+    <t>The most important limitation is the limited sample size of the respondents. However, we aimed at reporting the understanding from a case study, which included both qualitative and quantitative data, rather than surveying a large number of practitioners. Furthermore, as previously explained, we offer a novel understanding of an important and overlooked research subject. The authors aim at collecting such evidence, using an investigation tool improved with the help of the exploratory results obtained from the study presented here.</t>
+  </si>
+  <si>
+    <t>"The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles" in , Montreal, Canada.
+K. Schmid, "A formal approach to technical debt decision making", Proceedings of the 9th international ACM Sigsoft conference on Quality of software architectures, pp. 153-162, 2013.
+C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, et al., "Using technical debt data in decision making: Potential decision approaches", 2012 Third International Workshop on Managing Technical Debt (AfTD), pp. 45-48, 2012.
+N. Zazworka, C. Seaman and F. Shull, "Prioritizing design debt investment opportunities", Proceedings of the 2nd Workshop on Managing Technical Debt, pp. 39-42, 2011.
+T. Mens and T. Tourwe, "A survey of software refactoring", IEEE Trans. Softw. Eng., vol. 30, no. 2, pp. 126-139, 2004.
+M. Daneva, E. Van der Veen, C. Amrit, S. Ghaisas, K. Sikkel, R. Kumar, et al., "Agile requirements prioritization in large-scale outsourced system projects: An empirical study", J. Syst. Softw., vol. 86, no. 5, pp. 1333-1353, May 2013.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this paper we propose and define a new index, more oriented to the evaluation of architectural violations. We describe in detail the index, called Architectural Debt Index, that we integrated in a tool developed for architectural smell detection. The index is based on the detection of architectural smells, their criticality and their history. 
+The aim of our index is to evaluate the internal quality of a project in terms of: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">the detected architectural smells, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">their history, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">their severity (the most critical ones) and 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">architecture design metrics. The index value of a project with a large number of smells and also critical smells (high severity) will be higher with respect to a project with less smells and low severity. 
+Hence in this work, we aim to answer the following research questions:
+RQ1 How should a new index be formulated to more exhaustively evaluate architectural debt?
+RQ2 How can we estimate the severity of an architectural smell?
+RQ3 Is the new index based on architectural smell detection independent from another existing index based on code level issues?
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors would also like to detect different categories of AS (architectural smells) that could impact different quality attributes, such as performance and security; in this direction, we could identify and compute different ADI index profiles according to the AS's impact on specific quality attributes.
+Moreover, the authors aim to extend the index or define a new one to
+consider also the cost to remove the architectural smells ( cost- solving). This could allow developers/maintainers to make a business case (costs vs benefits) and help them to set the order in which they want to remove the AS. Towards the definition of this index oriented to the evaluation of the cost-solving, we are also interested to work on the development of some kind of automatic/semiautomatic refactoring support by studying the different refactoring opportunities of each AS. </t>
+  </si>
+  <si>
+    <t>Approuch: architecture smells detection + +Tool: Arcan
+ + +Method: Identify the most critical smells in terms of negative impact on a project. The ATD Index was compared with SonarQube to confirm that code issue is not related to architectural level. + +Tool: Arcan can detect: +- Unstable Dependency (UD): describes a subsystem (com- ponent) that depends on other subsystems that are less stable than itself. This may cause a ripple effect of changes in the system [18]. Detected on packages.
+- Hub-Like Dependency (HL): this smell arises when an abstraction has (outgoing and ingoing) dependencies with a large number of other abstractions [19]. Detected on classes and packages.
+- Cyclic Dependency (CD): refers to a subsystem (compo- nent) that is involved in a chain of relations that break the desirable acyclic nature of a subsystem’s dependency structure. The subsystems involved in a dependency cycle can be hardly released, maintained or reused in isola- tion [18]. Detected on classes and packages and according to different shapes [12].
+- Implicit Cross Package Dependency (ICPD): captures hidden dependencies among files belonging to different packages [20], [21]. For hidden dependencies, we mean co-change relations that we can find only in the history of the project and not in the code. Files changed frequently together with hidden dependencies lead to a lack of modularity. Detected on files. + +Tool: Apache Commons BCEL (The Byte Code Engineering Library). All computations are based on the dependency graph built from reading the project compiled files.
+tool: Arccan,
+tools: [hello2morrow, https://www.sonarqube.org,https://www.castsoftware.com,https://structure101.com,http://xplrarc.massey.ac.nz, https://lattix.com, https://stan4j.com]
+ + +</t>
+  </si>
+  <si>
+    <t>Arcan  + +Calculate the Architecture Smells via formula proposed by authors.
+Architectural Smell Impact Score</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was defined a formula to calculate ATD index and Architectural Smell Impact Score.
+n: number of AS instances in a project P;
+AS : k-instance of an architectural smell; k
+W : the total number of dependencies involved in at least one AS for all the AS in the project;
+AS I S (ASk ): the Architectural Smell Impact Score (defined below in IV-A);
+w(ASk): the Architectural Smell Weight, i.e., the number of dependencies associated to the ASk;
+• History(ASk): the score associated to the trend evolu- tion of the ASk (defined below in IV-B).
+PageRank: The P ageRank(ASk ) estimates whether the AS is located in an important part of the project, where the importance is defined by the value of the PageRank algorithm executed on the dependency graph of the project (to evaluate if many parts (subsystems) depend on the part where the AS is involved) 
+	the vertex v is a node of the dependency graph associated to a project; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">PR(v) is the value of PageRank of the vertex v; 
+N is the total number of AS in the project; 
+Pk is a vertex with at least a link directed to v; 
+n is the number of the pk vertexes; 
+C (pk ) is the number of links of vertex pk ; 
+d (damping factor) is a custom factor fixed at 0.85, a default value defined by Brin and Page [23]. It can be changed according to the PageRank value needed for every vertex and its minimum associated level of 
+P ageRank. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>[1] R. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, “In search of a metric for managing architectural technical debt,” in Proc. of the 2012 Joint Working IEEE/IFIP Conf. on Soft. Arch. (WICSA) and European Conf. on Soft. Arch. (ECSA). Finland: IEEE, 2012, pp. 91–100.
+[2] Z. Li, P. Avgeriou, and P. Liang, “A systematic mapping study on technical debt and its management,” Journal of Systems and Software , vol. 101, pp. 193–220, 2015.
+[5] L. Xiao, Y. Cai, R. Kazman, R. Mo, and Q. Feng, “Identifying
+and quantifying architectural debt,” in Proceedings of the 38th International Conference on Software Engineering , ser. ICSE ’16. New York, NY, USA: ACM, 2016, pp. 488–498. [Online]. Available: http://doi.acm.org/10.1145/2884781.2884822
+[6] Z. Li, P. Liang, and P. Avgeriou, “Chapter 9 - architectural debt management in value-oriented architecting,” in Economics-Driven Software Architecture, I. Mistrik, , R. Bahsoon, , R. Kazman, , and Y. Zhang, Eds. Boston: Morgan Kaufmann, 2014, pp. 183 – 204. [Online]. Available: https://www.sciencedirect.com/science/article/ pii/B978012410464800009X
+[7] F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31.
+[10] J. Garcia, D. Popescu, G. Edwards, and N. Medvidovic, “Identifying architectural bad smells,” in CSMR 2009. Germany: IEEE, 2009, pp. 255–258.
+[11] R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka, “A case study in locating the architectural roots of technical debt,” in Proceedings of the 37th IEEE International Conference on Software Engineering (ICSE 2015), vol. 2, May 2015, pp. 179–188.
+[12] F. Arcelli Fontana, I. Pigazzini, R. Roveda, D. E. Tamburri, M. Zanoni, and E. D. Nitto, “Arcan: a tool for architectural smells detection,” in To Appear at IEEE International Conference on Software Architecture (ICSA 2017), 2017.</t>
+  </si>
+  <si>
+    <t>The authors defined a set of formulas to represent Architectural Debt Index using java open source projects to validate the ATDI proposed comparing with other TDI like sonarqube.</t>
+  </si>
+  <si>
+    <t>Analysis of systems using language parse, meta-model, catalogs of rules, detect violations and quality attributes like performance, robustness, security, changeabliity</t>
+  </si>
+  <si>
+    <t>TD-Principal =
+(Σ high severity violations) x .5) 1 hr.) x 75$) +
+(Σ medium severity violations) x .25) 1 hr.) x 75$) + (Σ low severity violations) x .1) 1 hr.) x 75$)</t>
+  </si>
+  <si>
+    <t>yes, it was meausre a number of detected violations based on qualite attributes (Performance, Robustness, Security Transferabililty, Changeability)</t>
+  </si>
+  <si>
+    <t>It was used a private it company catalog to detected violations based on qualite attributes. 
+Tool: AIP by CAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. McConnell, "Technical Debt", blog, Nov. 2007, [online] Available: http://blogs.construx.com/blogs/stevemcc/archive/2007/11/01/technical-debt-2.aspx.
+W. Cunningham, "The WyCash Portfolio Management System", ACM SIGPLAN OOPS Messenger, vol. 4, no. 2, pp. 29-30, 1993.
+B. Curtis, J. Sappidi and A. Szynkarski, "Estimating the Size Cost and Types of Technical Debt", Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 49-53, 2012.
+D. Spinellis, Code Quality: The Open Source Perspective, Addison-Wesley, 2006.
+M.T. Nygard, Release It!, Pragmatic Book-shelf, 2007.
+J. Sappidi, B. Curtis and A. Szynkarski, "CAST Report on Application Software Health", tech. report, 2011.
+"CAST Application Intelligence Platform", tech. report, 2008.
+"Software Engineering-Product Quality Int'l Org. for Standardization", 2001.
+"Systems and Software Engineering-Systems and Software Quality Requirements and Evaluation (Square)-System and Software Quality Models", 2011.
+J. de Groot, "What is the Value of Your Software?", Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 37-44, 2012.
+C. Sterling, Managing Software Debt: Building for Inevitable Change, Addison-Wesley, 2011.
+  </t>
+  </si>
+  <si>
+    <t>Good, due to the authors proposed an effetive way to calculate the principal of TD based on catalog of rules to detect the violations of qualities attributes like performance, securtiy, robustness, trasferability and changeabilite. So, those characteristics are so close to architectural technical debt.</t>
+  </si>
+  <si>
+    <t>The authors performed a study in a real case using a real it company catalog of rules of architectural and code patterns with real systems. The authors proposed a was to calculate the principal of TD in maney value.</t>
+  </si>
+  <si>
+    <t>The catalog of rules is private. So, only the CAST company can use this catalog. Besides, the value used to calculate the principal of TD is regarding to context of CAST company, thus, it not possible to generalize this value in other companies.</t>
+  </si>
+  <si>
+    <t>The next step in our exploration of TD-principal is to provide individual ratings for the effort to fix each of the 1,200+ violations. These effort ratings will be further adjusted by the number of components involved in fixing the violation and the complexity of each component. This refinement will make the calculation of TD-principal more granular and could provide better in- dicators of components most in need of refactoring</t>
+  </si>
+  <si>
+    <t>StephanBode.2009.OntheRoleofEvolvabilityforArchitecturalDesign.Science (2009), 3256–3263. http://www.theoinf.tu-ilmenau.de/$\sim$sbode/publications/ bode_OnTheRoleOfEvolvability.pdf
+International Organization For Standardization. 2011. ISO/IEC 25010 - Systems and software engineering - Systems and software Quality Requirements and Eval- uation (SQuaRE) - System and software quality models. Technical Report. 1–25 pages. http://www.iso.org/iso/iso_catalogue/catalogue_tc/catalogue_detail.htm? csnumber=35733
+DavidRowe,JohnLeaney,andDavidLowe.1998.DefiningSystemsArchitecture Evolvability - a taxonomy of change. International Conference and Workshop: Engineering of Computer-Based Systems December (1998), 45–52. https://doi.org/ 10.1109/ECBS.1998.10027
+[16] Yaser I. Mansour and Suleiman H. Mustafa. 2011. Assessing Internal Software Quality Attributes of the Object-Oriented and Service-Oriented Software Devel- opment Paradigms: A Comparative Study. Journal of Software Engineering and Applications 04, 04 (2011), 244–252. https://doi.org/10.4236/jsea.2011.44027
+[18] Mikhail Perepletchikov, Caspar Ryan, and Keith Frampton. 2005. Comparing the impact of service-oriented and object-oriented paradigms on the structural properties of software. Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics) 3762 LNCS (2005), 431–441. https://doi.org/10.1007/11575863_63
+[23] Dirk Voelz and Andreas Goeb. 2010. What is Different in Quality Management for SOA?. In 2010 14th IEEE International Enterprise Distributed Object Computing Conference. IEEE, 47–56. https://doi.org/10.1109/EDOC.2010.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[8] Narasimhaiah Gorla and Shang-Che Lin. 2010. Determinants of software quality: A survey of information systems project managers. Information and Software Technology 52, 6 (jun 2010), 602–610. https://doi.org/10.1016/j.infsof.2009.11.012
+[24] Aiko Yamashita and Leon Moonen. 2013. Do developers care about code smells? An exploratory survey. In 2013 20th Working Conference on Reverse Engineering (WCRE). IEEE, 242–251. https://doi.org/10.1109/WCRE.2013.6671299
+[7] Andrea Caracciolo, Mircea Filip Lungu, and Oscar Nierstrasz. 2014. How do software architects specify and validate quality requirements? Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics) 8627 LNCS (2014), 374–389. https://doi.org/10. 1007/978- 3- 319- 09970- 5_32
+[14] MarkoLeppanen,SimoMakinen,SamuelLahtinen,OutiSievi-Korte,Antti-Pekka Tuovinen, and Tomi Mannisto. 2015. Refactoring-a Shot in the Dark? IEEE Software 32, 6 (nov 2015), 62–70. https://doi.org/10.1109/MS.2015.132
+[23] Dirk Voelz and Andreas Goeb. 2010. What is Different in Quality Management for SOA?. In 2010 14th IEEE International Enterprise Distributed Object Computing Conference. IEEE, 47–56. https://doi.org/10.1109/EDOC.2010.27
+[1] David Ameller, Matthias Galster, Paris Avgeriou, and Xavier Franch. 2016. A survey on quality attributes in service-based systems. Software Quality Journal 24, 2 (jun 2016), 271–299. https://doi.org/10.1007/s11219-015-9268-4
+</t>
+  </si>
+  <si>
+    <t>Survey with 60 participants that develop micro-services to check the perception of maitainability of service based systems.</t>
+  </si>
+  <si>
+    <t>The perception of: 
+Maintainability 
 Test coverage
 Cyclomatic complexity
 Clone coverage
@@ -9364,31 +9204,1210 @@
 Architectural Violation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">To flesh out the above-mentioned objective, three main RQs were formulated. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
+    <t>no</t>
+  </si>
+  <si>
+    <t>The following techniques was cited by participants of the survey: 
+Sonarqube, Findbugs, Self-made tool, Checkstyle, PMD, Jmetrics, Lattix, CAST, CodeCov, Error Prone
+The follwingo symptoms of low maintainability:
+Outated documentation, Inadequate testing, architectural erosion, problematic dependencies, complex components, large components, duplicate code, outdated libraries</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Because there is little scientific research on the industry state of practice w.r.t. maintainability control in general and for SBSs and μSBSs specifically, we created a survey to find out about a) applied processes, tools, and metrics, b) satisfaction with this quality at- tribute, and c) potentially different treatment of systems based on service orientation. When analyzing the answers of 60 software professionals, we discovered that a combined 60% of our sample do not address maintainability at all or only implicitly at a very basic level. A combined 40% reported explicit handling, but only 10 participants reported using a systematic process. Furthermore, 40% of participants were not satisfied with the state of maintain- ability of their software. 35% were somewhat satisfied and only 25% reported to be pleased with the maintainability of their system. Lastly, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>∼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">67% reported to not treat SBSs and μSBSs with special maintainability controls. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>∼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">26% applied somewhat different controls and only </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Italic"/>
+      </rPr>
+      <t>∼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">7% mentioned significantly different treatment. Since the sample population is limited in size however, further research in this area is necessary to confirm similar distribution in other parts of the population, probably also exclusively with companies that specialize in the development of SBSs and μSBSs. 
+Regardless of the sample size though, some interesting points with potential impact for future research can be highlighted. First, there was extremely little reported usage of methods, tools, and met- rics that focused specifically on evolvability. While issues related to architecture-level evolvability were very present amongst the reported symptoms (e.g. architectural erosion or complexity or more time needed to add new functionality), very few participants reported actually addressing them. To avoid technical debt in a long-living software system, industry needs to improve their qual- ity control: they need to go beyond source code level metrics and also include an architecture-centric view on software evolution, potentially with scenario-based methods. 
+A second take-away from this work is the suggested useful- ness of using a systematic process for maintainability control. While very few reported using such an approach, the vast major- ity of these 10 participants believed that this increased software quality and even wanted to invest more time for maintainability. People that used tools were also more likely to invest more time. To strengthen this, there was an overall correlation between the level of sophistication w.r.t. maintainability control and the reported sat- isfaction with this quality attribute: participants that used explicit and systematic approaches were more likely to be satisfied with the state of maintainability of their software. Moreover, no direct link between a hindrance in productivity and the level of sophistication of applied actions could be found. 
+Lastly, the neglect of service-oriented particularities for quality control – especially on the metrics side – combined with the reported trust in the base level maintainability of service ori- entation could pose a threat for the quality of a long-living SBS. Aspects like service granularity, service cohesion, or service cou- pling can easily become problematic when not tended to and can significantly hinder the maintenance and evolution of such a system. Luckily, there was a correlation between treating service-oriented systems differently and the level of sophistication of applied ac- tions (on top of using tool support). So there is hope that with a 
+rise in the general proficiency of maintainability control, under- standing for a different treatment of SBSs and μSBSs will grow as well. When looking specifically at the differences with treating Mi- croservices however, there is an even wider gap. Of the participants that reported different treatment, no one mentioned how poten- tial maintainability-related problems with increased technological heterogeneity, decentralization of control, or appropriate service granularity could be addressed. While these topics do not neces- sarily have to negatively impact maintainability, they still hold the potential to do so, if not executed with some care. Since this is a rather young topic, qualitative interviews with experts in the field of Microservices would most likely be a more effective approach. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The is no a explicit future works, but the authors show that of the participants that reported different treatment, no one mentioned how potential maintainability-related problems with increased technological heterogeneity, decentralization of control, or appropriate service granularity could be addressed. While these topics do not necessarily have to negatively impact maintainability, they still hold the potential to do so, if not executed with some care. Since this is a rather young topic, qualitative interviews with experts in the field of Microservices would most likely be a more effective approach.
+</t>
+  </si>
+  <si>
+    <t>Regular, due to the authors highlited that maintanability and evoluation are TD topics with lack studies in services and micro-services based systems.</t>
+  </si>
+  <si>
+    <t>The survey desig did not show details about the kind of systems and there is no details about the companies that the participants work.</t>
+  </si>
+  <si>
+    <t>The dataaset of survey should be shared in a .repository or replication kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The authors showed in the study that there is lack research in quality characteristics and Technical Debt in service and micro-service based systems. Besides, the paper shows the perception of practioners about those topics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service-Based Systems (SBSs) promised to bring a number of structural benefits to software maintainability, which has been sup- ported by several studies (e.g. [16, 18]). In recent years, an agile, light-weight, and DevOps-focused service-oriented variant called Microservice-Based Systems (μSBSs) gained popularity and is now trying to renew this promise for a second time. While service orien- tation can bring several benefits, the different levels of abstraction make it also important to revise and adapt design, development, and quality control mechanisms, as for example reported by Voelz and Goeb [23]. Especially in the context of microservices, technological heterogeneity and decentralization of control can have negative impacts on the maintainability of a composed application, if not treated appropriately. 
+We therefore created a survey for software professionals to gain insights into their notion of maintainability assurance, more specif- ically a) their used processes, tools, and metrics, b) potentially different treatment of SBSs and μSBSs w.r.t. maintainability control, and c) influences on their satisfaction w.r.t. their maintainability- related actions. Note that while we are aware of existing differences between Service-Oriented Architecture (SOA) and Microservices [5], we focused on their similarities in this paper and explicitly chose the term “Service-Based Systems”, which is not as connected to enterprise-wide governance, standardization, and centralization as SOA.
+This leads to the following research questions for our survey:
+RQ1: What processes, tools, and metrics are used in the industry to measure and control maintainability?
+RQ2: Is the usage of maintainability control different for Service- or Microservice-Based Systems?
+RQ3: What correlations exist between applied maintainability controls and participants’ overall view of maintainability in their project?
+</t>
+  </si>
+  <si>
+    <t>We plan to replicate the case study in more industrial projects with different sizes and from various domains. We also plan to customize the approach in order to make it suitable for an agile context, with appropriate tool support.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes final: good</t>
+  </si>
+  <si>
+    <t>The process should be automated or seme-autormated using a specific tool to aid the architect. Some users (e.g., new developers) may not be familiar with ADs and ATD items, though the templates provided. The preparation of ADs may take time when the ADs are not documented, especially when the ADs were made a long time ago as the knowledge about ADs tends to vaporize.</t>
+  </si>
+  <si>
+    <t>The authors proposed an approuch to identify and measure ATD itens via architectural decisions during the redesing process. Thus, the ATD can be identified and calculate without to have access to source code of the project. The architects agreed that associating ATD items to concrete impacted change scenarios is helpful to estimate the interest of ATD items.The development team members considered that the scenario-based part of the approach is particularly useful and easy to conduct, since they are familiar with the change scenarios and are even under pressure from delayed change scenarios that are negatively impacted by certain ATD items.</t>
+  </si>
+  <si>
+    <t>The process is manual and it is necessary a participation of the architect to plan and evaluate each release. So, the principal and the interest are estimated manually according interpretation of specialist about ATDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great. The authors proposed an approuch to identify and measure (in man-days) ATD itens via architectural decisions during the redesing process. Thus, the ATD can be identified and calculate without to have access to source code of the project. </t>
+  </si>
+  <si>
+    <t>[16] ISO/IEC, "Systems and software engineering — Systems and software Quality Requirements and Evaluation (SQuaRE) — System and software quality models," in ISO/IEC FDIS 25010:2011, ed, 2011, pp. 1- 34.
+[3] Z. Li, P. Avgeriou, and P. Liang, "A systematic mapping study on technical debt and its management," Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
+[20] V. R. Basili, "Software modeling and measurement: the Goal/Question/Metric paradigm," University of Maryland 1992.
+[19] P. Runeson and M. Höst, "Guidelines for conducting and reporting case study research in software engineering," Empirical Software Engineering, vol. 14, pp. 131-164, 2009.
+[21] B. G. Glaser and A. L. Strauss, The discovery of grounded theory: Strategies for qualitative research. New York: Aldine Publishing, 1967.
+[22] C. B. Seaman, "Qualitative methods in empirical studies of software engineering," Software Engineering, IEEE Transactions on, vol. 25, pp. 557-572, 1999.</t>
+  </si>
+  <si>
+    <t>To generalize our findings, we plan on replicating this study on a broader scale. Looking at SATD comments that can be traced to architectural divergences resulted effective in resolving them, thus, we plan to further investigate this with better architectural recovery and more advanced SATD detection approaches, potentially in an automated manner.</t>
+  </si>
+  <si>
+    <t>[3] I. T. Bowman, R. C. Holt, and N. V. Brewster. Linux as a case study: Its extracted software architecture. In Proceedings of the 21st International Conference on Software Engineering, ICSE ’99, pages 555–563. ACM, 1999.
+[7] A. E. Hassan and R. C. Holt. Using development history sticky notes to understand software architecture. In Proceedings of the 12th International Workshop on Program Comprehension, ICPC ’04, pages 183–192. IEEE, 2004.
+[15] G. C. Murphy, D. Notkin, and K. Sullivan. Software reflexion models: Bridging the gap between source and high-level models. Software Engineering Notes, 20(4):18–28, 1995.</t>
+  </si>
+  <si>
+    <t>Good, due te the paper show a approuch to identify architectural divergences using Self Admited Technical Debt using comments from source code.</t>
+  </si>
+  <si>
+    <t>The authors recovery the software architecture compoents from ArgoUML analysing the documents and source code. So, it is can be shared with others papers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[18] A.PotdarandE.Shihab.Anexploratorystudyonself-admittedtechnical debt. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>Proceedings of the 30th IEEE International Conference on Software Maintenance and Evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, ICSME, pages 91–100. IEEE, 2014. 
+[8] Q.Huang,E.Shihab,X.Xia,D.Lo,andS.Li.Identifyingself-admitted technical debt in open source projects using text mining. Empirical Software Engineering, 23(1):418–451, 2018.
+[12] E. Maldonado and E. Shihab. Detecting and quantifying different types of self-admitted technical debt. In Proceedings of the 7th International Workshop on Managing Technical Debt, MTD ’15, pages 9–15. IEEE, Oct 2015.
+[13] E. Maldonado, E. Shihab, and N. Tsantalis. Using natural language processing to automatically detect self-admitted technical debt. IEEE Transactions on Software Engineering, 43(11):1044–1062, Nov 2017.
+[19] Sci Tools. Quickly comprehend legacy code — scitools.com. https: //scitools.com/legacy- code- tool/, 2018. (Accessed on 10/17/2018).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Recover architecture of components using dependences + +, 
+SATD identification + + Architecture Violoation</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: regular</t>
+  </si>
+  <si>
+    <t>The authors conducted only one study to only one product: ArgoUML, so, it not possible to generalize the results to other products</t>
+  </si>
+  <si>
+    <t>The dataset was not available to reproduce the study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was defined a set of cases that defined the types of ATD to be used in the study case. + +It was created a framework called Anacondeb to identify the ATD and identify the principal and the interest of ATD for each release analysed with the steak holders. + +It was defined a set of formulas to calculate the itens studied as following:  +
+- Calculating technical debt evolution over time 
+- Calculating the growth of Interest 
+Components of anacondebt: 
+ +- Time spans for ATD evolution analysis 
+- Estimating the growth of the interest 
+— 	Internal propagation factors: growth of the source.  +
+— 	External propagation factors: number of ATD-related increments planned.  +
+— 	External propagation factors: number of external users in the ecosystem  +
+— 	Internal propagation factor: growth of complexity as a multiplier  +
+— 	Impact on development speed  +
+— 	Impact on maintainability (internal quality)  +
+—	Impact on qualities  +
+— 	Impact on learning:  +
+— 	Impact on revenues  +
+- Indicators for ATD refactoring decision (RQ1)  +— Growth of Interest on the Principal 
+— Growth of Impact 
+— Refactoring decisions 
+— </t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: great</t>
+  </si>
+  <si>
+    <t>There are some limitations in this study. Most of the effort measures used for calculating the different components are based on the experiences of the experts involved. This might have injected some bias in the study. However, the overall framework and the components that can be used to estimate ATD refactoring are quite generalizable, the indicators have been considered as useful and the decision making process proper. The different metrics that can be used as input needs to be further studied, however they usually depend on the different company. Another limitation is the learning curve: it took a while before the architects would employ the method, but after the sessions, they recognized that the method was very logical and that the process would probably be much shorter as the method was repeated and the tasks of collecting information split among the architects.</t>
+  </si>
+  <si>
+    <t>The authors proposed an manual aprouch called AnaConDeb to identify ATDI and calculate the principal and Interest by stekholder for each release. So, it is possible that values changes depends on the company and the steakholders</t>
+  </si>
+  <si>
+    <t>The authors proposed a method to identify and calculate the principal and interest of ATDI. The case study was conducted in 6 large IT company with real data in real IT projects.</t>
+  </si>
+  <si>
+    <t>"[20]  J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.  + +[2]  R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.  +
+[18] K. Peffers, T. Tuunanen, M. A. Rothenberger, and S. Chatterjee, “A Design Science Research Methodology for Information Systems Research,” J. Manag. Inf. Syst., vol. 24, no. 3, pp. 45–77, Dec. 2007.
+[3] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study,” Inf. Softw. Technol.
+ +"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.
+[20] J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.
+</t>
+  </si>
+  <si>
+    <t>Future work aims at increasing the precision of these estimations with more precise measures. We have to keep in mind that ATD management is prevalently a risk assessment practice, and until better prediction models have been created to predict the cost of architecture anti-patterns (as confirmed in a recent systematic review [8]), the architects’ decisions are based on gut feeling and estimations based on their subjective experiences [20]. However, structuring such process of decision making by applying the method AnaConDebt, has been proven useful in order to make the decision around ATD refactoring based to concrete factors that are causing the interest to be paid in the future, and therefore it would explicit and increase the architects’ knowledge for making informed decision on the ATD refactoring cases.</t>
+  </si>
+  <si>
+    <t>Great, due to The authors proposed a method to identify and calculate the principal and interest of ATDI. The case study was conducted in 6 large IT company with real data in real IT projects. Besides, the research process was based on Design Science Research.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Abdeen, H., Ducasse, S., and Sahraoui, H., 2011. Modularization Metrics: Assessing Package Organization in Legacy Large Object-Oriented Software. In Proceedings of the Proceedings of the 2011 18th Working Conference on Reverse Engineering (2011), IEEE Computer Society, 2086275, 394-398. DOI= http://dx.doi.org/10.1109/wcre.2011.55.
+</t>
+  </si>
+  <si>
+    <t>Based on the results and findings of this work, we plan to do further research in the following directions. First, we intend to validate the correlation between modularity metrics and ANMCC with Java projects. Second, it will be interesting to define new system-wide modularity metrics or adapt existing modularity metrics defined in other perspectives (e.g., complex networks [14]), and investigate the correlation between the metrics and ATD indicators. We expect that the new modularity metrics can improve the accuracy or take less effort of predicting ANMCC. Third, it is practically valuable to develop plugins to calculate the modularity metrics IPCI and IPGF for IDE tools (e.g., in VS2012 or Eclipse).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great, The authors proposed a new ATD index called IPCI (Index of package changing impact) based on modularity metrics that is no necessary to get access to source code log commits. Besides, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release. </t>
+  </si>
+  <si>
+    <t>The authors conducted an experimentation with Opens Source Software witth real data. The findings showed that the modularity metrics IPCI and IPGF can be used to indicate ATD.</t>
+  </si>
+  <si>
+    <t>In this case study, only C# OSS projects were selected and used to validate the correlation between modularity metrics and ANMCC. Consequently, the conclusion drawn is only valid for C# projects. There is a need of conducting more studies for the projects written in other object-oriented languages, such as Java.</t>
+  </si>
+  <si>
+    <t>The authors conducted a study using only C# OSS project, so it not possible to generalize to other types programing languages and private IT projects.</t>
+  </si>
+  <si>
+    <t>yes, due to the evaluated is done between sequence of releases.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`[11] J. Li, N. B. Moe, and T. Dyba ̊. Transition from a plan-driven process to scrum: a longitudinal case study on software quality. In Interna- tional symposium on Empirical Software Engineering and Measurement,
+page 13, 2010.
+[21] P. Runeson, M. Host, A. Rainer, and B. Regnell. Case study research in software engineering: Guidelines and examples. John Wiley &amp; Sons, 2012.
+[6] Q.Feng,R.Kazman,Y.Cai,R.Mo,andL.Xiao.Anarchitecture-centric approach to security analysis. pages 221–230, 2016.
+[15] R. Mo, Y. Cai, R. Kazman, and L. Xiao. Hotspot patterns: The formal definition and automatic detection of architecture smells. In 12th Working IEEE/IFIP Conference on Software Architecture (WICSA), pages 51–60, 2015.
+</t>
+  </si>
+  <si>
+    <t>Maintainability metrics and architecture flaws</t>
+  </si>
+  <si>
+    <t>Yes, during two years the releases were monitored to check the benefits of refactoring software architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our architecture analysis, we attempted to detect, measure, and assess the consequences of architecture debt in two ways: 1) by calculating architecture-based maintainability metrics on the before- and after-refactoring versions of Bright- Squid’s software, and 2) by identifying the architecture flaws and architecture roots in their software. 
+Maintainability metrics suite 
+- Decoupling Level (DL), introduced by Mo et al. [16] . Mo et al.’s algorithm first clusters source files into a design rule hierarchy (DRH) 
+- Propagation Cost (PC), proposed by MacCormack et al. [13]  to measure how tightly coupled a system is. The calcu- lation of PC is based on a matrix model of the dependencies among files. 
+architecture flaws 
+- Clique: A group of files that are interconnected, forming a strongly connected component.
+- Package cycle: typically the package structure of a software system should form a hierarchical structure. 
+- Improper inheritance 
+- Modularity violation: Modules designed properly with information hiding in mind should be able to change independently from each other. 
+- Crossing: if a file has many dependents and depends on many other files, that is, having high fan-in and high fan-out, then this file will appear to be at the center of a cross in its DSM (Design Structure Matrix)
+- Unstable interface: if a highly influential file is changed frequently with other files that directly or indirectly depend on it, then we call it an Unstable Interface. 
+Architecture Roots 
+Xiao et al. [22] proposed a new software architecture model, design rule space (DRSpace), which contain a set of related files. These DRSpaces can model various aspects of a software system, such as a feature, a pattern, etc. 
+Tool: we employed DV8—a commercial version of the Titan architecture analysis tool suite [22] to analyze the architecture of each system version to assess architecture debt 
+</t>
+  </si>
+  <si>
+    <t>The authors conducted a case study in a real IT company to check the benefits of refactoring of software architecture before and after to check the quantitative and qualitative benefits of paydown ATDI. So the study showed that reducing architecture debt has had a positive influence on productivity and quality measures for the company.</t>
+  </si>
+  <si>
+    <t>Good, due to this is the first real-world empirical study of architecture debt over a long period of time with the goal of demonstrating the benefit of improving a product’s software architecture by paying down architecture debt (through refactoring). Besites, All of the architecture analyses presented in this paper are fully automated and so they can provide exactly the data needed for such measurement and benchmarking</t>
+  </si>
+  <si>
+    <t>The calculus of cost of ATDI depends on the participation of the developers from each feature and bug analysed on case study.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First the accuracy of our study depends on the quality of project revision histories. 
+Second, our definition of active hotspot uses seed files and includes files with propagation relations with them. There may exist more effective ways to find more precise hotspot, e.g. at method-level instead of file-level. Improving and further evaluating the hotspot detection algorithm is future work.
+Finally, the activeness of a system will significantly influ- ence the detected hotspots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The amount of files choose, as the threshodld, to define the type of hotspot. Similar, to the choice of amount of issues to define the unit of evolution window. </t>
+  </si>
+  <si>
+    <t>An external validity is that we only studied 21 open source projects, all of which were implemented in Java and all of which are from the Apache ecosystem. While we have no reason to assume that the effects that we have studied would be different with different programming languages, we can not currently claim that our results can be generalized to projects implemented using other languages. Similarly we have no expectation that our results would differ in closed- source contexts, or projects from other OSS ecosystems, but this remains a potential threat.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes, results: yes, final: great</t>
+  </si>
+  <si>
+    <t>Great, due to the authors propose a model - Active Hotspot - that can be used to detect and monitor the emergence and evolution of software degradation by tracking how files and their relations are changed with each issue, such as adding a new feature or fixing a bug.</t>
+  </si>
+  <si>
+    <t>The authors proposed a model to check how is behavior of software architecture during software evolution using hotspot to define the most important part the software that should be treated with more carefully. Besides, there is an empirical study using Apache ecosystem to validate the proposed model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] D. I. Sjøberg, A. Yamashita, B. C. Anda, A. Mockus, and T. Dyba ̊, “Quantifying the effect of code smells on maintenance effort,” IEEE Transactions on Software Engineering, vol. 39, no. 8, pp. 1144–1156, 2013.
+[15] M. DAmbros, H. Gall, M. Lanza, and M. Pinzger, “Analysing software repositories to understand software evolution,” in Software evolution. Springer, 2008, pp. 37–67.
+[16] R. C. Martin, “The single responsibility principle,” The principles, patterns, and practices of Agile Software Development, vol. 149, p. 154, 2002.
+[21] R. Mo, Y. Cai, R. Kazman, L. Xiao, and Q. Feng, “Decoupling level: a new metric for architectural maintenance complexity,” in Proceedings of the 38th International Conference on Software Engineering. ACM, 2016, pp. 499–510.
+</t>
+  </si>
+  <si>
+    <t>Techniques: + +It is analyzed source code and tracking issues during software evolution using history of source code repository. + +Hotspot (seedfiles, propagation files) + +Propagation patterns (dissemination, concentratin, domino, schater shot) + +Use code repository, issue tracking and analysis through release evolution.  + +Tools:  +Understand +Simian +DV8 +R (statistical) + +Algorithm 1: Generate Hotspots from Seedfiles and a list of Propagation Patterns 
+Change-prone, bug-prone files, early detection architectural problems
+ +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case study + Interviews + Capture Software Process Requerimento and Software architecture
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No, even using light-weight documentation it can contribute to requirements volatility and increase the risk of creating architectural technical debt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In future research, another case study will be conducted in a company of different size and in a different domain to investigate whether the same challenges are present there. Cross analysis between the case studies will provide new insights and help increasing the generalisability of the findings. Based on the results of those case studies, it is planned to develop a framework that provides means for practitioners to identify the presence of challenges posed by requirement volatility and take necessary steps to mitigate the risks. </t>
+  </si>
+  <si>
+    <t>Weak, due to the author did not study about how to identify, measure or calculate ATD</t>
+  </si>
+  <si>
+    <t>This study aimed to explore the challenges to SW architecture posed by requirements volatility, but it not concern to identify, measure or calculate the cost of ATD.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no, results: no, final: weak</t>
+  </si>
+  <si>
+    <t>The paper showed a case study about the impact of requirements in software architecture.</t>
+  </si>
+  <si>
+    <t>[31] Lauesen, S. Software Requirmenents - Styles and Techniques. Addison-Wesley, London, 2002.
+[32] Leffingwell, D. and Widrig, D. Managing Software Requirements: a use case approach. Pearson Education, Inc., Boston, 2003.
+[35] Maciaszek, L. Requirements Analysis and System Design. Pearson Education, Harlow, 2005.
+[53] Stephenson, Z., Attwood, K., and McDermid, J. Product-Line Models to Address Requirements Uncertainty, Volatility and Risk. In Relating Relating Software Requirements and Architectures. Springer Berlin Heidelberg, 2011.
+[43] Nurmuliani, N., Zowghi, D., and Williams, S. P. Requirements volatility and its impact on change effort: Evidence-based research in software development projects. ( 2006).
+[24] Jansen, Anton and Bosch, Jan. Software Architecture as a Set of Architectural Design Decisions. In Proceedings of 5th Working IEEE/IFIP Conference on Software Architecture ( 2005), IEEE.
+[57] van Heesch, U. and Avgeriou, P. Mature architecting - a survey about the reasoning process of professional architects. In 9th Working IEEE/IFIP Conference on Software Architecture ( 2011), 260–269.
+[56] Tang, A., Babar, M. A., Gorton, I., and Han, J. A survey of architecture design rationale. Journal of systems and software, 79, 12 (2006), 1792-1804.
+[37] Miller, James A., Ferrari, Remo, and Madhavji, Nazim H. An exploratory study of architectural effects on requirements decisions. Journal of Systems and Software, 83, 12 (2010), 2441–2455.
+[11] Cleland-Huang, J., Hanmer, R. S., Supakkul, S., and Mirakhorli, M. The Twin Peaks of Requirements and Architecture. IEEE Software, 30, 2 (March-April 2013), 24-29.
+[7] Bass, L., Clements, P., and Kazman, R. Software Architecture in Practice. Addison-Wesley Professional, New Jersey, 2012.
+[47] Runeson, P., Höst, M., Rainer, A., and Regnell, B. Case Study Research in Software Engineering: Guidelines and Examples. Wiley, 2012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[43] Nurmuliani, N., Zowghi, D., and Williams, S. P. Requirements volatility and its impact on change effort: Evidence-based research in software development projects. ( 2006).
+[57] van Heesch, U. and Avgeriou, P. Mature architecting - a survey about the reasoning process of professional architects. In 9th Working IEEE/IFIP Conference on Software Architecture ( 2011), 260–269.
+</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes results: yes, final: great</t>
+  </si>
+  <si>
+    <t>Our future work consists of a longitudinal study wherein we do four things: First, we will track the architectural integrity of this system on a regular basis. That is, we plan to analyze periodic snapshots of SoftServe’s system, to see whether the refactoring is being done correctly, and whether it is eroding over time. Second, we plan to continue to track the frequency of reported defects, and their connection to the files in SS1. Third we plan to continue to track the frequency of changes to the files of SS1. Finally, we plan to track the lines of code committed to fix defects and to make changes. This longitudinal data capture and analysis will allow us to validate the expectations and opinions collected in the present study, and to build better predictive models for SoftServe in the future. We are also in the process of conducting other industrial case studies, to show the repeatability of our methods in different industrial contexts.</t>
+  </si>
+  <si>
+    <t>Great, due to the authors proposed a methdo to identify, measure and calculate the ATDI using DRSpace based on analysis of a sequency of version from a software in a real case study in a large IT company.</t>
+  </si>
+  <si>
+    <t>The authors proposed an approuch to identify, measure, calculate the ATDI via case study in a large IT company analysing a sequence of versions via Dspace method</t>
+  </si>
+  <si>
+    <t>The case study performed only one company in only one system.</t>
+  </si>
+  <si>
+    <t>[30] L. Xiao, Y. Cai, and R. Kazman. Design rule spaces: A new form of
+architecture insight. In Proc. 36th International Conference on Software
+Engineering, 2014.
+[31] L. Xiao, Y. Cai, and R. Kazman. Titan: A toolset that connects software
+architecture with quality analysis. In 22nd ACM SIGSOFT International
+Symposium on the Foundations of Software Engineering, 2014.
+[32] L. Xiao, Y. Cai, R. Kazman, and R. Mo. Investigating the evolutionary consequences of architecture roots of error-proneness. In Submission,
+2014.
+[3] Y. Cai and K. J. Sullivan. Modularity analysis of logical design mod- els. In Proc. 21st IEEE/ACM International Conference on Automated Software Engineering, pages 91–102, Sept. 2006.
+[29] S. Wong, Y. Cai, G. Valetto, G. Simeonov, and K. Sethi. Design rule hierarchies and parallelism in software development tasks. In Proc. 24th IEEE/ACM International Conference on Automated Software
+Engineering, pages 197–208, Nov. 2009.
+[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. Hotspot patterns: The
+formal definition and automatic detection of recurring high-maintenance
+architecture issues. In Submission, 2014.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. Foundations on technical debt 
+	[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. [24] K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817.
+	[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. 
+	[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. 
+	[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. 
+	[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. 
+	[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. 
+B. Metrics to guide refactoring and re-architecting process 
+	[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. 
+	[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. 
+	[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. 
+	[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM 
+C. Tool support 
+	[27]  O. Gaudin, “Evaluate your technical debt with Sonar,” Sonar, Jun. 
+2009. Available: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://www.sonarsource.org/evaluate-your-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> technical-debt-with-sonar (Accessed: Apr. 2012). 
+[28]  S. Penchikala, “Architecture analysis tool SonarJ 6.0 supports structural debt index and quality model,” InfoQ, Aug. 2010. Available: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://www.infoq.com/news/2010/08/sonarj-6.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (Accessed: Mar. 2012). 
+[29]  C. Hinsman, N. Sangal, and J. Stafford, “Achieving agility through architecture visibility,” Proc. 5th Int. Conf. Quality of Software Architectures: Architectures for Adaptive Software Systems (QoSA ’09), ACM Press, Jun. 2009, pp. 116–129, doi: 10.1007/978-3-642- 02351-4_8. 
+[30]  J. Bohnet and J. Dollner, “Monitoring code quality and development activity by software maps,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 9–16, doi: 10.1145/1985362.1985365. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>[24] K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817.
+[25] J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM Press, Sep. 2010, pp. 8:1–8:10, doi: 10.1145/1852786.1852797.</t>
+  </si>
+  <si>
+    <t>The cost of each architectural element, the number of dependencies impacted by each architectural change, and the overall change propagation metric of the system may all be seen as proxies for complexity, which is assumed to affect the cost of change.
+change propagation metric (Pc) defined by MacCormack [10]
+DSM (Design Structure Matrix)</t>
+  </si>
+  <si>
+    <t>Great, due to the authors proposed a way to identify ATD during software evolution and calculate the cost of ATD according software architecture components created or edited.</t>
+  </si>
+  <si>
+    <t>Feature and architectural element slicing.
+Story slicing in agile development involves determining the simplest thing the user can do that is of value, and how that function cuts across the system.
+Extensions to the economic model.
+We account for debt at the time it is paid in rework cost. For prudent and deliberate debt we plan to extend the economic model to account for the future cost of paying back debt
+Managing debt.
+This paper’s contribution to the area of technical debt management is its discussion of analysis and visibility of dependencies and their implications for technical debt. Next steps in our research will focus on moving from monitoring to more actively and strategically incorporating technical debt into the architectural design process</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The cost to pay ATDI is estimated in hours according a formula proposed by authros. It is the sum of effort the existing component with new effort to support the existing component.
+The Total Cost </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">T </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">of release n is a function of the implementation and rework costs, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Ci </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Cr </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>T F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Ci</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Cr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">)
+In this paper, we assume that it is simply the sum. 
+However, the estimation depends on the people directly involved in each release.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>There is no the list of ATDI for each release. The paper only show the cost estimated for ATD in release, but there is details for each release.</t>
+  </si>
+  <si>
+    <t>There is not list of ATDI for each relase analysed in case study.</t>
+  </si>
+  <si>
+    <t>The authors conducted a case study in a real large anc complex system of natural disaster to evaluate each release regarding ATD and calculate the effort to fix them.</t>
+  </si>
+  <si>
+    <t>DSM to identify the dependences among files
+Change propagation cost</t>
+  </si>
+  <si>
+    <r>
+      <t>Although the concept of TD has been influential, it has until now largely been a metaphor. The dierences with real (financial) debt are crucial. A real debt always starts from a principal, and grows with a certain interest rate. How to quantify the principal and interest rate in software investments has been a challenge. Our goal is to advance the understanding and management of architectural debt, a type of technical debt, by quantifying it.  +We define the concept of architectural debt (ArchDebt) as a tuple consisting of: 1) a group of architecturally connected files, and 2) a model of the maintenance cost growth for such files. Based on this definition, we contribute an approach to automatically locate architecture debts. Once we locate each debt we model its growth using regression models. Our approach to identify ArchDebt has two parts. We first create a novel history coupling probability (HCP) matrix to manifest the probability of changing one file when another file is changed. Then we index file groups through the lens of 4 patterns of prototypical architectural flaws that have been shown to correlate with reduced software quality [21], namely hub, anchor-submissive, anchor-dominant, and modularity violation. 
+Given an ArchDebt, we quantify the maintenance costs (approximated by bug-fixing churn) spent on the files involved in the debt. From the costs incurred in each release, we can model the growth trend using linear, logarithmic, exponential or polynomial regression models. These models represent coherent scenarios of stable, reducing, increasing, and fluctuating maintenance interest rates respectively. Finally, we rank the identified architectural debts according to the maintenance costs they have accumulated. 
+We have evaluated our approach using seven Apache open source projects, and identified many instances (between 74 and 204) of ArchDebts in each project. The results show that a significant portion (from 51% to 85%) of the main- tenance e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ort in each project is consumed by paying inter- est on these debts, and that non-trivial portions (20% to 61% ) of the maintenance e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">ort is consumed by just five ArchDebts, which represent a small portion of all error- prone files. Our evaluation also revealed that about half of the identified debts fit linear regression models, indicating a steady increase in the penalty that these debts incur. About 1/3, 1/10, and less than 1/10 of all debts fit polynomial, logarithmic, and exponential models respectively, indicating the interest rate trends of these debts can vary drastically. Finally, we qualitatively analyzed the design problems be- hind debts, and how these evolve over time.  + +To evaluate the effectiveness of our approach, we investi- gate the following research question: +RQ: Whether the file groups identified in ArchDebts generate and grow significant amount of maintenance costs? That is, are they true and significant debts? If the identified file groups only consume a small portion of overall maintenance efort, then they do not deserve much attention. Similarly, if the identified file groups cover a large portion of the system itself, it is not surprising if they also consume the majority of maintenance efort. In both cases, we cannot claim that they are debts worthy of attention. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[19] Z. Li, P. Avgeriou, and P. Liang. A systematic mapping study on technical debt and its management. J. Syst. Softw., 101(C):193–220, Mar. 2015.
+architectural smells [22]
+[22] R. Mo, J. Garcia, Y. Cai, and N. Medvidovic. Mapping architectural decay instances to dependency models, 2013.
+architectural anti-patterns [13][24]
+[13] I. Griffith and C Izurieta. Design pattern decay: The case for class grime. 2014
+[24] L. Peters. Technical debt: The ultimate antipattern - the biggest costs may be hidden, widespread, and long term, 2014.
+complex architectural behavioral dependencies [5]
+[5] J. Brondum and L. Zhu. Visualising architectural dependencies. In Proceedings of the Third International Workshop on Managing Technical Debt, MTD ’12, pages 7–14, Piscataway, NJ, USA, 2012. IEEE Press.
+violations of good architectural practices [8]
+[8] B. Curtis, J. Sappidi, and A. Szynkarski. Estimating the principal of an application’s technical debt. IEEE Software, 29(6):34–42, 2012.
+architectural compliance issues [16]
+[16] R. Kazman and S. J. Carriere. Playing detective: Reconstructing software architecture from available evidence. Automated Software Engineering, 6(2):107–138, Apr. 1999.
+Alves et al. [1] organized 13 types of TD and their key in- dicators, including Architectural TD
+[1] N. S. Alves, L. F. Ribeiro, V. Caires, T. S. Mendes, and R. O. Spinola. Towards an ontology of terms on technical debt. In Managing Technical Debt (MTD), 2014 Sixth International Workshop on, pages 1–7. IEEE, 2014.
+Everton et al. [9] proposed an approach to identify dif- ferent types of “self-admitted” TD in software projects, by reviewing the comments left by developers.
+[9] E. da S. Maldonado and E. Shihab. Detecting and quantifying di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">erent types of self-admitted technical debt. SIGSOFT Softw. Eng. Notes, Apr. 2015.
+Martini et al. [20] conceptualized two patterns of Architectural TD: contagious debt and vicious circle.
+[20] A. Martini and J. Bosch. The danger of architectural technical debt: Contagious debt and vicious circles. In Software Architecture (WICSA), 2015 12th Working IEEE/IFIP Conference on, pages 1–10, May 2015.
+Zimmermann et al. [28]
+[28] T. Zimmermann, P. Weißgerber, S. Diehl, and
+A. Zeller. Mining version histories to guide software changes. In Proc. 26th International Conference on Software Engineering, pages 563–572, May 2004.
+Kagdi et al. [14]
+[14] H. Kagdi, M. Gethers, D. Poshyvanyk, and M. L. Collard. Blending conceptual and evolutionary couplings to support change impact analysis in source code. In Proc. 17th Working Conference on Reverse Engineering, pages 119–128, Oct. 2010.
+Gethers et al. [11]
+[11] M. Gethers, B. Dit, H. Kagdi, and D. Poshyvanyk. Integrated impact analysis for managing software changes. In Proceedings of the 34th International Conference on Software Engineering, ICSE ’12, pages 430–440, Piscataway, NJ, USA, 2012. IEEE Press.
+Beck et al. [4]
+[4] F. Beck and S. Diehl. Evaluating the impact of software evolution on software clustering. In Proc. 17th Working Conference on Reverse Engineering, pages 99–108, Oct. 2010.
+Girba et al. [12]
+[12] T. Gˆırba, S. Ducasse, A. Kuhn, R. Marinescu, and
+R. Daniel. Using concept analysis to detect co-change patterns. In Ninth International Workshop on Principles of Software Evolution: In Conjunction with the 6th ESEC/FSE Joint Meeting, IWPSE ’07, pages 83–89, New York, NY, USA, 2007. ACM.
+Zazworka et al. [27]
+[27] N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull. Comparing four approaches for technical debt identification. Software Quality Journal, pages 1–24, 2013.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] L. Xiao, Y. Cai, and R. Kazman. Design rule spaces: A new form of architecture insight. In Proc. 36th International Conference on Software Engineering, 2014.
+[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. Hotspot patterns: The formal definition and automatic detection of architecture smells. In Proc. 15th Working IEEE/IFIP International Conference on Software Architecture, May 2015.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was calculated the cost of interest for identifying ArchDebt.
+Given an ArchDebt, we quantify the maintenance costs (approximated by bug-fixing churn) spent on the files in- volved in the debt. From the costs incurred in each release, we can model the growth trend using linear, logarithmic, exponential or polynomial regression models. These models represent coherent scenarios of stable, reducing, increasing, and fluctuating maintenance interest rates respectively.
+The maintenance costs spent on this debt fit a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>linear regression model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: DebtModel(rt) where the unit is x line of code to fix errors. </t>
+    </r>
+  </si>
+  <si>
+    <t>The authors proposed a method do identify and measure ATD using the technique DRSapce and architecture debt to generate a HPC Matrix and identify a ranked list of archdebt incluind its cost fo fix them.</t>
+  </si>
+  <si>
+    <t>Good, due to the authors showed a method do identify and measure of ATD using a framework applied in a real case using a set of Apache project using analsys of sequence of releases</t>
+  </si>
+  <si>
+    <r>
+      <t>First, since we have only examined 7 projects and all of these are Apache projects, we can not guarantee that our results will generalize to other projects with di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>erent
+cultures and organizational policies. Second, our approach has the limitation that it relies on revision history to iden- tify architectural debt.
+For projects without enough history data, our approach can still identify groups of files with the potential to become architectural debt
+Third, our approach relies on mining error-prone files from a project’s revision history and bug tracking data. We use the bug report ID that developers enter into commits to locate error-prone files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We plan to evaluate the eficiectiveness of our approach on projects without enough history in our future work. In our future work, we plan to explore more e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ort proxies, and we are collaborating with an industry project that records actual e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ort data, and we plan to compare this with our proxy measures of e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Menlo Bold"/>
+      </rPr>
+      <t>↵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">ort.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Due to the study used only Open Source Software from Apache Project, it was not possible to calculate the effort to tix the ATD in terms of time or money. The calculation of cost proposed used the amount of lines necessary to fix the ATD.</t>
+  </si>
+  <si>
+    <t>good, due to The authors studied a real case for three years and collect data from two large systems about effort and spend the maintenance. The authors analyzed the SVC repository, the bug tracker related to commits, the files changes, and refactoring propagation cust to maintain the systems.</t>
+  </si>
+  <si>
+    <t>No architectural tools and metrics were applied, even though most reported challenges and issues like service cutting were related to software architecture. This may indicate the im- portance of Architectural Technical Debt (ATD) management for Microservices. 
+Future work that covers the areas of maintenance, evolution, and technical debt in the context of Microservices should take these findings and industry sentiments into account. In particular, academia can support industry with methods, metrics, or tools that aid macroarchitectural assessment of Microservices or provide a more system-centric view. We perceived tool support for service cutting activities and metrics to evaluate service granularity, coupling, or cohesion as concrete gaps that could save industry a lot of refactoring efforts. Finally, issues in the area of human evolvability factors with Microservices like the handling of hyped technologies as well as coordinating and exchanging knowledge between decentralized teams were
+described as important by participants.</t>
+  </si>
+  <si>
+    <t>Interview about maturity of control of evolvability + +Interviews told about SonarQube integrated into the CI/CD pipeline  + +Ciclomatic complexity was most used by interviews as Code Smell. + +Most important challenges in Evolvability of microservices: +- Service cutting +- No system centric view +- Mastering Technologies +- Technological Heterogeneric +- missing docs +- architectural complexity +- integrated legacy code +- distributed coordniation team +- inadaquete testing +- microservices intgration +- Breaking Apis Changes +- Distributed Code Repositories +</t>
+  </si>
+  <si>
+    <t>[14] S.Basˇkarada,V.Nguyen,andA.Koronios,“ArchitectingMicroservices: Practical Opportunities and Challenges,” Journal of Computer Informa- tion Systems, vol. 00, no. 00, pp. 1–9, sep 2018.
+[15] J.GhofraniandD.Lu ̈bke,“ChallengesofMicroservicesArchitecture:A Survey on the State of the Practice,” in 10th Central European Workshop on Services and their Composition (ZEUS), vol. 10th. Dresden, Germany: CEUR-WS.org, 2018.
+[16] S. Haselbock, R. Weinreich, and G. Buchgeher, “An Expert Interview Study on Areas of Microservice Design,” in 2018 IEEE 11th Conference on Service-Oriented Computing and Applications (SOCA). IEEE, nov 2018, pp. 137–144.
+[17] A. Carrasco, B. van Bladel, and S. Demeyer, “Migrating towards microservices: migration and architecture smells,” in Proceedings of the 2nd International Workshop on Refactoring - IWoR 2018. New York, New York, USA: ACM Press, 2018, pp. 1–6.
+[18] D. Taibi and V. Lenarduzzi, “On the Definition of Microservice Bad Smells,” IEEE Software, vol. 35, no. 3, pp. 56–62, may 2018.
+[19] V. Lenarduzzi and D. Taibi, “Microservices, Continuous Architecture, and Technical Debt Interest: An Empirical Study,” in Euromicro SEAA, no. June, Prague, Czech Republic, 2018.
+[20] J. Bogner, J. Fritzsch, S. Wagner, and A. Zimmermann, “Limiting Technical Debt with Maintainability Assurance – An Industry Survey on Used Techniques and Differences with Service- and Microservice- Based Systems,” in Proceedings of the 2018 International Conference on Technical Debt - TechDebt ’18. New York, New York, USA: ACM Press, 2018, pp. 125–133.</t>
+  </si>
+  <si>
+    <t>Good, due to the authors conducted a survey to check the perception of architectural technical debt in micro-services, Despite most reported issues being related to Architectural Technical Debt (ATD), our participants did not apply any architectural or service-oriented tools and metrics. So, it is a good oportunite to study ATD in microservices.</t>
+  </si>
+  <si>
+    <t>The amount of participantes were 17 stakeholders from 10 diferent companies from Germany. Maybe a small number to represent the perception for all companies.</t>
+  </si>
+  <si>
+    <t>The study did not show details about identification, measure or calculate the cost of ATDI.</t>
+  </si>
+  <si>
+    <t>The authors conducted a study to check the perception of maintanance and evolution of microservices via survey in 10 IT companies from Germany.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural Technical Debt (ATD) is a metaphor used to describe consciously decisions taken by software architects to accomplish short-term goals but possibly negatively affecting the long-term health of the system. However, difficulties arise when repayment strategies are defined because software architects need to be aware of the consequences of these strategies over others decisions in the software architecture. This article proposes REBEL, a semi-automated model-driven approach that exploits natural language processing, machine learning and model checking techniques on heterogeneous project artifacts to build a model that allows to locate and visualize the impact produced by the consciously injected ATD and its repayment strategy on the other architectural decisions. The technique is illustrated with a data analytics project in Colombia where software architects are unaware of the consequences of the repayment strategies. This proposal seeks to support teams of architects to make explicit the current and future impact of the ATD injected as a result of decisions taken, focusing on the architectural level rather than code level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large software companies need to support continuous and fast delivery of customer value both in the short and long term. However, this can be hindered if both evolution and maintenance of existing systems are hampered by Technical Debt. Although a lot of theoretical work on Technical Debt has been recently produced, its practical management lacks empirical studies. In this paper we investigate the state of practice in several companies in order to understand how they start tracking Technical Debt. We combined different methodologies: we conducted a survey, involving 226 respondents from 15 organizations and a more in-depth multiple case-study in three organizations, where Technical Debt was tracked: we involved 13 interviews and 79 Technical Debt issues analysis. We found that the development time dedicated to manage Technical Debt is substantial (around 25% of the overall development) but not systematic: only a few participants methodically track Technical Debt. By studying the approaches in the companies participating in the case-study, we understood how companies start tracking Technical Debt and what are the initial benefits and challenges. Finally, we propose a S trategic Adoption Model based to define and adopt a dedicated process for tracking Technical Debt. </t>
+  </si>
+  <si>
+    <t>For the technical debt metaphor to be useful, its constructs must be measurable or at least estimable from measurable elements of software. Fortunately, we can estimate the violations underlying TD-principal via tech- niques such as static analysis of the software’s nonfunctional, structural characteristics.3 Violations of struc- tural quality are often difficult to de- tect through standard testing but are frequent causes of severe operational problems.</t>
+  </si>
+  <si>
+    <t>International Conference on Software Engineering: Software Engineering in Practice</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">International Conference on Technical Debt (TechDebt)
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">International Workshop on Managing Technical Debt (MTD)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>International Conference on Software Analysis, Evolution and Reengineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Conference on Technical Debt (TechDebt)
+</t>
+  </si>
+  <si>
+    <t>Software Evolution</t>
+  </si>
+  <si>
+    <t>Architecture Design Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement System, Software management, Refactoring +, Estimation, Technical Debt, Modularization, Software Architecture </t>
+  </si>
+  <si>
+    <t>Management, Measurement, Design, Economics</t>
+  </si>
+  <si>
+    <t>Software Management, Refactoring, Estimation, Technical Debt, Modularization, Software Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measurement,Social networking online,Computer architecture,Software architecture,Software systems,Software design
+</t>
+  </si>
+  <si>
+    <t>Software
+Visualization,
+Computer architecture,
+Stakeholders,
+Context,
+Automotive engineering,
+Complex systems</t>
+  </si>
+  <si>
+    <t>Technical Debt, Software Architeture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural Technical Debt, Software management, Software architecture,  +Agile software development, Software life-cycle, Qualitative model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">software product quality,technical debt,reliability, maintainability, architecture, metrics, static code analysis 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilateral cloud security, architecture Design smells,Technical debt, Design debt, Cloud computing security, Design refactoring </t>
+  </si>
+  <si>
+    <t>Justus Bogner,Jonas  Fritzsch,Stefan Wagner,Alfred  Zimmermann</t>
+  </si>
+  <si>
+    <t>Sanja Aaramaa, Sandun Dasanayake, Markku Oivo, Jouni Markkula, Samuli Saukkonen</t>
+  </si>
+  <si>
+    <t>Related work (parsed)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R. Verdecchia,;“Architectural technical debt identification: Moving forward,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2018 IEEE International Conference on Software Architecture Companion (ICSA-C)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">. IEEE, 2018, pp. 43–44#
+ J. Musil, F. J. Ekaputra, M. Sabou, T. Ionescu, D. Schall, A. Musil, and S. Biffl, ;“Continuous architectural knowledge integration: Making heterogeneous architectural knowledge available in large-scale organizations,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software Architecture (ICSA), 2017 IEEE International Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">. IEEE, 2017, pp. 189–192.#
+Z. Li, P. Liang, and P. Avgeriou, ;“Chapter 9 - architectural debt management in value-oriented architecting,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Economics-Driven Software Architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, I. Mistrik, R. Bahsoon, R. Kazman, and Y. Zhang, Eds. Boston: Morgan Kaufmann, 2014, pp. 183 – 204.#
+T. Besker, A. Martini, and J. Bosch, ;“Managing architectural technical debt: A unified model and systematic literature review,”; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Journal of Systems and Software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, vol. 135, pp. 1–16, 2018.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> P. Kruchten, R.L. Nord, I. Ozkaya, ;Technical debt: from metaphor to theory and practice;, IEEE Softw. 29 (6) (2012) 18–21.#
+ E. Tom, A. Aurum, R. Vidgen,; An exploration of technical debt;, J. Syst. Softw. 86 (6) (Jun. 2013) 1498–1516.#
+ Z. Li, P. Avgeriou, P. Liang, ;A systematic mapping study on technical debt and its management;, J. Syst. Softw. 101 (Mar. 2015) 193–220.#
+T Besker, A Martini, J Bosch, ;A systematic literature review and a unified model of architectural technical debt;Euromicro Conference Series on Software Engi- neering and Advanced Applications (SEAA), 2016.#
+ P. Avgeriou, P. Kruchten, R.L. Nord, I. Ozkaya, C. Seaman, ;Reducing friction in software development; IEEE Softw. 33 (1) (Jan. 2016) 66–73.#
+ R.L. Nord, I. Ozkaya, P. Kruchten, M. Gonzalez-Rojas,;In search of a metric for managing architectural technical debt; in: 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.#
+ A. Martini, J. Bosch, M. Chaudron, ;Investigating architectural technical debt accumulation and refactoring over time; Inf. Softw. Technol. 67 (C) (Nov. 2015) 237–253, doi:10.1016/j.infsof.2015.07.005.#
+R. Kazman, et al., ;A case study in locating the architectural roots of technical debt; in: Proceedings of the 37th International Conference on Software Engi- neering, 2, Piscataway, NJ, USA, 2015, pp. 179–188.#
+C. Seaman, et al., ;Using technical debt data in decision making: potential decision approaches; in: 2012 Third International Workshop on Managing Techni- cal Debt (MTD), 2012, pp. 45–48.#
+A. Martini, J. Bosch, ;An empirically developed method to aid decisions on ar- chitectural technical debt refactoring: anacondebt;in: Proceedings of the 38th International Conference on Software Engineering Companion, New York, NY, USA, 2016, pp. 31–40.#
+N.A. Ernst, S. Bellomo, I. Ozkaya, R.L. Nord, I. Gorton, ;Measure it? Manage it? Ignore it? Software practitioners and technical debt; in: Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60.#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">D. Coleman, D. Ash, B. Lowther, and P. Oman, ;“Using metrics to evaluate software system maintainability,”; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Computer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://dx.doi.org/10.1109/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">. 303623 #
+F. Arcelli Fontana, R. Roveda, and M. Zanoni,; “Technical debt indexes provided by tools: A preliminary discussion,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, Oct 2016, pp. 28–31. #
+  J.-L. Letouzey,; “The SQALE method for evaluating technical debt,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>MTD 2012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, June 2012, pp. 31–36.#
+S. M. A. Shah, J. Dietrich, and C. McCartin, ;“Making smart moves to untangle programs,”; in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2012 16th European Conference on Software Maintenance and Reengineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, March 2012, pp. 359–364.#
+R. C. Martin,; “Object oriented design quality metrics: An analysis of dependencies,”; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>ROAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, vol. 2, no. 3, Sept–Oct 1995. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">RQ1: Are there any community smells emerging in the process of software architecting? </t>
+Y.CaiandK.J.Sullivan. ;Modularity analysis of logical design models;.In 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Proc. 21st IEEE/ACM International Conference on Automated Software </t>
     </r>
     <r>
       <rPr>
@@ -9403,158 +10422,145 @@
       <rPr>
         <i/>
         <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">RQ2: Provided that architectural community smells do exist, can the extent of the impact for reported community smells be measured? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">RQ3: Can social debt be addressed and mitigated? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-The results, in this paper, stem from a longitudinal, real-life industrial case study and were confirmed using industrial focus groups. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">More specifically, to confirm the validity of the architec- tural social debt community smells and their measurement framework reported in this paper, the connected notions were stressed in two industry–academy mixed focus groups as part of a Dagstuhl Seminar on Technical Debt.1 The focus groups counted a total of nine senior members from several top industrial players, including Google, CAST Software, HP Inc., and VNomic. As part of the results of the focus groups, the validity of the architectural social debt community smells reported in this paper along with the DAHLIA framework to manage them was confirmed. Furthermore, the involved prac- titioners allowed a deeper exploration of previously unknown dimensions over the social debt phenomenon. For example, the definition and ramifications of social debt as a metaphor were refined with an even deeper relation to technical debt—a form of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>sociotechnical debt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, wherefore the social causes always lead to nasty technical phenomena as well (e.g., code churn, unwanted changes, replicated code, and more). This latter form of sociotechnical debt reflects additional project cost which is caused by suboptimal sociotechnical decisions but manifests as negative and invisible characteristics in source code or connected software artifacts (e.g., requirements, software architecture, documentation, and so on) rather than delays or communication friction across the organizational structure. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">This paper reports on patterns in the process of architecting and ways in which the connected debt can be measured and managed. The patterns in question were observed in an industrial case study and found that they result in what is called social debt, i.e., a picture of the current state of </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">things burdened by suboptimal sociotechnical decisions. In the case of the patterns reported in this paper, a considerable part of architectural decisions or the very process of archi- tecting in a certain way had a negative and (previously) invisible sociotechnical connotation. This paper also reports on a practice observed in the case study to mitigate some of the nasty consequences connected to emerging social debt. Finally, the manuscript outlined DAHLIA, a sample metric for architectures to make (some) social debt explicit by measuring architectural (in)communicability, i.e., the likelihood that the developers’ network is (un)aware of architecture decisions. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">This paper contributions and discussions lead to the con- clusion that social debt and software architectures are tightly knit together and with technical debt as well and deserve further attention in the future. Further studies are planned to elaborate on the findings, expanding the understanding of the relations between social debt, its technical counterpart, and software architectures possibly with an immersive study in industry. Also, further studies are planned to understand the differences between social debt in closed-source industries (as reported in this paper) and open source, to possibly find successful architecting patterns elicited from open source, if any. In addition, several points highlighted in this paper remain open, for example: 1) what is the full mapping between software engineering economics concepts and the notion of social debt? 2) what is the role of interest repayment strategies as well as economic formulations around debt contraction and repayment as mapped to social debt? 3) what is the relation between effort-estimation techniques, the consequent organizational structure decisions, and the emergence of social debt? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="22"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Finally, further studies are being planned to elaborate further on the proposed metric for software architecture communi- cability, demonstrating its representation condition [12] and applying it in industrial practice in the operational form, with the goal of providing more solid and quantitative validation for it. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 91–102, Sept. 2006.#
+ K. J. Sullivan, W. G. Griswold, Y. Cai, and B. Hallen. ;The structure and value of modularity in software design;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 9th ACM SIGSOFT International Symposium on the Foundations of Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 99–108, Sept. 2001.# 
+S. Wong, Y. Cai, G. Valetto, G. Simeonov, and K. Sethi. ;Design rule hierarchies and parallelism in software development tasks;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 24th IEEE/ACM International Conference on Automated Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 197–208, Nov. 2009.#
+ L. Xiao, Y. Cai, and R. Kazman. ;Design rule spaces: A new form of architecture insight;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 36rd International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 2014.# 
+ R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka. ;A case study in locating the architectural roots of technical debt;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 37th International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, May 2015.#
+ Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. Tonin, F. Q. B. 
+Da Silva, A. L. M. Santos, and C. Siebra. ;Tracking technical debt—An exploratory case study;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software Maintenance (ICSM), 2011 27th IEEE International Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 528–531. IEEE, 2011.#
+ R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas.; In Search of a Metric for Managing Architectural Technical Debt;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012 Joint Working IEEE/IFIP Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 91–100. IEEE, Aug. 2012. #
+B. Curtis, J. Sappidi, and A. Szynkarski. ;Estimating the principal of an  application’s technical debt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>IEEE software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 29(6):34–42, 2012. #
 </t>
     </r>
   </si>
@@ -9563,7 +10569,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -9692,6 +10698,41 @@
       <sz val="10"/>
       <color indexed="22"/>
       <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Menlo Italic"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="NimbusRomNo9L"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Linux Libertine"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Menlo Bold"/>
     </font>
   </fonts>
   <fills count="4">
@@ -9880,7 +10921,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9908,8 +10949,101 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -10003,28 +11137,47 @@
     <xf numFmtId="49" fontId="18" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="justify" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="40">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -10033,6 +11186,37 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11183,28 +12367,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC48"/>
+  <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="53" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" style="1" customWidth="1"/>
-    <col min="8" max="10" width="33.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="33.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="37.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="54.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="70" style="1" customWidth="1"/>
     <col min="16" max="16" width="24.83203125" style="1" customWidth="1"/>
@@ -11212,15 +12396,16 @@
     <col min="18" max="18" width="44.83203125" style="1" customWidth="1"/>
     <col min="19" max="19" width="45" style="1" customWidth="1"/>
     <col min="20" max="20" width="28.83203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="62.5" style="1" customWidth="1"/>
-    <col min="22" max="22" width="59.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="57.1640625" style="1" customWidth="1"/>
-    <col min="24" max="29" width="12.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="16.33203125" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="16.33203125" style="1"/>
+    <col min="21" max="22" width="62.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="69.1640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="57.1640625" style="1" customWidth="1"/>
+    <col min="25" max="29" width="12.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="25.5" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="28" customHeight="1">
+    <row r="1" spans="1:30" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11288,28 +12473,31 @@
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="355" customHeight="1">
+    <row r="2" spans="1:30" ht="403" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -11329,2947 +12517,3229 @@
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="M2" s="7">
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>662</v>
+        <v>624</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>660</v>
+        <v>622</v>
       </c>
       <c r="P2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="W2" s="43" t="s">
+        <v>916</v>
+      </c>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="W2" s="8"/>
-      <c r="X2" s="4" t="s">
+      <c r="Z2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="4" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="3" spans="1:29" ht="409.5" customHeight="1">
+    <row r="3" spans="1:30" ht="409.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>50</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>51</v>
       </c>
       <c r="F3" s="9">
         <v>2017</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="I3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>55</v>
-      </c>
       <c r="L3" s="10" t="s">
-        <v>56</v>
+        <v>904</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="R3" s="12" t="s">
+      <c r="T3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="U3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="13"/>
+      <c r="W3" s="10" t="s">
+        <v>917</v>
+      </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:29" ht="409.5" customHeight="1">
+    <row r="4" spans="1:30" ht="409.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F4" s="9">
         <v>2018</v>
       </c>
       <c r="G4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="L4" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>72</v>
       </c>
       <c r="M4" s="11">
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>667</v>
+        <v>776</v>
       </c>
       <c r="O4" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>918</v>
+      </c>
+      <c r="X4" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="T4" s="14"/>
-      <c r="U4" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>79</v>
+      <c r="AD4" s="12" t="s">
+        <v>777</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="409.5" customHeight="1">
+    <row r="5" spans="1:30" ht="409.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>661</v>
+        <v>623</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="9">
         <v>2018</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>85</v>
+        <v>285</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M5" s="11">
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="P5" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>919</v>
+      </c>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="AA5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="AC5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="AD5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="W5" s="14"/>
-      <c r="X5" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC5" s="10" t="s">
-        <v>97</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" ht="409.5" customHeight="1">
+    <row r="6" spans="1:30" ht="409.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F6" s="9">
         <v>2019</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>103</v>
+        <v>897</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="M6" s="11">
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>677</v>
+        <v>840</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="14"/>
+        <v>838</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>839</v>
+      </c>
       <c r="S6" s="12" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
+        <v>637</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>841</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>842</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" ht="409.5" customHeight="1">
+    <row r="7" spans="1:30" ht="409.5" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F7" s="9">
         <v>2019</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M7" s="9">
         <v>12</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>120</v>
+        <v>851</v>
       </c>
       <c r="P7" s="10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="R7" s="10" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" s="14"/>
+        <v>114</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="U7" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
+        <v>638</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>849</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>846</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>845</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" ht="409.5" customHeight="1">
+    <row r="8" spans="1:30" ht="409.5" customHeight="1">
       <c r="A8" s="9">
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C8" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M8" s="9">
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="R8" s="14"/>
+        <v>641</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>836</v>
+      </c>
       <c r="S8" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="T8" s="14"/>
+        <v>125</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="U8" s="12" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
+        <v>642</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>832</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>834</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>831</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" ht="409.5" customHeight="1">
+    <row r="9" spans="1:30" ht="409.5" customHeight="1">
       <c r="A9" s="9">
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C9" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F9" s="9">
         <v>2016</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>145</v>
+        <v>905</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>147</v>
+        <v>821</v>
       </c>
       <c r="P9" s="10" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
+        <v>827</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>828</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" ht="409.5" customHeight="1">
+    <row r="10" spans="1:30" ht="409.5" customHeight="1">
       <c r="A10" s="9">
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="C10" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F10" s="9">
         <v>2016</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="M10" s="11">
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>162</v>
+        <v>877</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>686</v>
+        <v>880</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
+        <v>878</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>882</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>884</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" ht="359.25" customHeight="1">
+    <row r="11" spans="1:30" ht="359.25" customHeight="1">
       <c r="A11" s="9">
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C11" s="11">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="F11" s="9">
         <v>2018</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="M11" s="9">
         <v>2</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>186</v>
+        <v>169</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="395.25" customHeight="1">
+    <row r="12" spans="1:30" ht="395.25" customHeight="1">
       <c r="A12" s="9">
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="L12" s="12" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="M12" s="11">
         <v>2</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="V12" s="14"/>
-      <c r="W12" s="12" t="s">
-        <v>692</v>
-      </c>
+      <c r="W12" s="14"/>
       <c r="X12" s="12" t="s">
-        <v>194</v>
+        <v>650</v>
       </c>
       <c r="Y12" s="12" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>42</v>
+        <v>181</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="409.5" customHeight="1">
+    <row r="13" spans="1:30" ht="409.5" customHeight="1">
       <c r="A13" s="9">
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="C13" s="9">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F13" s="9">
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>201</v>
+        <v>902</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="U13" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="W13" s="14"/>
+        <v>192</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>192</v>
+      </c>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
     </row>
-    <row r="14" spans="1:29" ht="409.5" customHeight="1">
+    <row r="14" spans="1:30" ht="409.5" customHeight="1">
       <c r="A14" s="9">
         <v>17</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C14" s="18">
         <v>16</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F14" s="9">
         <v>2016</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="M14" s="11">
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="X14" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="Y14" s="27" t="s">
-        <v>225</v>
+        <v>656</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y14" s="26" t="s">
+        <v>207</v>
       </c>
       <c r="Z14" s="27" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="AA14" s="27" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>228</v>
-      </c>
-      <c r="AC14" s="28" t="s">
-        <v>229</v>
+        <v>210</v>
+      </c>
+      <c r="AC14" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD14" s="28" t="s">
+        <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="409.5" customHeight="1">
+    <row r="15" spans="1:30" ht="409.5" customHeight="1">
       <c r="A15" s="9">
         <v>21</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="C15" s="20">
         <v>36</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="F15" s="9">
         <v>2015</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="M15" s="11">
         <v>10</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="U15" s="10" t="s">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="W15" s="14"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
+        <v>228</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="X15" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="Y15" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="Z15" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="AA15" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>805</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" ht="320.25" customHeight="1">
+    <row r="16" spans="1:30" ht="320.25" customHeight="1">
       <c r="A16" s="9">
         <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C16" s="9">
         <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="F16" s="9">
         <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="M16" s="9">
         <v>8</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>659</v>
+        <v>245</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>245</v>
       </c>
       <c r="X16" s="14" t="s">
-        <v>658</v>
+        <v>621</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>384</v>
+        <v>620</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>657</v>
+        <v>363</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>656</v>
+        <v>619</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>655</v>
+        <v>618</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>654</v>
+        <v>617</v>
+      </c>
+      <c r="AD16" s="14" t="s">
+        <v>616</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="409.5" customHeight="1">
+    <row r="17" spans="1:30" ht="409" customHeight="1">
       <c r="A17" s="9">
         <v>27</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="F17" s="9">
         <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>251</v>
+        <v>234</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>265</v>
+        <v>906</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
+        <v>254</v>
+      </c>
+      <c r="W17" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="X17" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y17" s="14" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z17" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA17" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="AC17" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD17" s="32" t="s">
+        <v>763</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" ht="409.5" customHeight="1">
+    <row r="18" spans="1:30" ht="409.5" customHeight="1">
       <c r="A18" s="9">
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="M18" s="9">
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="T18" s="10" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="U18" s="12" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="W18" s="14"/>
+        <v>266</v>
+      </c>
+      <c r="W18" s="12" t="s">
+        <v>266</v>
+      </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
     </row>
-    <row r="19" spans="1:29" ht="372.25" customHeight="1">
+    <row r="19" spans="1:30" ht="372.25" customHeight="1">
       <c r="A19" s="9">
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>631</v>
+        <v>593</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>290</v>
+        <v>903</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M19" s="9">
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="R19" s="12" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="W19" s="14"/>
+        <v>665</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>665</v>
+      </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
     </row>
-    <row r="20" spans="1:29" ht="409.5" customHeight="1">
+    <row r="20" spans="1:30" ht="409.5" customHeight="1">
       <c r="A20" s="9">
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C20" s="9">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="Q20" s="12" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="T20" s="10" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="W20" s="14"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
+        <v>668</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>866</v>
+      </c>
+      <c r="Y20" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z20" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA20" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="AB20" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="AD20" s="14" t="s">
+        <v>862</v>
+      </c>
     </row>
-    <row r="21" spans="1:29" ht="333.25" customHeight="1">
+    <row r="21" spans="1:30" ht="333.25" customHeight="1">
       <c r="A21" s="9">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="C21" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="R21" s="14"/>
+        <v>300</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="S21" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="T21" s="14"/>
+        <v>301</v>
+      </c>
+      <c r="T21" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="U21" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
+        <v>670</v>
+      </c>
+      <c r="V21" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="Y21" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z21" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA21" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD21" s="14" t="s">
+        <v>768</v>
+      </c>
     </row>
-    <row r="22" spans="1:29" ht="409.5" customHeight="1">
+    <row r="22" spans="1:30" ht="409.5" customHeight="1">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>327</v>
+        <v>907</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>652</v>
+        <v>614</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="Q22" s="12" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="T22" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="W22" s="14" t="s">
-        <v>653</v>
+        <v>672</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>672</v>
       </c>
       <c r="X22" s="14" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>488</v>
+        <v>612</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>651</v>
+        <v>466</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>650</v>
+        <v>613</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>646</v>
+        <v>612</v>
+      </c>
+      <c r="AD22" s="14" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="409.5" customHeight="1">
+    <row r="23" spans="1:30" ht="409.5" customHeight="1">
       <c r="A23" s="9">
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="C23" s="9">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="O23" s="24"/>
+        <v>318</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>869</v>
+      </c>
       <c r="P23" s="12" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
+        <v>319</v>
+      </c>
+      <c r="R23" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>876</v>
+      </c>
       <c r="T23" s="12" t="s">
-        <v>716</v>
+        <v>872</v>
       </c>
       <c r="U23" s="10" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="V23" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
+        <v>867</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="X23" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y23" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="Z23" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>452</v>
+      </c>
+      <c r="AB23" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="AC23" s="14" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD23" s="14" t="s">
+        <v>871</v>
+      </c>
     </row>
-    <row r="24" spans="1:29" ht="345.25" customHeight="1">
+    <row r="24" spans="1:30" ht="345.25" customHeight="1">
       <c r="A24" s="9">
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>718</v>
+        <v>674</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>726</v>
+        <v>682</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="V24" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="W24" s="14"/>
-      <c r="X24" s="12" t="s">
-        <v>353</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="X24" s="14"/>
       <c r="Y24" s="12" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="AA24" s="12" t="s">
-        <v>355</v>
+        <v>179</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="AC24" s="12" t="s">
-        <v>42</v>
+        <v>336</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="409.5" customHeight="1">
+    <row r="25" spans="1:30" ht="409.5" customHeight="1">
       <c r="A25" s="9">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>728</v>
+        <v>684</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>730</v>
+        <v>686</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>731</v>
+        <v>687</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>732</v>
+        <v>688</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>366</v>
+        <v>688</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>42</v>
+        <v>351</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="409.5" customHeight="1">
+    <row r="26" spans="1:30" ht="386" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>378</v>
+        <v>908</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>733</v>
+        <v>689</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>734</v>
+        <v>690</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>735</v>
+        <v>691</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>736</v>
+        <v>692</v>
       </c>
       <c r="V26" s="12" t="s">
-        <v>737</v>
+        <v>693</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>382</v>
+        <v>693</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>387</v>
+        <v>365</v>
+      </c>
+      <c r="AD26" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="409.5" customHeight="1">
+    <row r="27" spans="1:30" ht="409.5" customHeight="1">
       <c r="A27" s="9">
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="C27" s="9">
         <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>719</v>
+        <v>675</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>720</v>
+        <v>676</v>
       </c>
       <c r="V27" s="14"/>
-      <c r="W27" s="12" t="s">
-        <v>395</v>
-      </c>
+      <c r="W27" s="14"/>
       <c r="X27" s="12" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="Y27" s="12" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="AC27" s="12" t="s">
-        <v>400</v>
+        <v>378</v>
+      </c>
+      <c r="AD27" s="12" t="s">
+        <v>379</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="358.25" customHeight="1">
+    <row r="28" spans="1:30" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>738</v>
+        <v>694</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>407</v>
+        <v>909</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>739</v>
+        <v>695</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>740</v>
+        <v>696</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>741</v>
+        <v>697</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>412</v>
+        <v>697</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>46</v>
+        <v>392</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>415</v>
+        <v>886</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>416</v>
+        <v>393</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="333.25" customHeight="1">
+    <row r="29" spans="1:30" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>417</v>
+        <v>395</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>422</v>
+        <v>400</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>428</v>
+        <v>406</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U29" s="10" t="s">
-        <v>430</v>
+        <v>408</v>
       </c>
       <c r="V29" s="12" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>46</v>
+        <v>412</v>
       </c>
       <c r="AA29" s="12" t="s">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>436</v>
+        <v>413</v>
+      </c>
+      <c r="AD29" s="12" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="409.5" customHeight="1">
+    <row r="30" spans="1:30" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>637</v>
+        <v>599</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>638</v>
+        <v>600</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>639</v>
+        <v>601</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>645</v>
+        <v>679</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>679</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>46</v>
+        <v>604</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>641</v>
+        <v>45</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="AC30" s="14" t="s">
-        <v>640</v>
+        <v>606</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="409.5" customHeight="1">
+    <row r="31" spans="1:30" ht="409.5" customHeight="1">
       <c r="A31" s="9">
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>633</v>
+        <v>595</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>742</v>
+        <v>698</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>743</v>
+        <v>699</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>744</v>
+        <v>700</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="10" t="s">
-        <v>745</v>
+        <v>701</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="W31" s="14"/>
+        <v>429</v>
+      </c>
+      <c r="W31" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
     </row>
-    <row r="32" spans="1:29" ht="409.5" customHeight="1">
+    <row r="32" spans="1:30" ht="409.5" customHeight="1">
       <c r="A32" s="9">
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>746</v>
+        <v>702</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>747</v>
+        <v>703</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>748</v>
+        <v>898</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>749</v>
+        <v>704</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>750</v>
+        <v>705</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>751</v>
+        <v>706</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>752</v>
+        <v>707</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>753</v>
+        <v>708</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>754</v>
+        <v>709</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>457</v>
+        <v>709</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AC32" s="12" t="s">
-        <v>42</v>
+        <v>440</v>
+      </c>
+      <c r="AD32" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="409.5" customHeight="1">
+    <row r="33" spans="1:30" ht="409.5" customHeight="1">
       <c r="A33" s="9">
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>755</v>
+        <v>710</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
-      <c r="G33" s="31" t="s">
-        <v>465</v>
+      <c r="G33" s="40" t="s">
+        <v>443</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>756</v>
+        <v>711</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>757</v>
+        <v>712</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="U33" s="10" t="s">
-        <v>758</v>
+        <v>713</v>
       </c>
       <c r="V33" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="W33" s="14"/>
-      <c r="X33" s="12" t="s">
-        <v>472</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="X33" s="14"/>
       <c r="Y33" s="12" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="AA33" s="12" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="AC33" s="12" t="s">
-        <v>477</v>
+        <v>454</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="409.5" customHeight="1">
+    <row r="34" spans="1:30" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>635</v>
+        <v>597</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>760</v>
+        <v>715</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>761</v>
+        <v>899</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>762</v>
+        <v>716</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>763</v>
+        <v>717</v>
       </c>
       <c r="O34" s="12" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>764</v>
-      </c>
-      <c r="W34" s="14" t="s">
-        <v>636</v>
-      </c>
-      <c r="X34" s="12" t="s">
-        <v>486</v>
+        <v>718</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>718</v>
+      </c>
+      <c r="X34" s="14" t="s">
+        <v>598</v>
       </c>
       <c r="Y34" s="12" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="Z34" s="12" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="AA34" s="12" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>42</v>
+        <v>468</v>
+      </c>
+      <c r="AD34" s="12" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:29" ht="409.5" customHeight="1">
+    <row r="35" spans="1:30" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>765</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>492</v>
+        <v>719</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>470</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>493</v>
+        <v>895</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="Q35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>634</v>
+        <v>596</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>625</v>
+        <v>587</v>
       </c>
       <c r="U35" s="10" t="s">
-        <v>766</v>
+        <v>720</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="W35" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="X35" s="14" t="s">
-        <v>629</v>
+        <v>476</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>586</v>
       </c>
       <c r="Y35" s="14" t="s">
-        <v>626</v>
+        <v>591</v>
       </c>
       <c r="Z35" s="14" t="s">
-        <v>474</v>
+        <v>588</v>
       </c>
       <c r="AA35" s="14" t="s">
-        <v>627</v>
+        <v>452</v>
       </c>
       <c r="AB35" s="14" t="s">
-        <v>628</v>
+        <v>589</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>630</v>
+        <v>590</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="409.5" customHeight="1">
+    <row r="36" spans="1:30" ht="409.5" customHeight="1">
       <c r="A36" s="9">
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>502</v>
+        <v>914</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>478</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>509</v>
+        <v>852</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>511</v>
+        <v>853</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="V36" s="13"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
+        <v>486</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>859</v>
+      </c>
+      <c r="X36" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="Y36" s="14" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z36" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>857</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="AD36" s="34" t="s">
+        <v>854</v>
+      </c>
     </row>
-    <row r="37" spans="1:29" ht="409.5" customHeight="1">
+    <row r="37" spans="1:30" ht="409.5" customHeight="1">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>767</v>
+        <v>721</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>516</v>
+        <v>910</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>769</v>
+        <v>723</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>517</v>
+        <v>490</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="10" t="s">
-        <v>770</v>
+        <v>724</v>
       </c>
       <c r="V37" s="13"/>
-      <c r="W37" s="14"/>
+      <c r="W37" s="13"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
+      <c r="AD37" s="14"/>
     </row>
-    <row r="38" spans="1:29" ht="409.5" customHeight="1">
+    <row r="38" spans="1:30" ht="409.5" customHeight="1">
       <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>771</v>
+        <v>725</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>519</v>
+        <v>492</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>772</v>
+        <v>726</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>520</v>
+        <v>493</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>521</v>
+        <v>494</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>773</v>
+        <v>727</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>774</v>
+        <v>728</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>775</v>
+        <v>729</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -14277,775 +15747,898 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="10" t="s">
-        <v>776</v>
+        <v>730</v>
       </c>
       <c r="V38" s="13"/>
-      <c r="W38" s="14"/>
+      <c r="W38" s="13"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
+      <c r="AD38" s="14"/>
     </row>
-    <row r="39" spans="1:29" ht="409.5" customHeight="1">
+    <row r="39" spans="1:30" ht="409.5" customHeight="1">
       <c r="A39" s="9">
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="C39" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>523</v>
+        <v>496</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>524</v>
+        <v>497</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>777</v>
+        <v>731</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>525</v>
+        <v>498</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>526</v>
+        <v>499</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>778</v>
+        <v>732</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>528</v>
-      </c>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
+        <v>888</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T39" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="U39" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="V39" s="13"/>
-      <c r="W39" s="14"/>
+        <v>501</v>
+      </c>
+      <c r="V39" s="13" t="s">
+        <v>889</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>889</v>
+      </c>
       <c r="X39" s="14"/>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
+      <c r="Y39" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="Z39" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="AA39" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB39" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="AC39" s="14" t="s">
+        <v>891</v>
+      </c>
+      <c r="AD39" s="14" t="s">
+        <v>887</v>
+      </c>
     </row>
-    <row r="40" spans="1:29" ht="318.25" customHeight="1">
+    <row r="40" spans="1:30" ht="318.25" customHeight="1">
       <c r="A40" s="9">
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>779</v>
+        <v>733</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>532</v>
+        <v>504</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>780</v>
+        <v>734</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>781</v>
+        <v>735</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>533</v>
+        <v>911</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>782</v>
+        <v>736</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>783</v>
+        <v>737</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14" t="s">
-        <v>599</v>
+        <v>561</v>
       </c>
       <c r="R40" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>607</v>
+        <v>569</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>784</v>
+        <v>738</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>600</v>
-      </c>
-      <c r="W40" s="14" t="s">
-        <v>598</v>
+        <v>562</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>562</v>
       </c>
       <c r="X40" s="14" t="s">
-        <v>606</v>
+        <v>560</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>605</v>
+        <v>568</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>604</v>
+        <v>567</v>
       </c>
       <c r="AA40" s="14" t="s">
-        <v>601</v>
+        <v>566</v>
       </c>
       <c r="AB40" s="14" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="AC40" s="14" t="s">
-        <v>603</v>
+        <v>564</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>565</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="404.25" customHeight="1">
+    <row r="41" spans="1:30" ht="404.25" customHeight="1">
       <c r="A41" s="9">
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="C41" s="9">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>632</v>
+        <v>594</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>535</v>
+        <v>506</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>785</v>
+        <v>896</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>536</v>
+        <v>507</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>537</v>
+        <v>508</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="P41" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q41" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S41" s="14" t="s">
         <v>786</v>
       </c>
-      <c r="O41" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
+      <c r="T41" s="14" t="s">
+        <v>784</v>
+      </c>
       <c r="U41" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="V41" s="13"/>
-      <c r="W41" s="14"/>
+        <v>509</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>787</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>787</v>
+      </c>
       <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
+      <c r="Y41" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="Z41" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="AA41" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB41" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD41" s="14" t="s">
+        <v>791</v>
+      </c>
     </row>
-    <row r="42" spans="1:29" ht="398.75" customHeight="1">
+    <row r="42" spans="1:30" ht="398.75" customHeight="1">
       <c r="A42" s="9">
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>534</v>
+        <v>505</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>608</v>
+        <v>570</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>789</v>
+        <v>742</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>790</v>
+        <v>743</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>791</v>
+        <v>744</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>613</v>
+        <v>575</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>792</v>
+        <v>745</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>614</v>
-      </c>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14" t="s">
-        <v>609</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="X42" s="14"/>
       <c r="Y42" s="14" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="Z42" s="14" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="AA42" s="14" t="s">
-        <v>615</v>
+        <v>566</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="AC42" s="14" t="s">
-        <v>42</v>
+        <v>573</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="387" customHeight="1">
+    <row r="43" spans="1:30" ht="387" customHeight="1">
       <c r="A43" s="9">
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
-      <c r="D43" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="E43" s="34" t="s">
-        <v>544</v>
+      <c r="D43" s="42" t="s">
+        <v>513</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>514</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>795</v>
+        <v>748</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>796</v>
+        <v>749</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>547</v>
+        <v>912</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>797</v>
+        <v>750</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="10" t="s">
-        <v>798</v>
+        <v>751</v>
       </c>
       <c r="V43" s="13"/>
-      <c r="W43" s="14"/>
+      <c r="W43" s="13"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
     </row>
-    <row r="44" spans="1:29" ht="409.5" customHeight="1">
+    <row r="44" spans="1:30" ht="409.5" customHeight="1">
       <c r="A44" s="9">
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>549</v>
+        <v>518</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
-      <c r="D44" s="35" t="s">
-        <v>550</v>
+      <c r="D44" s="41" t="s">
+        <v>519</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>799</v>
+        <v>752</v>
       </c>
       <c r="H44" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I44" s="10" t="s">
+      <c r="J44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="K44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K44" s="12" t="s">
-        <v>36</v>
-      </c>
       <c r="L44" s="10" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>800</v>
+        <v>753</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>801</v>
+        <v>754</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="R44" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>802</v>
+        <v>755</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>620</v>
+        <v>582</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>623</v>
-      </c>
-      <c r="W44" s="14" t="s">
-        <v>616</v>
+        <v>585</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>585</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>621</v>
+        <v>579</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>618</v>
+        <v>581</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>621</v>
+        <v>580</v>
       </c>
       <c r="AC44" s="14" t="s">
-        <v>622</v>
+        <v>583</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>584</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="409.5" customHeight="1">
+    <row r="45" spans="1:30" ht="409.5" customHeight="1">
       <c r="A45" s="9">
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
-      <c r="D45" s="35" t="s">
-        <v>556</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>557</v>
+      <c r="D45" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>526</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>559</v>
+        <v>528</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>561</v>
+        <v>133</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>562</v>
+        <v>529</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>803</v>
+        <v>756</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>563</v>
+        <v>817</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
+        <v>485</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="R45" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="S45" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="T45" s="14"/>
+        <v>757</v>
+      </c>
+      <c r="T45" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="U45" s="10" t="s">
-        <v>805</v>
-      </c>
-      <c r="V45" s="13"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="14"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
+        <v>758</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>813</v>
+      </c>
+      <c r="X45" s="33" t="s">
+        <v>816</v>
+      </c>
+      <c r="Y45" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="Z45" s="14" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA45" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="AB45" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>812</v>
+      </c>
     </row>
-    <row r="46" spans="1:29" ht="409.5" customHeight="1">
+    <row r="46" spans="1:30" ht="409.5" customHeight="1">
       <c r="A46" s="9">
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
-      <c r="D46" s="35" t="s">
-        <v>565</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>566</v>
+      <c r="D46" s="41" t="s">
+        <v>913</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>531</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>567</v>
+        <v>532</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>806</v>
+        <v>759</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>807</v>
+        <v>901</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>568</v>
+        <v>533</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>569</v>
+        <v>804</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>570</v>
+        <v>794</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>808</v>
-      </c>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
+        <v>795</v>
+      </c>
+      <c r="R46" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="S46" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>796</v>
+      </c>
       <c r="U46" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="V46" s="13"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="14"/>
-      <c r="Y46" s="14"/>
-      <c r="Z46" s="14"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="14"/>
+        <v>798</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="X46" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y46" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="Z46" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="AC46" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="AD46" s="14" t="s">
+        <v>799</v>
+      </c>
     </row>
-    <row r="47" spans="1:29" ht="337.25" customHeight="1">
+    <row r="47" spans="1:30" ht="337.25" customHeight="1">
       <c r="A47" s="9">
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
-      <c r="D47" s="35" t="s">
-        <v>573</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>574</v>
+      <c r="D47" s="41" t="s">
+        <v>535</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>536</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>578</v>
+        <v>540</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>725</v>
+        <v>681</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>580</v>
+        <v>542</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U47" s="10" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="W47" s="12" t="s">
-        <v>583</v>
+        <v>544</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>544</v>
       </c>
       <c r="X47" s="12" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>587</v>
+        <v>548</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>589</v>
+        <v>550</v>
+      </c>
+      <c r="AD47" s="12" t="s">
+        <v>551</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="409.5" customHeight="1">
+    <row r="48" spans="1:30" ht="409.5" customHeight="1">
       <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
-      <c r="D48" s="35" t="s">
-        <v>591</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>592</v>
+      <c r="D48" s="41" t="s">
+        <v>553</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>593</v>
+        <v>555</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>595</v>
+        <v>557</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>596</v>
+        <v>558</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>597</v>
+        <v>559</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="12" t="s">
-        <v>510</v>
+        <v>485</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="10" t="s">
-        <v>810</v>
+        <v>761</v>
       </c>
       <c r="V48" s="13"/>
-      <c r="W48" s="14"/>
+      <c r="W48" s="13"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
       <c r="AC48" s="14"/>
+      <c r="AD48" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="A Proposed Model-driven Approach to Manage Architectural Technical Debt Life Cycle _x000a_"/>
-    <hyperlink ref="V4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
-    <hyperlink ref="V8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="W4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="W8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
     <hyperlink ref="O11" r:id="rId4" display="In this research we present a novel approach, based on architecture reverse engineering and compliance checking, for identifying ATD hotspots in Android apps _x000a_1) Android architecture guideline extraction (official Android guidelines, Academic research, grey literature, developers interviews)_x000a__x000a_2) Android reference architecture establishment. _x000a_- ADL (Architecture Description Language) Acme_x000a_- OCL (Object Constraint Language)_x000a_3) Reverse engineering of implemented architecture _x000a_this step is constituted by the automated reverse engineering of the most prominent Android architectural components (i.e. Activities, Services, Content providers, and Broadcast receivers) of an Android application and the relations between such building blocks in terms of connectors and ports _x000a_ACME-Generator tool (https://github.com/arsadeghi/ACME-Generator)_x000a__x000a_4) Compliance checking _x000a_model comparison tool EMFCompare (https://www.eclipse.org/emf/compare/)_x000a__x000a_5) Quantitative assessment of compliance violations _x000a_The output of this step is the set of Android ATD hotspots, i.e. the components of the implemented architecture which contain the highest number of non-adherence items w.r.t. the Android reference architecture. "/>
-    <hyperlink ref="W12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
-    <hyperlink ref="V23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="X12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="W23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
     <hyperlink ref="O25" r:id="rId7" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
-    <hyperlink ref="V30" r:id="rId8" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="W30" r:id="rId8" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
     <hyperlink ref="D32" r:id="rId9"/>
-    <hyperlink ref="V32" r:id="rId10" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="W32" r:id="rId10" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
     <hyperlink ref="D33" r:id="rId11"/>
     <hyperlink ref="D34" r:id="rId12" display="Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini,"/>
     <hyperlink ref="D35" r:id="rId13"/>
     <hyperlink ref="N41" r:id="rId14" display="Analyse a set of application from Cast database system tWe analyzed these applications us- ing CAST’s Application Intelligence Platform (AIP),7 which analyzes an en- tire application using more than 1,200 rules to detect violations of good ar- chitectural and coding practice. We drew these rules from software engi- neering literature, repositories such as the Common Weakness Enumeration (CWE; cwe.mitre.org), online discus- sion groups of structural quality prob- lems, and customer experience as re- ported from defect logs and application architects. As an example, security- related violations would include SQL injection, cross-site scripting, buffer overflows, and other violations from the CWE. _x000a_"/>
+    <hyperlink ref="V4" r:id="rId15" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="V8" r:id="rId16" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="V23" r:id="rId17" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="V30" r:id="rId18" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="V32" r:id="rId19" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38220" yWindow="-2200" windowWidth="37920" windowHeight="21680"/>
+    <workbookView xWindow="-38100" yWindow="-2200" windowWidth="37940" windowHeight="23020"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_3___R._Kazman__Y._Cai__R._Mo__Q._Feng__L._Xiao__S._Haziyev__V._Fedak__and_A._Shapochka._A_case_study_in_locating_the_architectural_roots_of_technical_debt._In_Proc._37th_International_Conference_on_Software__Engineering__May_2015.____8___R._Mo__W._Snip">'Folha 1'!$V$24</definedName>
+  </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="989">
   <si>
     <t>Paper Id</t>
   </si>
@@ -1163,24 +1166,6 @@
 </t>
   </si>
   <si>
-    <t>[3] Z. Li, P. Avgeriou, and P. Liang, "A systematic mapping study on technical debt and its management," Journal of Systems and Software, vol. 101, pp. 193-220, 2015. 
-Existing research focuses on identifying ATD based on source code analysis. In [6, 7], Curtis et al. used a tool (CAST's Software's Applications Intelligence Platform) to detect highly coupled components based on source code analysis
-[6] B. Curtis, J. Sappidi, and A. Szynkarski, "Estimating the Principal of an Application's Technical Debt," IEEE Software, vol. 29, pp. 34-42, 2012.
-[7] B. Curtis, J. Sappidi, and A. Szynkarski, "Estimating the size, cost, and types of Technical Debt," in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 49-53
-In [8], Eisenberg applied Sonar (a code analysis platform) to calculate package interdependencies in order to identify potential tightly coupled packages.
-[8] R. J. Eisenberg, "A threshold based approach to technical debt," SIGSOFT Software Engineering Notes, vol. 37, pp. 1-6, 2012.
-Wong et al. proposed to identify modularity violations (a type of ATD) by comparing modular structure of the system obtained by source code analysis, with actually co- changing components obtained by revision history parsing [9]
-[9] S. Wong, Y. Cai, M. Kim, and M. Dalton, "Detecting software modularity violations," in Software Engineering (ICSE), 2011 33rd International Conference on, 2011, pp. 411-420.
-Wang et al. proposed an approach to detect so-called bad dependencies (i.e., underutilized and inconsistent modular dependencies) via analyzing symbol-level dependencies in source code [12].
-[12] P. Wang, J. Yang, L. Tan, R. Kroeger, and J. D. Morgenthaler, "Generating precise dependencies for large software," in Proceedings of the 4th International Workshop on Managing Technical Debt (MTD'13), San Francisco, CA, USA, 2013, pp. 47-50.
-Letouzey and Ilkiewicz mentioned that architecture-related changeability issues, such as cyclic dependence, can be detected by source code analysis [13].
-[13] J.-L. Letouzey and M. Ilkiewicz, "Managing Technical Debt with the SQALE Method," IEEE Software, vol. 29, pp. 44-51, 2012.
-Brondum and Zhu proposed an approach to visualize structural and behavioral dependency relationships between architecture elements (e.g., components) [14], and the authors claimed that this visualization can help to identify ATD, but they did not formulate a systematic method or operational guidelines for ATD identification.
-[14] J. Brondum and L. Zhu, "Visualising architectural dependencies," in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 7-14.
-Nord et al. defined a metric for managing ATD as the total cost, per release, of the implementation of new architectural elements (e.g., components) in this release and the rework of pre-existing elements in previous releases [15].  However, it is unclear what types of ATD can be identified and where the location of the ATD is.
-[15] R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, "In search of a metric for managing architectural technical debt," presented at the Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA'12), Helsinki, Finland, 2012.</t>
-  </si>
-  <si>
     <t>Martini et al. 2014</t>
   </si>
   <si>
@@ -2232,61 +2217,7 @@
 </t>
   </si>
   <si>
-    <t>Survey with questionaries - -Multiple case study in 3 companies throng interviews with the practitioners from each company.  - -Chi square statistic method que compare and analysis the answers - -The authors created a list of kinds of Technical Debts from [3], [10] --Lack or lowquality of testing
-Test Debt [3]
-Lowcodequality
-Source Code Debt [3]
-Lack or lowquality of requirement
-Requirement Debt [3]
-Lack or lowquality of documentation
-Documentation Debt [3]
-Dependency violations
-Architecture Debt [3], [10]
-Complex architectural design
-Architecture Debt [3], [10]
-Too many different patterns and policies
-Architecture Debt [3], [10]
-Dependencies to external resources/software
-Architecture Debt [3], [10]
-Lack of reusablity in design
-Architecture Debt [3], [10]
-Uneasy/Tensed social interactions between different stakeholders
-Social Debt [3], [11]
-Lack of adequateenvironment and infrastructure during development
-Infrastructure Debt [3] - - -The authors proposed a model called "Strategic Adoption Model for Tracking Technical Debt (SAMTTD)" to suggest phases to TD Tracking evolution model. The following phases were proposed;  -- Unaware -- No tracking -- Ad-hoc -- Manual -- Measured -- Institutionalized -- Fully automated - -</t>
-  </si>
-  <si>
     <t>Survey and Multiple case study</t>
-  </si>
-  <si>
-    <t>[7] Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. T onin, F. Q. Da Silva,A.L.M.Santos,andC.Siebra,“Trackingtechnicaldebt—An exploratorycase study,”in Software Maintenance(IC
-[15] N. A. Ernst, S. Bellomo, I. Ozkaya,R. L. Nord, andI. Gorton, “Measure It?Manage It?Ignore It? Software Practitioners and
-T echnical Debt,” in Proceedings of the 2015 10th Joint Meeting on FoundationsofSoftwareEngineering,NewYork,NY,USA,2015.
-[16] J. Holvitie, V. Leppänen, and S. Hyrynsalmi, “Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey,” in 2014 Sixth International Workshop on Managing Technical Debt (MTD), 2014, pp. 35–42.
-[17] Z.CodabuxandB. Williams,“Managingtechnicaldebt:Anindustrial case study,” in 2013 4th International Workshop on Managing Technical Debt(MTD),2013, pp. 8–15.
-[18] N. Zazworka, R. O. Spínola, A. Vetro’, F. Shull, andC. Seaman, “A CaseStudy onEffectivelyIdentifyingTechnicalDebt,”in Proceedings of the 17th International Conference on Evaluation and Assessment in Software Engineering,NewYork,NY, USA, 2013.
-[19] Y.Guo, R.O.Spínola,andC.Seaman,“Exploringthecostsof technical debt management – a case study,”Empir.Softw.Eng., vol. 21, no. 1, pp. 159–182, Nov.2014.
-[20] J. Yli-Huumo, A. Maglyas, andK. Smolander,“Howdo software
-d e v e l o p m e n t t ea m s m an ag e t e c h n i c a l d e b t ? – A n e m p i r i ca l s t u d y , ” J . Syst. Softw., vol. 120, pp. 195–218, Oct.2016.</t>
   </si>
   <si>
     <t>Aaramaa et al 2017</t>
@@ -2640,16 +2571,6 @@
     <t>Regular, due to even calculating the TD cost, there is NO ATD specif cost</t>
   </si>
   <si>
-    <t>A. Martini, J. Bosch and M. Chaudron, "Investigating Architectural Technical Debt accumulation and refactoring over time: A multiple-case study", Information and Software Technology, vol. 67, pp. 237-253, 2015.
-A. Martini and J. Bosch, "An empirically developed method to aid decisions on architectural technical debt refactoring: AnaConDebt", 2016 IEEE/ACM 38th International Conference on Software Engineering Companion (ICSE-C), pp. 31-40, 2016.
-P. Avgeriou, P. Kruchten, I. Ozkaya and C. Seaman, "Managing technical debt in software engineering (dagstuhl seminar 16162)", Dagstuhl Reports, vol. 6, no. 4, 2016.
-R. Kazman et al., "A case study in locating the architectural roots of technical debt", 2015 IEEE/ACM 37th IEEE International Conference on Software Engineering, vol. 2, pp. 179-188, 2015.
-U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, "Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study", 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.
-T. Besker, A. Martini and J. Bosch, "Time to Pay Up: Technical Debt from a Software Quality Perspective", CIbSE, pp. 235-248, 2017.
-E. Tom, A. Aurum and R. Vidgen, "An exploration of technical debt", Journal of Systems and Software, vol. 86, no. 6, pp. 1498-1516, 2013.
-E. Alzaghoul and R. Bahsoon, "Evaluating technical debt in cloud-based architectures using real options", 2014 23rd Australian Software Engineering Conference, pp. 1-10, 2014.</t>
-  </si>
-  <si>
     <t>Describe a kind of ATD, more spefically scalability ATD and the authors proposed a lightweight approach to manage scalibity debt. The case study conducted a method to identify, estimate and prioritize scalability debt.</t>
   </si>
   <si>
@@ -2666,11 +2587,6 @@
   </si>
   <si>
     <t>It is necessary to study other aspects of ATD such as measurement, monitoring, priorization, repayment and communication and documentation. The results can be taken into consideration by practitioners when dealing with scalability debt and may be used as starting point to develop the method presented here furher or t resear novel lightweight approaches to manage technical debt related to other key business qualities</t>
-  </si>
-  <si>
-    <t>_x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_Z. Li, P. Avgeriou and P. Liang, "A systematic mapping study on technical debt and its management", Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
-U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, "Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study", 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.
-T. Besker, A. Martini and J. Bosch, "Time to Pay Up: Technical Debt from a Software Quality Perspective", CIbSE, pp. 235-248, 2017.</t>
   </si>
   <si>
     <t>[33] E. Tom, A. Aurum, and R. Vidgen, “An exploration of technical debt,” Journal of Systems and Software, vol. 86, no. 6, 2013, pp. 1498-1516.; [1] A. Ampatzoglou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou, “The financial aspect of managing technical debt: A systematic literature review,” Information and Software Technology, vol. 64, 2015, pp. 52.
@@ -2720,11 +2636,6 @@
   </si>
   <si>
     <t>Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini, Uwe Zdun, Kari Systa</t>
-  </si>
-  <si>
-    <t>[15] P. Kruchten, R. L. Nord, I. Ozkaya, "Technical Debt: From Metaphor to Theory and Practice", Software, IEEE Computer Society, vol. 29, no. 6, pp. 18-21, November-December 2012
-[19] A. Martini and J. Bosch, “Towards prioritizing Architecture Technical Debt: information needs of architects and product owners,” 41st Euromicro SEAA Conference, Funchal, Madeira, August 2015.
-[20] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple- Case Study,” Information and Software Technology, July 2015.</t>
   </si>
   <si>
     <t xml:space="preserve">Francesca Arcelli Fontana,  Ilaria  Pigazzini,Claudia Raibulet,Stefano Basciano </t>
@@ -2848,9 +2759,6 @@
   </si>
   <si>
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes results: yes, final: good</t>
-  </si>
-  <si>
-    <t>The study shows factors that cause accumulation of ATD using an approuch that monitoring a "Crisis point of ATD Accumulation". Beside, the study show a taxonomy of the causes for ATD. In addition, the study employed a case study using real data from 5 large Scandinavian Software Companies. The companies adopted Agile Software Developement (ASD) as a Software life-cycle process</t>
   </si>
   <si>
     <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP WICSA and ECSA, 2012, pp. 91–100
@@ -3422,190 +3330,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. 
-[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Computer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>http://dx.doi.org/10.1109/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. 303623 
-We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. 
-[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, Oct 2016, pp. 28–31. 
-Sonargraph tool evaluates Structural Debt1 quantified through two measures: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Structural Debt Index </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">(SDI) and </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Structural Debt Cost </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">(SDC). SonarQube2 implements the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">SQALE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">[15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into 
-[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>MTD 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, June 2012, pp. 31–36. 
-account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Structural over-Complexity (SoC) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in the previous indexes. 
-[16]  S. M. A. Shah, J. Dietrich, and C. McCartin, “Making smart moves to untangle programs,” in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2012 16th European Conference on Software Maintenance and Reengineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, March 2012, pp. 359–364. 
-[17]  R. C. Martin, “Object oriented design quality metrics: An analysis of dependencies,” </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ROAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, vol. 2, no. 3, Sept–Oct 1995. 
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">we conducted a case study where we identified flawed architecture relations and quantified their effects on maintenance activities. Using data from this project’s source code and revision history, we identified file groups where files are architecturally connected and participated in flawed architecture designs, quantified the maintenance activities in the detected files, and assessed the penalty related to these files. 
 The objective of this case study is to understand if the detected architecture debt have a continuous impact on software evolution. That is, as software evolves with new change requests, determine whether files associated with poor architecture design are still change-prone and have high maintenance costs. 
 RQ1: Are the files involved in an architecture root still change-prone during software evolution? 
@@ -7513,25 +7237,6 @@
   <si>
     <t xml:space="preserve">This is the first study surveying the estimated magnitude of the interest paid on the accumulated TD in terms of perceived wasted time and effort. This study is based on a survey with 258 respondents and group interviews with 32 practitioners. The study has shown that software development practitioners estimate that 36 % of all development time is wasted due to TD and that Complex Architectural Design and Requirement TD generates the most negative impact on daily software development work. The most wasted time is spent on Understanding and/or Measuring TD. 
 This study reveals that all roles are heavily affected by the interest of TD, but different roles are affected differently. The study also shows that the age of the software affects the amount of wasted time and the different activities where the time is spent on. These findings have significant implications; organizations need to be aware of how much time and resources they are spending on their interest of TD and to deliberately focus on the remediation of their TD. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical survey-based studies on TD 
-- Ernst et al. [10] conducted a survey within three large organizations, with 536 respondents and seven follow-up interviews 
-	[10]  N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, "Measure it? Manage it? Ignore it? software practitioners and technical debt," presented at the Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, Bergamo, Italy, 2015. 
-- Holvitie, Leppanen and Hyrynsalmi [14] conducted a survey of 54 Finnish software practitioners investigating the level of TD knowledge, how TD occurs in projects and which of the applied agile components of the development was sensitive to TD 
-	[14]  J. Holvitie, V. Leppanen, and S. Hyrynsalmi, "Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey," in Managing Technical Debt (MTD), 2014 Sixth International Workshop on, 2014, pp. 35-42. 
-- This paper is somewhat also related to our previous papers [3],[5], where we specifically study the architectural type of TD and address how TD negatively affects different software quality attributes. 
-	[3]  T. Besker, A. Martini, and J. Bosch, "The pricey Bill of Technical Debt - When and by whom will it be paid? ," in IEEE International Conference on Software Maintenance and Evolution (ICSME), Shanghai, China, 2017. 
-	[4]  T. Besker, A. Martini, and J. Bosch, "A systematic literature review and a unified model of ATD," in Euromicro Conference series on Software Engineering and Advanced Applications (SEAA), 2016. 
-	[5]  T. Besker, A. Martini, and J. Bosch, "Time to Pay Up - Technical Debt from a Software Quality Perspective," in CibSE, Buenos Aires, Argentina, 2017. 
-Prior research on TD related issues 
-- Kazman et al. [15] present a case study of identifying and quantifying architectural debts in an industrial software project, using code changes as a proxy for calculating the interest. 
-	[15]  R.Kazman,C.Yuanfang,M.Ran,F.Qiong,X.Lu,S.Haziyev,etal., "A Case Study in Locating the Architectural Roots of Technical Debt," in Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, 2015, pp. 179-188. 
-- Falessi et al. [11] argue that the interest is non-linear and has a probability to grow exponentially rather than linearly. By analyzing source code
-	[11]  D. Falessi, M. A. Shaw, F. Shull, K. Mullen, and M. S. Keymind, "Practical considerations, challenges, and requirements of tool- support for managing technical debt," in Managing Technical Debt (MTD), 2013 4th International Workshop, 2013, pp. 16-19. 
-- Nugroho et al. [28] describe that the interest grows differently on a 10-years horizon, depending on a star rating system of the software. 
-	[28]  A. Nugroho, J. Visser, and T. Kuipers, "An empirical model of technical debt and interest," presented at the Proceedings of the 2nd Workshop on Managing Technical Debt, Waikiki, Honolulu, HI, USA, 2011. 
 </t>
   </si>
   <si>
@@ -8969,14 +8674,6 @@
     <t>The most important limitation is the limited sample size of the respondents. However, we aimed at reporting the understanding from a case study, which included both qualitative and quantitative data, rather than surveying a large number of practitioners. Furthermore, as previously explained, we offer a novel understanding of an important and overlooked research subject. The authors aim at collecting such evidence, using an investigation tool improved with the help of the exploratory results obtained from the study presented here.</t>
   </si>
   <si>
-    <t>"The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles" in , Montreal, Canada.
-K. Schmid, "A formal approach to technical debt decision making", Proceedings of the 9th international ACM Sigsoft conference on Quality of software architectures, pp. 153-162, 2013.
-C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, et al., "Using technical debt data in decision making: Potential decision approaches", 2012 Third International Workshop on Managing Technical Debt (AfTD), pp. 45-48, 2012.
-N. Zazworka, C. Seaman and F. Shull, "Prioritizing design debt investment opportunities", Proceedings of the 2nd Workshop on Managing Technical Debt, pp. 39-42, 2011.
-T. Mens and T. Tourwe, "A survey of software refactoring", IEEE Trans. Softw. Eng., vol. 30, no. 2, pp. 126-139, 2004.
-M. Daneva, E. Van der Veen, C. Amrit, S. Ghaisas, K. Sikkel, R. Kumar, et al., "Agile requirements prioritization in large-scale outsourced system projects: An empirical study", J. Syst. Softw., vol. 86, no. 5, pp. 1333-1353, May 2013.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">In this paper we propose and define a new index, more oriented to the evaluation of architectural violations. We describe in detail the index, called Architectural Debt Index, that we integrated in a tool developed for architectural smell detection. The index is based on the detection of architectural smells, their criticality and their history. 
 The aim of our index is to evaluate the internal quality of a project in terms of: </t>
@@ -9149,20 +8846,6 @@
 Tool: AIP by CAST</t>
   </si>
   <si>
-    <t xml:space="preserve">S. McConnell, "Technical Debt", blog, Nov. 2007, [online] Available: http://blogs.construx.com/blogs/stevemcc/archive/2007/11/01/technical-debt-2.aspx.
-W. Cunningham, "The WyCash Portfolio Management System", ACM SIGPLAN OOPS Messenger, vol. 4, no. 2, pp. 29-30, 1993.
-B. Curtis, J. Sappidi and A. Szynkarski, "Estimating the Size Cost and Types of Technical Debt", Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 49-53, 2012.
-D. Spinellis, Code Quality: The Open Source Perspective, Addison-Wesley, 2006.
-M.T. Nygard, Release It!, Pragmatic Book-shelf, 2007.
-J. Sappidi, B. Curtis and A. Szynkarski, "CAST Report on Application Software Health", tech. report, 2011.
-"CAST Application Intelligence Platform", tech. report, 2008.
-"Software Engineering-Product Quality Int'l Org. for Standardization", 2001.
-"Systems and Software Engineering-Systems and Software Quality Requirements and Evaluation (Square)-System and Software Quality Models", 2011.
-J. de Groot, "What is the Value of Your Software?", Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 37-44, 2012.
-C. Sterling, Managing Software Debt: Building for Inevitable Change, Addison-Wesley, 2011.
-  </t>
-  </si>
-  <si>
     <t>Good, due to the authors proposed an effetive way to calculate the principal of TD based on catalog of rules to detect the violations of qualities attributes like performance, securtiy, robustness, trasferability and changeabilite. So, those characteristics are so close to architectural technical debt.</t>
   </si>
   <si>
@@ -9311,14 +8994,6 @@
   </si>
   <si>
     <t xml:space="preserve">Great. The authors proposed an approuch to identify and measure (in man-days) ATD itens via architectural decisions during the redesing process. Thus, the ATD can be identified and calculate without to have access to source code of the project. </t>
-  </si>
-  <si>
-    <t>[16] ISO/IEC, "Systems and software engineering — Systems and software Quality Requirements and Evaluation (SQuaRE) — System and software quality models," in ISO/IEC FDIS 25010:2011, ed, 2011, pp. 1- 34.
-[3] Z. Li, P. Avgeriou, and P. Liang, "A systematic mapping study on technical debt and its management," Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
-[20] V. R. Basili, "Software modeling and measurement: the Goal/Question/Metric paradigm," University of Maryland 1992.
-[19] P. Runeson and M. Höst, "Guidelines for conducting and reporting case study research in software engineering," Empirical Software Engineering, vol. 14, pp. 131-164, 2009.
-[21] B. G. Glaser and A. L. Strauss, The discovery of grounded theory: Strategies for qualitative research. New York: Aldine Publishing, 1967.
-[22] C. B. Seaman, "Qualitative methods in empirical studies of software engineering," Software Engineering, IEEE Transactions on, vol. 25, pp. 557-572, 1999.</t>
   </si>
   <si>
     <t>To generalize our findings, we plan on replicating this study on a broader scale. Looking at SATD comments that can be traced to architectural divergences resulted effective in resolving them, thus, we plan to further investigate this with better architectural recovery and more advanced SATD detection approaches, potentially in an automated manner.</t>
@@ -9428,16 +9103,6 @@
     <t>The authors proposed a method to identify and calculate the principal and interest of ATDI. The case study was conducted in 6 large IT company with real data in real IT projects.</t>
   </si>
   <si>
-    <t>"[20]  J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.  - -[2]  R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.  -
-[18] K. Peffers, T. Tuunanen, M. A. Rothenberger, and S. Chatterjee, “A Design Science Research Methodology for Information Systems Research,” J. Manag. Inf. Syst., vol. 24, no. 3, pp. 45–77, Dec. 2007.
-[3] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study,” Inf. Softw. Technol.
- -"</t>
-  </si>
-  <si>
     <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.
 [20] J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.
 </t>
@@ -10190,87 +9855,1244 @@
     <t>Sanja Aaramaa, Sandun Dasanayake, Markku Oivo, Jouni Markkula, Samuli Saukkonen</t>
   </si>
   <si>
-    <t>Related work (parsed)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">R. Verdecchia,;“Architectural technical debt identification: Moving forward,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2018 IEEE International Conference on Software Architecture Companion (ICSA-C)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. IEEE, 2018, pp. 43–44#
- J. Musil, F. J. Ekaputra, M. Sabou, T. Ionescu, D. Schall, A. Musil, and S. Biffl, ;“Continuous architectural knowledge integration: Making heterogeneous architectural knowledge available in large-scale organizations,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Software Architecture (ICSA), 2017 IEEE International Conference on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. IEEE, 2017, pp. 189–192.#
-Z. Li, P. Liang, and P. Avgeriou, ;“Chapter 9 - architectural debt management in value-oriented architecting,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Economics-Driven Software Architecture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, I. Mistrik, R. Bahsoon, R. Kazman, and Y. Zhang, Eds. Boston: Morgan Kaufmann, 2014, pp. 183 – 204.#
-T. Besker, A. Martini, and J. Bosch, ;“Managing architectural technical debt: A unified model and systematic literature review,”; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Journal of Systems and Software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, vol. 135, pp. 1–16, 2018.
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> P. Kruchten, R.L. Nord, I. Ozkaya, ;Technical debt: from metaphor to theory and practice;, IEEE Softw. 29 (6) (2012) 18–21.#
+    <r>
+      <t xml:space="preserve">
+Y.CaiandK.J.Sullivan. ;Modularity analysis of logical design models;.In 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Proc. 21st IEEE/ACM International Conference on Automated Software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 91–102, Sept. 2006.#
+ K. J. Sullivan, W. G. Griswold, Y. Cai, and B. Hallen. ;The structure and value of modularity in software design;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 9th ACM SIGSOFT International Symposium on the Foundations of Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 99–108, Sept. 2001.# 
+S. Wong, Y. Cai, G. Valetto, G. Simeonov, and K. Sethi. ;Design rule hierarchies and parallelism in software development tasks;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 24th IEEE/ACM International Conference on Automated Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 197–208, Nov. 2009.#
+ L. Xiao, Y. Cai, and R. Kazman. ;Design rule spaces: A new form of architecture insight;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 36rd International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 2014.# 
+ R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka. ;A case study in locating the architectural roots of technical debt;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 37th International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, May 2015.#
+ Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. Tonin, F. Q. B. 
+Da Silva, A. L. M. Santos, and C. Siebra. ;Tracking technical debt—An exploratory case study;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software Maintenance (ICSM), 2011 27th IEEE International Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 528–531. IEEE, 2011.#
+ R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas.; In Search of a Metric for Managing Architectural Technical Debt;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012 Joint Working IEEE/IFIP Conference on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 91–100. IEEE, Aug. 2012. #
+B. Curtis, J. Sappidi, and A. Szynkarski. ;Estimating the principal of an  application’s technical debt;. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>IEEE software</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 29(6):34–42, 2012. #
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+M. W. Godfrey and D. M. German, “The past, present, and future of software evolution,” in Frontiers of Software Maintenance, 2008. FoSM 2008. IEEE, 2008, pp. 129–138. #
+ M. W. Godfrey and Q. Tu, “Evolution in open source software: A case study,” in Software Maintenance, 2000. Proceedings. International Conference on. IEEE, 2000, pp. 131–142. #
+ G. Robles, J. M. Gonzalez-Barahona, M. Michlmayr, and J. J. Amor, “Mining large software compilations over time: another perspective of software evolution,” in Proceedings of the 2006 international workshop on Mining software repositories. ACM, 2006, pp. 3–9. #
+	 T. Chaikalis and A. Chatzigeorgiou, “Forecasting java software evolution trends employing network models,” IEEE Transactions on Software Engineering, vol. 41, no. 6, pp. 582–602, 2015. #
+ O. Zimmermann, “Architectural refactoring: A task-centric view on software evolution,” IEEE Software, vol. 32, no. 2, pp. 26–29, 2015. #
+ L. Xiao, Y. Cai, R. Kazman, R. Mo, and Q. Feng, “Identifying and quantifying architectural debt,” in Proc. 38th International Conference on Software Engineering, 2016.# 
+ R. Mo, Y. Cai, R. Kazman, and L. Xiao, “Hotspot patterns: The formal definition and automatic detection of architecture smells,” in Proc. 15th Working IEEE/IFIP International Conference on Software Architecture, May 2015. #
+ L. Xiao, Y. Cai, and R. Kazman, “Design rule spaces: A new form of ar- chitecture insight,” in Proceedings of the 36th International Conference on Software Engineering. ACM, 2014, pp. 967–977. #
+ M. Mondal, C. K. Roy, and K. A. Schneider, “Bug propagation through code cloning: An empirical study,” in Software Maintenance and Evo- lution (ICSME), 2017 IEEE International Conference on. IEEE, 2017, pp. 227–237. #
+ A. E. Hassan and R. C. Holt, “Predicting change propagation in software systems,” in Proc. 20th IEEE International Conference on Software Maintenance, Sep. 2004, pp. 284–293. #
+  T. Zimmermann, A. Zeller, P. Weissgerber, and S. Diehl, “Mining version histories to guide software changes,” IEEE Transactions on Software Engineering, vol. 31, no. 6, pp. 429–445, 2005. #
+ H. Kagdi, J. I. Maletic, and B. Sharif, “Mining software repositories for traceability links,” in 15th IEEE International Conference on Program Comprehension (ICPC’07). IEEE, 2007, pp. 145–154. #
+ D. I. Sjøberg, A. Yamashita, B. C. Anda, A. Mockus, and T. Dyba ̊, “Quantifying the effect of code smells on maintenance effort,” IEEE Transactions on Software Engineering, vol. 39, no. 8, pp. 1144–1156, 2013. #
+A. Yamashita and L. Moonen, “Exploring the impact of inter-smell relations on software maintainability: An empirical study,” in Software Engineering (ICSE), 2013 35th International Conference on. IEEE, 2013, pp. 682–691. #
+</t>
+  </si>
+  <si>
+    <t>;[20]  J. Carriere, R. Kazman, and I. Ozkaya, “A cost-benefit framework for making architectural decisions in a business context,” in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.  + +[2]  R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.  +
+[18] K. Peffers, T. Tuunanen, M. A. Rothenberger, and S. Chatterjee, “A Design Science Research Methodology for Information Systems Research,” J. Manag. Inf. Syst., vol. 24, no. 3, pp. 45–77, Dec. 2007.
+[3] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study,” Inf. Softw. Technol.
+ +;</t>
+  </si>
+  <si>
+    <t>[3] Z. Li, P. Avgeriou, and P. Liang, ;A systematic mapping study on technical debt and its management,; Journal of Systems and Software, vol. 101, pp. 193-220, 2015. 
+Existing research focuses on identifying ATD based on source code analysis. In [6, 7], Curtis et al. used a tool (CAST's Software's Applications Intelligence Platform) to detect highly coupled components based on source code analysis
+[6] B. Curtis, J. Sappidi, and A. Szynkarski, ;Estimating the Principal of an Application's Technical Debt,; IEEE Software, vol. 29, pp. 34-42, 2012.
+[7] B. Curtis, J. Sappidi, and A. Szynkarski, ;Estimating the size, cost, and types of Technical Debt,; in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 49-53
+In [8], Eisenberg applied Sonar (a code analysis platform) to calculate package interdependencies in order to identify potential tightly coupled packages.
+[8] R. J. Eisenberg, ;A threshold based approach to technical debt,; SIGSOFT Software Engineering Notes, vol. 37, pp. 1-6, 2012.
+Wong et al. proposed to identify modularity violations (a type of ATD) by comparing modular structure of the system obtained by source code analysis, with actually co- changing components obtained by revision history parsing [9]
+[9] S. Wong, Y. Cai, M. Kim, and M. Dalton, ;Detecting software modularity violations,; in Software Engineering (ICSE), 2011 33rd International Conference on, 2011, pp. 411-420.
+Wang et al. proposed an approach to detect so-called bad dependencies (i.e., underutilized and inconsistent modular dependencies) via analyzing symbol-level dependencies in source code [12].
+[12] P. Wang, J. Yang, L. Tan, R. Kroeger, and J. D. Morgenthaler, ;Generating precise dependencies for large software,; in Proceedings of the 4th International Workshop on Managing Technical Debt (MTD'13), San Francisco, CA, USA, 2013, pp. 47-50.
+Letouzey and Ilkiewicz mentioned that architecture-related changeability issues, such as cyclic dependence, can be detected by source code analysis [13].
+[13] J.-L. Letouzey and M. Ilkiewicz, ;Managing Technical Debt with the SQALE Method,; IEEE Software, vol. 29, pp. 44-51, 2012.
+Brondum and Zhu proposed an approach to visualize structural and behavioral dependency relationships between architecture elements (e.g., components) [14], and the authors claimed that this visualization can help to identify ATD, but they did not formulate a systematic method or operational guidelines for ATD identification.
+[14] J. Brondum and L. Zhu, ;Visualising architectural dependencies,; in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 7-14.
+Nord et al. defined a metric for managing ATD as the total cost, per release, of the implementation of new architectural elements (e.g., components) in this release and the rework of pre-existing elements in previous releases [15].  However, it is unclear what types of ATD can be identified and where the location of the ATD is.
+[15] R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, ;In search of a metric for managing architectural technical debt,; presented at the Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA'12), Helsinki, Finland, 2012.</t>
+  </si>
+  <si>
+    <t>[16] ISO/IEC, ;Systems and software engineering — Systems and software Quality Requirements and Evaluation (SQuaRE) — System and software quality models,; in ISO/IEC FDIS 25010:2011, ed, 2011, pp. 1- 34.
+[3] Z. Li, P. Avgeriou, and P. Liang, ;A systematic mapping study on technical debt and its management,; Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
+[20] V. R. Basili, ;Software modeling and measurement: the Goal/Question/Metric paradigm,; University of Maryland 1992.
+[19] P. Runeson and M. Höst, ;Guidelines for conducting and reporting case study research in software engineering,; Empirical Software Engineering, vol. 14, pp. 131-164, 2009.
+[21] B. G. Glaser and A. L. Strauss, The discovery of grounded theory: Strategies for qualitative research. New York: Aldine Publishing, 1967.
+[22] C. B. Seaman, ;Qualitative methods in empirical studies of software engineering,; Software Engineering, IEEE Transactions on, vol. 25, pp. 557-572, 1999.</t>
+  </si>
+  <si>
+    <t>The study shows factors that cause accumulation of ATD using an approuch that monitoring a ;Crisis point of ATD Accumulation;. Beside, the study show a taxonomy of the causes for ATD. In addition, the study employed a case study using real data from 5 large Scandinavian Software Companies. The companies adopted Agile Software Developement (ASD) as a Software life-cycle process</t>
+  </si>
+  <si>
+    <t>;The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles; in , Montreal, Canada.
+K. Schmid, ;A formal approach to technical debt decision making;, Proceedings of the 9th international ACM Sigsoft conference on Quality of software architectures, pp. 153-162, 2013.
+C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, et al., ;Using technical debt data in decision making: Potential decision approaches;, 2012 Third International Workshop on Managing Technical Debt (AfTD), pp. 45-48, 2012.
+N. Zazworka, C. Seaman and F. Shull, ;Prioritizing design debt investment opportunities;, Proceedings of the 2nd Workshop on Managing Technical Debt, pp. 39-42, 2011.
+T. Mens and T. Tourwe, ;A survey of software refactoring;, IEEE Trans. Softw. Eng., vol. 30, no. 2, pp. 126-139, 2004.
+M. Daneva, E. Van der Veen, C. Amrit, S. Ghaisas, K. Sikkel, R. Kumar, et al., ;Agile requirements prioritization in large-scale outsourced system projects: An empirical study;, J. Syst. Softw., vol. 86, no. 5, pp. 1333-1353, May 2013.</t>
+  </si>
+  <si>
+    <t>[15] P. Kruchten, R. L. Nord, I. Ozkaya, ;Technical Debt: From Metaphor to Theory and Practice;, Software, IEEE Computer Society, vol. 29, no. 6, pp. 18-21, November-December 2012
+[19] A. Martini and J. Bosch, “Towards prioritizing Architecture Technical Debt: information needs of architects and product owners,” 41st Euromicro SEAA Conference, Funchal, Madeira, August 2015.
+[20] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple- Case Study,” Information and Software Technology, July 2015.</t>
+  </si>
+  <si>
+    <t>Survey with questionaries + +Multiple case study in 3 companies throng interviews with the practitioners from each company.  + +Chi square statistic method que compare and analysis the answers + +The authors created a list of kinds of Technical Debts from [3], [10] +-Lack or lowquality of testing
+Test Debt [3]
+Lowcodequality
+Source Code Debt [3]
+Lack or lowquality of requirement
+Requirement Debt [3]
+Lack or lowquality of documentation
+Documentation Debt [3]
+Dependency violations
+Architecture Debt [3], [10]
+Complex architectural design
+Architecture Debt [3], [10]
+Too many different patterns and policies
+Architecture Debt [3], [10]
+Dependencies to external resources/software
+Architecture Debt [3], [10]
+Lack of reusablity in design
+Architecture Debt [3], [10]
+Uneasy/Tensed social interactions between different stakeholders
+Social Debt [3], [11]
+Lack of adequateenvironment and infrastructure during development
+Infrastructure Debt [3] + + +The authors proposed a model called ;Strategic Adoption Model for Tracking Technical Debt (SAMTTD); to suggest phases to TD Tracking evolution model. The following phases were proposed;  +- Unaware +- No tracking +- Ad-hoc +- Manual +- Measured +- Institutionalized +- Fully automated + +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. McConnell, ;Technical Debt;, blog, Nov. 2007, [online] Available: http://blogs.construx.com/blogs/stevemcc/archive/2007/11/01/technical-debt-2.aspx.
+W. Cunningham, ;The WyCash Portfolio Management System;, ACM SIGPLAN OOPS Messenger, vol. 4, no. 2, pp. 29-30, 1993.
+B. Curtis, J. Sappidi and A. Szynkarski, ;Estimating the Size Cost and Types of Technical Debt;, Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 49-53, 2012.
+D. Spinellis, Code Quality: The Open Source Perspective, Addison-Wesley, 2006.
+M.T. Nygard, Release It!, Pragmatic Book-shelf, 2007.
+J. Sappidi, B. Curtis and A. Szynkarski, ;CAST Report on Application Software Health;, tech. report, 2011.
+;CAST Application Intelligence Platform;, tech. report, 2008.
+;Software Engineering-Product Quality Int'l Org. for Standardization;, 2001.
+;Systems and Software Engineering-Systems and Software Quality Requirements and Evaluation (Square)-System and Software Quality Models;, 2011.
+J. de Groot, ;What is the Value of Your Software?;, Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 37-44, 2012.
+C. Sterling, Managing Software Debt: Building for Inevitable Change, Addison-Wesley, 2011.
+  </t>
+  </si>
+  <si>
+    <t>_x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_Z. Li, P. Avgeriou and P. Liang, ;A systematic mapping study on technical debt and its management;, Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
+U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, ;Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study;, 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.
+T. Besker, A. Martini and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective;, CIbSE, pp. 235-248, 2017.</t>
+  </si>
+  <si>
+    <t>A. Martini, J. Bosch and M. Chaudron, ;Investigating Architectural Technical Debt accumulation and refactoring over time: A multiple-case study;, Information and Software Technology, vol. 67, pp. 237-253, 2015.
+A. Martini and J. Bosch, ;An empirically developed method to aid decisions on architectural technical debt refactoring: AnaConDebt;, 2016 IEEE/ACM 38th International Conference on Software Engineering Companion (ICSE-C), pp. 31-40, 2016.
+P. Avgeriou, P. Kruchten, I. Ozkaya and C. Seaman, ;Managing technical debt in software engineering (dagstuhl seminar 16162);, Dagstuhl Reports, vol. 6, no. 4, 2016.
+R. Kazman et al., ;A case study in locating the architectural roots of technical debt;, 2015 IEEE/ACM 37th IEEE International Conference on Software Engineering, vol. 2, pp. 179-188, 2015.
+U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, ;Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study;, 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.
+T. Besker, A. Martini and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective;, CIbSE, pp. 235-248, 2017.
+E. Tom, A. Aurum and R. Vidgen, ;An exploration of technical debt;, Journal of Systems and Software, vol. 86, no. 6, pp. 1498-1516, 2013.
+E. Alzaghoul and R. Bahsoon, ;Evaluating technical debt in cloud-based architectures using real options;, 2014 23rd Australian Software Engineering Conference, pp. 1-10, 2014.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Z. Li, P. Avgeriou, and P. Liang, ;A systematic mapping study on technical debt and its management,; Journal of Systems and Software, vol. 101, pp. 193-220, 2015. #
+ B. Curtis, J. Sappidi, and A. Szynkarski, ;Estimating the Principal of an Application's Technical Debt,; IEEE Software, vol. 29, pp. 34-42, 2012.#
+ B. Curtis, J. Sappidi, and A. Szynkarski, ;Estimating the size, cost, and types of Technical Debt,; in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 49-53#
+ R. J. Eisenberg, ;A threshold based approach to technical debt,; SIGSOFT Software Engineering Notes, vol. 37, pp. 1-6, 2012.#
+ S. Wong, Y. Cai, M. Kim, and M. Dalton, ;Detecting software modularity violations,; in Software Engineering (ICSE), 2011 33rd International Conference on, 2011, pp. 411-420.#
+ P. Wang, J. Yang, L. Tan, R. Kroeger, and J. D. Morgenthaler, ;Generating precise dependencies for large software,; in Proceedings of the 4th International Workshop on Managing Technical Debt (MTD'13), San Francisco, CA, USA, 2013, pp. 47-50.#
+ J.-L. Letouzey and M. Ilkiewicz, ;Managing Technical Debt with the SQALE Method,; IEEE Software, vol. 29, pp. 44-51, 2012.#
+ J. Brondum and L. Zhu, ;Visualising architectural dependencies,; in Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD'12), Zurich, Switzerland, 2012, pp. 7-14.#
+R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, ;In search of a metric for managing architectural technical debt,; presented at the Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA'12), Helsinki, Finland, 2012.#</t>
+  </si>
+  <si>
+    <t>M. M. Lehman, G. Kahen, and J. F. Ramil, ;Behavioural Modelling of Long-lived Evolution Processes: Some Issues and an Example; J. Softw.Maint., vol. 14, no. 5, pp. 335–351, Sep. 2002.#
+A. Nugroho, J. Visser, and T. Kuipers, ;An empirical model of technical debt and interest; in Proceedings of the 2nd Workshop on Managing Technical Debt, New York, NY, USA, 2011, pp. 1–8.#
+Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. Tonin, F. Q. Da Silva, A. L. M. Santos, and C. Siebra, ;Tracking technical debt—An exploratory case study; in Software Maintenance (ICSM), 2011 27th IEEE International Conference on, 2011, pp. 528–531.#
+ R. Sindhgatta, N. C. Narendra, and B. Sengupta, ;Software Evolution in Agile Development: A Case Study; in Proceedings of the ACM International Conference Companion on Object Oriented Programming Systems Languages and Applications Companion, New York, NY, USA,
+2010, pp. 105–114.</t>
+  </si>
+  <si>
+    <t>P. Kruchten, R. L. Nord, and I. Ozkaya, ;Technical Debt: From Metaphor to Theory and Practice; IEEE Softw., vol. 29, no. 6, pp. 18–21, 2012.#
+ R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, ;In Search of a Metric for Managing Architectural Technical Debt; in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.#
+ A. Martini, J. Bosch, and M. Chaudron, ;Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study; Inf. Softw. Technol.#
+A. Martini and J. Bosch, ;The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles; in accepted for publication at WICSA 2015, Montreal, Canada.#
+ N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, ;Measure It? Manage It? Ignore It? Software Practitioners and Technical Debt;in Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60.#
+ R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka, ;A Case Study in Locating the Architectural Roots of Technical Debt; in Proceedings of the 37th International Conference on Software Engineering - Volume 2, Piscataway, NJ, USA, 2015, pp. 179–188.#
+ V . Antinyan, M. Staron, W . Meding, P . Osterstrom, E. Wikstrom, J. Wranker, A. Henriksson, and J. Hansson, ;Identifying risky areas of software code in Agile/Lean software development: An industrial experience report; in 2014 Software Evolution Week - IEEE Conference on Software Maintenance, Reengineering and Reverse Engineering (CSMR-WCRE), 2014, pp. 154–163.#
+ A. Nugroho, J. Visser, and T. Kuipers, ;An empirical model of technical debt and interest; in Proceedings of the 2nd Workshop on Managing Technical Debt, New York, NY, USA, 2011, pp. 1–8.#
+ Y . Sered and Y . Reich, ;Standardization and modularization driven by minimizing overall process effort; Comput.-Aided Des., vol. 38, no. 5, pp. 405–416, May 2006.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Martini, A., Sikander, E., Madlani, N.: ;A semi-automated framework for the identification and estimation of Architectural Technical Debt: a comparative case-study on the modularization of a software component. ;Inf. Softw. Technol. 93(Suppl. C), 264–279 (2018)#
+ Yamashita, A.F., Moonen, L.: ;Do developers care about code smells? An exploratory survey;. In: 20th Working Conference on Reverse Engineering, WCRE 2013, Germany, pp. 242–251 (2013)#
+ Soh, Z., Yamashita, A., Khomh, F., Gu ́eh ́eneuc, Y.: ;Do code smells impact the effort of different maintenance programming activities?; In: IEEE 23rd International Conference on Software Analysis, Evolution, and Reengineering, SANER 2016, Suita, Osaka, Japan, 14–18 March 2016, vol. 1, pp. 393–402 (2016)#
+Yamashita, A.: ;Assessing the capability of code smells to explain maintenance problems: an empirical study combining quantitative and qualitative data.;Empir. Softw. Eng. 19(4), 1111–1143 (2014)#
+ Palomba, F., Bavota, G., Penta, M.D., Oliveto, R., Lucia, A.D.:; Do they really smell bad? A study on developers’ perception of bad code smells.; In: 30th IEEE International Conference on Software Maintenance and Evolution, Victoria, BC, Canada, 29 September–3 October 2014, pp. 101–110 (2014)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. ;Managing technical debt in software-reliant systems.; In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://dx.doi.org/10.1145/1882362.1882373</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">.#
+ Curtis, B., Sappidi, J., and Szynkarski, A., 2012. ;Estimating the size, cost, and types of Technical Debt.; In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://dx.doi.org/10.1109/mtd.2012.6226000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">.#
+Marinescu, R., 2012.; Assessing technical debt by identifying design flaws in software systems.; IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://dx.doi.org/10.1147/JRD.2012.2204512</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">.#
+Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. ;In search of a metric for managing architectural technical debt.; In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland.#
+Seaman, C. and Guo, Y., 2011. ;Measuring and Monitoring Technical Debt; In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45.
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, ;In Search of a Metric for Managing Architectural Technical Debt; in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.#
+ J. Carriere, R. Kazman, and I. Ozkaya, ;A cost-benefit framework for making architectural decisions in a business context; in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Z. Li, P. Avgeriou, and P. Liang. ;A systematic mapping study on technical debt and its management;. J. Syst. Softw., 101(C):193–220, Mar. 2015.#
+R. Mo, J. Garcia, Y. Cai, and N. Medvidovic. ;Mapping architectural decay instances to dependency models; 2013.#
+ I. Griffith and C Izurieta.; Design pattern decay: The case for class grime;. 2014#
+ L. Peters. ;Technical debt: The ultimate antipattern - the biggest costs may be hidden, widespread, and long term;, 2014.#
+ J. Brondum and L. Zhu.; Visualising architectural dependencies.; In Proceedings of the Third International Workshop on Managing Technical Debt, MTD ’12, pages 7–14, Piscataway, NJ, USA, 2012. IEEE Press.#
+ B. Curtis, J. Sappidi, and A. Szynkarski.; Estimating the principal of an application’s technical debt.; IEEE Software, 29(6):34–42, 2012.#
+ R. Kazman and S. J. Carriere. Playing detective:; Reconstructing software architecture from available evidence.; Automated Software Engineering, 6(2):107–138, Apr. 1999.#
+ N. S. Alves, L. F. Ribeiro, V. Caires, T. S. Mendes, and R. O. Spinola.; Towards an ontology of terms on technical debt;. In Managing Technical Debt (MTD), 2014 Sixth International Workshop on, pages 1–7. IEEE, 2014.#
+ E. da S. Maldonado and E. Shihab.; Detecting and quantifying diferent types of self-admitted technical debt.; SIGSOFT Softw. Eng. Notes, Apr. 2015.#
+A. Martini and J. Bosch. ;The danger of architectural technical debt: Contagious debt and vicious circles.; In Software Architecture (WICSA), 2015 12th Working IEEE/IFIP Conference on, pages 1–10, May 2015.#
+ T. Zimmermann, P. Weißgerber, S. Diehl, and A. Zeller. ;Mining version histories to guide software changes.; In Proc. 26th International Conference on Software Engineering, pages 563–572, May 2004.#
+ H. Kagdi, M. Gethers, D. Poshyvanyk, and M. L. Collard.; Blending conceptual and evolutionary couplings to support change impact analysis in source code.; In Proc. 17th Working Conference on Reverse Engineering, pages 119–128, Oct. 2010.#
+ M. Gethers, B. Dit, H. Kagdi, and D. Poshyvanyk.; Integrated impact analysis for managing software changes;. In Proceedings of the 34th International Conference on Software Engineering, ICSE ’12, pages 430–440, Piscataway, NJ, USA, 2012. IEEE Press.#
+ F. Beck and S. Diehl.; Evaluating the impact of software evolution on software clustering.; In Proc. 17th Working Conference on Reverse Engineering, pages 99–108, Oct. 2010.#
+ T. Gˆırba, S. Ducasse, A. Kuhn, R. Marinescu, and R. Daniel.; Using concept analysis to detect co-change patterns.; In Ninth International Workshop on Principles of Software Evolution: In Conjunction with the 6th ESEC/FSE Joint Meeting, IWPSE ’07, pages 83–89, New York, NY, USA, 2007. ACM.#
+ N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull. ;Comparing four approaches for technical debt identification. ;Software Quality Journal, pages 1–24, 2013.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HamidBagheri,JoshuaGarcia,AlirezaSadeghi,SamMalek,andNenadMedvi- dovic. 2016.; Software architectural principles in contemporary mobile software:
+from conception to practice.;Journal of Systems and Software 119 (2016), 31–44#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Z. Li, P. Liang, P. Avgeriou, N. Guelfi, and A. Ampatzoglou.; An empirical investigation of modularity metrics for indicating architectural technical debt.; In QoSA ’14, pages 119–128, France, 2014. ACM. #
+ R. Marinescu. ;Assessing technical debt by identifying design flaws in software systems.; IBM Journal of Research and Development, 56(5):9:1–9:13, 2012. #
+ R. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas. ;In search of a metric for managing architectural technical debt.; In WICSA-ECSA 2012, pages 91–100, Finland, Aug 2012. IEEE. #
+ J. van Gurp and J. Bosch.; Design erosion: problems and causes. ;Journal of Systems and Software, 61(2):105–119, 2002. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, A. Shapochka, ;A Case Study in Locating the Architectural Roots of Technical Debt;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Proceedings of the 37th International Conference on Software Engineering, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">2015. #
+R. Mo, Y. Cai, R. Kazman, L. Xiao, ;Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proceedings of the 12th Working IEEE/IFIP Conference on Software Architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 2015. #
+ S. Wong, Y.Cai, M. Kim, M. Dalton. ;Detecting software modularity violations; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Proceedings of the 33th International Conference on Software Engineering, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">2011. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull.; Comparing four approaches for technical debt identification. ;Software #
+M. Fowler.; Refactoring: Improving the Design of Existing Code.; Addison-Wesley, July 1999. #
+H. Gall, K. Hajek, and M. Jazayeri.; Detection of logical coupling based on product release history.; In Proc. 14th IEEE International Conference on Software Maintenance, pages 190–197, Nov. 1998. #
+  J. Garcia, D. Popescu, G. Edwards, and N. Medvidovic. ;Identifying architectural bad smells.; In Proc. 13th European Conference on Software #
+ N. Moha, Y.-G. Gue ́he ́neuc, A.-F. Le Meur, and L. Duchien.; A domain analysis to specify design defects and generate detection algorithms.; In Proc. 11th International Conference on Fundamental Approaches to Software Engineering, pages 276–291, Mar. 2008. #
+ N. Tsantalis and A. Chatzigeorgiou.; Identification of move method refactoring opportunities.; IEEE Transactions on Software Engineering, 35(3):347–367, May 2009.#
+ Y. Higo, T. Kamiya, S. Kusumoto, and K. Inoue.; Refactoring support based on code clone analysis.; In Proc. 5th International Conference on Product Focused Software Development and Process Improvement, pages 220–233, Apr. 2004. #
+L.Bass,P.Clements,andR.Kazman.;Software Architecture in Practice.; Addison-Wesley, 3rd edition, 2012. #
+  D. Falessi, G. Cantone, R. Kazman, and P. Kruchten. ;Decision-making techniques for software architecture design: A comparative survey.; ACM Computing Surveys, 43(4):1–28, Oct. 2011. #
+ R. Kazman, G. Abowd, L. Bass, and M. Webb. Saam:; A method for analyzing the properties of software architectures.; In Proc. 16th International Conference on Software Engineering, pages 81–90, May 1994. #
+ R. Kazman, M. Barbacci, M. Klein, S. J. Carriere, and S. G. Woods.; Experience with performing architecture tradeoff analysis.; In Proc. 16th International Conference on Software Engineering, pages 54–64, May 1999. #
+ R. Kazman, J. Asundi, and M. Klein.; Quantifying the costs and benefits of architectural decisions. ;In Proc. 23rd International Conference on Software Engineering, pages 297–306, May 2001. #
+ P. B. Kruchten. ;The 4+1 view model of architecture. IEEE Software;12:42–50, 1995.#
+ J. Maranzano, S. Rozsypal, G. Zimmerman, G. Warnken, P. Wirth, and D. Weiss. ;Architecture reviews: Practice and experience.; IEEE Software, 22:34–43, 2005.#
+R. Nord, M. Barbacci, P. Clements, R. Kazman, M. Klein, L. O’Brien, and J. Tomayko.;Integrating the archi-tecture tradeoff analysis method (atam) with the cost benefit analysis method (cbam). ;Technical Report CMU/SEI-2003-TN-038, Carnegie Mellon University/SEI, 2003. </t>
+  </si>
+  <si>
+    <t>;The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles; in , Montreal, Canada.#
+K. Schmid, ;A formal approach to technical debt decision making;, Proceedings of the 9th international ACM Sigsoft conference on Quality of software architectures, pp. 153-162, 2013.#
+C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, et al., ;Using technical debt data in decision making: Potential decision approaches;, 2012 Third International Workshop on Managing Technical Debt (AfTD), pp. 45-48, 2012.#
+N. Zazworka, C. Seaman and F. Shull, ;Prioritizing design debt investment opportunities;, Proceedings of the 2nd Workshop on Managing Technical Debt, pp. 39-42, 2011.#
+T. Mens and T. Tourwe, ;A survey of software refactoring;, IEEE Trans. Softw. Eng., vol. 30, no. 2, pp. 126-139, 2004.#
+M. Daneva, E. Van der Veen, C. Amrit, S. Ghaisas, K. Sikkel, R. Kumar, et al., ;Agile requirements prioritization in large-scale outsourced system projects: An empirical study;, J. Syst. Softw., vol. 86, no. 5, pp. 1333-1353, May 2013.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	 S.H Strogatz.; Exploring complex networks.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Nature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 410(6825):268, 2001. #
+	 M. A. Gerosa, D. Redmiles, P. Bjørn, and A. Sarma. Editorial:; Thematic series on software engineering from a social network perspective.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>JISA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 6(1):23, 2015. ISSN 1869-0238. #
+	 P. Bhattacharya, M. Iliofotou, I. Neamtiu, and M. Faloutsos. ;Graph-based analysis and prediction for software evolution.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proceedings of the 34th ICSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 419–429, Piscataway, NJ, USA, 2012. IEEE Press. ISBN 978-1-4673-1067-3. #
+	R. Terra, J. Brunet, L. Miranda, M.T. Valente, D. Serey, D. Castilho, and R. Bigonha.; Measuring the structural similarity between source code entities.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>25th International SEKE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 753–758, 2013 #
+	 V.H. Nguyen and L.M.S. Tran. ;Predicting vulnerable software components with dependency graphs.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proceedings of the 6th MetriSec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 3:1–3:8, New York, NY, USA, 2010. ACM. ISBN 978-1-4503-0340-8. #
+	T. Zimmermann and N. Nagappan. ;Predicting defects using network analysis on dependency graphs. ;In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proceedings of the 30th ICSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 531–540, New York, NY, USA, 2008. ACM. ISBN 978-1-60558-079-1 #
+	 T.H.D. Nguyen, B. Adams, and A.E. Hassan.; Studying the impact of dependency network measures on software quality;. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2010 IEEE ICSME</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 1–10, 2010. #
+ A. Aryani, F. Perin, M. Lungu, A.N. Mahmood, and O. Nierstrasz.; Predicting dependences using domain-based coupling.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>J Soft Evol Proc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 26(1):50–76, 2014. ISSN 2047-7481 #
+	 L. Hochstein and M. Lindvall. ;Combating architectural degeneration: A survey.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Inf. Softw. Technol.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 47(10):643–656, 2005. ISSN 0950-5849. #
+	 D. Di Nucci, F. Palomba, D. A. Tamburri, A. Serebrenik, and A. De Lucia. ;Detecting code smells using machine learning techniques: Are we there yet?; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>2018 IEEE 25th SANER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 612–621, 2018. #
+	 F. Arcelli Fontana, M. V. Mäntylä, M. Zanoni, and A. Marino. ;Comparing and experimenting machine learning techniques for code smell detection.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Empir Soft Eng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>, 21(3):1143–1191, 2016. ISSN 1573-7616. #
+	  F. Palomba, G. Bavota, M. D. Penta, R. Oliveto, D. Poshyvanyk, and A. De Lucia.; Mining version histories for detecting code smells. ;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>IEEE Trans. Softw. Eng.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 41(5):462–489, 2015. ISSN 0098-5589. #
+	D.M. Le, D. Link, A. Shahbazian, and N. Medvidovic.; An empirical study of architectural decay in open-source software.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>IEEE ICSA, 2018</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 176–185. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+	[16]  B. Barton, et al.,; How to Settle Your Technical Debt: A Manager’s Guide.; Arlington, MA: Cutter Consortium, 2010.#
+ [24] K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, ;From retrospect to prospect: Assessing modularity and stability from software architecture; Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817.#
+	[17]  M. M. Lehman,; Program Evolution: Processes of Software Change.; San Diego, CA: Academic Press Professional, 1985. #
+	[18]  D. L. Parnas;Software aging; Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. #
+	[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, ;Software evolution in agile development: A case study,; Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. #
+	[20]  C. J. Neill and P. A. Laplante, ;Paying down design debt with strategic refactoring; Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. #
+	[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, ;An enterprise perspective on technical debt; Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. #
+	[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts,; Refactoring: Improving the Design of Existing Code;Boston: Addison-Wesley Professional, 1999. #
+	[23]  M. Kim and D. Notkin, ;Discovering and representing systematic code changes; Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. #
+	[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, ;From retrospect to prospect: Assessing modularity and stability from software architecture; Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. #
+	[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, ;Building empirical support for automated code smell detection; Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM 
+C. Tool support #
+	[27]  O. Gaudin, ;Evaluate your technical debt with Sonar;Sonar, Jun. 2009. Available: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://www.sonarsource.org/evaluate-your-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> technical-debt-with-sonar (Accessed: Apr. 2012). #
+[28]  S. Penchikala, ;Architecture analysis tool SonarJ 6.0 supports structural debt index and quality model; InfoQ, Aug. 2010. Available: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://www.infoq.com/news/2010/08/sonarj-6.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> (Accessed: Mar. 2012). #
+[29]  C. Hinsman, N. Sangal, and J. Stafford, ;Achieving agility through architecture visibility; Proc. 5th Int. Conf. Quality of Software Architectures: Architectures for Adaptive Software Systems (QoSA ’09), ACM Press, Jun. 2009, pp. 116–129, doi: 10.1007/978-3-642- 02351-4_8. #
+[30]  J. Bohnet and J. Dollner, ;Monitoring code quality and development activity by software maps; Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 9–16, doi: 10.1145/1985362.1985365. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">	 R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka. ;A case study in locating the architectural roots of technical debt.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">Proc. 37th International Conference on Software </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, May 2015. #
+	 R. Mo, W. Snipes, Y. C. S. Ramaswamy, R. Kazman, and M. Naedele.; Experiences applying automated architecture analysis tool suites.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 33rd IEEE/ACM International Conference on Automated Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, pages 779–789, 2018. #
+	 M. Nayebi, Y. Cai, R. Kazman, G. Ruhe, Q. Feng, C. Carlson, and F. Chew. ;A longitudinal study of identifying and paying down architectural debt.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 41st International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, May 2019. #
+	 R. Schwanke, L. Xiao, and Y. Cai. ;Measuring architecture quality by structure plus history analysis. In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 35rd International Conference on Software Engineering;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">pages 891–900, May 2013. #
+	W. Wu, Y. Cai, R. Kazman, R. Mo, Z. Liu, R. Chen, Y. Ge, W. Liu, and J. Zhang. ;Software architecture measurement—experiences from a multinational company.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Proc. 12th European Conference on Software Architecture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, Sept. 2018. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> R. Marinescu,; Assessing technical debt by identifying design flaws in software systems.; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>IBM J of Res. and Develop.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, 56 (5), pp. 1-13, 2012. #
+Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., ;In search of a metric for managing architectural technical debt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">, IEEE, Helsinki, Finland, 2012. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> D.Durisic,M.Nilsson,M.Staron,andJ.Hansson.;Measuring the impact of changes to the complexity and coupling properties of automotive software systems;86(5):1275–1293. #
+ D. I. Sjoberg, A. Yamashita, B. C. Anda, A. Mockus, and T. Dyba. ;Quantifying the effect of code smells on maintenance effort.; 39(8):1144– 1156. #
+ N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull. ;Comparing four approaches for technical debt identification. ;22(3):403–426. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	 H. A. Al-Mutawa, J. Dietrich, S. Marsland, and C. McCartin, ;On the shape of circular dependencies in java programs; in Proceedings of the Australian Software Engineering Conference, ASWEC, pp. 48–57, IEEE, apr 2014.  +#
+	E.Tempero,C.Anslow,J.Dietrich,T.Han,J.Li,M.Lumpe,H.Melton, and J. Noble, ;Qualitas corpus: A curated collection of java code for empirical studies; in 2010 Asia Pacific Software Engineering Conference (APSEC2010), pp. 336–345, Dec. 2010.  +#
+	 R. Roveda, F. A. Fontana, I. Pigazzini, and M. Zanoni, ;Towards an architectural debt index; in 2018 44th Euromicro Conference on Software Engineering and Advanced Applications (SEAA), pp. 408–416, IEEE, 2018.  +#
+	 S.Vaucher,F.Khomh,N.Moha,andY.G.Gue ́he ́neuc,;Trackingdesign smells: Lessons from a study of God classes; in Proceedings - Working Conference on Reverse Engineering, WCRE, pp. 145–154, IEEE, 2009.  +#
+	 A.ChatzigeorgiouandA.Manakos,;Investigating the evolution o fcode smells in object-oriented systems,; Innovations in Systems and Software Engineering, vol. 10, pp. 3–18, mar 2014.  +#
+	 R. Peters and A. Zaidman, ;Evaluating the Lifespan of Code Smells using Software Repository Mining,; in 2012 16th European Conference on Software Maintenance and Reengineering, pp. 411–416, IEEE, mar 2012.  +#</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Martin Fowler. 1999. ;Refactoring: Improving the Design of Existing Code.; Addison- Wesley, Boston, USA.#
+S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. ;Towards a Principle-based Classification of Structural Design Smells.; Journal of Object Technology 12, 2 (June 2013), 1:1–29. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.5381/jot.2013.12.2.a1#
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+ Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. ;Identifying Architectural Bad Smells.; In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1109/CSMR.2009.59#
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015.; A Case Study in Locating the Architectural Roots of Technical Debt.; In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1109/ICSE.2015.146#
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+ D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015.; An Empirical Study of Architectural Change in Open-Source Software Systems.; In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">https://doi.org/10.1109/MSR.2015.29#
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+ Martin Lippert and Stephen Roock. 2006; Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. ;Wiley. 286 pages.#
+ Isela Macía Bertrán. 2013.; On the Detection of Architecturally-Relevant Code Anomalies in Software Systems.; Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro.#
+Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. ;Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells.; In Proceedings#
+ R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015.; Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells.; In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://doi.org/10.1109/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+WICSA.2015.12#
+Luca Rizzi, Francesca Arcelli Fontana, and Riccardo Roveda. 2018. ;Support for architectural smell refactoring.; In Proceedings of the 2nd International Workshop on Refactoring, IWoR@ASE 2018, Montpellier, France, September 4, 2018. 7–10. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://doi.org/10.1145/3242163.3242165#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+ Ganesh Samarthyam, Girish Suryanarayana, and Tushar Sharma. 2016.; Refactoring for software architecture smells.; In Proceedings of the 1st International Workshop on Software Refactoring, IWoR@ASE 2016, Singapore, Singapore, Sep- tember 4, 2016. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://doi.org/10.1145/2975945.2975946#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+Santiago A. Vidal, Everton T. Guimarães, Willian Nalepa Oizumi, Alessandro F. Garcia, Jorge Andrés Díaz Pace, and Claudia Marcos. 2016. ;On the criteria for prioritizing code anomalies to identify architectural problems.; In Proc. of the 31st Annual ACM Symp. on Applied Computing,. 1812–1814. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://doi.org/10.1145/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 2851613.2851941</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+  N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, ;Measure It? Manage It? Ignore It? Software Practitioners and Technical Debt; 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60, 2015. #
+ E. Lim, N. Taksande, and C. Seaman, ;A Balancing Act: What Software Practitioners Have to Say About Technical Debt; Software, IEEE Computer Society, vol. 29, no. 6, pp. 22–27, Nov. 2012. #
+ A. Martini, J. Bosch, and M. Chaudron, ;Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study; Information and Software Technology, July 2015. #
+  A. Martini and J. Bosch, ;Towards prioritizing Architecture Technical Debt: information needs of architects and product owner; 41st Euromicro SEAA Conference, Funchal, Madeira, August 2015. #
+ C. Del Rosso, ;Software performance tuning of software product family architectures: Two case studies in the real-time embedded systems domain; Journal of Systems and Software, Elsevier, vol. 81(1) pp. 1– 19, Jan. 2008. #
+ M.F.S. Oliveira, R.M. Redin, L. Carro, L. Lamb and F. Wagner, ;Software Quality Metrics and their Impact on Embedded Software;5th International Workshop on Model-based Methodologies for Pervasive and Embedded Software, (MOMPES'08), pp. 68–77, 2008. #
+ D. Feitosa, A. Ampatzoglou, P . Avgeriou, and E. Y . Nakagawa, ;Investigating Quality Trade-offs in Open Source Critical Embedded Systems;, Quality of Software Architectures (QoSA’ 15), 2015. 
+</t>
+  </si>
+  <si>
+    <t>Lauesen, S.; Software Requirmenents - Styles and Techniques.; Addison-Wesley, London, 2002.#
+Leffingwell, D. and Widrig, D. ;Managing Software Requirements: a use case approach.; Pearson Education, Inc., Boston, 2003.#
+ Maciaszek, L.; Requirements Analysis and System Design.; Pearson Education, Harlow, 2005.#
+Stephenson, Z., Attwood, K., and McDermid, J. ;Product-Line Models to Address Requirements Uncertainty, Volatility and Risk. In Relating Relating Software Requirements and Architectures. ;Springer Berlin Heidelberg, 2011.#
+ Nurmuliani, N., Zowghi, D., and Williams, S. P.; Requirements volatility and its impact on change effort: Evidence-based research in software development projects. ;( 2006).#
+ Jansen, Anton and Bosch, Jan. ;Software Architecture as a Set of Architectural Design Decisions.; In Proceedings of 5th Working IEEE/IFIP Conference on Software Architecture ( 2005), IEEE.#
+ van Heesch, U. and Avgeriou, P. ;Mature architecting - a survey about the reasoning process of professional architects.; In 9th Working IEEE/IFIP Conference on Software Architecture ( 2011), 260–269.#
+ Tang, A., Babar, M. A., Gorton, I., and Han, J. ;A survey of architecture design rationale.;Journal of systems and software, 79, 12 (2006), 1792-1804.#
+ Miller, James A., Ferrari, Remo, and Madhavji, Nazim H. ;An exploratory study of architectural effects on requirements decisions.; Journal of Systems and Software, 83, 12 (2010), 2441–2455.#
+Cleland-Huang, J., Hanmer, R. S., Supakkul, S., and Mirakhorli, M. ;The Twin Peaks of Requirements and Architecture.; IEEE Software, 30, 2 (March-April 2013), 24-29.#
+Bass, L., Clements, P., and Kazman, R.; Software Architecture in Practice.; Addison-Wesley Professional, New Jersey, 2012.#
+Runeson, P., Höst, M., Rainer, A., and Regnell, B.; Case Study Research in Software Engineering: Guidelines and Examples. ;Wiley, 2012.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R. Ferenc, P. Hegedűs, and T. Gyimóthy, ;Software Product Quality Models; in Evolving Software Systems, T. Mens, A. Serebrenik, and A. Cleve, Eds. Springer Berlin Heidelberg, 2014, pp. 65–100.#
+ J.-L. Letouzey, ;The SQALE Method for Managing Technical Debt Definition Document; 31-Mar-2016. [Online]. Available: http://www.sqale.org/wp-content/uploads/2016/08/SQALE-Method- EN-V1-1.pdf. [Accessed: 04-Feb-2017].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S. McConnell, ;Technical Debt;, blog, Nov. 2007, [online] Available: http://blogs.construx.com/blogs/stevemcc/archive/2007/11/01/technical-debt-2.aspx.#
+W. Cunningham, ;The WyCash Portfolio Management System;, ACM SIGPLAN OOPS Messenger, vol. 4, no. 2, pp. 29-30, 1993.#
+B. Curtis, J. Sappidi and A. Szynkarski, ;Estimating the Size Cost and Types of Technical Debt;, Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 49-53, 2012.#
+D. Spinellis,;Code Quality: The Open Source Perspective;, Addison-Wesley, 2006.#
+M.T. Nygard, Release It!, ;Pragmatic Book-shelf;, 2007.#
+J. Sappidi, B. Curtis and A. Szynkarski, ;CAST Report on Application Software Health;, tech. report, 2011.#
+;CAST Application Intelligence Platform;, tech. report, 2008.#
+;Software Engineering-Product Quality Int'l Org. for Standardization;, 2001.#
+;Systems and Software Engineering-Systems and Software Quality Requirements and Evaluation (Square)-System and Software Quality Models;, 2011.#
+J. de Groot, ;What is the Value of Your Software?;, Proc. 3rd Int'l Workshop Managing Technical Debt IEEE CS, pp. 37-44, 2012.#
+C. Sterling, ;Managing Software Debt: Building for Inevitable Change;, Addison-Wesley, 2011.
+  </t>
+  </si>
+  <si>
+    <t>Lehman, M. M. (1980). ;Programs, life cycles, and laws of software evolution. ;Proceedings of the IEEE, 68 (9), 1060–1076.#
+Sappidi, J., Curtis, B., &amp; Szynkarski, A. (2010). ;CRASH Report: CAST Report on Application Software Health—2011/2012.; New York: CAST Software.</t>
+  </si>
+  <si>
+    <t>_x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000_ _x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_ _x0000__x0000__x0000__x0000_ _x0000_ _x0000__x0000_Z. Li, P. Avgeriou and P. Liang, ;A systematic mapping study on technical debt and its management;, Journal of Systems and Software, vol. 101, pp. 193-220, 2015.#
+U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, ;Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study;, 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.#
+T. Besker, A. Martini and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective;, CIbSE, pp. 235-248, 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I. T. Bowman, R. C. Holt, and N. V. Brewster. ;Linux as a case study: Its extracted software architecture.; In Proceedings of the 21st International Conference on Software Engineering, ICSE ’99, pages 555–563. ACM, 1999.#
+ A. E. Hassan and R. C. Holt.; Using development history sticky notes to understand software architecture.; In Proceedings of the 12th International Workshop on Program Comprehension, ICPC ’04, pages 183–192. IEEE, 2004.#
+ G. C. Murphy, D. Notkin, and K. Sullivan. ;Software reflexion models: Bridging the gap between source and high-level models.; Software Engineering Notes, 20(4):18–28, 1995.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narasimhaiah Gorla and Shang-Che Lin. 2010.; Determinants of software quality: A survey of information systems project managers.; Information and Software Technology 52, 6 (jun 2010), 602–610. https://doi.org/10.1016/j.infsof.2009.11.012#
+Aiko Yamashita and Leon Moonen. 2013.; Do developers care about code smells? An exploratory survey.; In 2013 20th Working Conference on Reverse Engineering (WCRE). IEEE, 242–251. https://doi.org/10.1109/WCRE.2013.6671299#
+ Andrea Caracciolo, Mircea Filip Lungu, and Oscar Nierstrasz. 2014. ;How do software architects specify and validate quality requirements?; Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics) 8627 LNCS (2014), 374–389. https://doi.org/10. 1007/978- 3- 319- 09970- 5_32#
+ MarkoLeppanen,SimoMakinen,SamuelLahtinen,OutiSievi-Korte,Antti-Pekka Tuovinen, and Tomi Mannisto. 2015. ;Refactoring-a Shot in the Dark? IEEE Software 32, 6 (nov 2015), 62–70. https://doi.org/10.1109/MS.2015.132#
+Dirk Voelz and Andreas Goeb. 2010.;What is Different in Quality Management for SOA?;. In 2010 14th IEEE International Enterprise Distributed Object Computing Conference. IEEE, 47–56. https://doi.org/10.1109/EDOC.2010.27#
+ David Ameller, Matthias Galster, Paris Avgeriou, and Xavier Franch. 2016. ;A survey on quality attributes in service-based systems. Software Quality Journal 24, 2 (jun 2016), 271–299. https://doi.org/10.1007/s11219-015-9268-4
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L. Bass L., R. Nord, W. Wood, D. Zubrow, I. Ozkaya: ;Analysis of architecture evaluation data. ;Journal of Systems and Software, Sep. 2008, vol. 81, issue 9, pp. 1443-1455; Elsevier, 2008.#
+Zalewski A., Kijas S.: ;Beyond ATAM: Early Architecture Evaluation Method for Large-Scale Distributed Systems. ;Journal of Systems and Software. Journal of Systems and Software, Vol. 86, Issue 3, March 2013, pp. 683–697. Elsevier, 2013.#
+ J. Tyree, A. Akerman: ;Architecture Decisions: Demystifying Architecture. ;IEEE Software, Mar.-Apr. 2005, pp. 19–27.#
+A. Jansen and J. Bosch, ;Software Architecture as a Set of Architectural Design Decisions.; Proceedings of the 5th Working IEEE/IFIP Conference on Software Architecture (WICSA'05), pp. 109-120. IEEE 2005.#
+ D. Falessi, R. Capilla, and G. Cantone,; A value-based approach for documenting design decisions rationale: a replicated experiment;. In Proceedings of the 3rd international workshop on Sharing and reusing architectural knowledge (SHARK '08). ACM, New York, NY, USA, pp. 63-70.#
+ D. Falessi, M. Becker, and G. Cantone. ;Design decision rationale: experiences and steps ahead towards systematic use.; SIGSOFT Softw. Eng. Notes 31, 5, Article 2 (September 2006).#
+ L. Bass L., R. Nord, W. Wood, D. Zubrow, ;Risk Themes Discovered Through Architecture Evaluations.; TECHNICAL REPORT CMU/SEI- 2006-TR-012 ESC-TR-2006-012. Carnegie Mellon University, 2006.
+</t>
+  </si>
+  <si>
+    <t>R. Verdecchia,;“Architectural technical debt identification: Moving forward,”; in 2018 IEEE International Conference on Software Architecture Companion (ICSA-C). IEEE, 2018, pp. 43–44#
+ J. Musil, F. J. Ekaputra, M. Sabou, T. Ionescu, D. Schall, A. Musil, and S. Biffl, ;“Continuous architectural knowledge integration: Making heterogeneous architectural knowledge available in large-scale organizations,”; in Software Architecture (ICSA), 2017 IEEE International Conference on. IEEE, 2017, pp. 189–192.#
+Z. Li, P. Liang, and P. Avgeriou, ;“Chapter 9 - architectural debt management in value-oriented architecting,”; in Economics-Driven Software Architecture, I. Mistrik, R. Bahsoon, R. Kazman, and Y. Zhang, Eds. Boston: Morgan Kaufmann, 2014, pp. 183 – 204.#
+T. Besker, A. Martini, and J. Bosch, ;“Managing architectural technical debt: A unified model and systematic literature review,”; Journal of Systems and Software, vol. 135, pp. 1–16, 2018.</t>
+  </si>
+  <si>
+    <t>" P. Kruchten, R.L. Nord, I. Ozkaya, ;Technical debt: from metaphor to theory and practice;, IEEE Softw. 29 (6) (2012) 18–21.#
  E. Tom, A. Aurum, R. Vidgen,; An exploration of technical debt;, J. Syst. Softw. 86 (6) (Jun. 2013) 1498–1516.#
  Z. Li, P. Avgeriou, P. Liang, ;A systematic mapping study on technical debt and its management;, J. Syst. Softw. 101 (Mar. 2015) 193–220.#
 T Besker, A Martini, J Bosch, ;A systematic literature review and a unified model of architectural technical debt;Euromicro Conference Series on Software Engi- neering and Advanced Applications (SEAA), 2016.#
@@ -10280,28 +11102,494 @@
 R. Kazman, et al., ;A case study in locating the architectural roots of technical debt; in: Proceedings of the 37th International Conference on Software Engi- neering, 2, Piscataway, NJ, USA, 2015, pp. 179–188.#
 C. Seaman, et al., ;Using technical debt data in decision making: potential decision approaches; in: 2012 Third International Workshop on Managing Techni- cal Debt (MTD), 2012, pp. 45–48.#
 A. Martini, J. Bosch, ;An empirically developed method to aid decisions on ar- chitectural technical debt refactoring: anacondebt;in: Proceedings of the 38th International Conference on Software Engineering Companion, New York, NY, USA, 2016, pp. 31–40.#
-N.A. Ernst, S. Bellomo, I. Ozkaya, R.L. Nord, I. Gorton, ;Measure it? Manage it? Ignore it? Software practitioners and technical debt; in: Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60.#</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">D. Coleman, D. Ash, B. Lowther, and P. Oman, ;“Using metrics to evaluate software system maintainability,”; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Computer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: </t>
+N.A. Ernst, S. Bellomo, I. Ozkaya, R.L. Nord, I. Gorton, ;Measure it? Manage it? Ignore it? Software practitioners and technical debt; in: Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60.#"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. 
+[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 
+We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. 
+[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. 
+Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into 
+[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. 
+account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in the previous indexes. 
+[16]  S. M. A. Shah, J. Dietrich, and C. McCartin, “Making smart moves to untangle programs,” in 2012 16th European Conference on Software Maintenance and Reengineering, March 2012, pp. 359–364. 
+[17]  R. C. Martin, “Object oriented design quality metrics: An analysis of dependencies,” ROAD, vol. 2, no. 3, Sept–Oct 1995. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+D. Coleman, D. Ash, B. Lowther, and P. Oman, ;“Using metrics to evaluate software system maintainability,”; Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 #
+F. Arcelli Fontana, R. Roveda, and M. Zanoni,; “Technical debt indexes provided by tools: A preliminary discussion,”; in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. #
+  J.-L. Letouzey,; “The SQALE method for evaluating technical debt,”; in MTD 2012, June 2012, pp. 31–36.#
+S. M. A. Shah, J. Dietrich, and C. McCartin, ;“Making smart moves to untangle programs,”; in 2012 16th European Conference on Software Maintenance and Reengineering, March 2012, pp. 359–364.#
+R. C. Martin,; “Object oriented design quality metrics: An analysis of dependencies,”; ROAD, vol. 2, no. 3, Sept–Oct 1995. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W. Cunningham. ;The WyCash portfolio management system.; In Addendum to Proc. 7th, pages 29–30, Oct. 1992. #
+ L. Xiao, Y. Cai, R. Kazman, R. Mo, and Q. Feng.; Identifying and quantifying architectural debt.; In 38th International Conference on Software Engineering, pages 488–498, 2016. #
+ N. Zazworka, A. Vetro, C. Izurieta, S. Wong, Y. Cai, C. Seaman, and F. Shull. ;Comparing four approaches for technical debt identification.; pages 1–24, 2013.#
+ R.Mo,W.Snipes,Y.Cai,S.Ramaswamy,R.Kazman,andM.Naedele. ;Experiences applying automated architecture analysis tool suites.; In 33rd International Conference on Automated Software Engineering, pages 779–789, 2018. #
+ J. Carriere, R. Kazman, and I. Ozkaya. ;A cost-benefit framework for making architectural decisions in a business context.; pages 149–157, 2010. #
+B. Curtis, J. Sappidi, and A. Szynkarski. ;Estimating the principal of an application’s technical debt.; volume 29, pages 34–42, 2012. #
+R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas.; In search of a metric for managing architectural technical debt.; In SConference on Software Architecture and European Conference on Software Archi- tecture, pages 91–100, 2012. #
+ A. Martini and J. Bosch. ;An empirically developed method to aid decisions on architectural technical debt refactoring: Anacondebt. ;In International Conference on Software Engineering Companion, pages 31–40, 2016. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>;Technical debt in software systems;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>The design of complex technological systems;#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+;</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Software design, modularity and maintenance costs;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>;Software evolution +Work on the Design and Evolution of Unix;#</t>
+  </si>
+  <si>
+    <t>Related work (original)</t>
+  </si>
+  <si>
+    <t>Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. T onin, F. Q. Da Silva,A.L.M.Santos,andC.Siebra,;Tracking technical debt — An exploratorycase study;in Software Maintenance#
+ N. A. Ernst, S. Bellomo, I. Ozkaya,R. L. Nord, andI. Gorton, ;Measure It?Manage It?Ignore It? Software Practitioners and
+T echnical Debt; in Proceedings of the 2015 10th Joint Meeting on FoundationsofSoftwareEngineering,NewYork,NY,USA,2015.#
+ J. Holvitie, V. Leppänen, and S. Hyrynsalmi, ;Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey; in 2014 Sixth International Workshop on Managing Technical Debt (MTD), 2014, pp. 35–42.#
+Z.CodabuxandB. Williams,;Managing technical debt: An industrial case study; in 2013 4th International Workshop on Managing Technical Debt(MTD),2013, pp. 8–15.#
+ N. Zazworka, R. O. Spínola, A. Vetro’, F. Shull, andC. Seaman, ;A Case Study on Effectively Identifying Technical Debt;in Proceedings of the 17th International Conference on Evaluation and Assessment in Software Engineering,NewYork,NY, USA, 2013.#
+Y.Guo, R.O.Spínola,andC.Seaman,;Exploring the costs of technical debt management – a case study;Empir.Softw.Eng., vol. 21, no. 1, pp. 159–182, Nov.2014.#
+ J. Yli-Huumo, A. Maglyas, andK. Smolander, ;Howdo software
+d e v e l o p m e n t t ea m s m an ag e t e c h n i c a l d e b t ? – A n e m p i r i ca l s t u d y; J . Syst. Softw., vol. 120, pp. 195–218, Oct.2016.</t>
+  </si>
+  <si>
+    <t>[7] Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. T onin, F. Q. Da Silva,A.L.M.Santos,andC.Siebra,“Trackingtechnicaldebt—An exploratorycase study,”in Software Maintenance(IC
+[15] N. A. Ernst, S. Bellomo, I. Ozkaya,R. L. Nord, andI. Gorton, “Measure It?Manage It?Ignore It? Software Practitioners and
+T echnical Debt,” in Proceedings of the 2015 10th Joint Meeting on FoundationsofSoftwareEngineering,NewYork,NY,USA,2015.
+[16] J. Holvitie, V. Leppänen, and S. Hyrynsalmi, “Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey,” in 2014 Sixth International Workshop on Managing Technical Debt (MTD), 2014, pp. 35–42.
+[17] Z.CodabuxandB. Williams,“Managingtechnicaldebt:Anindustrial case study,” in 2013 4th International Workshop on Managing Technical Debt(MTD),2013, pp. 8–15.
+[18] N. Zazworka, R. O. Spínola, A. Vetro’, F. Shull, andC. Seaman, “A Case Study onEffectivelyIdentifyingTechnicalDebt,”in Proceedings of the 17th International Conference on Evaluation and Assessment in Software Engineering,NewYork,NY, USA, 2013.
+[19] Y.Guo, R.O.Spínola,andC.Seaman,“Exploringthecostsof technical debt management – a case study,”Empir.Softw.Eng., vol. 21, no. 1, pp. 159–182, Nov.2014.
+[20] J. Yli-Huumo, A. Maglyas, andK. Smolander,“Howdo software
+d e v e l o p m e n t t ea m s m an ag e t e c h n i c a l d e b t ? – A n e m p i r i ca l s t u d y , ” J . Syst. Softw., vol. 120, pp. 195–218, Oct.2016.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+ Guo Y et al.; Tracking technical debt—an exploratory case study.; In: 2011 27th IEEE International Conference on Software Maintenance (ICSM), Williamsburg, VI, USA; 2011:528</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>531.#
+ Sjoberg DIK, Yamashita A, Anda BCD, Mockus A, Dyba T.; Quantifying the effect of code smells on maintenance effort.; IEEE Trans Softw Eng. 2013;39(8):1144</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>1156.#
+ Arcelli FF, Dietrich J, Walter B, Yamashita A, Zanoni M. ;Preliminary catalogue of anti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>pattern and code smell false positives.; Pozna'n University of Technology., Technical Report RA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>5/15; 2015.#
+Falessi D, Voegele A.; Validating and prioritizing quality rules for managing technical debt: an industrial case study.; In 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD); 2015:41</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>48.#
+Nord RL, Ozkaya I, Kruchten P, Gonzalez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Rojas M.; In search of a metric for managing architectural technical debt.; In: 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Con- ference on Software Architecture (ECSA), Helsinki, Finland; 2012:91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>100#
+ Kazman R et al.; A case study in locating the architectural roots of technical debt. ;In: Proceedings of the 37th International Conference on Software Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Volume 2. NJ, USA: Piscataway; 2015:179</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>188.#
+ Arvanitou EM, Ampatzoglou A, Chatzigeorgiou A, Avgeriou P.; Introducing a ripple effect measure: a theoretical and empirical validation.; In: 2015 ACM/IEEE International Symposium on Empirical Soft- ware Engineering and Measurement (ESEM), Beijing, China; 2015:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>10.#
+ Li Z, Avgeriou P, Liang P. ;A systematic mapping study on technical debt and its management. J Syst Softw. 2015;101:193</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>220.#
+ Ampatzoglou A, Ampatzoglou A, Chatzigeorgiou A, Avgeriou P.; The financial aspect of managing technical debt: a systematic literature review;. Inf Softw Technol. 2015;64:52</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>73.#
+Nord RL, Ozkaya I, Kruchten P, Gonzalez</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Rojas M.; In search of a metric for managing architectural technical debt.; In: 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Con- ference on Software Architecture (ECSA), Helsinki, Finland; 2012:91</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>100#
+ Martini A, Bosch J, Chaudron M.; Architecture technical debt: understanding causes and a qualitative model.; In: 40th Euromicro Conference on Software Engineering and Advanced Applications. Verona; 2014:85</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>92.#
+Fowler M. Technical Debt Quadrant; 2009.#
+ Nugroho A, Visser J, Kuipers T.; An empirical model of technical debt and interest.; In Proceedings of the 2nd Workshop on Managing Technical Debt. New York, NY, USA; 2011:1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>8.#
+Seaman C et al. ;Using technical debt data in decision making: potential decision approaches.; In: 2012 Third International Workshop on Managing Technical Debt (MTD), Zurich, Switzerland; 2012:45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>48.#
+ Guo Y, Seaman C.; A portfolio approach to technical debt management.; In: Proceedings of the 2Nd Workshop on Managing Technical Debt.; New York: NY, USA; 2011:31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>34.#
+Zazworka N, Spínola RO, Vetro’ A, Shull F, Seaman C. ;A case study on effectively identifying technical debt.; In Proceedings of the 17th International Conference on Evaluation and Assessment in Software Engineering, New York, NY, USA; 2013:42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Noteworthy Bold"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">47.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>S.Baskarada,V.Nguyen,andA.Koronios,;Architecting Microservices: Practical Opportunities and Challenges; Journal of Computer Information Systems, vol. 00, no. 00, pp. 1–9, sep 2018.#
+ J.GhofraniandD.Lu ̈bke,;Challenges of Microservices Architecture:A Survey on the State of the Practice; in 10th Central European Workshop on Services and their Composition (ZEUS), vol. 10th. Dresden, Germany: CEUR-WS.org, 2018.#
+ S. Haselbock, R. Weinreich, and G. Buchgeher, “;An Expert Interview Study on Areas of Microservice Design; in 2018 IEEE 11th Conference on Service-Oriented Computing and Applications (SOCA). IEEE, nov 2018, pp. 137–144.#
+ A. Carrasco, B. van Bladel, and S. Demeyer, “;Migrating towards microservices: migration and architecture smells; in Proceedings of the 2nd International Workshop on Refactoring - IWoR 2018. New York, New York, USA: ACM Press, 2018, pp. 1–6.#
+ D. Taibi and V. Lenarduzzi, “;On the Definition of Microservice Bad Smells; IEEE Software, vol. 35, no. 3, pp. 56–62, may 2018.#
+V. Lenarduzzi and D. Taibi, “;Microservices, Continuous Architecture, and Technical Debt Interest: An Empirical Study; in Euromicro SEAA, no. June, Prague, Czech Republic, 2018.#
+J. Bogner, J. Fritzsch, S. Wagner, and A. Zimmermann, “;Limiting Technical Debt with Maintainability Assurance – An Industry Survey on Used Techniques and Differences with Service- and Microservice-Based Systems; in Proceedings of the 2018 International Conference on Technical Debt - TechDebt ’18. New York, New York, USA: ACM Press, 2018, pp. 125–133.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, ;Measure it? Manage it? Ignore it? software practitioners and technical debt,; presented at the Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, Bergamo, Italy, 2015. #
+ J. Holvitie, V. Leppanen, and S. Hyrynsalmi, ;Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey,; in Managing Technical Debt (MTD), 2014 Sixth International Workshop on, 2014, pp. 35-42. #
+ T. Besker, A. Martini, and J. Bosch, ;The pricey Bill of Technical Debt - When and by whom will it be paid? ,; in IEEE International Conference on Software Maintenance and Evolution (ICSME), Shanghai, China, 2017. #
+ T. Besker, A. Martini, and J. Bosch, ;A systematic literature review and a unified model of architectural technical debt,; in Euromicro Conference series on Software Engineering and Advanced Applications (SEAA), 2016. #
+ T. Besker, A. Martini, and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective,; in CibSE, Buenos Aires, Argentina, 2017. #
+R.Kazman,C.Yuanfang,M.Ran,F.Qiong,X.Lu,S.Haziyev,etal., ;A Case Study in Locating the Architectural Roots of Technical Debt,; in Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, 2015, pp. 179-188. #
+  D. Falessi, M. A. Shaw, F. Shull, K. Mullen, and M. S. Keymind, ;Practical considerations, challenges, and requirements of tool- support for managing technical debt,; in Managing Technical Debt (MTD), 2013 4th International Workshop, 2013, pp. 16-19. #
+ A. Nugroho, J. Visser, and T. Kuipers, ;An empirical model of technical debt and interest,; presented at the Proceedings of the 2nd Workshop on Managing Technical Debt, Waikiki, Honolulu, HI, USA, 2011. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical survey-based studies on TD 
+- Ernst et al. [10] conducted a survey within three large organizations, with 536 respondents and seven follow-up interviews 
+	[10]  N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, ;Measure it? Manage it? Ignore it? software practitioners and technical debt,; presented at the Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, Bergamo, Italy, 2015. 
+- Holvitie, Leppanen and Hyrynsalmi [14] conducted a survey of 54 Finnish software practitioners investigating the level of TD knowledge, how TD occurs in projects and which of the applied agile components of the development was sensitive to TD 
+	[14]  J. Holvitie, V. Leppanen, and S. Hyrynsalmi, ;Technical Debt and the Effect of Agile Software Development Practices on It - An Industry Practitioner Survey,; in Managing Technical Debt (MTD), 2014 Sixth International Workshop on, 2014, pp. 35-42. 
+- This paper is somewhat also related to our previous papers [3],[5], where we specifically study the architectural type of TD and address how TD negatively affects different software quality attributes. 
+	[3]  T. Besker, A. Martini, and J. Bosch, ;The pricey Bill of Technical Debt - When and by whom will it be paid? ,; in IEEE International Conference on Software Maintenance and Evolution (ICSME), Shanghai, China, 2017. 
+	[4]  T. Besker, A. Martini, and J. Bosch, ;A systematic literature review and a unified model of architectural technical debt,; in Euromicro Conference series on Software Engineering and Advanced Applications (SEAA), 2016. 
+	[5]  T. Besker, A. Martini, and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective,; in CibSE, Buenos Aires, Argentina, 2017. 
+Prior research on TD related issues 
+- Kazman et al. [15] present a case study of identifying and quantifying architectural debts in an industrial software project, using code changes as a proxy for calculating the interest. 
+	[15]  R.Kazman,C.Yuanfang,M.Ran,F.Qiong,X.Lu,S.Haziyev,etal., ;A Case Study in Locating the Architectural Roots of Technical Debt,; in Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, 2015, pp. 179-188. 
+- Falessi et al. [11] argue that the interest is non-linear and has a probability to grow exponentially rather than linearly. By analyzing source code
+	[11]  D. Falessi, M. A. Shaw, F. Shull, K. Mullen, and M. S. Keymind, ;Practical considerations, challenges, and requirements of tool- support for managing technical debt,; in Managing Technical Debt (MTD), 2013 4th International Workshop, 2013, pp. 16-19. 
+- Nugroho et al. [28] describe that the interest grows differently on a 10-years horizon, depending on a star rating system of the software. 
+	[28]  A. Nugroho, J. Visser, and T. Kuipers, ;An empirical model of technical debt and interest,; presented at the Proceedings of the 2nd Workshop on Managing Technical Debt, Waikiki, Honolulu, HI, USA, 2011. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> ; Managing Technical Debt in Software Engineering, Dagstuhl Reports,;Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: </t>
     </r>
     <r>
       <rPr>
@@ -10310,104 +11598,171 @@
         <color indexed="8"/>
         <rFont val="Times Roman"/>
       </rPr>
-      <t>http://dx.doi.org/10.1109/2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. 303623 #
-F. Arcelli Fontana, R. Roveda, and M. Zanoni,; “Technical debt indexes provided by tools: A preliminary discussion,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, Oct 2016, pp. 28–31. #
-  J.-L. Letouzey,; “The SQALE method for evaluating technical debt,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>MTD 2012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, June 2012, pp. 31–36.#
-S. M. A. Shah, J. Dietrich, and C. McCartin, ;“Making smart moves to untangle programs,”; in </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>2012 16th European Conference on Software Maintenance and Reengineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, March 2012, pp. 359–364.#
-R. C. Martin,; “Object oriented design quality metrics: An analysis of dependencies,”; </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ROAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, vol. 2, no. 3, Sept–Oct 1995. 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>dagstuhl.de/16162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> #
+ D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. ;What is Social debt in Software Engineering;CHASE 2013, San Francisco US. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>https://978-1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 4673-6290-0/13 #
+ Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,; In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 #
+ J.L. Letouzey and M. Ilkiewicz, ;Managing Technical Debt with the SQALE Method; IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 #
+ B. Curtis, J. Sappidi, and A. Szynkarski. ;Estimating the principal of an application’s Technical Debt; IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Important work (original)</t>
+  </si>
+  <si>
+    <t>[16] ISO/IEC, ;Systems and software engineering — Systems and software Quality Requirements and Evaluation (SQuaRE) — System and software quality models,; in ISO/IEC FDIS 25010:2011, ed, 2011, pp. 1- 34.#
+[3] Z. Li, P. Avgeriou, and P. Liang, ;A systematic mapping study on technical debt and its management,; Journal of Systems and Software, vol. 101, pp. 193-220, 2015.
+#
+[20] V. R. Basili, ;Software modeling and measurement: the Goal/Question/Metric paradigm,; University of Maryland 1992.#
+[19] P. Runeson and M. Höst, ;Guidelines for conducting and reporting case study research in software engineering,; Empirical Software Engineering, vol. 14, pp. 131-164, 2009.#
+[21] B. G. Glaser and A. L. Strauss, The discovery of grounded theory: Strategies for qualitative research. New York: Aldine Publishing, 1967.#
+[22] C. B. Seaman, ;Qualitative methods in empirical studies of software engineering,; Software Engineering, IEEE Transactions on, vol. 25, pp. 557-572, 1999.</t>
+  </si>
+  <si>
+    <t>A. Martini, J. Bosch and M. Chaudron, ;Investigating Architectural Technical Debt accumulation and refactoring over time: A multiple-case study;, Information and Software Technology, vol. 67, pp. 237-253, 2015.
+#
+A. Martini and J. Bosch, ;An empirically developed method to aid decisions on architectural technical debt refactoring: AnaConDebt;, 2016 IEEE/ACM 38th International Conference on Software Engineering Companion (ICSE-C), pp. 31-40, 2016.
+#
+P. Avgeriou, P. Kruchten, I. Ozkaya and C. Seaman, ;Managing technical debt in software engineering (dagstuhl seminar 16162);, Dagstuhl Reports, vol. 6, no. 4, 2016.
+#
+R. Kazman et al., ;A case study in locating the architectural roots of technical debt;, 2015 IEEE/ACM 37th IEEE International Conference on Software Engineering, vol. 2, pp. 179-188, 2015.
+#
+U. Eliasson, A. Martini, R. Kaufmann and S. Odeh, ;Identifying and visualizing Architectural Debt and its efficiency interest in the automotive domain: A case study;, 2015 IEEE 7th International Workshop on Managing Technical Debt (MTD), pp. 33-40, 2015.
+#
+T. Besker, A. Martini and J. Bosch, ;Time to Pay Up: Technical Debt from a Software Quality Perspective;, CIbSE, pp. 235-248, 2017.
+#
+E. Tom, A. Aurum and R. Vidgen, ;An exploration of technical debt;, Journal of Systems and Software, vol. 86, no. 6, pp. 1498-1516, 2013.
+#
+E. Alzaghoul and R. Bahsoon, ;Evaluating technical debt in cloud-based architectures using real options;, 2014 23rd Australian Software Engineering Conference, pp. 1-10, 2014.</t>
+  </si>
+  <si>
+    <t>[1] R. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, ;In search of a metric for managing architectural technical debt,” in Proc. of the 2012 Joint Working IEEE/IFIP Conf. on Soft. Arch. (WICSA) and European Conf. on Soft. Arch. (ECSA). Finland: IEEE, 2012, pp. 91–100.#
+[2] Z. Li, P. Avgeriou, and P. Liang, ;A systematic mapping study on technical debt and its management,” Journal of Systems and Software , vol. 101, pp. 193–220, 2015.#
+[5] L. Xiao, Y. Cai, R. Kazman, R. Mo, and Q. Feng, ;Identifying
+and quantifying architectural debt; in Proceedings of the 38th International Conference on Software Engineering , ser. ICSE ’16. New York, NY, USA: ACM, 2016, pp. 488–498. [Online]. Available: http://doi.acm.org/10.1145/2884781.2884822#
+[6] Z. Li, P. Liang, and P. Avgeriou, ;Chapter 9 - architectural debt management in value-oriented architecting; in Economics-Driven Software Architecture, I. Mistrik, , R. Bahsoon, , R. Kazman, , and Y. Zhang, Eds. Boston: Morgan Kaufmann, 2014, pp. 183 – 204. [Online]. Available: https://www.sciencedirect.com/science/article/ pii/B978012410464800009X#
+[7] F. Arcelli Fontana, R. Roveda, and M. Zanoni, ;Technical debt indexes provided by tools: A preliminary discussion; in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31.#
+[10] J. Garcia, D. Popescu, G. Edwards, and N. Medvidovic, ;Identifying architectural bad smells; in CSMR 2009. Germany: IEEE, 2009, pp. 255–258.#
+[11] R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka, ;A case study in locating the architectural roots of technical debt; in Proceedings of the 37th IEEE International Conference on Software Engineering (ICSE 2015), vol. 2, May 2015, pp. 179–188.#
+[12] F. Arcelli Fontana, I. Pigazzini, R. Roveda, D. E. Tamburri, M. Zanoni, and E. D. Nitto, ;Arcan: a tool for architectural smells detection; in To Appear at IEEE International Conference on Software Architecture (ICSA 2017), 2017.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`[11] J. Li, N. B. Moe, and T. Dyba ̊. ;Transition from a plan-driven process to scrum: a longitudinal case study on software quality; In Interna- tional symposium on Empirical Software Engineering and Measurement,
+page 13, 2010.#
+[21] P. Runeson, M. Host, A. Rainer, and B. Regnell. ;Case study research in software engineering: Guidelines and examples.; ;John Wiley &amp; Sons, 2012.#
+[6] Q.Feng,R.Kazman,Y.Cai,R.Mo,andL.Xiao;Anarchitecture-centric approach to security analysis;. pages 221–230, 2016.#
+[15] R. Mo, Y. Cai, R. Kazman, and L. Xiao. Hotspot patterns:; The formal definition and automatic detection of architecture smells.; In 12th Working IEEE/IFIP Conference on Software Architecture (WICSA), pages 51–60, 2015.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[20] D. I. Sjøberg, A. Yamashita, B. C. Anda, A. Mockus, and T. Dyba ̊, ;Quantifying the effect of code smells on maintenance effort; IEEE Transactions on Software Engineering, vol. 39, no. 8, pp. 1144–1156, 2013.#
+[15] M. DAmbros, H. Gall, M. Lanza, and M. Pinzger, ;Analysing software repositories to understand software evolution; in Software evolution. Springer, 2008, pp. 37–67.#
+[16] R. C. Martin, “The single responsibility principle,;The principles, patterns, and practices of Agile Software Development; vol. 149, p. 154, 2002.#
+[21] R. Mo, Y. Cai, R. Kazman, L. Xiao, and Q. Feng, ;Decoupling level: a new metric for architectural maintenance complexity; in Proceedings of the 38th International Conference on Software Engineering. ACM, 2016, pp. 499–510.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1] Abdeen, H., Ducasse, S., and Sahraoui, H., 2011.; Modularization Metrics: Assessing Package Organization in Legacy Large Object-Oriented Software.; In Proceedings of the Proceedings of the 2011 18th Working Conference on Reverse Engineering (2011), IEEE Computer Society, 2086275, 394-398. DOI= http://dx.doi.org/10.1109/wcre.2011.55.#
+</t>
+  </si>
+  <si>
+    <t>;[20]  J. Carriere, R. Kazman, and I. Ozkaya, ;A cost-benefit framework for making architectural decisions in a business context; in 2010 ACM/IEEE 32nd International Conference on Software Engineering, 2010, vol. 2, pp. 149–157.#
+  + +[2]  R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, ;In Search of a Metric for Managing Architectural Technical Debt;in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.  +#
+[18] K. Peffers, T. Tuunanen, M. A. Rothenberger, and S. Chatterjee, ;A Design Science Research Methodology for Information Systems Research; J. Manag. Inf. Syst., vol. 24, no. 3, pp. 45–77, Dec. 2007.#
+[3] A. Martini, J. Bosch, and M. Chaudron, ;Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study; Inf. Softw. Technol#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26] L. Xiao, Y. Cai, and R. Kazman. ;Design rule spaces: A new form of architecture insight.; In Proc. 36th International Conference on Software Engineering, 2014.#
+[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. ;Hotspot patterns: The formal definition and automatic detection of architecture smells.; In Proc. 15th Working IEEE/IFIP International Conference on Software Architecture, May 2015.#
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[1] </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>AndroidandArchitecture. 'In Android Developers Blog;.https://android-developers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>googleblog.com/2017/05/android-and-architecture.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> Accessed 18 March 2018. #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
       <t xml:space="preserve">
-Y.CaiandK.J.Sullivan. ;Modularity analysis of logical design models;.In 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">Proc. 21st IEEE/ACM International Conference on Automated Software </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[2]  HamidBagheri,JoshuaGarcia,AlirezaSadeghi,SamMalek,andNenadMedvi- dovic. 2016. ;Software architectural principles in contemporary mobile software: </t>
     </r>
     <r>
       <rPr>
@@ -10420,156 +11775,435 @@
     </r>
     <r>
       <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Engineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, pages 91–102, Sept. 2006.#
- K. J. Sullivan, W. G. Griswold, Y. Cai, and B. Hallen. ;The structure and value of modularity in software design;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Proc. 9th ACM SIGSOFT International Symposium on the Foundations of Software Engineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, pages 99–108, Sept. 2001.# 
-S. Wong, Y. Cai, G. Valetto, G. Simeonov, and K. Sethi. ;Design rule hierarchies and parallelism in software development tasks;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Proc. 24th IEEE/ACM International Conference on Automated Software Engineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, pages 197–208, Nov. 2009.#
- L. Xiao, Y. Cai, and R. Kazman. ;Design rule spaces: A new form of architecture insight;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Proc. 36rd International Conference on Software Engineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, 2014.# 
- R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka. ;A case study in locating the architectural roots of technical debt;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Proc. 37th International Conference on Software Engineering</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, May 2015.#
- Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. Tonin, F. Q. B. 
-Da Silva, A. L. M. Santos, and C. Siebra. ;Tracking technical debt—An exploratory case study;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Software Maintenance (ICSM), 2011 27th IEEE International Conference on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, pages 528–531. IEEE, 2011.#
- R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas.; In Search of a Metric for Managing Architectural Technical Debt;. In </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012 Joint Working IEEE/IFIP Conference on</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, pages 91–100. IEEE, Aug. 2012. #
-B. Curtis, J. Sappidi, and A. Szynkarski. ;Estimating the principal of an  application’s technical debt;. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>IEEE software</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, 29(6):34–42, 2012. #
-</t>
-    </r>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>from conception to practice.; Journal of Systems and Software 119 (2016), 31–44. #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[3]  Philippe Kruchten, Robert L. Nord, and Ipek Ozkaya. 2012. ;Technical debt: From </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>metaphor to theory and practice.;IEEE Software 29, 6 (2012), 18–21. #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[4]  MarioLinares-Vásquez,GabrieleBavota,CarlosBernal-Cárdenas,Massimiliano Di Penta, Rocco Oliveto, and Denys Poshyvanyk. 2013. ;API change and fault proneness: a threat to the success of Android apps;. In Proceedings of the 2013 9th </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>joint meeting on foundations of software engineering. ACM, 477–487. #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[5]  Roberto Verdecchia, Ivano Malavolta, and Patricia Lago. 2018. ;Architectural Technical Debt Identification: The Research Landscape.; In International Conference on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>Technical Debt (TechDebt). #</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[1];hellow2morrow; # </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://blog.hello2morrow.com/2016/08/how-to-organize-your-code</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[2];hellow2morrow ;# </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="16"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">track-maintainability/ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>[9] Garcia, J., Popescu, D., Edwards, G., Medvidovic, N.: ;Identifying
+architectural bad smells;. In: Proc. CSMR 2009. IEEE, Germany (2009);#
+ [12] Letouzey, J.L.: ;The SQALE method for evaluating technical debt; In:
+Proc. 3rd Int. Work. on Managing Technical Debt (June 2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, ;In Search of a Metric for Managing Architectural Technical Debt,; in 2012 Joint Working IEEE/IFIP WICSA and ECSA, 2012, pp. 91–100#
+M. Daneva, E. van der Veen, C. Amrit, S. Ghaisas, K. Sikkel, R. Kumar, N. Ajmeri, U. Ramteerthkar, and R. Wieringa, ;Agile requirements prioritization in large-scale outsourced system projects: An empirical study,; J. Syst. Softw., vol. 86, no. 5, pp. 1333–1353, May 2013.#
+Y. Guo and C. Seaman, ;A Portfolio Approach to Technical Debt Management,; in Proceedings of the 2Nd Workshop on Managing
+Technical Debt, New York, NY, USA, 2011, pp. 31–34.
+</t>
+  </si>
+  <si>
+    <t>P. Kruchten, R. L. Nord, and I. Ozkaya, ;Technical Debt: From Metaphor to Theory and Practice; IEEE Softw., vol. 29, no. 6, pp. 18–21, 2012.#
+R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez- Rojas, ;In Search of a Metric for Managing Architectural Technical Debt; in 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), 2012, pp. 91–100.#
+A. Martini, J. Bosch, and M. Chaudron, ;Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple-Case Study; Inf. Softw. Technol.#
+R. Kazman, Y. Cai, R. Mo, Q. Feng, L. Xiao, S. Haziyev, V. Fedak, and A. Shapochka, ;A Case Study in Locating the Architectural Roots of Technical Debt; in Proceedings of the 37th International Conference on Software Engineering - Volume 2, Piscataway, NJ, USA, 2015, pp. 179–188.#
+V . Antinyan, M. Staron, W . Meding, P . Osterstrom, E. Wikstrom, J. Wranker, A. Henriksson, and J. Hansson, ;Identifying risky areas of software code in Agile/Lean software development: An industrial experience report; in 2014 Software Evolution Week - IEEE Conference on Software Maintenance, Reengineering and Reverse Engineering (CSMR-WCRE), 2014, pp. 154–163.</t>
+  </si>
+  <si>
+    <t>[30] L. Xiao, Y. Cai, and R. Kazman. ;Design rule spaces: A new form of
+architecture insight.; In Proc. 36th International Conference on Software
+Engineering, 2014.#
+[31] L. Xiao, Y. Cai, and R. Kazman.; Titan: A toolset that connects software
+architecture with quality analysis.; In 22nd ACM SIGSOFT International
+Symposium on the Foundations of Software Engineering, 2014.#
+[32] L. Xiao, Y. Cai, R. Kazman, and R. Mo.; Investigating the evolutionary consequences of architecture roots of error-proneness. ;In Submission,
+2014.#
+[3] Y. Cai and K. J. Sullivan.; Modularity analysis of logical design models.; In Proc. 21st IEEE/ACM International Conference on Automated Software Engineering, pages 91–102, Sept. 2006.#
+[29] S. Wong, Y. Cai, G. Valetto, G. Simeonov, and K. Sethi. ;Design rule hierarchies and parallelism in software development tasks.; In Proc. 24th IEEE/ACM International Conference on Automated Software
+Engineering, pages 197–208, Nov. 2009.#
+[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. ;Hotspot patterns: The
+formal definition and automatic detection of recurring high-maintenance
+architecture issues.; In Submission, 2014.</t>
+  </si>
+  <si>
+    <t>C. Seaman, Y. Guo, N. Zazworka, F. Shull, C. Izurieta, Y. Cai, and A. Vetro, ;Using technical debt data in decision making: Potential decision approaches; in 2012 Third International Workshop on Managing Technical Debt (MTD), 2012, pp. 45–48.#
+;The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles,;in accepted for publication at WICSA 2015, Montreal, Canada.
+ ISO - International Organization for Standardization, “System and software quality models.” [Online]. Available: http://www.iso.org/iso/catalogue_detail.htm?csnumber=5 2075. [Accessed: 08-Mar-2015].</t>
+  </si>
+  <si>
+    <t>[16] D. Liben-Nowell and J. Kleinberg. ;The link-prediction problem for social networks. J. Am. Soc. Inf. Sci. Technol., 58(7):1019–1031, 2007. ISSN 1532-2882.
+#
+[15] D.M. Le, D. Link, A. Shahbazian, and N. Medvidovic. ;An empirical study of architectural decay in open-source software. ;In IEEE ICSA, 2018, pages 176–185.
+#
+[18] C. Maffort, M. T. Valente, R. Terra, M. Bigonha, N. Anquetil, and A. Hora. ;Mining architectural violations from version history.; Empir Soft Eng, 21(3):854–895, 2016. ISSN 1573-7616.
+#
+[26] G. Salton and M. J. McGill. ;Introduction to Modern Information
+Retrieval.; McGraw-Hill, Inc., New York, NY, USA, 1986.
+#
+[28] R. Terra, J. Brunet, L. Miranda, M.T. Valente, D. Serey, D. Castilho,
+and R. Bigonha.; Measuring the structural similarity between source
+code entities.; In 25th International SEKE, pages 753–758, 2013.
+#
+[29] Y. Yang, R.N. Lichtenwalter, and N.V. Chawla. ;Evaluating link prediction methods;. Knowl. Inf. Syst., 45(3):751–782, 2015. ISSN 0219-1377.</t>
+  </si>
+  <si>
+    <t>[24] K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, ;From retrospect to prospect: Assessing modularity and stability from software architecture; Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817.
+#
+[25] J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, ;Building empirical support for automated code smell detection; Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM Press, Sep. 2010, pp. 8:1–8:10, doi: 10.1145/1852786.1852797.</t>
+  </si>
+  <si>
+    <t>[4] E. M. Arvanitou, A. Ampatzoglou, K. Tzouvalidis, A. Chatzigeorgiou,
+P. Avgeriou, and I. Deligiannis, ;Assessing Change Proneness at the Architecture Level: An Empirical Validation;, International Workshop on Emerging Trends in Software Design and Architecture (WETSoDA 2017), IEEE, 2017.
+#
+[5] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou,
+;“Introducing a ripple effect measure: a theoretical and empirical validation;, 9th Int. Symposium on Empirical Software Engineering and Measurement (ESEM ‘15), IEEE, 22–23 October 2015, China.
+#
+[6] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou.
+;“Software Metrics Fluctuation: A Property for Assisting the Metric
+Selection Process;, Information and Software Technology, 72 (4), 2016.
+#
+[7] E. M. Arvanitou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou, ;A Method for Assessing Class Change Proneness;, 21st International Conference on Evaluation and Assessment in Software Engineering
+(EASE’ 17), ACM, 15-16 June 2017, Sweden.</t>
+  </si>
+  <si>
+    <t>[3] D.Durisic,M.Nilsson,M.Staron,andJ.Hansson.;Measuringtheimpact of changes to the complexity and coupling properties of automotive software systems.; 86(5):1275–1293. [7] Z. Li, P. Avgeriou, and P. Liang. A systematic mapping study on technical debt and its management. Journal of Systems and Software, 101(0):193 – 220, 2015.
+#
+[8] A. Martini, J. Bosch, and M. Chaudron. ;Architecture technical debt: Understanding causes and a qualitative model. ;In Software Engineering and Advanced Applications (SEAA), 2014 40th EUROMICRO Confer- ence on, pages 85–92, Aug 2014.
+#
+[9] R. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas.; In search of a metric for managing architectural technical debt. ;In 2012 Joint Working IEEE/IFIP Conference on Software Architecture (WICSA) and European Conference on Software Architecture (ECSA), pages 91–100.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[12] Letouzey, J.L.: ;The SQALE method for evaluating technical debt.; In:
+Proc. 3rd Int. Work. on Managing Technical Debt (June 2012)
+# [9] Garcia, J., Popescu, D., Edwards, G., Medvidovic, N.: ;Identifying
+architectural bad smells.; In: Proc. CSMR 2009. IEEE, Germany (2009); </t>
+  </si>
+  <si>
+    <t>Brooks, FrederickP., 1975. The Mythical Man-Month.; Kruchten, P, Nord, R.L., Ozkaya, M., 2012a. ;Technical Debt: from metaphor to theory to practice.; IEEE Softw 29 (6), 18–21.
+#
+Kruchten, P., Gonzalez, M., Ozkaya, I., Nord, R.L., Kruchten, N., 2012b. ;Change propagation as a measure of structural technical debt.; WICSA/ECSA.
+#
+Li, Z., Avgeriou, P., Liang, P., 2015. ;A systematic mapping on technical debt and its management;. J. Syst. Softw 101, 193–220. 
+#
+ Guo, Y., Seaman, C.A, 2011. ;Portfolio approach to technical debt management.; 2nd Workshop on Managing Technical Debt. ACM.
+#
+Baldwin, C., MacCormack, A., Rusnak, J., 2014. ;Hidden structure: using network methods to map system architecture.; Res. Policy 43 (8), 1381–1397. 
+#
+MacCormack, A., Baldwin, C., Rusnak, J., 2012.; Exploring the duality between product and organizational architectures: a test of the ’mirroring’ hypothesis.; Res. Policy 41 (8), 1309–1324.
+#
+MacCormack, A., Rusnak, J., Baldwin, C., 2006.;Exploring the structure of complex software designs: an empirical study of open source and proprietary code;. Man- age. Sci. 52 (7), 1015–1030. 
+#
+Sosa, Manuel, Eppinger, Steven, Rowles, Craig, 2007.; A network approach to define modularity of components in complex products. ;Trans.ASME 129, 1118–1129.</t>
+  </si>
+  <si>
+    <t>[6] F. A. Fontana, I. Pigazzini, R. Roveda, and M. Zanoni, ;Automatic detection of instability architectural smells;Proceedings - 2016 IEEE International Conference on Software Maintenance and Evolution, IC- SME 2016, pp. 433–437, 2017.
+#[9] R. Roveda, F. A. Fontana, I. Pigazzini, and M. Zanoni, ;Towards an architectural debt index; in 2018 44th Euromicro Conference on Software Engineering and Advanced Applications (SEAA), pp. 408–416, IEEE, 2018.</t>
+  </si>
+  <si>
+    <t>[8] NeilA.Ernst,StephanyBellomo,IpekOzkaya,RobertL.Nord,andIanGorton. 2015. ;Measure it? Manage it? Ignore it?; software practitioners and technical debt. In Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, ESEC/FSE 2015, Bergamo, Italy, August 30 - September 4, 2015. 50–60. https://doi.org/10.1145/2786805.2786848
+#
+[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009.; Identifying Architectural Bad Smells.; In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59
+#
+[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015.; A Case Study in Locating the Architectural Roots of Technical Debt.; In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146
+#
+[16] Alan MacCormack and Daniel J. Sturtevant. 2016. ;Technical debt and system architecture: The impact of coupling on defect-related activity. ;Journal of Systems and Software 120 (2016), 170–182. https://doi.org/10.1016/j.jss.2016.06.007
+#
+[17] Isela Macía Bertrán. 2013.; On the Detection of Architecturally-Relevant Code Anomalies in Software Systems.; Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro.
+#
+[19] Antonio Martini, Francesca Arcelli Fontana, Andrea Biaggi, and Riccardo Roveda. 2018.; Identifying and Prioritizing Architectural Debt through Architectural Smells: a Case Study in a Large Software Company.; In Proc. of the European Conference on Software Architecture (ECSA). Madrid, Spain, 320–335. https: //doi.org/10.1007/978- 3- 030- 00761- 4_21
+#
+[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns:; The Formal Definition and Automatic Detection of Architecture Smells.; In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/
+WICSA.2015.12
+#
+[24] Ganesh Samarthyam, Girish Suryanarayana, and Tushar Sharma. 2016. ;Refactoring for software architecture smells.; In Proceedings of the 1st International Workshop on Software Refactoring, IWoR@ASE 2016, Singapore, Singapore, Sep- tember 4, 2016. https://doi.org/10.1145/2975945.2975946
+#
+[27] Santiago A. Vidal, Everton T. Guimarães, Willian Nalepa Oizumi, Alessandro F. Garcia, Jorge Andrés Díaz Pace, and Claudia Marcos. 2016. ;On the criteria for prioritizing code anomalies to identify architectural problems.; In Proc. of the 31st Annual ACM Symp. on Applied Computing,. 1812–1814. https://doi.org/10.1145/ 2851613.2851941
+#
+[28] Lu Xiao, Yuanfang Cai, and Rick Kazman. 2014.; Titan: A Toolset That Connects Software Architecture with Quality Analysis.; In Proceedings of the 22Nd ACM SIG- SOFT International Symposium on Foundations of Software Engineering (FSE 2014). ACM, Hong Kong, China, 763–766. https://doi.org/10.1145/2635868.2661677</t>
+  </si>
+  <si>
+    <t>[5] ;ISO/IEC 25010:2011 Systems and Software Engineering – Systems and
+Software Quality Requirements and Evaluation (SQuaRE) – System and
+Software Quality Models; Mar. 2011.
+#
+[6] ;SQALE Software Quality Assessment based on Lifecycle Expectations;Feb.2017. [Online]. Available: www.sqale.org
+#
+[7] S. Wagner, K. Lochmann, L. Heinemann, M. Klas, A. Trendowicz, R. Plosch,
+A. Seidi, A. Goeb, and J. Streit, ;The Quamoco product quality modelling and
+assessment approach.; IEEE, Jun. 2012, pp. 1133–1142.
+#
+[2] [Online] Available: cwe.mitre.org Common Weakness Enumeration
+[22] Recommendation ITU-T X.1525.; Common Weakness Scoring System (CWSS;). [Online] Available: www.itu.int/rec/T-REC-X.1525/en;[10] Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162; [21] Santos, J. C. S., Tarrit, K., and Mirakhorli, M. “A Catalog of Security Architecture Weaknesses,” 2017 IEEE International Conference on Software Architecture (ICSA). 2017 
+#
+[24] [Online]Available:design.se.rit.edu/catalog/index.html</t>
+  </si>
+  <si>
+    <t>[15] P. Kruchten, R. L. Nord, I. Ozkaya, ;Technical Debt: From Metaphor to Theory and Practice;, Software, IEEE Computer Society, vol. 29, no. 6, pp. 18-21, November-December 2012
+#
+[19] A. Martini and J. Bosch, ;Towards prioritizing Architecture Technical Debt: information needs of architects and product owners;41st Euromicro SEAA Conference, Funchal, Madeira, August 2015.
+#
+[20] A. Martini, J. Bosch, and M. Chaudron, ;Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple- Case Study; Information and Software Technology, July 2015.</t>
+  </si>
+  <si>
+    <t>[33] E. Tom, A. Aurum, and R. Vidgen, ;An exploration of technical debt;Journal of Systems and Software, vol. 86, no. 6, 2013, pp. 1498-1516.
+[1] A. Ampatzoglou, A. Ampatzoglou, A. Chatzigeorgiou, and P. Avgeriou, ;The financial aspect of managing technical debt: A systematic literature review; Information and Software Technology, vol. 64, 2015, pp. 52.
+#
+[7] Y. Guo, C. Seaman, R. Gomes, A. Cavalcanti, G. T onin, F. Q. Da Silva,A.L.M.Santos,andC.Siebra,;Tracking technical debt—An exploratorycase study;in Software Maintenance(ICSM), 2011 27th IEEE International Conference on, 2011, pp. 528–531.
+#
+[10] A.MartiniandJ.Bosch, ;The Danger of Architectural Technical Debt: Contagious Debt and Vicious Circles; in accepted for publication at WICSA 2015,Montreal, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[43] Nurmuliani, N., Zowghi, D., and Williams, S. P. ;Requirements volatility and its impact on change effort: Evidence-based research in software development projects.; ( 2006).
+#
+[57] van Heesch, U. and Avgeriou, P. ;Mature architecting - a survey about the reasoning process of professional architects.; In 9th Working IEEE/IFIP Conference on Software Architecture ( 2011), 260–269.
+</t>
+  </si>
+  <si>
+    <t>[12] C. Baldwin, A. MacCormack, and J. Rusnak, ;Hidden Structure: Using Network Methods to Map System Architecture; 2014. ; [13] R. Kazman et al., “A Case Study in Locating the Architectural Roots of Technical Debt,” in Proceedings of the 37th International Conference on Software Engineering - Volume 2, Piscataway, NJ, USA, 2015, pp. 179–188. ; [14] S. Stevanetic and U. Zdun, “Software Metrics for Measuring the Understandability of Architectural Structures: A Systematic Mapping Study,” in Proceedings of the 19th International Conference on Evaluation and Assessment in Software Engineering, New York, NY, USA, 2015, p. 21:1–21:14.
+#
+[15] L. Xiao, Y. Cai, R. Kazman, R. Mo, and Q. Feng, ;Identifying and Quantifying Architectural Debt; in Proceedings of the 38th International Conference on Software Engineering, New York, NY, USA, 2016, pp. 488–498.
+#
+[16] A. MacCormack, J. Rusnak, and C. Y. Baldwin, ;Exploring the Structure of Complex Software Designs: An Empirical Study of Open Source and Proprietary Code; Manag. Sci., vol. 52, no. 7, pp. 1015– 1030, Jul. 2006.
+#
+[17] A. MacCormack and D. J. Sturtevant, ;Technical debt and system architecture: The impact of coupling on defect-related activity,;J. Syst. Softw., vol. 120, pp. 170–182, Oct. 2016.
+#
+[19] R. Jabangwe, J. Börstler, D. Šmite, and C. Wohlin, ;Empirical evidence on the link between object-oriented measures and external quality attributes: a systematic literature review; Empir. Softw. Eng., vol. 20, no. 3, pp. 640–693, Mar. 2014.
+#
+[20] M. Riaz, E. Mendes, and E. Tempero, ;A Systematic Review of Software Maintainability Prediction and Metrics;in Proceedings of the 2009 3rd International Symposium on Empirical Software Engineering and Measurement, Washington, DC, USA, 2009, pp. 367–377.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[18] A.PotdarandE.Shihab.; An exploratory study on self-admitted technical debt.; In </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t>Proceedings of the 30th IEEE International Conference on Software Maintenance and Evolution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color indexed="8"/>
+        <rFont val="NimbusRomNo9L"/>
+      </rPr>
+      <t xml:space="preserve">, ICSME, pages 91–100. IEEE, 2014. 
+#
+[8] Q.Huang,E.Shihab,X.Xia,D.Lo,andS.Li.;Identifying self-admitted technical debt in open source projects using text mining;. Empirical Software Engineering, 23(1):418–451, 2018.
+#
+[12] E. Maldonado and E. Shihab. ;Detecting and quantifying different types of self-admitted technical debt.; In Proceedings of the 7th International Workshop on Managing Technical Debt, MTD ’15, pages 9–15. IEEE, Oct 2015.
+#
+[13] E. Maldonado, E. Shihab, and N. Tsantalis. ;Using natural language processing to automatically detect self-admitted technical debt. ;IEEE Transactions on Software Engineering, 43(11):1044–1062, Nov 2017.
+#
+[19] Sci Tools. Quickly comprehend legacy code — scitools.com. https: //scitools.com/legacy- code- tool/, 2018. (Accessed on 10/17/2018).
+</t>
+    </r>
+  </si>
+  <si>
+    <t>StephanBode.2009. ;On the Role of Evolvability for Architectural Design;.Science (2009), 3256–3263. http://www.theoinf.tu-ilmenau.de/$\sim$sbode/publications/ bode_OnTheRoleOfEvolvability.pdf
+#
+International Organization For Standardization. 2011. ;ISO/IEC 25010 - Systems and software engineering - Systems and software Quality Requirements and Evaluation (SQuaRE) ;- System and software quality models. Technical Report. 1–25 pages. http://www.iso.org/iso/iso_catalogue/catalogue_tc/catalogue_detail.htm? csnumber=35733
+#
+DavidRowe,JohnLeaney,andDavidLowe.1998. ;Defining Systems Architecture Evolvability - a taxonomy of change. ;International Conference and Workshop: Engineering of Computer-Based Systems December (1998), 45–52. https://doi.org/ 10.1109/ECBS.1998.10027
+#
+[16] Yaser I. Mansour and Suleiman H. Mustafa. 2011.; Assessing Internal Software Quality Attributes of the Object-Oriented and Service-Oriented Software Devel- opment Paradigms: A Comparative Study. ;Journal of Software Engineering and Applications 04, 04 (2011), 244–252. https://doi.org/10.4236/jsea.2011.44027
+#
+[18] Mikhail Perepletchikov, Caspar Ryan, and Keith Frampton. 2005.; Comparing the impact of service-oriented and object-oriented paradigms on the structural properties of software.; Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics) 3762 LNCS (2005), 431–441. https://doi.org/10.1007/11575863_63
+#
+[23] Dirk Voelz and Andreas Goeb. 2010. ;What is Different in Quality Management for SOA?.; In 2010 14th IEEE International Enterprise Distributed Object Computing Conference. IEEE, 47–56. https://doi.org/10.1109/EDOC.2010.27</t>
+  </si>
+  <si>
+    <t>[14] I. Ozkaya, R. L. Nord, P. Kruchten, ;Technical Debt: From Metaphor to Theory and Practice,; IEEE Software vol. 29, pp. 18-21, 2012.
+#
+[15] Zalewski A.:; Beyond ATAM: Architecture Analysis in the Development of Large Scale Software Systems. ;Software Architecture, First European Conference, ECSA 2007 Aranjuez, Spain, 24-26 September 2007 Proceedings. LNCS, vol. 4758, pp. 92 – 105. Springer-Verlag 2007.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -10733,6 +12367,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Menlo Bold"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Noteworthy Bold"/>
     </font>
   </fonts>
   <fills count="4">
@@ -10921,7 +12560,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="40">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11042,8 +12681,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -11173,11 +12824,8 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="40">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -11217,6 +12865,10 @@
     <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -12367,13 +14019,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD48"/>
+  <dimension ref="A1:AE48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -12398,14 +14050,14 @@
     <col min="20" max="20" width="28.83203125" style="1" customWidth="1"/>
     <col min="21" max="22" width="62.5" style="1" customWidth="1"/>
     <col min="23" max="23" width="69.1640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="57.1640625" style="1" customWidth="1"/>
-    <col min="25" max="29" width="12.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="25.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.33203125" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="16.33203125" style="1"/>
+    <col min="24" max="25" width="57.1640625" style="1" customWidth="1"/>
+    <col min="26" max="30" width="12.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="25.5" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.33203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="28" customHeight="1">
+    <row r="1" spans="1:31" ht="28" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12473,31 +14125,34 @@
         <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>915</v>
+        <v>949</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="403" customHeight="1">
+    <row r="2" spans="1:31" ht="403" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -12517,7 +14172,7 @@
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
@@ -12538,10 +14193,10 @@
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>37</v>
@@ -12561,31 +14216,32 @@
       <c r="U2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="4" t="s">
-        <v>625</v>
-      </c>
-      <c r="W2" s="43" t="s">
-        <v>916</v>
+      <c r="V2" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>618</v>
       </c>
       <c r="X2" s="8"/>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="AA2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="4" t="s">
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="409.5" customHeight="1">
+    <row r="3" spans="1:31" ht="409.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -12620,22 +14276,22 @@
         <v>54</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="P3" s="12" t="s">
         <v>55</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>56</v>
@@ -12649,27 +14305,28 @@
       <c r="U3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="W3" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>917</v>
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AC3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
     </row>
-    <row r="4" spans="1:30" ht="409.5" customHeight="1">
+    <row r="4" spans="1:31" ht="409.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -12710,58 +14367,61 @@
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="P4" s="12" t="s">
         <v>71</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="T4" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>631</v>
+        <v>945</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>918</v>
+        <v>944</v>
       </c>
       <c r="X4" s="14" t="s">
-        <v>781</v>
+        <v>960</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="Z4" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AB4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AD4" s="12" t="s">
-        <v>777</v>
+      <c r="AE4" s="12" t="s">
+        <v>767</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="409.5" customHeight="1">
+    <row r="5" spans="1:31" ht="409.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -12769,7 +14429,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>77</v>
@@ -12793,7 +14453,7 @@
         <v>68</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>80</v>
@@ -12802,16 +14462,16 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>81</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>82</v>
@@ -12826,32 +14486,33 @@
         <v>85</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>919</v>
+        <v>902</v>
       </c>
       <c r="X5" s="14"/>
-      <c r="Y5" s="12" t="s">
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="12" t="s">
+      <c r="AA5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AC5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AD5" s="10" t="s">
+      <c r="AE5" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="409.5" customHeight="1">
+    <row r="6" spans="1:31" ht="409.5" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -12880,7 +14541,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>69</v>
@@ -12892,19 +14553,19 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>98</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="S6" s="12" t="s">
         <v>99</v>
@@ -12915,35 +14576,38 @@
       <c r="U6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="12" t="s">
-        <v>637</v>
+      <c r="V6" s="1" t="s">
+        <v>946</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>841</v>
+        <v>961</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>392</v>
+        <v>828</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>822</v>
+        <v>391</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>843</v>
+        <v>829</v>
       </c>
       <c r="AD6" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="409.5" customHeight="1">
+    <row r="7" spans="1:31" ht="409.5" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -12987,7 +14651,7 @@
         <v>110</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>111</v>
@@ -13008,34 +14672,37 @@
         <v>115</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>638</v>
+        <v>903</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>850</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>849</v>
+        <v>962</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>837</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>847</v>
+        <v>833</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>848</v>
+        <v>834</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>845</v>
+        <v>831</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>832</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="409.5" customHeight="1">
+    <row r="8" spans="1:31" ht="409.5" customHeight="1">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -13076,19 +14743,19 @@
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="P8" s="12" t="s">
         <v>124</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="S8" s="12" t="s">
         <v>125</v>
@@ -13100,34 +14767,37 @@
         <v>126</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>642</v>
+        <v>918</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>830</v>
+        <v>963</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
       <c r="AA8" s="14" t="s">
         <v>822</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>832</v>
+        <v>810</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>831</v>
+        <v>821</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>818</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="409.5" customHeight="1">
+    <row r="9" spans="1:31" ht="409.5" customHeight="1">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -13162,7 +14832,7 @@
         <v>133</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
@@ -13171,7 +14841,7 @@
         <v>134</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>135</v>
@@ -13192,34 +14862,37 @@
         <v>140</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>827</v>
+        <v>919</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>826</v>
+        <v>964</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>825</v>
+        <v>904</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>829</v>
+        <v>810</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>828</v>
+        <v>811</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>815</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="409.5" customHeight="1">
+    <row r="10" spans="1:31" ht="409.5" customHeight="1">
       <c r="A10" s="9">
         <v>13</v>
       </c>
@@ -13260,16 +14933,16 @@
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>148</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>149</v>
@@ -13278,40 +14951,43 @@
         <v>138</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>150</v>
       </c>
       <c r="V10" s="12" t="s">
-        <v>878</v>
+        <v>920</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>879</v>
+        <v>965</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>881</v>
+        <v>866</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>885</v>
+        <v>868</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>882</v>
+        <v>834</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>884</v>
+        <v>870</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>871</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="359.25" customHeight="1">
+    <row r="11" spans="1:31" ht="359.25" customHeight="1">
       <c r="A11" s="9">
         <v>14</v>
       </c>
@@ -13355,7 +15031,7 @@
         <v>159</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="P11" s="10" t="s">
         <v>160</v>
@@ -13376,34 +15052,37 @@
         <v>162</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>163</v>
+        <v>921</v>
       </c>
       <c r="W11" s="12" t="s">
         <v>163</v>
       </c>
       <c r="X11" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y11" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Y11" s="12" t="s">
+      <c r="Z11" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="AA11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AB11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AC11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="AD11" s="12" t="s">
+      <c r="AE11" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="395.25" customHeight="1">
+    <row r="12" spans="1:31" ht="395.25" customHeight="1">
       <c r="A12" s="9">
         <v>15</v>
       </c>
@@ -13417,7 +15096,7 @@
         <v>172</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
@@ -13447,16 +15126,16 @@
         <v>175</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="P12" s="12" t="s">
         <v>176</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="S12" s="12" t="s">
         <v>138</v>
@@ -13470,28 +15149,31 @@
       <c r="V12" s="14"/>
       <c r="W12" s="14"/>
       <c r="X12" s="12" t="s">
-        <v>650</v>
+        <v>967</v>
       </c>
       <c r="Y12" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="Z12" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="Z12" s="12" t="s">
+      <c r="AA12" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AB12" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>181</v>
       </c>
       <c r="AD12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE12" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="409.5" customHeight="1">
+    <row r="13" spans="1:31" ht="409.5" customHeight="1">
       <c r="A13" s="9">
         <v>16</v>
       </c>
@@ -13511,7 +15193,7 @@
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>52</v>
@@ -13523,16 +15205,16 @@
         <v>184</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="O13" s="12" t="s">
         <v>185</v>
@@ -13556,7 +15238,7 @@
         <v>191</v>
       </c>
       <c r="V13" s="12" t="s">
-        <v>192</v>
+        <v>952</v>
       </c>
       <c r="W13" s="12" t="s">
         <v>192</v>
@@ -13568,8 +15250,9 @@
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
     </row>
-    <row r="14" spans="1:30" ht="409.5" customHeight="1">
+    <row r="14" spans="1:31" ht="409.5" customHeight="1">
       <c r="A14" s="9">
         <v>17</v>
       </c>
@@ -13610,10 +15293,10 @@
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="P14" s="10" t="s">
         <v>202</v>
@@ -13634,34 +15317,37 @@
         <v>205</v>
       </c>
       <c r="V14" s="12" t="s">
-        <v>656</v>
+        <v>922</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="X14" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="Y14" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Y14" s="26" t="s">
+      <c r="Z14" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="Z14" s="27" t="s">
+      <c r="AA14" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="AA14" s="27" t="s">
+      <c r="AB14" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="AB14" s="27" t="s">
+      <c r="AC14" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AC14" s="27" t="s">
+      <c r="AD14" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="AD14" s="28" t="s">
+      <c r="AE14" s="28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="409.5" customHeight="1">
+    <row r="15" spans="1:31" ht="409.5" customHeight="1">
       <c r="A15" s="9">
         <v>21</v>
       </c>
@@ -13726,126 +15412,132 @@
         <v>227</v>
       </c>
       <c r="V15" s="12" t="s">
-        <v>228</v>
+        <v>914</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>228</v>
+        <v>905</v>
       </c>
       <c r="X15" s="14" t="s">
-        <v>811</v>
+        <v>958</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>808</v>
+        <v>906</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>805</v>
+        <v>796</v>
+      </c>
+      <c r="AE15" s="14" t="s">
+        <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="320.25" customHeight="1">
+    <row r="16" spans="1:31" ht="320.25" customHeight="1">
       <c r="A16" s="9">
         <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C16" s="9">
         <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>231</v>
       </c>
       <c r="F16" s="9">
         <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I16" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="K16" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="L16" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="M16" s="9">
         <v>8</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="O16" s="12" t="s">
+      <c r="P16" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="T16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="U16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="V16" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="V16" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>245</v>
-      </c>
       <c r="X16" s="14" t="s">
-        <v>621</v>
+        <v>969</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>363</v>
+        <v>907</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>619</v>
+        <v>362</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>616</v>
+        <v>611</v>
+      </c>
+      <c r="AE16" s="14" t="s">
+        <v>610</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="409" customHeight="1">
+    <row r="17" spans="1:31" ht="409" customHeight="1">
       <c r="A17" s="9">
         <v>27</v>
       </c>
@@ -13859,114 +15551,117 @@
         <v>49</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="9">
         <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K17" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
       </c>
       <c r="N17" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="P17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="O17" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="P17" s="12" t="s">
+      <c r="Q17" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="R17" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="S17" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="T17" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="U17" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="U17" s="12" t="s">
+      <c r="V17" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="W17" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="X17" s="14" t="s">
-        <v>767</v>
+        <v>970</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>619</v>
+        <v>756</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>762</v>
+        <v>613</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="AD17" s="32" t="s">
-        <v>763</v>
+        <v>753</v>
+      </c>
+      <c r="AD17" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE17" s="32" t="s">
+        <v>754</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="409.5" customHeight="1">
+    <row r="18" spans="1:31" ht="409.5" customHeight="1">
       <c r="A18" s="9">
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>259</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>219</v>
@@ -13978,34 +15673,34 @@
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="Q18" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="R18" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="S18" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="T18" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="U18" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="V18" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="W18" s="12" t="s">
         <v>265</v>
-      </c>
-      <c r="V18" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>266</v>
       </c>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
@@ -14014,76 +15709,77 @@
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
     </row>
-    <row r="19" spans="1:30" ht="372.25" customHeight="1">
+    <row r="19" spans="1:31" ht="372.25" customHeight="1">
       <c r="A19" s="9">
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>903</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>272</v>
       </c>
       <c r="M19" s="9">
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="O19" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="Q19" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="S19" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="S19" s="12" t="s">
+      <c r="T19" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="U19" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>278</v>
-      </c>
       <c r="V19" s="12" t="s">
-        <v>665</v>
+        <v>923</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
@@ -14092,105 +15788,109 @@
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
     </row>
-    <row r="20" spans="1:30" ht="409.5" customHeight="1">
+    <row r="20" spans="1:31" ht="409.5" customHeight="1">
       <c r="A20" s="9">
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" s="9">
         <v>118</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>280</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>281</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>285</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>286</v>
       </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="P20" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q20" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="R20" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="T20" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="U20" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="V20" s="12" t="s">
-        <v>668</v>
+        <v>924</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="X20" s="14" t="s">
-        <v>866</v>
+        <v>971</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>865</v>
+        <v>851</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>862</v>
+        <v>852</v>
+      </c>
+      <c r="AE20" s="14" t="s">
+        <v>849</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="333.25" customHeight="1">
+    <row r="21" spans="1:31" ht="333.25" customHeight="1">
       <c r="A21" s="9">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C21" s="9">
         <v>25</v>
@@ -14199,19 +15899,19 @@
         <v>128</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>68</v>
@@ -14220,522 +15920,538 @@
         <v>69</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="O21" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="P21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="Q21" s="12" t="s">
         <v>299</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>300</v>
       </c>
       <c r="R21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T21" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U21" s="12" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="V21" s="14" t="s">
-        <v>775</v>
+        <v>925</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>775</v>
+        <v>908</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>773</v>
+        <v>972</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
+      </c>
+      <c r="AE21" s="14" t="s">
+        <v>759</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="409.5" customHeight="1">
+    <row r="22" spans="1:31" ht="409.5" customHeight="1">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>303</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>304</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>306</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>307</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="Q22" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="S22" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="T22" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="V22" s="12" t="s">
-        <v>672</v>
+        <v>926</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="X22" s="14" t="s">
-        <v>615</v>
+        <v>973</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>466</v>
+        <v>606</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>613</v>
+        <v>465</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>608</v>
+        <v>606</v>
+      </c>
+      <c r="AE22" s="14" t="s">
+        <v>602</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="409.5" customHeight="1">
+    <row r="23" spans="1:31" ht="409.5" customHeight="1">
       <c r="A23" s="9">
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="9">
         <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>312</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>313</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>315</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>316</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>856</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q23" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="O23" s="24" t="s">
-        <v>869</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q23" s="12" t="s">
+      <c r="R23" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>610</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>876</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>872</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="V23" s="12" t="s">
-        <v>867</v>
+        <v>927</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="X23" s="14" t="s">
-        <v>868</v>
+        <v>974</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>452</v>
+        <v>861</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>870</v>
+        <v>451</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>871</v>
+        <v>860</v>
+      </c>
+      <c r="AE23" s="14" t="s">
+        <v>858</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="345.25" customHeight="1">
+    <row r="24" spans="1:31" ht="345.25" customHeight="1">
       <c r="A24" s="9">
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>322</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>323</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="P24" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="S24" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="S24" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>682</v>
-      </c>
-      <c r="U24" s="10" t="s">
+      <c r="V24" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>675</v>
+      </c>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="V24" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="12" t="s">
+      <c r="AA24" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="Z24" s="12" t="s">
+      <c r="AB24" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AC24" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AA24" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AB24" s="12" t="s">
+      <c r="AD24" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="AC24" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD24" s="12" t="s">
+      <c r="AE24" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="409.5" customHeight="1">
+    <row r="25" spans="1:31" ht="409.5" customHeight="1">
       <c r="A25" s="9">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>341</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>41</v>
       </c>
       <c r="U25" s="10" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>688</v>
+        <v>929</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="X25" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z25" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="Y25" s="12" t="s">
+      <c r="AA25" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="Z25" s="12" t="s">
+      <c r="AB25" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="AA25" s="12" t="s">
+      <c r="AC25" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="AB25" s="12" t="s">
+      <c r="AD25" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="AC25" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="AD25" s="12" t="s">
+      <c r="AE25" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="386" customHeight="1">
+    <row r="26" spans="1:31" ht="386" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>353</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="Q26" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="R26" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="S26" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="T26" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="Y26" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="X26" s="12" t="s">
+      <c r="Z26" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="Y26" s="12" t="s">
+      <c r="AA26" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="AB26" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC26" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="AA26" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AD26" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AE26" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="AD26" s="12" t="s">
-        <v>366</v>
-      </c>
     </row>
-    <row r="27" spans="1:30" ht="409.5" customHeight="1">
+    <row r="27" spans="1:31" ht="409.5" customHeight="1">
       <c r="A27" s="9">
         <v>44</v>
       </c>
@@ -14749,40 +16465,40 @@
         <v>194</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>369</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="O27" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="P27" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="Q27" s="12" t="s">
         <v>41</v>
@@ -14791,377 +16507,389 @@
         <v>41</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="U27" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="V27" s="14"/>
       <c r="W27" s="14"/>
       <c r="X27" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="Y27" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z27" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="Y27" s="12" t="s">
+      <c r="AA27" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="AB27" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AC27" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD27" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="AB27" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC27" s="12" t="s">
+      <c r="AE27" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="AD27" s="12" t="s">
-        <v>379</v>
-      </c>
     </row>
-    <row r="28" spans="1:30" ht="358.25" customHeight="1">
+    <row r="28" spans="1:31" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>385</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="O28" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="P28" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="Q28" s="12" t="s">
         <v>387</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>388</v>
       </c>
       <c r="R28" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="T28" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>978</v>
+      </c>
+      <c r="Y28" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>696</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="X28" s="12" t="s">
+      <c r="Z28" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="Y28" s="12" t="s">
+      <c r="AA28" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="AB28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD28" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="AA28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB28" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="AC28" s="12" t="s">
+      <c r="AE28" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AD28" s="12" t="s">
-        <v>394</v>
-      </c>
     </row>
-    <row r="29" spans="1:30" ht="333.25" customHeight="1">
+    <row r="29" spans="1:31" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>396</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>397</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>401</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>402</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="O29" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="P29" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="T29" s="12" t="s">
         <v>41</v>
       </c>
       <c r="U29" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>931</v>
+      </c>
+      <c r="W29" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="V29" s="12" t="s">
+      <c r="X29" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="Y29" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="W29" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="X29" s="12" t="s">
+      <c r="Z29" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="Y29" s="12" t="s">
+      <c r="AA29" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="Z29" s="12" t="s">
+      <c r="AB29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC29" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AD29" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="AA29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB29" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="AC29" s="12" t="s">
+      <c r="AE29" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="AD29" s="12" t="s">
-        <v>414</v>
-      </c>
     </row>
-    <row r="30" spans="1:30" ht="409.5" customHeight="1">
+    <row r="30" spans="1:31" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R30" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="T30" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U30" s="25" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>679</v>
+        <v>932</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>607</v>
+        <v>980</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="AA30" s="14" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AB30" s="14" t="s">
-        <v>603</v>
-      </c>
       <c r="AC30" s="14" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>602</v>
+        <v>600</v>
+      </c>
+      <c r="AE30" s="14" t="s">
+        <v>596</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="409.5" customHeight="1">
+    <row r="31" spans="1:31" ht="409.5" customHeight="1">
       <c r="A31" s="9">
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="O31" s="12" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="P31" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q31" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>428</v>
       </c>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="10" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="V31" s="12" t="s">
-        <v>429</v>
+        <v>948</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
@@ -15170,329 +16898,337 @@
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
     </row>
-    <row r="32" spans="1:30" ht="409.5" customHeight="1">
+    <row r="32" spans="1:31" ht="409.5" customHeight="1">
       <c r="A32" s="9">
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="P32" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q32" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>434</v>
       </c>
       <c r="R32" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="V32" s="12" t="s">
-        <v>709</v>
+        <v>956</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="X32" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z32" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="Y32" s="12" t="s">
+      <c r="AA32" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="Z32" s="12" t="s">
+      <c r="AB32" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="AA32" s="12" t="s">
+      <c r="AC32" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="AB32" s="12" t="s">
+      <c r="AD32" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="AC32" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="AD32" s="12" t="s">
+      <c r="AE32" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="409.5" customHeight="1">
+    <row r="33" spans="1:31" ht="409.5" customHeight="1">
       <c r="A33" s="9">
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="O33" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="P33" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="Q33" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="Q33" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="R33" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S33" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="T33" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="U33" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="12" t="s">
+      <c r="AA33" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="Z33" s="12" t="s">
+      <c r="AB33" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="AA33" s="12" t="s">
+      <c r="AC33" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="AB33" s="12" t="s">
+      <c r="AD33" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="AC33" s="12" t="s">
+      <c r="AE33" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="AD33" s="12" t="s">
-        <v>455</v>
-      </c>
     </row>
-    <row r="34" spans="1:30" ht="409.5" customHeight="1">
+    <row r="34" spans="1:31" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="O34" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="P34" s="12" t="s">
         <v>459</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>460</v>
       </c>
       <c r="Q34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="R34" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="S34" s="12" t="s">
         <v>461</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>462</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>41</v>
       </c>
       <c r="U34" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="V34" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="W34" s="10" t="s">
+        <v>709</v>
+      </c>
+      <c r="X34" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="Z34" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>718</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="Y34" s="12" t="s">
+      <c r="AA34" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="Z34" s="12" t="s">
+      <c r="AB34" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="AA34" s="12" t="s">
+      <c r="AC34" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="AB34" s="12" t="s">
+      <c r="AD34" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="AC34" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="AD34" s="12" t="s">
+      <c r="AE34" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="409.5" customHeight="1">
+    <row r="35" spans="1:31" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I35" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>471</v>
-      </c>
-      <c r="J35" s="29" t="s">
-        <v>471</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>472</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>910</v>
+      </c>
+      <c r="P35" s="12" t="s">
         <v>473</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>474</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>475</v>
       </c>
       <c r="Q35" s="14" t="s">
         <v>41</v>
@@ -15501,96 +17237,99 @@
         <v>41</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>582</v>
+      </c>
+      <c r="U35" s="10" t="s">
+        <v>711</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>950</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>951</v>
+      </c>
+      <c r="X35" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="Z35" s="14" t="s">
+        <v>586</v>
+      </c>
+      <c r="AA35" s="14" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB35" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE35" s="14" t="s">
         <v>587</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="X35" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="Y35" s="14" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z35" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="AA35" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="AB35" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>590</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>592</v>
-      </c>
     </row>
-    <row r="36" spans="1:30" ht="409.5" customHeight="1">
+    <row r="36" spans="1:31" ht="409.5" customHeight="1">
       <c r="A36" s="9">
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="29" t="s">
+        <v>477</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>478</v>
+      </c>
+      <c r="K36" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>480</v>
-      </c>
-      <c r="J36" s="29" t="s">
-        <v>481</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>483</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q36" s="12" t="s">
         <v>41</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>41</v>
@@ -15599,91 +17338,94 @@
         <v>41</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>859</v>
+        <v>934</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="X36" s="14" t="s">
-        <v>860</v>
+        <v>984</v>
       </c>
       <c r="Y36" s="14" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="Z36" s="14" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD36" s="34" t="s">
-        <v>854</v>
+        <v>842</v>
+      </c>
+      <c r="AD36" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="AE36" s="34" t="s">
+        <v>841</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="409.5" customHeight="1">
+    <row r="37" spans="1:31" ht="409.5" customHeight="1">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="O37" s="12" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="10" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="V37" s="13"/>
       <c r="W37" s="13"/>
@@ -15694,52 +17436,53 @@
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
+      <c r="AE37" s="14"/>
     </row>
-    <row r="38" spans="1:30" ht="409.5" customHeight="1">
+    <row r="38" spans="1:31" ht="409.5" customHeight="1">
       <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="P38" s="14"/>
       <c r="Q38" s="14"/>
@@ -15747,7 +17490,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="10" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="V38" s="13"/>
       <c r="W38" s="13"/>
@@ -15758,55 +17501,56 @@
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
+      <c r="AE38" s="14"/>
     </row>
-    <row r="39" spans="1:30" ht="409.5" customHeight="1">
+    <row r="39" spans="1:31" ht="409.5" customHeight="1">
       <c r="A39" s="9">
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q39" s="14" t="s">
         <v>41</v>
@@ -15821,359 +17565,365 @@
         <v>41</v>
       </c>
       <c r="U39" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>889</v>
+        <v>953</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="X39" s="14"/>
-      <c r="Y39" s="14" t="s">
-        <v>893</v>
-      </c>
+      <c r="Y39" s="14"/>
       <c r="Z39" s="14" t="s">
-        <v>892</v>
+        <v>880</v>
       </c>
       <c r="AA39" s="14" t="s">
-        <v>566</v>
+        <v>879</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>890</v>
+        <v>563</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="AD39" s="14" t="s">
-        <v>887</v>
+        <v>878</v>
+      </c>
+      <c r="AE39" s="14" t="s">
+        <v>874</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="318.25" customHeight="1">
+    <row r="40" spans="1:31" ht="318.25" customHeight="1">
       <c r="A40" s="9">
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="P40" s="14"/>
       <c r="Q40" s="14" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="R40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="T40" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>562</v>
+        <v>935</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="X40" s="14" t="s">
-        <v>560</v>
+        <v>985</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AA40" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AB40" s="14" t="s">
         <v>563</v>
       </c>
       <c r="AC40" s="14" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="AD40" s="14" t="s">
-        <v>565</v>
+        <v>561</v>
+      </c>
+      <c r="AE40" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="404.25" customHeight="1">
+    <row r="41" spans="1:31" ht="404.25" customHeight="1">
       <c r="A41" s="9">
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C41" s="9">
         <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="R41" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S41" s="14" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="U41" s="10" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>787</v>
+        <v>936</v>
       </c>
       <c r="W41" s="13" t="s">
-        <v>787</v>
+        <v>911</v>
       </c>
       <c r="X41" s="14"/>
-      <c r="Y41" s="14" t="s">
-        <v>789</v>
-      </c>
+      <c r="Y41" s="14"/>
       <c r="Z41" s="14" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="AA41" s="14" t="s">
-        <v>566</v>
+        <v>779</v>
       </c>
       <c r="AB41" s="14" t="s">
-        <v>788</v>
+        <v>563</v>
       </c>
       <c r="AC41" s="14" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="AD41" s="14" t="s">
-        <v>791</v>
+        <v>779</v>
+      </c>
+      <c r="AE41" s="14" t="s">
+        <v>780</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="398.75" customHeight="1">
+    <row r="42" spans="1:31" ht="398.75" customHeight="1">
       <c r="A42" s="9">
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R42" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="T42" s="12" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>576</v>
+        <v>937</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="X42" s="14"/>
-      <c r="Y42" s="14" t="s">
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="AA42" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="Z42" s="14" t="s">
+      <c r="AB42" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="AC42" s="14" t="s">
         <v>574</v>
       </c>
-      <c r="AA42" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="AB42" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="AC42" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="AD42" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="AE42" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="387" customHeight="1">
+    <row r="43" spans="1:31" ht="387" customHeight="1">
       <c r="A43" s="9">
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="10" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="V43" s="13"/>
       <c r="W43" s="13"/>
@@ -16184,28 +17934,29 @@
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
     </row>
-    <row r="44" spans="1:30" ht="409.5" customHeight="1">
+    <row r="44" spans="1:31" ht="409.5" customHeight="1">
       <c r="A44" s="9">
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>32</v>
@@ -16220,111 +17971,114 @@
         <v>35</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="R44" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="U44" s="16" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="V44" s="13" t="s">
-        <v>585</v>
+        <v>938</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>585</v>
+        <v>912</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>578</v>
+        <v>959</v>
       </c>
       <c r="Y44" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="Z44" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="AA44" s="14" t="s">
         <v>579</v>
       </c>
-      <c r="Z44" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="AA44" s="14" t="s">
-        <v>581</v>
-      </c>
       <c r="AB44" s="14" t="s">
+        <v>577</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>576</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="AE44" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="AC44" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="AD44" s="14" t="s">
-        <v>584</v>
-      </c>
     </row>
-    <row r="45" spans="1:30" ht="409.5" customHeight="1">
+    <row r="45" spans="1:31" ht="409.5" customHeight="1">
       <c r="A45" s="9">
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q45" s="14" t="s">
         <v>41</v>
@@ -16333,182 +18087,188 @@
         <v>41</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="T45" s="14" t="s">
         <v>41</v>
       </c>
       <c r="U45" s="10" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="V45" s="13" t="s">
-        <v>813</v>
+        <v>939</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="X45" s="33" t="s">
-        <v>816</v>
-      </c>
-      <c r="Y45" s="14" t="s">
-        <v>815</v>
+        <v>986</v>
+      </c>
+      <c r="Y45" s="33" t="s">
+        <v>804</v>
       </c>
       <c r="Z45" s="14" t="s">
-        <v>820</v>
+        <v>803</v>
       </c>
       <c r="AA45" s="14" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="AB45" s="14" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>819</v>
+        <v>802</v>
       </c>
       <c r="AD45" s="14" t="s">
-        <v>812</v>
+        <v>807</v>
+      </c>
+      <c r="AE45" s="14" t="s">
+        <v>800</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="409.5" customHeight="1">
+    <row r="46" spans="1:31" ht="409.5" customHeight="1">
       <c r="A46" s="9">
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="O46" s="12" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="R46" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>793</v>
+        <v>940</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
       <c r="X46" s="14" t="s">
+        <v>987</v>
+      </c>
+      <c r="Y46" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z46" s="14" t="s">
         <v>792</v>
       </c>
-      <c r="Y46" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="Z46" s="14" t="s">
-        <v>802</v>
-      </c>
       <c r="AA46" s="14" t="s">
-        <v>566</v>
+        <v>791</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>800</v>
+        <v>563</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>799</v>
+        <v>790</v>
+      </c>
+      <c r="AE46" s="14" t="s">
+        <v>788</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="337.25" customHeight="1">
+    <row r="47" spans="1:31" ht="337.25" customHeight="1">
       <c r="A47" s="9">
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="Q47" s="12" t="s">
         <v>41</v>
@@ -16523,89 +18283,92 @@
         <v>41</v>
       </c>
       <c r="U47" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>941</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="X47" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="Z47" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="V47" s="10" t="s">
+      <c r="AA47" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="W47" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="X47" s="12" t="s">
+      <c r="AB47" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="Y47" s="12" t="s">
+      <c r="AC47" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="Z47" s="12" t="s">
+      <c r="AD47" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="AA47" s="12" t="s">
+      <c r="AE47" s="12" t="s">
         <v>548</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="AC47" s="12" t="s">
-        <v>550</v>
-      </c>
-      <c r="AD47" s="12" t="s">
-        <v>551</v>
-      </c>
     </row>
-    <row r="48" spans="1:30" ht="409.5" customHeight="1">
+    <row r="48" spans="1:31" ht="409.5" customHeight="1">
       <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="K48" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="L48" s="10" t="s">
         <v>556</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>558</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>559</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="O48" s="14"/>
       <c r="P48" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="10" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="V48" s="13"/>
       <c r="W48" s="13"/>
@@ -16616,6 +18379,7 @@
       <c r="AB48" s="14"/>
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
+      <c r="AE48" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
@@ -16624,7 +18388,7 @@
     <hyperlink ref="W4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
     <hyperlink ref="W8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
     <hyperlink ref="O11" r:id="rId4" display="In this research we present a novel approach, based on architecture reverse engineering and compliance checking, for identifying ATD hotspots in Android apps _x000a_1) Android architecture guideline extraction (official Android guidelines, Academic research, grey literature, developers interviews)_x000a__x000a_2) Android reference architecture establishment. _x000a_- ADL (Architecture Description Language) Acme_x000a_- OCL (Object Constraint Language)_x000a_3) Reverse engineering of implemented architecture _x000a_this step is constituted by the automated reverse engineering of the most prominent Android architectural components (i.e. Activities, Services, Content providers, and Broadcast receivers) of an Android application and the relations between such building blocks in terms of connectors and ports _x000a_ACME-Generator tool (https://github.com/arsadeghi/ACME-Generator)_x000a__x000a_4) Compliance checking _x000a_model comparison tool EMFCompare (https://www.eclipse.org/emf/compare/)_x000a__x000a_5) Quantitative assessment of compliance violations _x000a_The output of this step is the set of Android ATD hotspots, i.e. the components of the implemented architecture which contain the highest number of non-adherence items w.r.t. the Android reference architecture. "/>
-    <hyperlink ref="X12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="Y12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
     <hyperlink ref="W23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
     <hyperlink ref="O25" r:id="rId7" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
     <hyperlink ref="W30" r:id="rId8" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
@@ -16639,6 +18403,7 @@
     <hyperlink ref="V23" r:id="rId17" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
     <hyperlink ref="V30" r:id="rId18" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
     <hyperlink ref="V32" r:id="rId19" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="X12" r:id="rId20" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38100" yWindow="-2200" windowWidth="37940" windowHeight="23020"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="15080"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_3___R._Kazman__Y._Cai__R._Mo__Q._Feng__L._Xiao__S._Haziyev__V._Fedak__and_A._Shapochka._A_case_study_in_locating_the_architectural_roots_of_technical_debt._In_Proc._37th_International_Conference_on_Software__Engineering__May_2015.____8___R._Mo__W._Snip">'Folha 1'!$V$24</definedName>
+    <definedName name="_3___R._Kazman__Y._Cai__R._Mo__Q._Feng__L._Xiao__S._Haziyev__V._Fedak__and_A._Shapochka._A_case_study_in_locating_the_architectural_roots_of_technical_debt._In_Proc._37th_International_Conference_on_Software__Engineering__May_2015.____8___R._Mo__W._Snip">'Folha 1'!$W$24</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1035">
   <si>
     <t>Paper Id</t>
   </si>
@@ -1287,9 +1287,6 @@
     <t xml:space="preserve">It was conducted a holistic case-study in a large software company. </t>
   </si>
   <si>
-    <t xml:space="preserve">It is calculated the effort of modularisation in Files that was not modularised. </t>
-  </si>
-  <si>
     <t xml:space="preserve">It was applied the framework for each release evaluated. It is a manual process that there is no tool to support this. </t>
   </si>
   <si>
@@ -1799,21 +1796,6 @@
 Software Quality Analysis Tools</t>
   </si>
   <si>
-    <t>Cast - -InFusion - -SonarGraph - -SonarQube - -Structure101 - -Input: Architecture Smells, Architecture Violation - -Output: Resolution cost (PRINCIPAL), keeping cost,(INTEREST) Unity measure (money, time, Rank, LOC)</t>
-  </si>
-  <si>
     <t>Evaluation of tools and methods applied by tools about TDI.</t>
   </si>
   <si>
@@ -2148,25 +2130,6 @@
     <t xml:space="preserve">Technical Debt Management (TDM) has drawn the attention of software industries during the last years, including embedded systems. However, we currently lack an overview of how practitioners from this application domain perceive tech- nical debt. To this end, we conducted a multiple case study in the embedded systems industry, to investigate: (a) the expected life- time of components that have TD, (b) the most frequently occur- ring types of TD in them, and (c) the significance of TD against run-time quality attributes. The case study was performed on seven embedded systems industries (telecommunications, print- ing, smart manufacturing, sensors, etc.) from five countries (Greece, Netherlands, Sweden, Austria, and Finland). The results of the case study suggest that: (a) maintainability is more serious- ly considered when the expected lifetime of components is larger than ten years; (b) the most frequent types of debt are test, archi- tectural, and code debt; and (c) in embedded systems the run- time qualities are prioritized compared to design-time qualities that are usually associated with TD. The obtained results can be useful for both researchers and practitioners: the former can focus their research on the most industrially-relevant aspects of TD, whereas the latter can be informed about the most common types of TD and how to focus their TDM processes. </t>
   </si>
   <si>
-    <t xml:space="preserve">Use GQM (Go Question Metric) to analyse the perception of TD with respect to lifetime components, types of TD, quality attributes.  - -Data Collections:  - -Projects Demographics -- Description of project -- Release date -- Number of releases - -Technical Debt Item Data Points -- Estimated lifespan -- Types of TD identified -- Importance of quality attributes - -Maintanability is the main quality attributed related to TD. - -Functionality, Reliability and Performance were the other Quality Attributes so importante to Embed Systems. </t>
-  </si>
-  <si>
     <t>Multiple case study.</t>
   </si>
   <si>
@@ -2205,16 +2168,6 @@
   </si>
   <si>
     <t>Technical Debt,change management,software process improvement,survey,multiple case-study</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The main goal of the paper is to check how is the process of Technical Debt tracking in Large Software Companies. The authors made a survey with practitioners in large software companies, and multiple case study in 3 large software companies in Scandinavia area.  -The questions:  -RQ1 How much of the software development time is estimated to be employed in managing TD?
-It is also important to understand how a TD tracking process is introducedandimplementedinlargesoftwarecompanies.We therefore aim at answering the following RQs:
-RQ2 To what extent do software organizations track TD?
-RQ3 How do software organizations introduce a TD tracking process?
-RQ4 What are the initial benefits and challenges when large organizations start tracking TD?
-</t>
   </si>
   <si>
     <t>Survey and Multiple case study</t>
@@ -2768,22 +2721,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Model-Driven Architecture Approach (MDA) - provides guidelines for the structuring of specifications expressed as models.
-Natural Language Processing
-Machine Learning 
-Model Checking Techniques
-Heterogeneous artefacts (HA) as emails, chat logs, commits logs, wikis…
-It was performed a set of interviews with Software Architect from the studied project, and it was observed that there is no ATD document process because of the pressure over the project (Center of Excellence and Appropriation in Big Data and Data Analytics (CAOBA) in a joint collaboration among several universities in Colombia and the Tax Office in Bogota ́.   
-We acknowledge two kinds of ATD: Decision ATD and Solution ATD. The first is related to the ATD injected when a decision is made, consciously or unconsciously. The latter is related to ATD injected as a consequence of the presence of architectural antipatterns and smells among architectural components. 
-Our technique is illustrated with a data analytics project in Colombia where software architects are unaware of the impact of the ATD injected and the consequences of the repayment strategy. This proposal seeks to support teams of architects to make explicit the current and future impact of the ATD injected as a result of decisions taken. 
-Proposal: REBEL focuses on finding ATD items at architecture level only, measuring the impact of its repayment strategy based on architecture decisions and allowing the debt to be anticipated or corrected before the implementation process begins. 
-3 stages:
-(i) Extraction: focused on extracting all relevant information coming from heterogeneous artifacts and the explicit knowledge of the software architects on how to identify and measure ATD. 
-(ii) Synthesis: focused on putting all this information together and analyzing it to identify and measure ATD items. And 
-(iii) Feedback: focused on take the ATD identified and present it to the software architecture team for monitoring, updating and learning. These stages are iterative, and need to be performed multiple times during the life cycle of the project. 
-</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -3086,82 +3023,6 @@
 RQ1 – How can we identify if a component contains ATD in the form of lack of modularization? 
 RQ2 – How can we estimate the current extra-cost paid as interest of the ATD? 
 RQ3 – How can we estimate the long-term cost saved by modularizing the component? 
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Approach to ATDI: depends of Software Architecture and/or Developers evaluation of the source and the choose artefacts. Besides, the type of ATDI is non-modularised components. 
-Techniques:
-Method: It was created a measurement system follows the ISO/IEC 15939:2007 Software Metrics mainly complexity (Macabe Cyclomatic Complexity), cohesion and coupling. 
-Itens evaluated: Files in C++ from project evaluated
-Base Measure: measure defined in terms of an attribute and the method for quantifying it. 
-MCC_FOI: this measure is a set of MCC values of functions in FOIs. This was chosen as a measure of complexity for the files of interest. Changes on complex files likely generate more ef- fort, which is then considered ATD interest. 
-FILES_FOI: Count of the number of FOIs files. 
-HAL_BUGS This measure is the Halstead derived bug calculation 
-on a function-level. This measure represents the risk of gener- ating bugs by the functions. Bugs fixing can be considered as an extra-effort that would lead to paying more interest on the ATD. 
-CHANGE_FOI: Count the number of LOC changes in FOIs the last x of month, where x is defined depending on the objective of the data collection. This represents the activity of the develop- ers on the FOIs. If the activity is low, even if the ATD is present, there is no interest paid. 
-CHANGE_C: Similar to CHANGE_FOI but look at the whole com- ponent rather than just the FOIs. Thereby it counts the total number of LOC changes in all files of the component, including FOIs. 	
-Derived Measures: measure that is defined as a function of two or more values of base measures. 
-• MCC_FOI_HIGH – It is the sum of the MCC of the complex func- tions within the MCC_FOIs. The threshold that determines if the 
-MCC_HIGH_% – This measure is what Antinyan et al. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">[18] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">de- fined as effective cyclomatic complexity percentage, or per- centage of complex functions in a file 
-MCC_POINTS – This measure is used to generate points based in percentage of complex MCC in the FOIs (MCC_HIGH_%). The thresholds that are being used are of those defined by Heitlager et al. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">[20] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-FILES_FOI_% – This measure is, in percentage, how many files in the component are FOIs. For example, if there are 10 files in the component and 2 of them are FOIs, then FILES_FOI_% would be equals to 20%. 
-HAL_AVG – This measure sums up the number of functions in HAL_BUGS (Halstead delivered bugs) with a value over 1. This means that it sums up all the functions that are predicted to have at least one bug in them and divide it by the number of FOIs (see FILES_FOI). 
-	HAL_POINTS – We did not find any paper using a threshold for Halstead delivered bugs. Therefore, the thresholds defining the points generated by this measure were discussed and agreed upon with the architects. 
-	CHANGE_FOI_% – The percentage of file change occurred on FOIs. For example, if a total of 2000 LOC changes occurred within the component the last x months, and 200 of those were on FOIs, it would mean that 10% of the file change was in FOIs. 
-	CHANGE_DIFF – The derived measure CHANGE_DIFF is the nor- malized version of the derived measure CHANGE_FOI_%. The result gives a percentage of how much more or less frequent a LOC change in a FOI compared to a non-FOI. 
-	Refactoring indicator. Analysis Model: algorithm or calcula- tion combining one or more base and/or derived measures with associated decision criteria.
-REFACTOR_INDEX = (MCC_POINTS + HAL_POINTS) ∗ CHANGE_DIFF 
-Indicator: measure that provides an estimate or evaluation of specified attributes derived from the model with respect to defined information needs. 
-The indicator of the measurement system generates GREEN, YELLOW, or RED. The GREEN means that the MS does not find any indication that the FOIs are generating enough extra effort to jus- tify a refactoring. YELLOW means that the FOIs generates some ef- fort, and developers should thereby be aware of it. RED means that the measurement system find strong indications that the FOIs are generating a lot of effort, which would suggest the need of refactoring. 
-Equation 3. Detailed formula considering the possible double 
-xxx
-In summary, the important variables were the following: 
-E: Effort Saved or Lost After t Months 
-E1: Effort of Development Before Refactoring in Months 
-E2: Effort of Maintenance Before Refactoring in Months 
-E3: Total Effort of Doing the Refactoring 
-E4: Effort of Development After Refactoring in Months 
-E5: Effort of Maintenance After Refactoring in Months 
-t: Time After the Refactoring in Months 
-m: Months Between Releases 
-r: Number of Releases Being Maintained at a Single Point in 
-Time 
-Approuch: Refactoring
-Tools: None
 </t>
     </r>
   </si>
@@ -4252,13 +4113,6 @@
 • We link specific interests to specific classes of ATD by identifying recurring sociotechnical phenomena and consequent extra activi- ties that could lead to extra costs 
 • We have conceptualized, defined, and found empirical evidence of, an important phenomena of ATD, contagious debt; this is related to the occurrence of sociotechnical chains of events (that we call vicious cycles) responsible for the increment of interest and that potentially lead to the accumulation of compound interest. 
 We have identified propagation factors, responsible for making the ATD contagious. By monitoring the growth of such factors, the practitioners can proactively avoid the accumulation of compound interest. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In this paper, we provide our experience report in using three known tools to capture in- formation that can be useful to identify and evaluate the architectural debt of an application.  - -To evaluate 3 tools (Sonargraph, SonarQube and Fusion) to check architectural debt.
-This paper aims to describe our experimentation using these tools, by ana- lyzing di↵erent systems. We also report the results obtained analyzing an application we developed for the crawling and analysis of open source projects [1]. We focus our attention on comparing the following architectural evaluation issues: 1) the Quality Indexes the tools compute; 2) the Results Inspection capabilities of the data the tools provide; 3) the Data extracted by the tools on the same system. 
 </t>
   </si>
   <si>
@@ -7271,125 +7125,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To check how practitioners percept Technical Debt in Embedded Systems about Quality Attributes. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What is the relationship between the expected lifetime of components and technical debt? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What types of technical debt (e.g., code, architectural, etc.) are more frequently occurring in embedded sys- tems? </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">What is the significance of building maintainable software systems (with low TD) compared to satisfying other quality attributes? 
-Case study in seven technology companies: 
-Telecomunication
- Automotive
- Mobile
- Sensors
- Priting
- Smart Manufacturing
- Media Devices </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ernst et al. [11] conducted a survey to understand which Tech- nical Debt type is more frequent among practitioners. 
 	[11]  N. A. Ernst, S. Bellomo, I. Ozkaya, R. L. Nord, and I. Gorton, “Measure It? Manage It? Ignore It? Software Practitioners and Technical Debt,” 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60, 2015. 
 another major issue is the difficulty of increasing the awareness of TD for stakeholders without software engineering expertise; the latter is also recognized by both Lim et al. [17] and Martini et al. [20]. 
@@ -7444,32 +7179,6 @@
 Objective: This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.
 Method: We conducted an exploratory multiple-case embedded case study in 7 sites at 5 large compa- nies. We evaluated the results with additional cross-company interviews and an in-depth, company-specific case study in which we initially evaluate factors and models. 
 Results: We compiled a taxonomy of the factors and their influence in the accumulation of Architectural Technical Debt, and we provide two qualitative models of how the debt is accumulated and refactored over time in the studied companies. We also list a set of exploratory propositions on possible refactoring strategies that can be useful as insights for practitioners and as hypotheses for further research. Conclusion: Several factors cause constant and unavoidable accumulation of Architecture Technical Debt, which leads to development crises. Refactorings are often overlooked in prioritization and they are often triggered by development crises, in a reactive fashion. Some of the factors are manageable, while others are external to the companies. ATD needs to be made visible, in order to postpone the crises according to the strategic goals of the companies. There is a need for practices and automated tools to proactively manage ATD</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.
-In this paper we aim at filling such current gaps by investigating, in several companies, the overall phenomenon of accumulation and refactoring of ATD. The study of such subject would also con- tribute to ASD frameworks, by highlighting activities for enhancing agility in the task of developing and maintaining software architec- ture in large projects </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="13"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>[5]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. 
-In the context of large-scale ASD, our research questions are: 
-RQ1: What factors cause the accumulation of ATD?
-RQ2: How is ATD accumulated and refactored over time? RQ3: What possible refactoring strategies can be employed for managing ATD? 
-</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">	taxonomy of the causes for ATD 
@@ -8759,27 +8468,6 @@
     <t xml:space="preserve">The authors would also like to detect different categories of AS (architectural smells) that could impact different quality attributes, such as performance and security; in this direction, we could identify and compute different ADI index profiles according to the AS's impact on specific quality attributes.
 Moreover, the authors aim to extend the index or define a new one to
 consider also the cost to remove the architectural smells ( cost- solving). This could allow developers/maintainers to make a business case (costs vs benefits) and help them to set the order in which they want to remove the AS. Towards the definition of this index oriented to the evaluation of the cost-solving, we are also interested to work on the development of some kind of automatic/semiautomatic refactoring support by studying the different refactoring opportunities of each AS. </t>
-  </si>
-  <si>
-    <t>Approuch: architecture smells detection - -Tool: Arcan
- - -Method: Identify the most critical smells in terms of negative impact on a project. The ATD Index was compared with SonarQube to confirm that code issue is not related to architectural level. - -Tool: Arcan can detect: -- Unstable Dependency (UD): describes a subsystem (com- ponent) that depends on other subsystems that are less stable than itself. This may cause a ripple effect of changes in the system [18]. Detected on packages.
-- Hub-Like Dependency (HL): this smell arises when an abstraction has (outgoing and ingoing) dependencies with a large number of other abstractions [19]. Detected on classes and packages.
-- Cyclic Dependency (CD): refers to a subsystem (compo- nent) that is involved in a chain of relations that break the desirable acyclic nature of a subsystem’s dependency structure. The subsystems involved in a dependency cycle can be hardly released, maintained or reused in isola- tion [18]. Detected on classes and packages and according to different shapes [12].
-- Implicit Cross Package Dependency (ICPD): captures hidden dependencies among files belonging to different packages [20], [21]. For hidden dependencies, we mean co-change relations that we can find only in the history of the project and not in the code. Files changed frequently together with hidden dependencies lead to a lack of modularity. Detected on files. - -Tool: Apache Commons BCEL (The Byte Code Engineering Library). All computations are based on the dependency graph built from reading the project compiled files.
-tool: Arccan,
-tools: [hello2morrow, https://www.sonarqube.org,https://www.castsoftware.com,https://structure101.com,http://xplrarc.massey.ac.nz, https://lattix.com, https://stan4j.com]
- - -</t>
   </si>
   <si>
     <t>Arcan  @@ -9150,23 +8838,6 @@
     <t>Yes, during two years the releases were monitored to check the benefits of refactoring software architecture</t>
   </si>
   <si>
-    <t xml:space="preserve">In our architecture analysis, we attempted to detect, measure, and assess the consequences of architecture debt in two ways: 1) by calculating architecture-based maintainability metrics on the before- and after-refactoring versions of Bright- Squid’s software, and 2) by identifying the architecture flaws and architecture roots in their software. 
-Maintainability metrics suite 
-- Decoupling Level (DL), introduced by Mo et al. [16] . Mo et al.’s algorithm first clusters source files into a design rule hierarchy (DRH) 
-- Propagation Cost (PC), proposed by MacCormack et al. [13]  to measure how tightly coupled a system is. The calcu- lation of PC is based on a matrix model of the dependencies among files. 
-architecture flaws 
-- Clique: A group of files that are interconnected, forming a strongly connected component.
-- Package cycle: typically the package structure of a software system should form a hierarchical structure. 
-- Improper inheritance 
-- Modularity violation: Modules designed properly with information hiding in mind should be able to change independently from each other. 
-- Crossing: if a file has many dependents and depends on many other files, that is, having high fan-in and high fan-out, then this file will appear to be at the center of a cross in its DSM (Design Structure Matrix)
-- Unstable interface: if a highly influential file is changed frequently with other files that directly or indirectly depend on it, then we call it an Unstable Interface. 
-Architecture Roots 
-Xiao et al. [22] proposed a new software architecture model, design rule space (DRSpace), which contain a set of related files. These DRSpaces can model various aspects of a software system, such as a feature, a pattern, etc. 
-Tool: we employed DV8—a commercial version of the Titan architecture analysis tool suite [22] to analyze the architecture of each system version to assess architecture debt 
-</t>
-  </si>
-  <si>
     <t>The authors conducted a case study in a real IT company to check the benefits of refactoring of software architecture before and after to check the quantitative and qualitative benefits of paydown ATDI. So the study showed that reducing architecture debt has had a positive influence on productivity and quality measures for the company.</t>
   </si>
   <si>
@@ -9200,34 +8871,6 @@
 [15] M. DAmbros, H. Gall, M. Lanza, and M. Pinzger, “Analysing software repositories to understand software evolution,” in Software evolution. Springer, 2008, pp. 37–67.
 [16] R. C. Martin, “The single responsibility principle,” The principles, patterns, and practices of Agile Software Development, vol. 149, p. 154, 2002.
 [21] R. Mo, Y. Cai, R. Kazman, L. Xiao, and Q. Feng, “Decoupling level: a new metric for architectural maintenance complexity,” in Proceedings of the 38th International Conference on Software Engineering. ACM, 2016, pp. 499–510.
-</t>
-  </si>
-  <si>
-    <t>Techniques: - -It is analyzed source code and tracking issues during software evolution using history of source code repository. - -Hotspot (seedfiles, propagation files) - -Propagation patterns (dissemination, concentratin, domino, schater shot) - -Use code repository, issue tracking and analysis through release evolution.  - -Tools:  -Understand -Simian -DV8 -R (statistical) - -Algorithm 1: Generate Hotspots from Seedfiles and a list of Propagation Patterns 
-Change-prone, bug-prone files, early detection architectural problems
- -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Case study - Interviews - Capture Software Process Requerimento and Software architecture
 </t>
   </si>
   <si>
@@ -9722,28 +9365,6 @@
 described as important by participants.</t>
   </si>
   <si>
-    <t>Interview about maturity of control of evolvability - -Interviews told about SonarQube integrated into the CI/CD pipeline  - -Ciclomatic complexity was most used by interviews as Code Smell. - -Most important challenges in Evolvability of microservices: -- Service cutting -- No system centric view -- Mastering Technologies -- Technological Heterogeneric -- missing docs -- architectural complexity -- integrated legacy code -- distributed coordniation team -- inadaquete testing -- microservices intgration -- Breaking Apis Changes -- Distributed Code Repositories -</t>
-  </si>
-  <si>
     <t>[14] S.Basˇkarada,V.Nguyen,andA.Koronios,“ArchitectingMicroservices: Practical Opportunities and Challenges,” Journal of Computer Informa- tion Systems, vol. 00, no. 00, pp. 1–9, sep 2018.
 [15] J.GhofraniandD.Lu ̈bke,“ChallengesofMicroservicesArchitecture:A Survey on the State of the Practice,” in 10th Central European Workshop on Services and their Composition (ZEUS), vol. 10th. Dresden, Germany: CEUR-WS.org, 2018.
 [16] S. Haselbock, R. Weinreich, and G. Buchgeher, “An Expert Interview Study on Areas of Microservice Design,” in 2018 IEEE 11th Conference on Service-Oriented Computing and Applications (SOCA). IEEE, nov 2018, pp. 137–144.
@@ -10093,49 +9714,6 @@
     <t>[15] P. Kruchten, R. L. Nord, I. Ozkaya, ;Technical Debt: From Metaphor to Theory and Practice;, Software, IEEE Computer Society, vol. 29, no. 6, pp. 18-21, November-December 2012
 [19] A. Martini and J. Bosch, “Towards prioritizing Architecture Technical Debt: information needs of architects and product owners,” 41st Euromicro SEAA Conference, Funchal, Madeira, August 2015.
 [20] A. Martini, J. Bosch, and M. Chaudron, “Investigating Architectural Technical Debt Accumulation and Refactoring over Time: a Multiple- Case Study,” Information and Software Technology, July 2015.</t>
-  </si>
-  <si>
-    <t>Survey with questionaries - -Multiple case study in 3 companies throng interviews with the practitioners from each company.  - -Chi square statistic method que compare and analysis the answers - -The authors created a list of kinds of Technical Debts from [3], [10] --Lack or lowquality of testing
-Test Debt [3]
-Lowcodequality
-Source Code Debt [3]
-Lack or lowquality of requirement
-Requirement Debt [3]
-Lack or lowquality of documentation
-Documentation Debt [3]
-Dependency violations
-Architecture Debt [3], [10]
-Complex architectural design
-Architecture Debt [3], [10]
-Too many different patterns and policies
-Architecture Debt [3], [10]
-Dependencies to external resources/software
-Architecture Debt [3], [10]
-Lack of reusablity in design
-Architecture Debt [3], [10]
-Uneasy/Tensed social interactions between different stakeholders
-Social Debt [3], [11]
-Lack of adequateenvironment and infrastructure during development
-Infrastructure Debt [3] - - -The authors proposed a model called ;Strategic Adoption Model for Tracking Technical Debt (SAMTTD); to suggest phases to TD Tracking evolution model. The following phases were proposed;  -- Unaware -- No tracking -- Ad-hoc -- Manual -- Measured -- Institutionalized -- Fully automated - -</t>
   </si>
   <si>
     <t xml:space="preserve">S. McConnell, ;Technical Debt;, blog, Nov. 2007, [online] Available: http://blogs.construx.com/blogs/stevemcc/archive/2007/11/01/technical-debt-2.aspx.
@@ -12198,12 +11776,792 @@
 #
 [15] Zalewski A.:; Beyond ATAM: Architecture Analysis in the Development of Large Scale Software Systems. ;Software Architecture, First European Conference, ECSA 2007 Aranjuez, Spain, 24-26 September 2007 Proceedings. LNCS, vol. 4758, pp. 92 – 105. Springer-Verlag 2007.</t>
   </si>
+  <si>
+    <t xml:space="preserve">Model-Driven Architecture Approach (MDA) - provides guidelines for the structuring of specifications expressed as models.
+Natural Language Processing
+Machine Learning 
+Model Checking Techniques
+Heterogeneous artefacts (HA) as emails, chat logs, commits logs, wikis…
+It was performed a set of interviews with Software Architect from the studied project, and it was observed that there is no ATD document process because of the pressure over the project (Center of Excellence and Appropriation in Big Data and Data Analytics (CAOBA) in a joint collaboration among several universities in Colombia and the Tax Office in Bogota ́.   
+We acknowledge two kinds of ATD: Decision ATD and Solution ATD. The first is related to the ATD injected when a decision is made, consciously or unconsciously. The latter is related to ATD injected as a consequence of the presence of architectural antipatterns and smells among architectural components. 
+Our technique is illustrated with a data analytics project in Colombia where software architects are unaware of the impact of the ATD injected and the consequences of the repayment strategy. This proposal seeks to support teams of architects to make explicit the current and future impact of the ATD injected as a result of decisions taken. 
+Proposal: REBEL focuses on finding ATD items at architecture level only, measuring the impact of its repayment strategy based on architecture decisions and allowing the debt to be anticipated or corrected before the implementation process begins. 
+3 stages:
+(i) Extraction: focused on extracting all relevant information coming from heterogeneous artifacts and the explicit knowledge of the software architects on how to identify and measure ATD. 
+(ii) Synthesis: focused on putting all this information together and analyzing it to identify and measure ATD items. And 
+(iii) Feedback: focused on take the ATD identified and present it to the software architecture team for monitoring, updating and learning. These stages are iterative, and need to be performed multiple times during the life cycle of the project. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Approach to ATDI: depends of Software Architecture and/or Developers evaluation of the source and the choose artefacts. Besides, the type of ATDI is non-modularised components. 
+Techniques:
+Method: It was created a measurement system follows the ISO/IEC 15939:2007 Software Metrics mainly complexity (Macabe Cyclomatic Complexity), cohesion and coupling. 
+Itens evaluated: Files in C++ from project evaluated
+Base Measure: measure defined in terms of an attribute and the method for quantifying it. 
+MCC_FOI: this measure is a set of MCC values of functions in FOIs. This was chosen as a measure of complexity for the files of interest. Changes on complex files likely generate more ef- fort, which is then considered ATD interest. 
+FILES_FOI: Count of the number of FOIs files. 
+HAL_BUGS This measure is the Halstead derived bug calculation 
+on a function-level. This measure represents the risk of gener- ating bugs by the functions. Bugs fixing can be considered as an extra-effort that would lead to paying more interest on the ATD. 
+CHANGE_FOI: Count the number of LOC changes in FOIs the last x of month, where x is defined depending on the objective of the data collection. This represents the activity of the develop- ers on the FOIs. If the activity is low, even if the ATD is present, there is no interest paid. 
+CHANGE_C: Similar to CHANGE_FOI but look at the whole com- ponent rather than just the FOIs. Thereby it counts the total number of LOC changes in all files of the component, including FOIs. 	
+Derived Measures: measure that is defined as a function of two or more values of base measures. 
+• MCC_FOI_HIGH – It is the sum of the MCC of the complex func- tions within the MCC_FOIs. The threshold that determines if the 
+MCC_HIGH_% – This measure is what Antinyan et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[18] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">de- fined as effective cyclomatic complexity percentage, or per- centage of complex functions in a file 
+MCC_POINTS – This measure is used to generate points based in percentage of complex MCC in the FOIs (MCC_HIGH_%). The thresholds that are being used are of those defined by Heitlager et al. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">[20] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+FILES_FOI_% – This measure is, in percentage, how many files in the component are FOIs. For example, if there are 10 files in the component and 2 of them are FOIs, then FILES_FOI_% would be equals to 20%. 
+HAL_AVG – This measure sums up the number of functions in HAL_BUGS (Halstead delivered bugs) with a value over 1. This means that it sums up all the functions that are predicted to have at least one bug in them and divide it by the number of FOIs (see FILES_FOI). 
+	HAL_POINTS – We did not find any paper using a threshold for Halstead delivered bugs. Therefore, the thresholds defining the points generated by this measure were discussed and agreed upon with the architects. 
+	CHANGE_FOI_% – The percentage of file change occurred on FOIs. For example, if a total of 2000 LOC changes occurred within the component the last x months, and 200 of those were on FOIs, it would mean that 10% of the file change was in FOIs. 
+	CHANGE_DIFF – The derived measure CHANGE_DIFF is the nor- malized version of the derived measure CHANGE_FOI_%. The result gives a percentage of how much more or less frequent a LOC change in a FOI compared to a non-FOI. 
+	Refactoring indicator. Analysis Model: algorithm or calcula- tion combining one or more base and/or derived measures with associated decision criteria.
+REFACTOR_INDEX = (MCC_POINTS + HAL_POINTS) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Monaco"/>
+      </rPr>
+      <t>∗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve"> CHANGE_DIFF 
+Indicator: measure that provides an estimate or evaluation of specified attributes derived from the model with respect to defined information needs. 
+The indicator of the measurement system generates GREEN, YELLOW, or RED. The GREEN means that the MS does not find any indication that the FOIs are generating enough extra effort to jus- tify a refactoring. YELLOW means that the FOIs generates some ef- fort, and developers should thereby be aware of it. RED means that the measurement system find strong indications that the FOIs are generating a lot of effort, which would suggest the need of refactoring. 
+Equation 3. Detailed formula considering the possible double 
+xxx
+In summary, the important variables were the following: 
+E: Effort Saved or Lost After t Months 
+E1: Effort of Development Before Refactoring in Months 
+E2: Effort of Maintenance Before Refactoring in Months 
+E3: Total Effort of Doing the Refactoring 
+E4: Effort of Development After Refactoring in Months 
+E5: Effort of Maintenance After Refactoring in Months 
+t: Time After the Refactoring in Months 
+m: Months Between Releases 
+r: Number of Releases Being Maintained at a Single Point in 
+Time 
+Approuch: Refactoring
+Tools: None
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Approuch: architecture smells detection + +Tool: Arcan
+ + +Method: Identify the most critical smells in terms of negative impact on a project. The ATD Index was compared with SonarQube to confirm that code issue is not related to architectural level. + +Tool: Arcan can detect: +- Unstable Dependency (UD): describes a subsystem (component) that depends on other subsystems that are less stable than itself. This may cause a ripple effect of changes in the system [18]. Detected on packages.
+- Hub-Like Dependency (HL): this smell arises when an abstraction has (outgoing and ingoing) dependencies with a large number of other abstractions [19]. Detected on classes and packages.
+- Cyclic Dependency (CD): refers to a subsystem (compo- nent) that is involved in a chain of relations that break the desirable acyclic nature of a subsystem’s dependency structure. The subsystems involved in a dependency cycle can be hardly released, maintained or reused in isola- tion [18]. Detected on classes and packages and according to different shapes [12].
+- Implicit Cross Package Dependency (ICPD): captures hidden dependencies among files belonging to different packages [20], [21]. For hidden dependencies, we mean co-change relations that we can find only in the history of the project and not in the code. Files changed frequently together with hidden dependencies lead to a lack of modularity. Detected on files. + +Tool: Apache Commons BCEL (The Byte Code Engineering Library). All computations are based on the dependency graph built from reading the project compiled files.
+tool: Arccan,
+tools: [hello2morrow, https://www.sonarqube.org,https://www.castsoftware.com,https://structure101.com,http://xplrarc.massey.ac.nz, https://lattix.com, https://stan4j.com]
+ + +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our architecture analysis, we attempted to detect, measure, and assess the consequences of architecture debt in two ways: 1) by calculating architecture-based maintainability metrics on the before- and after-refactoring versions of Bright- Squid’s software, and 2) by identifying the architecture flaws and architecture roots in their software. 
+Maintainability metrics suite 
+- Decoupling Level (DL), introduced by Mo et al. [16] . Mo et al.’s algorithm first clusters source files into a design rule hierarchy (DRH) 
+- Propagation Cost (PC), proposed by MacCormack et al. [13]  to measure how tightly coupled a system is. The calculation of PC is based on a matrix model of the dependencies among files. 
+architecture flaws 
+- Clique: A group of files that are interconnected, forming a strongly connected component.
+- Package cycle: typically the package structure of a software system should form a hierarchical structure. 
+- Improper inheritance 
+- Modularity violation: Modules designed properly with information hiding in mind should be able to change independently from each other. 
+- Crossing: if a file has many dependents and depends on many other files, that is, having high fan-in and high fan-out, then this file will appear to be at the center of a cross in its DSM (Design Structure Matrix)
+- Unstable interface: if a highly influential file is changed frequently with other files that directly or indirectly depend on it, then we call it an Unstable Interface. 
+Architecture Roots 
+Xiao et al. [22] proposed a new software architecture model, design rule space (DRSpace), which contain a set of related files. These DRSpaces can model various aspects of a software system, such as a feature, a pattern, etc. 
+Tool: we employed DV8—a commercial version of the Titan architecture analysis tool suite [22] to analyze the architecture of each system version to assess architecture debt 
+</t>
+  </si>
+  <si>
+    <t>Techniques, approach and methods (parsed)</t>
+  </si>
+  <si>
+    <t>Techniques: + +It is analyzed source code and tracking issues during software evolution using history of source code repository. + +Hotspot (seedfiles, propagation files) + +Propagation patterns (dissemination, concentratin, domino, schater shot) + +Use code repository, issue tracking and analysis through release evolution.  + +Tools:  +Understand +, Simian,  +DV8 +R (statistical) + +Algorithm 1: Generate Hotspots from Seedfiles and a list of Propagation Patterns 
+Change-prone, bug-prone files, early detection architectural problems
+ +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, we provide our experience report in using three known tools to capture information that can be useful to identify and evaluate the architectural debt of an application.  + +To evaluate 3 tools (Sonargraph, SonarQube and Fusion) to check architectural debt.
+This paper aims to describe our experimentation using these tools, by ana- lyzing diferent systems. We also report the results obtained analyzing an application we developed for the crawling and analysis of open source projects [1]. We focus our attention on comparing the following architectural evaluation issues: 1) the Quality Indexes the tools compute; 2) the Results Inspection capabilities of the data the tools provide; 3) the Data extracted by the tools on the same system. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is calculated the effort of modularization in Files that was not modularized. </t>
+  </si>
+  <si>
+    <t>Cast + + InFusion  + +SonarGraph  + +SonarQube +  +Structure101  + +Input: Architecture Smells, Architecture Violation + + Output: Resolution cost (PRINCIPAL), keeping cost,(INTEREST) Unity measure (money, time, Rank, LOC)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To check how practitioners percept Technical Debt in Embedded Systems about Quality Attributes. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What is the relationship between the expected lifetime of components and technical debt? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What types of technical debt (e.g., code, architectural, etc.) are more frequently occurring in embedded systems? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">What is the significance of building maintainable software systems (with low TD) compared to satisfying other quality attributes? 
+Case study in seven technology companies: 
+Telecomunication
+ Automotive
+ Mobile
+ Sensors
+ Priting
+ Smart Manufacturing
+ Media Devices </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Use GQM (Go Question Metric) to analyse the perception of TD with respect to lifetime components, types of TD, quality attributes.  + +Data Collections:  + +Projects Demographics +- Description of project +- Release date +- Number of releases + +Technical Debt Item Data Points +- Estimated lifespan +- Types of TD identified +- Importance of quality attributes,  + +Maintanability is the main quality attributed related to TD. + +Functionality, Reliability and Performance were the other Quality Attributes so importante to Embed Systems. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The main goal of the paper is to check how is the process of Technical Debt tracking in Large Software Companies. The authors made a survey with practitioners in large software companies, and multiple case study in 3 large software companies in Scandinavia area.  +The questions:  +RQ1 How much of the software development time is estimated to be employed in managing TD?
+It is also important to understand how a TD tracking process is introduced and implemented in large software companies.We therefore aim at answering the following RQs:
+RQ2 To what extent do software organizations track TD?
+RQ3 How do software organizations introduce a TD tracking process?
+RQ4 What are the initial benefits and challenges when large organizations start tracking TD?
+</t>
+  </si>
+  <si>
+    <t>Survey with questionaries + +, Multiple case study in 3 companies throng interviews with the practitioners from each company.  + +Chi square statistic method que compare and analysis the answers + +The authors created a list of kinds of Technical Debts from [3], [10] +-Lack or lowquality of testing
+Test Debt [3]
+Low code quality
+Source Code Debt [3]
+Lack or low quality of requirement
+Requirement Debt [3]
+Lack or low quality of documentation
+Documentation Debt [3]
+Dependency violations
+Architecture Debt [3], [10]
+Complex architectural design
+Architecture Debt [3], [10]
+Too many different patterns and policies
+Architecture Debt [3], [10]
+Dependencies to external resources/software
+Architecture Debt [3], [10]
+Lack of reusablity in design
+Architecture Debt [3], [10]
+Uneasy/Tensed social interactions between different stakeholders
+Social Debt [3], [11]
+Lack of adequate environment and infrastructure during development
+Infrastructure Debt [3] + + +The authors proposed a model called ;Strategic Adoption Model for Tracking Technical Debt (SAMTTD); to suggest phases to TD Tracking evolution model. The following phases were proposed;  +- Unaware +- No tracking +- Ad-hoc +- Manual +- Measured +- Institutionalized +- Fully automated + +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case study +, Interviews +, Capture Software Process,  Requeriments and Software architecture
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This paper aims at improving software management by shedding light on the current factors responsible for the accumulation of Architectural Technical Debt and to understand how it evolves over time.
+In this paper we aim at filling such current gaps by investigating, in several companies, the overall phenomenon of accumulation and refactoring of ATD. The study of such subject would also contribute to ASD frameworks, by highlighting activities for enhancing agility in the task of developing and maintaining software architecture in large projects </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="13"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>[5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">. 
+In the context of large-scale ASD, our research questions are: 
+RQ1: What factors cause the accumulation of ATD?
+RQ2: How is ATD accumulated and refactored over time? RQ3: What possible refactoring strategies can be employed for managing ATD? 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Interview about maturity of control of evolvability + + Interviews told about SonarQube integrated into the CI/CD pipeline  + +Ciclomatic complexity was most used by interviews as Code Smell. + +Most important challenges in Evolvability of microservices: +- Service cutting +- No system centric view +- Mastering Technologies +- Technological Heterogeneric +- missing docs +- architectural complexity +- integrated legacy code +- distributed coordniation team +- inadaquete testing +- microservices intgration +- Breaking Apis Changes +- Distributed Code Repositories +</t>
+  </si>
+  <si>
+    <t>general:"Model-Driven Architecture Approach, Natural Language Processing, Machine Learning, Heterogeneous artefacts"
+# 
+approuch:"REBEL focuses on finding ATD items at architecture level only, measuring the impact of its repayment strategy based on architecture decisions and allowing the debt to be anticipated or corrected before the implementation process begins
+#
+tools:"Rebel"</t>
+  </si>
+  <si>
+    <t>general:"specialist technical evaluation, modularity, measurement system, complexity, cohesion, coupling, code churn, source code, revision history"
+# 
+approuch:"own technique to identify, measure and calculate the ATD"
+#
+tools:"own"</t>
+  </si>
+  <si>
+    <t>general:"architecture smells, modularity"
+# 
+approuch:"Unstable Dependency, Hub-Like Dependency, Cyclic Dependency, Implicit Cross Package Dependency,  "
+#
+tools:"Arcan, SonarQube, Apache Commons BCEL, hellow2morrow"</t>
+  </si>
+  <si>
+    <t>general:"architectural root, source code, revision history, Design Structure Matrix, code churn, change frequency, architectural smells, modularity"
+ # 
+ approuch:"Unstable Interface, Implicit Cross-module Dependency, Unhealthy Inheritance Hierarchy, Clique, Package cicle"
+ #
+ tools:"ArchDia"</t>
+  </si>
+  <si>
+    <t>general:"source code, software architecture documentation, business documentation, revision history, release plan"
+ # 
+ approuch:"framework AnaConDebt, catalog, taxonomy"
+ #
+ tools:"owner formulas"</t>
+  </si>
+  <si>
+    <t>general:"Design Rules Spaces, Design Structure Matrix, Architecture Issues, Architectural Smells, Hotsport pattern, unstable interface, modularity violation, unhealthy inheritance, cyclic dependency, DRSpace, source code, revision history, bug track, modularity violation, code churn, debt churn"
+ # 
+ approuch:"ArchDebt framework, history coupling probability (HCP) matrix, Ranking: Identify High-maintenance ArchDebt, architechtural debt evolution"
+ #
+ tools:"titan, understand"</t>
+  </si>
+  <si>
+    <t>general:"Architecture Description Language, ADL, Objet Constraint Language, ATD Hotsports"
+ # 
+ approuch:"Android architecture guideline extraction, Android reference architecture establishment, Reverse engineering of implemented architecture, Compliance checking, Quantitative assessment of compliance violations"
+ #
+ tools:"ACME-Generator Tool"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"ARCHITECTURE DSL, Architecture violation, package analysis, source code"
+ # 
+ approuch:"Architecture Violation"
+ #
+ tools:"Sonargraph"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"taxonomy of ATD, modularity, non-funtional requirements, temporal properties, socio‐technical anti‐patterns, catalog of ATD, socio-technical, propagation, revision history"
+ # 
+ approuch:"ATD contagious debt, architecture risk management, architecture drifting, architecture violation, ATD generation, ATD propagation"
+ #
+ tools:"owner formulas"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"tool evaluation, package evaluation, architectural smells, code smells, Technical Debt Index, Architectural Violation, cyclic packages, Technical Debt ratio, cycles, cyclic dependencies, Unstable dependencies"
+ # 
+ approuch:"analys of open source project"
+ #
+ tools:"Sonargraph, SonarQube,Fusion"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"software architectural documentation, architecture decision, quality attributes, ATD Item, ATD list, Change scenario, architecture decision template, architecture diagram, specialist analysis, revision history, release plan"
+ # 
+ approuch:"ATD Identification based on change scenarios"
+ #
+ tools:"no"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Agile Software Development, Taxonomy of ATD, refactoring, source code, business factory, architecture documentation, human factor,  "
+ # 
+ approuch:"Taxonomy of ATD, framework to identify ATD, specialist analysis"
+ #
+ tools:"no"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"modularization, code churn, source code, revision history, complexity, refactoring, specialist analysis, files, components"
+ # 
+ approuch:"method to select critcial files to refactoring"
+ #
+ tools:"owner formula"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Architectural Smells, refactoring, Number of package, Number of class, unstable dependency, hub-like dependency, cyclic dependency, package, specialist evaluation, source code, revision history, architectural smells impact, priorization, bugs"
+ # 
+ approuch:"survey, case study"
+ #
+ tools:"Arcan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"source code, revision history, issue list, Dependency structure matrix, DRSpace, Decopling Level, "
+ # 
+ approuch:"Hotspot, Architecture Degradation"
+ #
+ tools:"Understand, Titan"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"hotspot, refactoring, source code, revision history, architectural issue, issue tracker, issue list, file dependencies, specialist evaluation, business cases, Unstable Interface, Implicit Cross-module Dependency, modularity violations, Unhealthy Inheritance Hierarchy"
+ # 
+ approuch:"DRSpace, Design Ruel Hierarchy, Design Structure Matrix, Architecture Roots"
+ #
+ tools:"Titan, SonarQube, Understand, Jira, Git"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Rank of Priorization, refactoring, catalog of ATD Effects, Taxonomy of ATD, Contagious ATD, code change, code churn, complexity, issue tracker, "
+ # 
+ approuch:"multiple case study"
+ #
+ tools:"questionaries"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Architectural Smells, Social Network, maintainability,Social Network Analysis, link prediction, source code, revision history,  dependency prediction, time series, cycle, hub-like, unstable dependency, ranking-based link prediction, machine learning prediction"
+ # 
+ approuch:"Machine Learning, prediction of architectural smells, Dependency Graph Representation, predictive approach"
+ #
+ tools:"dependency-analyser, owner tool, weka"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"specialist evaluation, package, release plan, dependency analysis, DSM, implementation cost, propagation cost, rework cost, use cases, refactoring, re-architecting, person effort, modularity metrics, change propagation metric"
+ # 
+ approuch:"owner formulas, design structure matrix"
+ #
+ tools:"owner tool"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"maintainability, decoupling level, propagation cost, architecture anti-patterns detection, Unstable Interface, Modularity Violation Groups, Unhealthy Inheritance Hierarchy, Crossing, clique, cycle dependencies, package cycle"
+ # 
+ approuch:"tool evaluation"
+ #
+ tools:"DV8, archdia"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"modularity, package dependencies, design flaws, package cohesion, package coupling, source code, revision history, Average Coupling Afferent, Total Coupling Intensity between Packages, Cohesion among Package Classes"
+ # 
+ approuch:"Correlation analysis"
+ #
+ tools:"SonarQube"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"maintainability, performance, visualization of ATD, logical view, design view, deployment, efficiency, component communication, component dependencies, Eletronic Control Unit, Automotive Domain"
+ # 
+ approuch:"semi-structured interview, cost of component communcation, owner formulas, treemap"
+ #
+ tools:"owner tool to visualize dependency among components"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Architecture Smells, Design Metrics, Code Metrics, Architecture Violations, Resolution cost, Keeping cost, unity measure (money, time, rank, loc)"
+ # 
+ approuch:"Tools evaluation"
+ #
+ tools:"Cast +, InFusion,  + +SonarGraph, + +SonarQube +  +Structure101"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"complexity, modularity, maintanance cost, refactoring, coupling, cohesion, dependencies between components, DSM, source code, issue track, bug tracking, defect-related activity, file changes, specialist evaluation, refactoring, design decisions, code churn, cicly dependencies"
+ # 
+ approuch:"design structure matrices"
+ #
+ tools:"owner tool"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"architectural smells, refactoring, Hublike dependency, Cyclic dependency, complexity, Unstable dependency, source code, revision history, package analysis, Jaccard similarity index"
+ # 
+ approuch:"refactoring prioritisation, Goal-Question-Metric, analysis using Qualitas Corpus, Trend evolution classification templates, CORRELATION ANALYSIS"
+ #
+ tools:"Arcan, ASTracker, GraphML"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"pagerank, criticality, architectural smells, architecture erosion, priorization, Unstable Dependency
+, Hub-like Dependency, Cyclic Dependency, Criticality Reference, Packages Dependencies, source code, revision history"
+ # 
+ approuch:"Architecture Smells Detection"
+ #
+ tools:"Arcan, Gephi tool"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"quality assurance, security, Common Weakness Scoring System, Common Vulerability Scoring System, Quamoco, ISO 25010, source code, catalog of flaws, specialist evaluation"
+ # 
+ approuch:"Pilot study, priorization securty framework, Common Architectural Weakness Enumeration"
+ #
+ tools:"owner score formula, FxCorp"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Complex Architectural Design, time wasted to pay TD, Requirement TD, Testing TD, Source Code TD, understanding issues, measuring issues, refactoring issues"
+ # 
+ approuch:"survey, interview"
+ #
+ tools:"no"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"lifetime components, embeded systems,  quality attributes, maintainability, reliability, source code, revision history, specialist evaluation, performance, functionality, compatibility, portability, software-intensive domains, long lifetime, Test TD, Code TD, Architecture TD, Documentation TD"
+ # 
+ approuch:"GQM, questionaries, interview"
+ #
+ tools:"no"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"dependency violations, complex architectural design, social interactions, evolution model, diferent patterns, dependency to external resource, lack of reuse of components, specialist evaluation"
+ # 
+ approuch:"survey, questionaries, case study, Strategic Adoption Model for Tracking Technical Debt"
+ #
+ tools:"no"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"requirements volatility, software architecture documentation, software architecture design, business enviroment, communications issues"
+ # 
+ approuch:"case study, interview"
+ #
+ tools:"no"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"refactoring, Agile Software Development, taxonomy of ATD, quality model to ATD, refactoring strategies, dependency violations, patterns and policies, code duplication, non-functional requirements, ATD priorization, specialist evaluation, revision history, source code, business factors, architectural documentation, third party use, open source use, technology evolution, lack of domain knowledge, priorization, refactoring maximization, refactoring minimization, parcial refactoring, component dependencies, social-technical factors"
+ # 
+ approuch:"Quality Model to Refactoring ATD, interviews"
+ #
+ tools:"QDA Tool"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"evolvability, microservices, maintainability, complexity, ciclomatic complexity, technology heterogeneric, lask of test, integrated legacy code, distributed code repositories, maintainability metrics, architectural conformace checking, code smells, cyclomatic complexity, rule violations, event-driven, messaging, API gateway, guidelines, software architecture documentation, service documentation, technical complexity, microservices integration"
+ # 
+ approuch:"interviews"
+ #
+ tools:"SonarQube, Findbugs, checkstyle, PMD, IDE linting, cobertura, custom tool, Structure 101, Codevoc, Codacy"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"architectural complexity, propagation cost, complexity metrics, Design Structure Matrix, Treemap, source code, coupling, coupling between objects,  reliability, maintainability, static code analysis, architectural metrics, core size, DSM"
+ # 
+ approuch:"plugin to collect information"
+ #
+ tools:"owner plugin, Understand"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"language parse, meta-model, catalogs of rules, application analysis, detected violations, quality attributes, performance, robustness, security, changeability, transferability, source code, revion history, business risk, "
+ # 
+ approuch:"Detected Violation, owner formula"
+ #
+ tools:"CAST, owner formula"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"scalability, quality metrics, scalability triage, affected subsystems, estimating impact, specialist evaluation, performance, software architecture documentation, open systems"
+ # 
+ approuch:"lightweight approuch to identify scalability debt"
+ #
+ tools:"no"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"Self-admitted Technical Debt, architecture recovery, component dependencies, software architecture documentation, source code, architecture violation, reverse engineering, architectural divergences, depencencies per component"
+ # 
+ approuch:"framework to recover the architecture"
+ #
+ tools:"owner tool"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:"maintainability, microservices,Test coverage, Cyclomatic complexity, Clone coverage, Coupling metrics, Architectural Violation, Outated documentation, Inadequate testing, architectural erosion, problematic dependencies, complex components, large components, duplicate code, outdated libraries, quality atributes"
+ # 
+ approuch:"survey"
+ #
+ tools:"Sonarqube, Findbugs, Self-made tool, Checkstyle, PMD, Jmetrics, Lattix, CAST, CodeCov, Error Prone"
+</t>
+  </si>
+  <si>
+    <t>general:"architectural risk"
+ # 
+ approuch:"classification of architectural risk"
+ #
+ tools:"no"</t>
+  </si>
+  <si>
+    <t>general:"source code, revision history, hotspot, propagation patterns, issue tracking"
+ # 
+ approuch:"change-prone, bug-prone, early detection architectural problems"
+ #
+ tools:" +Understand +, Simian,  +DV8 +"</t>
+  </si>
+  <si>
+    <t>general:"maintainability, architecture flaws, architecture roots, decoupling level, propagation cost, architectural smells, Design Structure Matrix, DRSpace"
+ # 
+ approuch:"clique, package cicle, modularity violation, crossing, unstable interface"
+ #
+ tools:"DV8"</t>
+  </si>
+  <si>
+    <t>general:"modularity, average number of modified components per commit, ANMCC, index of package changing impact, IPCI, index of package goal focus,  IPGF, source code, revistion history, "
+ # 
+ approuch:"modularity metrics, Spearman’s correlation tests"
+ #
+ tools:"No"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:""
+ # 
+ approuch:""
+ #
+ tools:"No"</t>
+  </si>
+  <si>
+    <t>" general:""language parse, meta-model, catalogs of rules, application analysis, detected violations, quality attributes, performance, robustness, security, changeability, transferability, source code, revion history, business risk, ""
+ # 
+ approuch:""Detected Violation, owner formula""
+ #
+ tools:"No"CAST, owner formula""
+"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> general:""
+ # 
+ approuch:""
+ #
+ tools:"No"
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -12372,6 +12730,17 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Noteworthy Bold"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="4">
@@ -12560,7 +12929,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12693,8 +13062,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -12824,8 +13199,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="46">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -12869,6 +13250,8 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14019,13 +14402,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14033,7 +14416,7 @@
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="53" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="64.6640625" style="1" hidden="1" customWidth="1"/>
@@ -14042,117 +14425,121 @@
     <col min="12" max="12" width="37.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="54.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="70" style="1" customWidth="1"/>
-    <col min="16" max="16" width="24.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="48.1640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="44.83203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="45" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.83203125" style="1" customWidth="1"/>
-    <col min="21" max="22" width="62.5" style="1" customWidth="1"/>
-    <col min="23" max="23" width="69.1640625" style="1" customWidth="1"/>
-    <col min="24" max="25" width="57.1640625" style="1" customWidth="1"/>
-    <col min="26" max="30" width="12.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="25.5" style="1" customWidth="1"/>
-    <col min="32" max="32" width="16.33203125" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="16.33203125" style="1"/>
+    <col min="15" max="15" width="39.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="70" style="1" customWidth="1"/>
+    <col min="17" max="17" width="24.83203125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="48.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="44.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="45" style="1" customWidth="1"/>
+    <col min="21" max="21" width="28.83203125" style="1" customWidth="1"/>
+    <col min="22" max="23" width="62.5" style="1" customWidth="1"/>
+    <col min="24" max="24" width="69.1640625" style="1" customWidth="1"/>
+    <col min="25" max="26" width="57.1640625" style="1" customWidth="1"/>
+    <col min="27" max="31" width="12.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.33203125" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="28" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:32" ht="28" customHeight="1">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="43" t="s">
+        <v>978</v>
+      </c>
+      <c r="P1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="43" t="s">
+        <v>934</v>
+      </c>
+      <c r="Y1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="43" t="s">
+        <v>942</v>
+      </c>
+      <c r="AA1" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="403" customHeight="1">
+    <row r="2" spans="1:32" ht="409" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -14172,7 +14559,7 @@
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>32</v>
@@ -14193,55 +14580,58 @@
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="P2" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>990</v>
+      </c>
+      <c r="P2" s="44" t="s">
+        <v>974</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="X2" s="8"/>
+      <c r="W2" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="Y2" s="8"/>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AB2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AC2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="4" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="409.5" customHeight="1">
+    <row r="3" spans="1:32" ht="409.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -14276,57 +14666,60 @@
         <v>54</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>619</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>620</v>
+        <v>614</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>991</v>
       </c>
       <c r="P3" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="Q3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>621</v>
-      </c>
       <c r="R3" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="X3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AD3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
     </row>
-    <row r="4" spans="1:31" ht="409.5" customHeight="1">
+    <row r="4" spans="1:32" ht="409.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -14367,61 +14760,64 @@
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>766</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>768</v>
+        <v>757</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>992</v>
       </c>
       <c r="P4" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>770</v>
-      </c>
       <c r="R4" s="12" t="s">
-        <v>622</v>
+        <v>760</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>769</v>
-      </c>
-      <c r="T4" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="U4" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U4" s="12" t="s">
-        <v>623</v>
-      </c>
       <c r="V4" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>930</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="Y4" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="W4" s="12" t="s">
-        <v>944</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>771</v>
-      </c>
       <c r="Z4" s="14" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
       <c r="AA4" s="14" t="s">
+        <v>762</v>
+      </c>
+      <c r="AB4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AC4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AD4" s="12" t="s">
+      <c r="AE4" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AE4" s="12" t="s">
-        <v>767</v>
+      <c r="AF4" s="12" t="s">
+        <v>758</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="409.5" customHeight="1">
+    <row r="5" spans="1:32" ht="409.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -14429,7 +14825,7 @@
         <v>75</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>77</v>
@@ -14453,7 +14849,7 @@
         <v>68</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>80</v>
@@ -14462,57 +14858,60 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>624</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="P5" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>993</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q5" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="R5" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="T5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="10" t="s">
+      <c r="U5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="V5" s="12" t="s">
-        <v>627</v>
-      </c>
       <c r="W5" s="12" t="s">
-        <v>902</v>
-      </c>
-      <c r="X5" s="14"/>
+        <v>621</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>888</v>
+      </c>
       <c r="Y5" s="14"/>
-      <c r="Z5" s="12" t="s">
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="AA5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AC5" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AC5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="AD5" s="12" t="s">
+      <c r="AE5" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="AE5" s="10" t="s">
+      <c r="AF5" s="10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="409.5" customHeight="1">
+    <row r="6" spans="1:32" ht="282" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -14541,7 +14940,7 @@
         <v>96</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>69</v>
@@ -14553,61 +14952,64 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>827</v>
-      </c>
-      <c r="P6" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="Q6" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>825</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>826</v>
-      </c>
-      <c r="S6" s="12" t="s">
+      <c r="R6" s="10" t="s">
+        <v>815</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>816</v>
+      </c>
+      <c r="T6" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y6" s="12" t="s">
         <v>946</v>
       </c>
-      <c r="W6" s="12" t="s">
-        <v>629</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>961</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="Z6" s="14" t="s">
-        <v>828</v>
+      <c r="Z6" s="12" t="s">
+        <v>814</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>391</v>
+        <v>817</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>810</v>
+        <v>389</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>829</v>
+        <v>800</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="AE6" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="AF6" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="409.5" customHeight="1">
+    <row r="7" spans="1:32" ht="409.5" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -14651,58 +15053,61 @@
         <v>110</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>838</v>
-      </c>
-      <c r="P7" s="10" t="s">
+        <v>1029</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="Q7" s="12" t="s">
+      <c r="R7" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V7" s="12" t="s">
-        <v>630</v>
-      </c>
       <c r="W7" s="12" t="s">
-        <v>903</v>
+        <v>624</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>962</v>
+        <v>889</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>836</v>
+        <v>947</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>826</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>832</v>
+        <v>820</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>821</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="409.5" customHeight="1">
+    <row r="8" spans="1:32" ht="409.5" customHeight="1">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -14743,61 +15148,64 @@
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>632</v>
+        <v>1031</v>
       </c>
       <c r="P8" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q8" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="R8" s="14" t="s">
-        <v>823</v>
-      </c>
-      <c r="S8" s="12" t="s">
+      <c r="R8" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="T8" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="T8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U8" s="12" t="s">
+      <c r="V8" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="V8" s="12" t="s">
-        <v>918</v>
-      </c>
       <c r="W8" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>963</v>
+        <v>903</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>628</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>817</v>
+        <v>948</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>819</v>
+        <v>800</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>818</v>
+        <v>811</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>808</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="409.5" customHeight="1">
+    <row r="9" spans="1:32" ht="409.5" customHeight="1">
       <c r="A9" s="9">
         <v>10</v>
       </c>
@@ -14832,7 +15240,7 @@
         <v>133</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
@@ -14840,59 +15248,62 @@
       <c r="N9" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="O9" s="12" t="s">
-        <v>809</v>
-      </c>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="10" t="s">
+        <v>994</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>799</v>
+      </c>
+      <c r="Q9" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="R9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="S9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="T9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>919</v>
-      </c>
       <c r="W9" s="12" t="s">
-        <v>814</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>964</v>
+        <v>904</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>804</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>904</v>
+        <v>949</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>813</v>
+        <v>890</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>815</v>
+        <v>801</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>805</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="409.5" customHeight="1">
+    <row r="10" spans="1:32" ht="409.5" customHeight="1">
       <c r="A10" s="9">
         <v>13</v>
       </c>
@@ -14933,61 +15344,64 @@
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>635</v>
+        <v>995</v>
       </c>
       <c r="P10" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q10" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q10" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="R10" s="10" t="s">
+      <c r="R10" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="S10" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="S10" s="12" t="s">
+      <c r="T10" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>867</v>
-      </c>
-      <c r="U10" s="10" t="s">
+      <c r="U10" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="V10" s="12" t="s">
-        <v>920</v>
-      </c>
       <c r="W10" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>965</v>
+        <v>905</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>852</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>866</v>
+        <v>950</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>872</v>
+        <v>855</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>869</v>
+        <v>823</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>870</v>
+        <v>856</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>871</v>
+        <v>857</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>858</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="359.25" customHeight="1">
+    <row r="11" spans="1:32" ht="359.25" customHeight="1">
       <c r="A11" s="9">
         <v>14</v>
       </c>
@@ -15031,58 +15445,61 @@
         <v>159</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="P11" s="10" t="s">
+        <v>996</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q11" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="R11" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="R11" s="12" t="s">
+      <c r="S11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S11" s="12" t="s">
+      <c r="T11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T11" s="12" t="s">
+      <c r="U11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="V11" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="V11" s="12" t="s">
-        <v>921</v>
-      </c>
       <c r="W11" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="X11" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="X11" s="12" t="s">
-        <v>966</v>
-      </c>
       <c r="Y11" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="Z11" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z11" s="12" t="s">
+      <c r="AA11" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AB11" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AC11" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="AC11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="AD11" s="12" t="s">
+      <c r="AE11" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="AE11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="395.25" customHeight="1">
+    <row r="12" spans="1:32" ht="395.25" customHeight="1">
       <c r="A12" s="9">
         <v>15</v>
       </c>
@@ -15096,7 +15513,7 @@
         <v>172</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
@@ -15125,55 +15542,58 @@
       <c r="N12" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="O12" s="12" t="s">
-        <v>639</v>
+      <c r="O12" s="10" t="s">
+        <v>997</v>
       </c>
       <c r="P12" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>640</v>
-      </c>
       <c r="R12" s="12" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="S12" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="T12" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="U12" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="12" t="s">
+      <c r="V12" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="V12" s="14"/>
       <c r="W12" s="14"/>
-      <c r="X12" s="12" t="s">
-        <v>967</v>
-      </c>
+      <c r="X12" s="14"/>
       <c r="Y12" s="12" t="s">
-        <v>642</v>
+        <v>952</v>
       </c>
       <c r="Z12" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA12" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AA12" s="12" t="s">
+      <c r="AB12" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="AB12" s="12" t="s">
+      <c r="AC12" s="12" t="s">
         <v>180</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>181</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>181</v>
       </c>
       <c r="AE12" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="AF12" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="409.5" customHeight="1">
+    <row r="13" spans="1:32" ht="409.5" customHeight="1">
       <c r="A13" s="9">
         <v>16</v>
       </c>
@@ -15193,7 +15613,7 @@
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>52</v>
@@ -15205,45 +15625,47 @@
         <v>184</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="O13" s="12" t="s">
+        <v>998</v>
+      </c>
+      <c r="P13" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="P13" s="12" t="s">
+      <c r="Q13" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="R13" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="S13" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="T13" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="T13" s="12" t="s">
+      <c r="U13" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="U13" s="10" t="s">
+      <c r="V13" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="V13" s="12" t="s">
-        <v>952</v>
-      </c>
       <c r="W13" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="X13" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
@@ -15251,8 +15673,9 @@
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
     </row>
-    <row r="14" spans="1:31" ht="409.5" customHeight="1">
+    <row r="14" spans="1:32" ht="409.5" customHeight="1">
       <c r="A14" s="9">
         <v>17</v>
       </c>
@@ -15293,61 +15716,64 @@
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>646</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>647</v>
-      </c>
-      <c r="P14" s="10" t="s">
+        <v>980</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q14" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="R14" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="S14" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S14" s="12" t="s">
+      <c r="T14" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T14" s="12" t="s">
+      <c r="U14" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="U14" s="10" t="s">
+      <c r="V14" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="V14" s="12" t="s">
-        <v>922</v>
-      </c>
       <c r="W14" s="12" t="s">
-        <v>648</v>
+        <v>907</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>968</v>
+        <v>641</v>
       </c>
       <c r="Y14" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="Z14" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Z14" s="26" t="s">
+      <c r="AA14" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="AA14" s="27" t="s">
+      <c r="AB14" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="AB14" s="27" t="s">
+      <c r="AC14" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="AC14" s="27" t="s">
+      <c r="AD14" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="AD14" s="27" t="s">
+      <c r="AE14" s="27" t="s">
         <v>211</v>
       </c>
-      <c r="AE14" s="28" t="s">
+      <c r="AF14" s="28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="409.5" customHeight="1">
+    <row r="15" spans="1:32" ht="409.5" customHeight="1">
       <c r="A15" s="9">
         <v>21</v>
       </c>
@@ -15390,59 +15816,62 @@
       <c r="N15" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="O15" s="10" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P15" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="P15" s="12" t="s">
+      <c r="Q15" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="R15" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="R15" s="12" t="s">
+      <c r="S15" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="S15" s="12" t="s">
+      <c r="T15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="T15" s="12" t="s">
+      <c r="U15" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U15" s="10" t="s">
+      <c r="V15" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="V15" s="12" t="s">
-        <v>914</v>
-      </c>
       <c r="W15" s="12" t="s">
-        <v>905</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>958</v>
+        <v>899</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>891</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>906</v>
+        <v>943</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>794</v>
+        <v>786</v>
+      </c>
+      <c r="AF15" s="14" t="s">
+        <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="320.25" customHeight="1">
+    <row r="16" spans="1:32" ht="320.25" customHeight="1">
       <c r="A16" s="9">
         <v>22</v>
       </c>
@@ -15486,58 +15915,61 @@
         <v>236</v>
       </c>
       <c r="O16" s="12" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P16" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="P16" s="12" t="s">
+      <c r="Q16" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="R16" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="S16" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="T16" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="T16" s="12" t="s">
+      <c r="U16" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="U16" s="12" t="s">
+      <c r="V16" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="V16" s="12" t="s">
-        <v>915</v>
-      </c>
       <c r="W16" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="X16" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="X16" s="14" t="s">
-        <v>969</v>
-      </c>
       <c r="Y16" s="14" t="s">
-        <v>614</v>
+        <v>954</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>907</v>
+        <v>610</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>362</v>
+        <v>893</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>613</v>
+        <v>361</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AE16" s="14" t="s">
-        <v>610</v>
+        <v>607</v>
+      </c>
+      <c r="AF16" s="14" t="s">
+        <v>606</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="409" customHeight="1">
+    <row r="17" spans="1:32" ht="409" customHeight="1">
       <c r="A17" s="9">
         <v>27</v>
       </c>
@@ -15572,7 +16004,7 @@
         <v>133</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
@@ -15581,87 +16013,90 @@
         <v>247</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>649</v>
+        <v>1002</v>
       </c>
       <c r="P17" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q17" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="R17" s="12" t="s">
+        <v>981</v>
+      </c>
+      <c r="S17" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="R17" s="12" t="s">
+      <c r="T17" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="U17" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="V17" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>650</v>
-      </c>
-      <c r="U17" s="12" t="s">
+      <c r="W17" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="X17" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="V17" s="12" t="s">
-        <v>916</v>
-      </c>
-      <c r="W17" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>970</v>
-      </c>
       <c r="Y17" s="14" t="s">
-        <v>758</v>
+        <v>955</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>613</v>
+        <v>747</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>753</v>
+        <v>609</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>755</v>
-      </c>
-      <c r="AE17" s="32" t="s">
-        <v>754</v>
+        <v>744</v>
+      </c>
+      <c r="AE17" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AF17" s="32" t="s">
+        <v>745</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="409.5" customHeight="1">
+    <row r="18" spans="1:32" ht="409.5" customHeight="1">
       <c r="A18" s="9">
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="J18" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>259</v>
       </c>
       <c r="K18" s="12" t="s">
         <v>219</v>
@@ -15673,36 +16108,38 @@
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>652</v>
+        <v>1003</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q18" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="S18" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="R18" s="12" t="s">
+      <c r="T18" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="S18" s="12" t="s">
+      <c r="U18" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="V18" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="U18" s="12" t="s">
+      <c r="W18" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="X18" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="V18" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
@@ -15710,78 +16147,81 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:31" ht="372.25" customHeight="1">
+    <row r="19" spans="1:32" ht="372.25" customHeight="1">
       <c r="A19" s="9">
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="H19" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="J19" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>270</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>271</v>
       </c>
       <c r="M19" s="9">
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="O19" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q19" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="R19" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="S19" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="T19" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="R19" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="S19" s="12" t="s">
+      <c r="U19" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="V19" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="U19" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="V19" s="12" t="s">
-        <v>923</v>
-      </c>
       <c r="W19" s="12" t="s">
-        <v>657</v>
-      </c>
-      <c r="X19" s="14"/>
+        <v>908</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>650</v>
+      </c>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
@@ -15789,108 +16229,112 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:31" ht="409.5" customHeight="1">
+    <row r="20" spans="1:32" ht="409.5" customHeight="1">
       <c r="A20" s="9">
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C20" s="9">
         <v>118</v>
       </c>
       <c r="D20" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="E20" s="12" t="s">
         <v>279</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>280</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="J20" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="K20" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="L20" s="12" t="s">
         <v>284</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>285</v>
       </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="P20" s="10" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="R20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="U20" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="V20" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="U20" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="V20" s="12" t="s">
-        <v>924</v>
-      </c>
       <c r="W20" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>971</v>
+        <v>909</v>
+      </c>
+      <c r="X20" s="12" t="s">
+        <v>653</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>853</v>
+        <v>956</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
       <c r="AE20" s="14" t="s">
-        <v>849</v>
+        <v>839</v>
+      </c>
+      <c r="AF20" s="14" t="s">
+        <v>836</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="333.25" customHeight="1">
+    <row r="21" spans="1:32" ht="333.25" customHeight="1">
       <c r="A21" s="9">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C21" s="9">
         <v>25</v>
@@ -15899,19 +16343,19 @@
         <v>128</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>68</v>
@@ -15920,538 +16364,556 @@
         <v>69</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="O21" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q21" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="P21" s="12" t="s">
+      <c r="R21" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="S21" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T21" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="R21" s="14" t="s">
+      <c r="U21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S21" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="T21" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U21" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="V21" s="14" t="s">
-        <v>925</v>
+      <c r="V21" s="12" t="s">
+        <v>655</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>972</v>
+        <v>894</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>764</v>
+        <v>957</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="AE21" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="409.5" customHeight="1">
+    <row r="22" spans="1:32" ht="409.5" customHeight="1">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>32</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="O22" s="14" t="s">
-        <v>608</v>
+        <v>656</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>1007</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q22" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="Q22" s="14" t="s">
+        <v>599</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="T22" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="R22" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="S22" s="12" t="s">
+      <c r="U22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="T22" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U22" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>926</v>
-      </c>
       <c r="W22" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>973</v>
+        <v>911</v>
+      </c>
+      <c r="X22" s="12" t="s">
+        <v>657</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>609</v>
+        <v>958</v>
       </c>
       <c r="Z22" s="14" t="s">
         <v>605</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>465</v>
+        <v>602</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>607</v>
+        <v>462</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AE22" s="14" t="s">
         <v>602</v>
       </c>
+      <c r="AF22" s="14" t="s">
+        <v>598</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" ht="409.5" customHeight="1">
+    <row r="23" spans="1:32" ht="409.5" customHeight="1">
       <c r="A23" s="9">
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C23" s="9">
         <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>32</v>
       </c>
       <c r="I23" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>314</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>315</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P23" s="24" t="s">
+        <v>843</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="R23" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="O23" s="24" t="s">
-        <v>856</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="Q23" s="12" t="s">
+      <c r="S23" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="V23" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="R23" s="14" t="s">
-        <v>604</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>863</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>859</v>
-      </c>
-      <c r="U23" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="V23" s="12" t="s">
-        <v>927</v>
-      </c>
       <c r="W23" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="X23" s="14" t="s">
-        <v>974</v>
+        <v>912</v>
+      </c>
+      <c r="X23" s="12" t="s">
+        <v>841</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>855</v>
+        <v>959</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>861</v>
+        <v>849</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>451</v>
+        <v>848</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>857</v>
+        <v>449</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>860</v>
+        <v>844</v>
       </c>
       <c r="AE23" s="14" t="s">
-        <v>858</v>
+        <v>847</v>
+      </c>
+      <c r="AF23" s="14" t="s">
+        <v>845</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="345.25" customHeight="1">
+    <row r="24" spans="1:32" ht="345.25" customHeight="1">
       <c r="A24" s="9">
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>321</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>322</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>323</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>324</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="O24" s="12" t="s">
+      <c r="Q24" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="P24" s="12" t="s">
+      <c r="R24" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="R24" s="12" t="s">
+      <c r="T24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="V24" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="S24" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>674</v>
-      </c>
-      <c r="U24" s="10" t="s">
+      <c r="W24" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="X24" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="V24" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>675</v>
-      </c>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="12" t="s">
+      <c r="AB24" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="AA24" s="12" t="s">
+      <c r="AC24" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD24" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AB24" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="AC24" s="12" t="s">
+      <c r="AE24" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AD24" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="AE24" s="12" t="s">
+      <c r="AF24" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="409.5" customHeight="1">
+    <row r="25" spans="1:32" ht="409.5" customHeight="1">
       <c r="A25" s="9">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>337</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>338</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>676</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>677</v>
+        <v>669</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>1010</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="Q25" s="12" t="s">
+        <v>671</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T25" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="R25" s="12" t="s">
+      <c r="U25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S25" s="12" t="s">
+      <c r="V25" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="W25" s="12" t="s">
+        <v>914</v>
+      </c>
+      <c r="X25" s="12" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y25" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="Z25" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="T25" s="12" t="s">
+      <c r="AA25" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AC25" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD25" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE25" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U25" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="V25" s="12" t="s">
-        <v>929</v>
-      </c>
-      <c r="W25" s="12" t="s">
-        <v>680</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>975</v>
-      </c>
-      <c r="Y25" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="Z25" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA25" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB25" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC25" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="26" spans="1:31" ht="386" customHeight="1">
+    <row r="26" spans="1:32" ht="386" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="H26" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I26" s="10" t="s">
+      <c r="J26" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="O26" s="12" t="s">
-        <v>682</v>
+        <v>674</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>1011</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="Q26" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S26" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="R26" s="12" t="s">
+      <c r="T26" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="S26" s="12" t="s">
+      <c r="U26" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>915</v>
+      </c>
+      <c r="X26" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z26" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="U26" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="V26" s="12" t="s">
-        <v>930</v>
-      </c>
-      <c r="W26" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="X26" s="12" t="s">
-        <v>976</v>
-      </c>
-      <c r="Y26" s="12" t="s">
+      <c r="AA26" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="Z26" s="12" t="s">
+      <c r="AB26" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="AA26" s="12" t="s">
+      <c r="AC26" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD26" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="AB26" s="12" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AE26" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="AD26" s="12" t="s">
+      <c r="AF26" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>365</v>
-      </c>
     </row>
-    <row r="27" spans="1:31" ht="409.5" customHeight="1">
+    <row r="27" spans="1:32" ht="409.5" customHeight="1">
       <c r="A27" s="9">
         <v>44</v>
       </c>
@@ -16465,433 +16927,447 @@
         <v>194</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>368</v>
-      </c>
       <c r="J27" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="O27" s="12" t="s">
-        <v>370</v>
+        <v>660</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>1012</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>371</v>
+        <v>982</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="R27" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="U27" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="12" t="s">
+        <v>962</v>
+      </c>
+      <c r="Z27" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA27" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U27" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="12" t="s">
-        <v>977</v>
-      </c>
-      <c r="Y27" s="12" t="s">
+      <c r="AB27" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="Z27" s="12" t="s">
+      <c r="AC27" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="AA27" s="12" t="s">
+      <c r="AD27" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE27" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="AB27" s="12" t="s">
+      <c r="AF27" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="AC27" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD27" s="12" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE27" s="12" t="s">
-        <v>378</v>
-      </c>
     </row>
-    <row r="28" spans="1:31" ht="358.25" customHeight="1">
+    <row r="28" spans="1:32" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>384</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="O28" s="12" t="s">
+        <v>680</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P28" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R28" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="P28" s="12" t="s">
+      <c r="S28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="U28" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="V28" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="X28" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z28" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="R28" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="T28" s="12" t="s">
+      <c r="AA28" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="U28" s="10" t="s">
-        <v>688</v>
-      </c>
-      <c r="V28" s="12" t="s">
-        <v>947</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>978</v>
-      </c>
-      <c r="Y28" s="12" t="s">
+      <c r="AB28" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="Z28" s="12" t="s">
+      <c r="AC28" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="AE28" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AA28" s="12" t="s">
+      <c r="AF28" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="AB28" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC28" s="12" t="s">
-        <v>873</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>392</v>
-      </c>
-      <c r="AE28" s="12" t="s">
-        <v>393</v>
-      </c>
     </row>
-    <row r="29" spans="1:31" ht="333.25" customHeight="1">
+    <row r="29" spans="1:32" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="K29" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="L29" s="10" t="s">
         <v>399</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>669</v>
-      </c>
-      <c r="O29" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="P29" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="R29" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="P29" s="12" t="s">
+      <c r="S29" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="T29" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="U29" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="W29" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="X29" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U29" s="10" t="s">
+      <c r="Y29" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="Z29" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="V29" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="W29" s="12" t="s">
+      <c r="AA29" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="X29" s="12" t="s">
-        <v>979</v>
-      </c>
-      <c r="Y29" s="12" t="s">
+      <c r="AB29" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="Z29" s="12" t="s">
+      <c r="AC29" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD29" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE29" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="AA29" s="12" t="s">
+      <c r="AF29" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="AB29" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC29" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AD29" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="AE29" s="12" t="s">
-        <v>413</v>
-      </c>
     </row>
-    <row r="30" spans="1:31" ht="409.5" customHeight="1">
+    <row r="30" spans="1:32" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="O30" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>1015</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="S30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V30" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="W30" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="Z30" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA30" s="14" t="s">
         <v>595</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U30" s="25" t="s">
-        <v>421</v>
-      </c>
-      <c r="V30" s="12" t="s">
-        <v>932</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>980</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>601</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>599</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>598</v>
-      </c>
       <c r="AB30" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="AC30" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="AC30" s="14" t="s">
-        <v>597</v>
-      </c>
       <c r="AD30" s="14" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="AE30" s="14" t="s">
         <v>596</v>
       </c>
+      <c r="AF30" s="14" t="s">
+        <v>592</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" ht="409.5" customHeight="1">
+    <row r="31" spans="1:32" ht="409.5" customHeight="1">
       <c r="A31" s="9">
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>52</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>692</v>
+        <v>684</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>1032</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>426</v>
+        <v>685</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="R31" s="14"/>
+        <v>424</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>425</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="10" t="s">
-        <v>693</v>
-      </c>
-      <c r="V31" s="12" t="s">
-        <v>948</v>
+      <c r="U31" s="14"/>
+      <c r="V31" s="10" t="s">
+        <v>686</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="X31" s="14"/>
+        <v>933</v>
+      </c>
+      <c r="X31" s="12" t="s">
+        <v>426</v>
+      </c>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
       <c r="AA31" s="14"/>
@@ -16899,537 +17375,555 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:31" ht="409.5" customHeight="1">
+    <row r="32" spans="1:32" ht="409.5" customHeight="1">
       <c r="A32" s="9">
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>698</v>
+        <v>690</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>1016</v>
       </c>
       <c r="P32" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="U32" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="W32" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="X32" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>966</v>
+      </c>
+      <c r="Z32" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="AA32" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="AB32" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC32" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD32" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE32" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF32" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S32" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="U32" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="V32" s="12" t="s">
-        <v>956</v>
-      </c>
-      <c r="W32" s="12" t="s">
-        <v>701</v>
-      </c>
-      <c r="X32" s="12" t="s">
-        <v>981</v>
-      </c>
-      <c r="Y32" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="Z32" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA32" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="AB32" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="AC32" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="AD32" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="AE32" s="12" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="33" spans="1:31" ht="409.5" customHeight="1">
+    <row r="33" spans="1:32" ht="409.5" customHeight="1">
       <c r="A33" s="9">
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="O33" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>1017</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q33" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="P33" s="12" t="s">
+      <c r="S33" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="U33" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="R33" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="S33" s="12" t="s">
+      <c r="V33" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="X33" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="T33" s="12" t="s">
+      <c r="AB33" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="U33" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="V33" s="12" t="s">
-        <v>954</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>955</v>
-      </c>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="12" t="s">
+      <c r="AC33" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="AA33" s="12" t="s">
+      <c r="AD33" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="AB33" s="12" t="s">
+      <c r="AE33" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="AC33" s="12" t="s">
+      <c r="AF33" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="AD33" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE33" s="12" t="s">
-        <v>454</v>
-      </c>
     </row>
-    <row r="34" spans="1:31" ht="409.5" customHeight="1">
+    <row r="34" spans="1:32" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="O34" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P34" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="Q34" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="T34" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="P34" s="12" t="s">
+      <c r="U34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V34" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="W34" s="10" t="s">
+        <v>918</v>
+      </c>
+      <c r="X34" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y34" s="14" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z34" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="AA34" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="AB34" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD34" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE34" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF34" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R34" s="12" t="s">
-        <v>460</v>
-      </c>
-      <c r="S34" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="U34" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>933</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>709</v>
-      </c>
-      <c r="X34" s="14" t="s">
-        <v>982</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="Z34" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA34" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="AB34" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="AC34" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD34" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE34" s="12" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="35" spans="1:31" ht="409.5" customHeight="1">
+    <row r="35" spans="1:32" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>472</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>910</v>
+        <v>985</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>1019</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q35" s="14" t="s">
-        <v>41</v>
+        <v>986</v>
+      </c>
+      <c r="Q35" s="12" t="s">
+        <v>469</v>
       </c>
       <c r="R35" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>591</v>
+        <v>41</v>
       </c>
       <c r="T35" s="14" t="s">
+        <v>587</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="V35" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="W35" s="10" t="s">
+        <v>935</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>936</v>
+      </c>
+      <c r="Y35" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="Z35" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="AA35" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="U35" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>950</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>951</v>
-      </c>
-      <c r="X35" s="12" t="s">
-        <v>983</v>
-      </c>
-      <c r="Y35" s="12" t="s">
+      <c r="AB35" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE35" s="14" t="s">
         <v>581</v>
       </c>
-      <c r="Z35" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="AA35" s="14" t="s">
+      <c r="AF35" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="AB35" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE35" s="14" t="s">
-        <v>587</v>
-      </c>
     </row>
-    <row r="36" spans="1:31" ht="409.5" customHeight="1">
+    <row r="36" spans="1:32" ht="409.5" customHeight="1">
       <c r="A36" s="9">
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>32</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>839</v>
+        <v>477</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>1020</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>482</v>
+        <v>987</v>
       </c>
       <c r="Q36" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="R36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="R36" s="12" t="s">
-        <v>840</v>
-      </c>
       <c r="S36" s="12" t="s">
-        <v>41</v>
+        <v>827</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U36" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="V36" s="13" t="s">
-        <v>934</v>
+      <c r="U36" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>479</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="X36" s="14" t="s">
-        <v>984</v>
+        <v>919</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>833</v>
       </c>
       <c r="Y36" s="14" t="s">
-        <v>847</v>
+        <v>969</v>
       </c>
       <c r="Z36" s="14" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>843</v>
-      </c>
-      <c r="AE36" s="34" t="s">
-        <v>841</v>
+        <v>829</v>
+      </c>
+      <c r="AE36" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="AF36" s="34" t="s">
+        <v>828</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="409.5" customHeight="1">
+    <row r="37" spans="1:32" ht="409.5" customHeight="1">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>52</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>714</v>
+        <v>988</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>1021</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q37" s="14"/>
+        <v>705</v>
+      </c>
+      <c r="Q37" s="12" t="s">
+        <v>483</v>
+      </c>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="10" t="s">
-        <v>715</v>
-      </c>
-      <c r="V37" s="13"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="10" t="s">
+        <v>706</v>
+      </c>
       <c r="W37" s="13"/>
-      <c r="X37" s="14"/>
+      <c r="X37" s="13"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="14"/>
       <c r="AA37" s="14"/>
@@ -17437,64 +17931,67 @@
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
+      <c r="AF37" s="14"/>
     </row>
-    <row r="38" spans="1:31" ht="409.5" customHeight="1">
+    <row r="38" spans="1:32" ht="409.5" customHeight="1">
       <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>32</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>720</v>
-      </c>
-      <c r="P38" s="14"/>
+        <v>710</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P38" s="12" t="s">
+        <v>711</v>
+      </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
-      <c r="U38" s="10" t="s">
-        <v>721</v>
-      </c>
-      <c r="V38" s="13"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="10" t="s">
+        <v>712</v>
+      </c>
       <c r="W38" s="13"/>
-      <c r="X38" s="14"/>
+      <c r="X38" s="13"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="14"/>
       <c r="AA38" s="14"/>
@@ -17502,432 +17999,447 @@
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
+      <c r="AF38" s="14"/>
     </row>
-    <row r="39" spans="1:31" ht="409.5" customHeight="1">
+    <row r="39" spans="1:32" ht="409.5" customHeight="1">
       <c r="A39" s="9">
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>875</v>
-      </c>
-      <c r="P39" s="14" t="s">
-        <v>445</v>
+        <v>493</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="P39" s="12" t="s">
+        <v>989</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>41</v>
+        <v>443</v>
       </c>
       <c r="R39" s="14" t="s">
         <v>41</v>
       </c>
       <c r="S39" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T39" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="T39" s="14" t="s">
+      <c r="U39" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U39" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="V39" s="13" t="s">
-        <v>953</v>
+      <c r="V39" s="10" t="s">
+        <v>494</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>876</v>
-      </c>
-      <c r="X39" s="14"/>
+        <v>938</v>
+      </c>
+      <c r="X39" s="13" t="s">
+        <v>862</v>
+      </c>
       <c r="Y39" s="14"/>
-      <c r="Z39" s="14" t="s">
-        <v>880</v>
-      </c>
+      <c r="Z39" s="14"/>
       <c r="AA39" s="14" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>563</v>
+        <v>865</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>877</v>
+        <v>559</v>
       </c>
       <c r="AD39" s="14" t="s">
-        <v>878</v>
+        <v>863</v>
       </c>
       <c r="AE39" s="14" t="s">
-        <v>874</v>
+        <v>864</v>
+      </c>
+      <c r="AF39" s="14" t="s">
+        <v>861</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="318.25" customHeight="1">
+    <row r="40" spans="1:32" ht="318.25" customHeight="1">
       <c r="A40" s="9">
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>727</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P40" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="S40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="U40" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>720</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>920</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y40" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="Z40" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="AE40" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="AF40" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="R40" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>566</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="V40" s="13" t="s">
-        <v>935</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="X40" s="14" t="s">
-        <v>985</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="Z40" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="AA40" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="AB40" s="14" t="s">
-        <v>563</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="AD40" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="AE40" s="14" t="s">
-        <v>562</v>
-      </c>
     </row>
-    <row r="41" spans="1:31" ht="404.25" customHeight="1">
+    <row r="41" spans="1:32" ht="404.25" customHeight="1">
       <c r="A41" s="9">
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C41" s="9">
         <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>773</v>
+        <v>721</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>1024</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q41" s="14" t="s">
-        <v>775</v>
+        <v>763</v>
+      </c>
+      <c r="Q41" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="R41" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="S41" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S41" s="14" t="s">
-        <v>776</v>
-      </c>
       <c r="T41" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="U41" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="V41" s="13" t="s">
-        <v>936</v>
+        <v>766</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="V41" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="W41" s="13" t="s">
-        <v>911</v>
-      </c>
-      <c r="X41" s="14"/>
+        <v>921</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>896</v>
+      </c>
       <c r="Y41" s="14"/>
-      <c r="Z41" s="14" t="s">
-        <v>778</v>
-      </c>
+      <c r="Z41" s="14"/>
       <c r="AA41" s="14" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="AB41" s="14" t="s">
-        <v>563</v>
+        <v>769</v>
       </c>
       <c r="AC41" s="14" t="s">
-        <v>777</v>
+        <v>559</v>
       </c>
       <c r="AD41" s="14" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="AE41" s="14" t="s">
-        <v>780</v>
+        <v>769</v>
+      </c>
+      <c r="AF41" s="14" t="s">
+        <v>770</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="398.75" customHeight="1">
+    <row r="42" spans="1:32" ht="398.75" customHeight="1">
       <c r="A42" s="9">
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>735</v>
+        <v>725</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>1033</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q42" s="14" t="s">
-        <v>572</v>
+        <v>726</v>
+      </c>
+      <c r="Q42" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="R42" s="14" t="s">
+        <v>568</v>
+      </c>
+      <c r="S42" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S42" s="14" t="s">
+      <c r="T42" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="U42" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>922</v>
+      </c>
+      <c r="X42" s="13" t="s">
         <v>569</v>
       </c>
-      <c r="T42" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="U42" s="10" t="s">
-        <v>737</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>937</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
-      <c r="Z42" s="14" t="s">
-        <v>568</v>
-      </c>
+      <c r="Z42" s="14"/>
       <c r="AA42" s="14" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="AC42" s="14" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="AD42" s="14" t="s">
         <v>570</v>
       </c>
       <c r="AE42" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF42" s="14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="387" customHeight="1">
+    <row r="43" spans="1:32" ht="387" customHeight="1">
       <c r="A43" s="9">
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>741</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>514</v>
+        <v>732</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>1034</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q43" s="14"/>
+        <v>510</v>
+      </c>
+      <c r="Q43" s="12" t="s">
+        <v>478</v>
+      </c>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
-      <c r="U43" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="V43" s="13"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="10" t="s">
+        <v>733</v>
+      </c>
       <c r="W43" s="13"/>
-      <c r="X43" s="14"/>
+      <c r="X43" s="13"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="14"/>
       <c r="AA43" s="14"/>
@@ -17935,28 +18447,29 @@
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
     </row>
-    <row r="44" spans="1:31" ht="409.5" customHeight="1">
+    <row r="44" spans="1:32" ht="409.5" customHeight="1">
       <c r="A44" s="9">
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>32</v>
@@ -17971,307 +18484,316 @@
         <v>35</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>744</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>745</v>
+        <v>735</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>1025</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>482</v>
+        <v>736</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="R44" s="14" t="s">
+        <v>478</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="S44" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S44" s="12" t="s">
-        <v>746</v>
-      </c>
-      <c r="T44" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="U44" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="V44" s="13" t="s">
-        <v>938</v>
+      <c r="T44" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="U44" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>516</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>912</v>
-      </c>
-      <c r="X44" s="14" t="s">
-        <v>959</v>
+        <v>923</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>897</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>913</v>
+        <v>944</v>
       </c>
       <c r="Z44" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB44" s="14" t="s">
         <v>575</v>
       </c>
-      <c r="AA44" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="AB44" s="14" t="s">
-        <v>577</v>
-      </c>
       <c r="AC44" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="AE44" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF44" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="AD44" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="AE44" s="14" t="s">
-        <v>580</v>
-      </c>
     </row>
-    <row r="45" spans="1:31" ht="409.5" customHeight="1">
+    <row r="45" spans="1:32" ht="409.5" customHeight="1">
       <c r="A45" s="9">
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>133</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>805</v>
+        <v>738</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>1026</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q45" s="14" t="s">
-        <v>41</v>
+        <v>795</v>
+      </c>
+      <c r="Q45" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="R45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S45" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="T45" s="14" t="s">
+      <c r="S45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="U45" s="10" t="s">
-        <v>749</v>
-      </c>
-      <c r="V45" s="13" t="s">
-        <v>939</v>
+      <c r="T45" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="U45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V45" s="10" t="s">
+        <v>740</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>801</v>
-      </c>
-      <c r="X45" s="33" t="s">
-        <v>986</v>
+        <v>924</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>791</v>
       </c>
       <c r="Y45" s="33" t="s">
-        <v>804</v>
-      </c>
-      <c r="Z45" s="14" t="s">
-        <v>803</v>
+        <v>971</v>
+      </c>
+      <c r="Z45" s="33" t="s">
+        <v>794</v>
       </c>
       <c r="AA45" s="14" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="AB45" s="14" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="AD45" s="14" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
       <c r="AE45" s="14" t="s">
-        <v>800</v>
+        <v>797</v>
+      </c>
+      <c r="AF45" s="14" t="s">
+        <v>790</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="409.5" customHeight="1">
+    <row r="46" spans="1:32" ht="409.5" customHeight="1">
       <c r="A46" s="9">
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>35</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>793</v>
-      </c>
-      <c r="O46" s="12" t="s">
         <v>783</v>
       </c>
+      <c r="O46" s="10" t="s">
+        <v>1027</v>
+      </c>
       <c r="P46" s="12" t="s">
-        <v>445</v>
+        <v>773</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>784</v>
-      </c>
-      <c r="R46" s="14" t="s">
+        <v>443</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="S46" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S46" s="14" t="s">
-        <v>786</v>
-      </c>
       <c r="T46" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="U46" s="10" t="s">
-        <v>787</v>
-      </c>
-      <c r="V46" s="13" t="s">
-        <v>940</v>
+        <v>776</v>
+      </c>
+      <c r="U46" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>777</v>
       </c>
       <c r="W46" s="13" t="s">
+        <v>925</v>
+      </c>
+      <c r="X46" s="13" t="s">
+        <v>772</v>
+      </c>
+      <c r="Y46" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="Z46" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="AA46" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="X46" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="Y46" s="14" t="s">
+      <c r="AB46" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="Z46" s="14" t="s">
-        <v>792</v>
-      </c>
-      <c r="AA46" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="AB46" s="14" t="s">
-        <v>563</v>
-      </c>
       <c r="AC46" s="14" t="s">
-        <v>789</v>
+        <v>559</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="AE46" s="14" t="s">
-        <v>788</v>
+        <v>780</v>
+      </c>
+      <c r="AF46" s="14" t="s">
+        <v>778</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="337.25" customHeight="1">
+    <row r="47" spans="1:32" ht="337.25" customHeight="1">
       <c r="A47" s="9">
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>32</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>219</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>538</v>
+        <v>666</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>1028</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>41</v>
+        <v>535</v>
       </c>
       <c r="R47" s="12" t="s">
         <v>41</v>
@@ -18282,97 +18804,102 @@
       <c r="T47" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="U47" s="10" t="s">
+      <c r="U47" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V47" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="W47" s="10" t="s">
+        <v>926</v>
+      </c>
+      <c r="X47" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y47" s="12" t="s">
+        <v>973</v>
+      </c>
+      <c r="Z47" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AB47" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="V47" s="10" t="s">
-        <v>941</v>
-      </c>
-      <c r="W47" s="10" t="s">
+      <c r="AC47" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="X47" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="Y47" s="12" t="s">
+      <c r="AD47" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="Z47" s="12" t="s">
+      <c r="AE47" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="AA47" s="12" t="s">
+      <c r="AF47" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="AB47" s="12" t="s">
-        <v>545</v>
-      </c>
-      <c r="AC47" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="AD47" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="AE47" s="12" t="s">
-        <v>548</v>
-      </c>
     </row>
-    <row r="48" spans="1:31" ht="409.5" customHeight="1">
+    <row r="48" spans="1:32" ht="409.5" customHeight="1">
       <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>52</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>751</v>
-      </c>
-      <c r="O48" s="14"/>
-      <c r="P48" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q48" s="14"/>
+        <v>742</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="12" t="s">
+        <v>478</v>
+      </c>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
-      <c r="U48" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="V48" s="13"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="10" t="s">
+        <v>743</v>
+      </c>
       <c r="W48" s="13"/>
-      <c r="X48" s="14"/>
+      <c r="X48" s="13"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="14"/>
       <c r="AA48" s="14"/>
@@ -18380,33 +18907,33 @@
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
+      <c r="AF48" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="A Proposed Model-driven Approach to Manage Architectural Technical Debt Life Cycle _x000a_"/>
-    <hyperlink ref="W4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
-    <hyperlink ref="W8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
-    <hyperlink ref="O11" r:id="rId4" display="In this research we present a novel approach, based on architecture reverse engineering and compliance checking, for identifying ATD hotspots in Android apps _x000a_1) Android architecture guideline extraction (official Android guidelines, Academic research, grey literature, developers interviews)_x000a__x000a_2) Android reference architecture establishment. _x000a_- ADL (Architecture Description Language) Acme_x000a_- OCL (Object Constraint Language)_x000a_3) Reverse engineering of implemented architecture _x000a_this step is constituted by the automated reverse engineering of the most prominent Android architectural components (i.e. Activities, Services, Content providers, and Broadcast receivers) of an Android application and the relations between such building blocks in terms of connectors and ports _x000a_ACME-Generator tool (https://github.com/arsadeghi/ACME-Generator)_x000a__x000a_4) Compliance checking _x000a_model comparison tool EMFCompare (https://www.eclipse.org/emf/compare/)_x000a__x000a_5) Quantitative assessment of compliance violations _x000a_The output of this step is the set of Android ATD hotspots, i.e. the components of the implemented architecture which contain the highest number of non-adherence items w.r.t. the Android reference architecture. "/>
-    <hyperlink ref="Y12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
-    <hyperlink ref="W23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
-    <hyperlink ref="O25" r:id="rId7" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
-    <hyperlink ref="W30" r:id="rId8" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
-    <hyperlink ref="D32" r:id="rId9"/>
-    <hyperlink ref="W32" r:id="rId10" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
-    <hyperlink ref="D33" r:id="rId11"/>
-    <hyperlink ref="D34" r:id="rId12" display="Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini,"/>
-    <hyperlink ref="D35" r:id="rId13"/>
-    <hyperlink ref="N41" r:id="rId14" display="Analyse a set of application from Cast database system tWe analyzed these applications us- ing CAST’s Application Intelligence Platform (AIP),7 which analyzes an en- tire application using more than 1,200 rules to detect violations of good ar- chitectural and coding practice. We drew these rules from software engi- neering literature, repositories such as the Common Weakness Enumeration (CWE; cwe.mitre.org), online discus- sion groups of structural quality prob- lems, and customer experience as re- ported from defect logs and application architects. As an example, security- related violations would include SQL injection, cross-site scripting, buffer overflows, and other violations from the CWE. _x000a_"/>
-    <hyperlink ref="V4" r:id="rId15" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
-    <hyperlink ref="V8" r:id="rId16" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
-    <hyperlink ref="V23" r:id="rId17" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
-    <hyperlink ref="V30" r:id="rId18" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
-    <hyperlink ref="V32" r:id="rId19" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
-    <hyperlink ref="X12" r:id="rId20" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="X4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="X8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="P11" r:id="rId4" display="In this research we present a novel approach, based on architecture reverse engineering and compliance checking, for identifying ATD hotspots in Android apps _x000a_1) Android architecture guideline extraction (official Android guidelines, Academic research, grey literature, developers interviews)_x000a__x000a_2) Android reference architecture establishment. _x000a_- ADL (Architecture Description Language) Acme_x000a_- OCL (Object Constraint Language)_x000a_3) Reverse engineering of implemented architecture _x000a_this step is constituted by the automated reverse engineering of the most prominent Android architectural components (i.e. Activities, Services, Content providers, and Broadcast receivers) of an Android application and the relations between such building blocks in terms of connectors and ports _x000a_ACME-Generator tool (https://github.com/arsadeghi/ACME-Generator)_x000a__x000a_4) Compliance checking _x000a_model comparison tool EMFCompare (https://www.eclipse.org/emf/compare/)_x000a__x000a_5) Quantitative assessment of compliance violations _x000a_The output of this step is the set of Android ATD hotspots, i.e. the components of the implemented architecture which contain the highest number of non-adherence items w.r.t. the Android reference architecture. "/>
+    <hyperlink ref="Z12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="X23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="X30" r:id="rId7" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="D32" r:id="rId8"/>
+    <hyperlink ref="X32" r:id="rId9" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="D33" r:id="rId10"/>
+    <hyperlink ref="D34" r:id="rId11" display="Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini,"/>
+    <hyperlink ref="D35" r:id="rId12"/>
+    <hyperlink ref="N41" r:id="rId13" display="Analyse a set of application from Cast database system tWe analyzed these applications us- ing CAST’s Application Intelligence Platform (AIP),7 which analyzes an en- tire application using more than 1,200 rules to detect violations of good ar- chitectural and coding practice. We drew these rules from software engi- neering literature, repositories such as the Common Weakness Enumeration (CWE; cwe.mitre.org), online discus- sion groups of structural quality prob- lems, and customer experience as re- ported from defect logs and application architects. As an example, security- related violations would include SQL injection, cross-site scripting, buffer overflows, and other violations from the CWE. _x000a_"/>
+    <hyperlink ref="W4" r:id="rId14" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="W8" r:id="rId15" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="W23" r:id="rId16" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="W30" r:id="rId17" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="W32" r:id="rId18" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="Y12" r:id="rId19" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="P25" r:id="rId20" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25600" windowHeight="15080"/>
+    <workbookView xWindow="-38400" yWindow="-3000" windowWidth="38400" windowHeight="24000"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1031">
   <si>
     <t>Paper Id</t>
   </si>
@@ -70,22 +70,6 @@
   </si>
   <si>
     <t>Kind of reasearch</t>
-  </si>
-  <si>
-    <t>Q1 (Measure) - yes - what?</t>
-  </si>
-  <si>
-    <t>Q2 (Monitoring) - yes - how?</t>
-  </si>
-  <si>
-    <t>Q3 (Techniques and Tools -) yes - what?</t>
-  </si>
-  <si>
-    <t>Q4 (Calculate the cost) - yes - how?</t>
   </si>
   <si>
     <t>Extra (Conclusion)</t>
@@ -195,13 +179,7 @@
     <t>The authors propose an approuch to identify ATD using documents and models without to get access to source code of the software.</t>
   </si>
   <si>
-    <t>There is calculation formula about cost of ATD</t>
-  </si>
-  <si>
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: good</t>
-  </si>
-  <si>
-    <t xml:space="preserve">good due to the authors propose an approuch to identify ATD wihout static code analysis. </t>
   </si>
   <si>
     <t>Future work will include convolutional neural networks to train a model to understand diagrams made in PowerPoint or another tool and saved as an image, such as IMEAV [19]. We also plan to include a recommendation system to suggests repayment strategies under certain conditions. Different meta- models for storing ATD should be reviewed. Finally, we will also look into including automatic text extraction methods for audio/video recordings to reduce human interaction.</t>
@@ -272,13 +250,6 @@
 [13] N.A. Ernst, S. Bellomo, I. Ozkaya, R.L. Nord, I. Gorton, Measure it? Manage it? Ignore it? Software practitioners and technical debt, in: Proceedings of the 2015 10th Joint Meeting on Foundations of Software Engineering, New York, NY, USA, 2015, pp. 50–60.</t>
   </si>
   <si>
-    <t xml:space="preserve">This paper used quantitative and qualitative research to evaluate the proposed framework. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The paper provides a way to identify and estimate ATD effort in hours using the modularity of components
- </t>
-  </si>
-  <si>
     <t xml:space="preserve">To estimate the effort to fix the ATD is necessary, an evaluation of developers. So, it is necessary for a manual process to evaluate the efort.
 </t>
   </si>
@@ -306,16 +277,6 @@
   <si>
     <t>It was computed 109 open source projects from Qualitas Corpus We evaluated the ADI also according to these categories and the size of the projects in terms of number of packages.   </t>
-  </si>
-  <si>
-    <t>The authors cited good references, tools, and important related works about Technical Debt Index. A particular highlight to SonarQube. 
-It was defined as a set of groups of Architectural Smell detection using Arcan Tool.
-The authors defined a set of formulas to represent Architectural Debt Index.
-The authors shown a statistical analysis of the Architectural Debt Index proposed comparing with Qualitas Corpos.
-The authors have detailed a good research design.</t>
-  </si>
-  <si>
-    <t>The authors defined a set of formulas to represent Architectural Debt Index.</t>
   </si>
   <si>
     <t xml:space="preserve">The data validation should be performed in a real industrial project. </t>
@@ -365,15 +326,6 @@
   </si>
   <si>
     <t xml:space="preserve">It was not shared the data collection </t>
-  </si>
-  <si>
-    <t>The authors cited good references and important related works about Technical Debt analysis and effort. - -Show the analysis process.  Show type of architecture issue identification. Show evaluation of Architectural Roots using som e simple statistical analysis. -</t>
-  </si>
-  <si>
-    <t>The paper shows the files in architecture root and calculate the effort spend to fix the architecture roots using interview of developers.</t>
   </si>
   <si>
     <t xml:space="preserve">Only one project in short time of 9 months. </t>
@@ -856,9 +808,6 @@
     <t>problem characterization: yes, bibliographic review: no, data collection: yes, hypothesis: no, experimentation: no, results: no, final: weak</t>
   </si>
   <si>
-    <t xml:space="preserve">Weak. The idea of the study about ATDI approuch hotspot identification in Android application is good, but there is no scientific rigor in the paper. </t>
-  </si>
-  <si>
     <t>The study is a short paper with only two pages.</t>
   </si>
   <si>
@@ -895,9 +844,6 @@
   </si>
   <si>
     <t>problem characterization: no, bibliographic review: no, data collection: no, hypothesis: no, experimentation: no, results: no, final: poor</t>
-  </si>
-  <si>
-    <t>Weak. The paper is more technical and describe a tool called sonargraph and its importance to check the software architecture. However, it is not a scientific study.</t>
   </si>
   <si>
     <t>Martini and Bosch 2017</t>
@@ -1082,12 +1028,6 @@
     <t>There is no link to dataset of evaluation</t>
   </si>
   <si>
-    <t>problem characterization: yes, bibliographic review: no, data collection: yes, hypothesis: no, experimentation: yes, results: yes final: regular</t>
-  </si>
-  <si>
-    <t>Good, due to evaluate architectural debt with tools in a set of real java systems.</t>
-  </si>
-  <si>
     <t>The study should be share the dataset used in evaluation of tools.</t>
   </si>
   <si>
@@ -1675,9 +1615,6 @@
 </t>
   </si>
   <si>
-    <t>Weak, but the tool is useful to check important problems from software architecture such as measure software modularity, detect architecture anti-patern and quantify the maintenance cost.</t>
-  </si>
-  <si>
     <t>The paper has only two pages.</t>
   </si>
   <si>
@@ -1725,12 +1662,6 @@
     <t>The study shoud be provide a repliaction kit</t>
   </si>
   <si>
-    <t>roblem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes, results: yes, final: good</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>There is no ADTM process, there is no how to calculate ATD cust</t>
   </si>
   <si>
@@ -1770,9 +1701,6 @@
   </si>
   <si>
     <t>There is no repliaction kit to reproduce the study</t>
-  </si>
-  <si>
-    <t>In this paper, we present a novel approach for visualizing the debt and the interest together. Such visualization helps the stakeholders identifying and prioritizing ATD, by under- standing the impact of different ATD items (specifically non- allowed dependencies) on efficiency. The validation interviews with the stakeholders at VCG confirmed that such tool would be valuable for architects and other stakeholders. It is important for calculate the performance communication between the components in a automotive domain, but can be used in a network distributed system such as a microservice system.</t>
   </si>
   <si>
     <t>Since there is only one studied system, the resulting method- ology is entirely based on such studied case and could there- fore potentially be limited to similarly designed architectures, e.g. where an intended architecture is realized as logical components deployed to ECUs.</t>
@@ -1823,9 +1751,6 @@
   </si>
   <si>
     <t>There is no data collected to compare the used tools. There is no Design research and there is no an experiment to evaluate the tools using a set of data.</t>
-  </si>
-  <si>
-    <t>roblem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no, results: yes, final: regular</t>
   </si>
   <si>
     <t>The study should be created an experimentation using real systems to compare each tool evaluated.</t>
@@ -2067,9 +1992,6 @@
     <t>problem characterization: yes, bibliographic review: yes, data collection: no, hypothesis: no, experimentation: no, results: yes, final: weak</t>
   </si>
   <si>
-    <t>Good. Due to the applied approuch to identificy the security TD and there is a formula to calculate the Principal of Security TD</t>
-  </si>
-  <si>
     <t>The is no validation in a real software system to proof the proposed approuch</t>
   </si>
   <si>
@@ -2112,9 +2034,6 @@
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no, results: yes, final: good</t>
   </si>
   <si>
-    <t>Good, due to demonstrate how important is the effort waste with TD (36%) and the study showed that Software Architecture and Requirements are the aspects most important because waste more time to fix TD.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. </t>
   </si>
   <si>
@@ -2150,9 +2069,6 @@
   </si>
   <si>
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: no, results: yes, final: good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Good, due to Architectural Technical Debt's findings as an essential kind of TD that happens in the context of embedded systems.</t>
   </si>
   <si>
     <t>The study did not show how to measure the TD.</t>
@@ -2424,9 +2340,6 @@
     <t>problem characterization: yes, bibliographic review: yes, data collection: no, hypothesis:no, experimentation: no, results: no, final: weak</t>
   </si>
   <si>
-    <t>Weak, due to the author did not study about ATD</t>
-  </si>
-  <si>
     <t>There is no data or experimentation about the study. So, this is a theorical study.</t>
   </si>
   <si>
@@ -2477,9 +2390,6 @@
 [11] J.-L. Letouzey, “The SQALE Method for Managing Technical Debt Definition Document,” 31-Mar-2016. [Online]. Available: http://www.sqale.org/wp-content/uploads/2016/08/SQALE-Method- EN-V1-1.pdf. [Accessed: 04-Feb-2017].</t>
   </si>
   <si>
-    <t>Good due to the metrics grouped by the authros</t>
-  </si>
-  <si>
     <t>There is no ATD index or specific metrics to architectural technical debt</t>
   </si>
   <si>
@@ -2521,13 +2431,7 @@
 [10] Sappidi, J., Curtis, B., &amp; Szynkarski, A. (2010). CRASH Report: CAST Report on Application Software Health—2011/2012. New York: CAST Software.</t>
   </si>
   <si>
-    <t>Regular, due to even calculating the TD cost, there is NO ATD specif cost</t>
-  </si>
-  <si>
     <t>Describe a kind of ATD, more spefically scalability ATD and the authors proposed a lightweight approach to manage scalibity debt. The case study conducted a method to identify, estimate and prioritize scalability debt.</t>
-  </si>
-  <si>
-    <t>Good, due to the authors proposed a method to identify, estimate and prioritize a kind of ATD, more specifically scalability debt.</t>
   </si>
   <si>
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes, results: yes, final: good</t>
@@ -2551,9 +2455,6 @@
   </si>
   <si>
     <t>The is no ATDI issues explicited on the study</t>
-  </si>
-  <si>
-    <t>Good, because there is ATD debt recognized in survey like: Dependence violations, Complex architecture desgin, different parterns and policies, dependence to external resource and lack of reusabililite in design</t>
   </si>
   <si>
     <t>There is no explanations or details about TD issues used in survey.</t>
@@ -2627,9 +2528,6 @@
     <t>Another future investigation is toward a cross validation of the rank- ing of the architectural smells with the data on the bugs reported in the affected components considering also the historic information of the maintenance activities on the smelly components.</t>
   </si>
   <si>
-    <t>Good. The authros proposed an index to check the criticality of architectural smell using pagerank.</t>
-  </si>
-  <si>
     <t>The is no asses of effort waste to fix Architectural Smell</t>
   </si>
   <si>
@@ -2665,9 +2563,6 @@
   </si>
   <si>
     <t>The authro used a tool that analysis only java source code. There is no method to calculate the ATD cost.</t>
-  </si>
-  <si>
-    <t>Good, due to show an approuch to identify ATD via architecture smells using code analysis and it is possible to monitore the evolution of version regard to architecture smells</t>
   </si>
   <si>
     <t>Architectural Smells @@ -2706,12 +2601,6 @@
   </si>
   <si>
     <t>The graphs in this paper are not meant to represent precise data coming from a measurement system. Therefore the steepness of the curves and the projections might vary in real context. The magnitude for the contribution of each factor is also to be further assessed. However, we offer the recognition of factors that are not necessarily possible to be measured and therefore discovered by quantitative analysis, such as urgency and uncertainty. The results are qualitatively developed through a thorough research process and using a wide amount of qualitative data coming from more than 30 informants from 7 sites and with different roles, which allowed as to compare and test statements among themselves. Furthermore, architecture documentation has been evaluated as well as secondary data. This has allowed us to apply source triangulation [10].</t>
-  </si>
-  <si>
-    <t>Good, due to the authors proposed a taxonomy of ATD accumatlion</t>
-  </si>
-  <si>
-    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes results: yes, final: good</t>
   </si>
   <si>
     <t xml:space="preserve">R. L. Nord, I. Ozkaya, P. Kruchten, and M. Gonzalez-Rojas, “In Search of a Metric for Managing Architectural Technical Debt,” in 2012 Joint Working IEEE/IFIP WICSA and ECSA, 2012, pp. 91–100
@@ -8338,9 +8227,6 @@
     </r>
   </si>
   <si>
-    <t>Good, due to the study show an approuch to identify the ATD, Monitoring and Calculate the effort to fix it.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Also, the method can be supported by a tool: possible future work is related to the development of support to input the estimation data to be combined with the modularity tool in order to make the estimation more cost efficient. </t>
   </si>
   <si>
@@ -8361,12 +8247,6 @@
   </si>
   <si>
     <t>The next step, already in the authors’ plan, consists of conducting a version of this investigation involving a large sample of respondents from a large set of companies, in order to further strengthen the current case study-specific findings with a broad, quantitative investigation. Another important next step is to analyze the customer-related information used during the prioritization activity in order to understand how they are compared to the ATD effects in order to prioritize ATD refactoring against feature development.</t>
-  </si>
-  <si>
-    <t>Good, due to the authors showed a list of important aspects regarding to ATD causes such as Double effort, Big delivers, Code changes, complement tests, quality issues, hidden TD, Wrong estimation, Contagius ATD, Developer idling</t>
-  </si>
-  <si>
-    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: no results: yes, final: regular</t>
   </si>
   <si>
     <t>There is no identification of ATD itens</t>
@@ -8534,9 +8414,6 @@
 Tool: AIP by CAST</t>
   </si>
   <si>
-    <t>Good, due to the authors proposed an effetive way to calculate the principal of TD based on catalog of rules to detect the violations of qualities attributes like performance, securtiy, robustness, trasferability and changeabilite. So, those characteristics are so close to architectural technical debt.</t>
-  </si>
-  <si>
     <t>The authors performed a study in a real case using a real it company catalog of rules of architectural and code patterns with real systems. The authors proposed a was to calculate the principal of TD in maney value.</t>
   </si>
   <si>
@@ -8645,9 +8522,6 @@
 </t>
   </si>
   <si>
-    <t>Regular, due to the authors highlited that maintanability and evoluation are TD topics with lack studies in services and micro-services based systems.</t>
-  </si>
-  <si>
     <t>The survey desig did not show details about the kind of systems and there is no details about the companies that the participants work.</t>
   </si>
   <si>
@@ -8669,9 +8543,6 @@
     <t>We plan to replicate the case study in more industrial projects with different sizes and from various domains. We also plan to customize the approach in order to make it suitable for an agile context, with appropriate tool support.</t>
   </si>
   <si>
-    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes final: good</t>
-  </si>
-  <si>
     <t>The process should be automated or seme-autormated using a specific tool to aid the architect. Some users (e.g., new developers) may not be familiar with ADs and ATD items, though the templates provided. The preparation of ADs may take time when the ADs are not documented, especially when the ADs were made a long time ago as the knowledge about ADs tends to vaporize.</t>
   </si>
   <si>
@@ -8679,9 +8550,6 @@
   </si>
   <si>
     <t>The process is manual and it is necessary a participation of the architect to plan and evaluate each release. So, the principal and the interest are estimated manually according interpretation of specialist about ATDI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great. The authors proposed an approuch to identify and measure (in man-days) ATD itens via architectural decisions during the redesing process. Thus, the ATD can be identified and calculate without to have access to source code of the project. </t>
   </si>
   <si>
     <t>To generalize our findings, we plan on replicating this study on a broader scale. Looking at SATD comments that can be traced to architectural divergences resulted effective in resolving them, thus, we plan to further investigate this with better architectural recovery and more advanced SATD detection approaches, potentially in an automated manner.</t>
@@ -8690,9 +8558,6 @@
     <t>[3] I. T. Bowman, R. C. Holt, and N. V. Brewster. Linux as a case study: Its extracted software architecture. In Proceedings of the 21st International Conference on Software Engineering, ICSE ’99, pages 555–563. ACM, 1999.
 [7] A. E. Hassan and R. C. Holt. Using development history sticky notes to understand software architecture. In Proceedings of the 12th International Workshop on Program Comprehension, ICPC ’04, pages 183–192. IEEE, 2004.
 [15] G. C. Murphy, D. Notkin, and K. Sullivan. Software reflexion models: Bridging the gap between source and high-level models. Software Engineering Notes, 20(4):18–28, 1995.</t>
-  </si>
-  <si>
-    <t>Good, due te the paper show a approuch to identify architectural divergences using Self Admited Technical Debt using comments from source code.</t>
   </si>
   <si>
     <t>The authors recovery the software architecture compoents from ArgoUML analysing the documents and source code. So, it is can be shared with others papers</t>
@@ -8799,17 +8664,11 @@
     <t>Future work aims at increasing the precision of these estimations with more precise measures. We have to keep in mind that ATD management is prevalently a risk assessment practice, and until better prediction models have been created to predict the cost of architecture anti-patterns (as confirmed in a recent systematic review [8]), the architects’ decisions are based on gut feeling and estimations based on their subjective experiences [20]. However, structuring such process of decision making by applying the method AnaConDebt, has been proven useful in order to make the decision around ATD refactoring based to concrete factors that are causing the interest to be paid in the future, and therefore it would explicit and increase the architects’ knowledge for making informed decision on the ATD refactoring cases.</t>
   </si>
   <si>
-    <t>Great, due to The authors proposed a method to identify and calculate the principal and interest of ATDI. The case study was conducted in 6 large IT company with real data in real IT projects. Besides, the research process was based on Design Science Research.</t>
-  </si>
-  <si>
     <t xml:space="preserve">[1] Abdeen, H., Ducasse, S., and Sahraoui, H., 2011. Modularization Metrics: Assessing Package Organization in Legacy Large Object-Oriented Software. In Proceedings of the Proceedings of the 2011 18th Working Conference on Reverse Engineering (2011), IEEE Computer Society, 2086275, 394-398. DOI= http://dx.doi.org/10.1109/wcre.2011.55.
 </t>
   </si>
   <si>
     <t>Based on the results and findings of this work, we plan to do further research in the following directions. First, we intend to validate the correlation between modularity metrics and ANMCC with Java projects. Second, it will be interesting to define new system-wide modularity metrics or adapt existing modularity metrics defined in other perspectives (e.g., complex networks [14]), and investigate the correlation between the metrics and ATD indicators. We expect that the new modularity metrics can improve the accuracy or take less effort of predicting ANMCC. Third, it is practically valuable to develop plugins to calculate the modularity metrics IPCI and IPGF for IDE tools (e.g., in VS2012 or Eclipse).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great, The authors proposed a new ATD index called IPCI (Index of package changing impact) based on modularity metrics that is no necessary to get access to source code log commits. Besides, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release. </t>
   </si>
   <si>
     <t>The authors conducted an experimentation with Opens Source Software witth real data. The findings showed that the modularity metrics IPCI and IPGF can be used to indicate ATD.</t>
@@ -8841,9 +8700,6 @@
     <t>The authors conducted a case study in a real IT company to check the benefits of refactoring of software architecture before and after to check the quantitative and qualitative benefits of paydown ATDI. So the study showed that reducing architecture debt has had a positive influence on productivity and quality measures for the company.</t>
   </si>
   <si>
-    <t>Good, due to this is the first real-world empirical study of architecture debt over a long period of time with the goal of demonstrating the benefit of improving a product’s software architecture by paying down architecture debt (through refactoring). Besites, All of the architecture analyses presented in this paper are fully automated and so they can provide exactly the data needed for such measurement and benchmarking</t>
-  </si>
-  <si>
     <t>The calculus of cost of ATDI depends on the participation of the developers from each feature and bug analysed on case study.</t>
   </si>
   <si>
@@ -8859,9 +8715,6 @@
   </si>
   <si>
     <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes, results: yes, final: great</t>
-  </si>
-  <si>
-    <t>Great, due to the authors propose a model - Active Hotspot - that can be used to detect and monitor the emergence and evolution of software degradation by tracking how files and their relations are changed with each issue, such as adding a new feature or fixing a bug.</t>
   </si>
   <si>
     <t>The authors proposed a model to check how is behavior of software architecture during software evolution using hotspot to define the most important part the software that should be treated with more carefully. Besides, there is an empirical study using Apache ecosystem to validate the proposed model.</t>
@@ -8911,13 +8764,7 @@
 </t>
   </si>
   <si>
-    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: yes, experimentation: yes results: yes, final: great</t>
-  </si>
-  <si>
     <t>Our future work consists of a longitudinal study wherein we do four things: First, we will track the architectural integrity of this system on a regular basis. That is, we plan to analyze periodic snapshots of SoftServe’s system, to see whether the refactoring is being done correctly, and whether it is eroding over time. Second, we plan to continue to track the frequency of reported defects, and their connection to the files in SS1. Third we plan to continue to track the frequency of changes to the files of SS1. Finally, we plan to track the lines of code committed to fix defects and to make changes. This longitudinal data capture and analysis will allow us to validate the expectations and opinions collected in the present study, and to build better predictive models for SoftServe in the future. We are also in the process of conducting other industrial case studies, to show the repeatability of our methods in different industrial contexts.</t>
-  </si>
-  <si>
-    <t>Great, due to the authors proposed a methdo to identify, measure and calculate the ATDI using DRSpace based on analysis of a sequency of version from a software in a real case study in a large IT company.</t>
   </si>
   <si>
     <t>The authors proposed an approuch to identify, measure, calculate the ATDI via case study in a large IT company analysing a sequence of versions via Dspace method</t>
@@ -9006,9 +8853,6 @@
     <t>The cost of each architectural element, the number of dependencies impacted by each architectural change, and the overall change propagation metric of the system may all be seen as proxies for complexity, which is assumed to affect the cost of change.
 change propagation metric (Pc) defined by MacCormack [10]
 DSM (Design Structure Matrix)</t>
-  </si>
-  <si>
-    <t>Great, due to the authors proposed a way to identify ATD during software evolution and calculate the cost of ATD according software architecture components created or edited.</t>
   </si>
   <si>
     <t>Feature and architectural element slicing.
@@ -9273,9 +9117,6 @@
     <t>The authors proposed a method do identify and measure ATD using the technique DRSapce and architecture debt to generate a HPC Matrix and identify a ranked list of archdebt incluind its cost fo fix them.</t>
   </si>
   <si>
-    <t>Good, due to the authors showed a method do identify and measure of ATD using a framework applied in a real case using a set of Apache project using analsys of sequence of releases</t>
-  </si>
-  <si>
     <r>
       <t>First, since we have only examined 7 projects and all of these are Apache projects, we can not guarantee that our results will generalize to other projects with di</t>
     </r>
@@ -9355,9 +9196,6 @@
   </si>
   <si>
     <t>Due to the study used only Open Source Software from Apache Project, it was not possible to calculate the effort to tix the ATD in terms of time or money. The calculation of cost proposed used the amount of lines necessary to fix the ATD.</t>
-  </si>
-  <si>
-    <t>good, due to The authors studied a real case for three years and collect data from two large systems about effort and spend the maintenance. The authors analyzed the SVC repository, the bug tracker related to commits, the files changes, and refactoring propagation cust to maintain the systems.</t>
   </si>
   <si>
     <t>No architectural tools and metrics were applied, even though most reported challenges and issues like service cutting were related to software architecture. This may indicate the im- portance of Architectural Technical Debt (ATD) management for Microservices. 
@@ -9372,9 +9210,6 @@
 [18] D. Taibi and V. Lenarduzzi, “On the Definition of Microservice Bad Smells,” IEEE Software, vol. 35, no. 3, pp. 56–62, may 2018.
 [19] V. Lenarduzzi and D. Taibi, “Microservices, Continuous Architecture, and Technical Debt Interest: An Empirical Study,” in Euromicro SEAA, no. June, Prague, Czech Republic, 2018.
 [20] J. Bogner, J. Fritzsch, S. Wagner, and A. Zimmermann, “Limiting Technical Debt with Maintainability Assurance – An Industry Survey on Used Techniques and Differences with Service- and Microservice- Based Systems,” in Proceedings of the 2018 International Conference on Technical Debt - TechDebt ’18. New York, New York, USA: ACM Press, 2018, pp. 125–133.</t>
-  </si>
-  <si>
-    <t>Good, due to the authors conducted a survey to check the perception of architectural technical debt in micro-services, Despite most reported issues being related to Architectural Technical Debt (ATD), our participants did not apply any architectural or service-oriented tools and metrics. So, it is a good oportunite to study ATD in microservices.</t>
   </si>
   <si>
     <t>The amount of participantes were 17 stakeholders from 10 diferent companies from Germany. Maybe a small number to represent the perception for all companies.</t>
@@ -12555,6 +12390,157 @@
  #
  tools:"No"
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">good; due to the authors propose an approuch to identify ATD wihout static code analysis. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great;The paper provides a way to identify and estimate ATD effort in hours using the modularity of components
+ </t>
+  </si>
+  <si>
+    <t>Good; the authors defined a set of formulas to represent Architectural Debt Index.</t>
+  </si>
+  <si>
+    <t>Good; the paper shows the files in architecture root and calculate the effort spend to fix the architecture roots using interview of developers.</t>
+  </si>
+  <si>
+    <t>Good; due to this is the first real-world empirical study of architecture debt over a long period of time with the goal of demonstrating the benefit of improving a product’s software architecture by paying down architecture debt (through refactoring). Besites, All of the architecture analyses presented in this paper are fully automated and so they can provide exactly the data needed for such measurement and benchmarking</t>
+  </si>
+  <si>
+    <t>Great; due to the authors propose a model - Active Hotspot - that can be used to detect and monitor the emergence and evolution of software degradation by tracking how files and their relations are changed with each issue, such as adding a new feature or fixing a bug.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great; The authors proposed a new ATD index called IPCI (Index of package changing impact) based on modularity metrics that is no necessary to get access to source code log commits. Besides, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release. </t>
+  </si>
+  <si>
+    <t>Great; due to The authors proposed a method to identify and calculate the principal and interest of ATDI. The case study was conducted in 6 large IT company with real data in real IT projects. Besides, the research process was based on Design Science Research.</t>
+  </si>
+  <si>
+    <t>Good; due to the authors showed a method do identify and measure of ATD using a framework applied in a real case using a set of Apache project using analsys of sequence of releases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak; The idea of the study about ATDI approuch hotspot identification in Android application is good, but there is no scientific rigor in the paper. </t>
+  </si>
+  <si>
+    <t>Weak; The paper is more technical and describe a tool called sonargraph and its importance to check the software architecture. However, it is not a scientific study.</t>
+  </si>
+  <si>
+    <t>Good; due to evaluate architectural debt with tools in a set of real java systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great; The authors proposed an approuch to identify and measure (in man-days) ATD itens via architectural decisions during the redesing process. Thus, the ATD can be identified and calculate without to have access to source code of the project. </t>
+  </si>
+  <si>
+    <t>Good;due to the authors proposed a taxonomy of ATD accumatlion</t>
+  </si>
+  <si>
+    <t>Good; due to the study show an approuch to identify the ATD, Monitoring and Calculate the effort to fix it.</t>
+  </si>
+  <si>
+    <t>Great; due to the authors proposed a methdo to identify, measure and calculate the ATDI using DRSpace based on analysis of a sequency of version from a software in a real case study in a large IT company.</t>
+  </si>
+  <si>
+    <t>Good; due to the authors showed a list of important aspects regarding to ATD causes such as Double effort, Big delivers, Code changes, complement tests, quality issues, hidden TD, Wrong estimation, Contagius ATD, Developer idling</t>
+  </si>
+  <si>
+    <t>Good; due to show an approuch to identify ATD via architecture smells using code analysis and it is possible to monitore the evolution of version regard to architecture smells</t>
+  </si>
+  <si>
+    <t>Great; due to the authors proposed a way to identify ATD during software evolution and calculate the cost of ATD according software architecture components created or edited.</t>
+  </si>
+  <si>
+    <t>Weak; but the tool is useful to check important problems from software architecture such as measure software modularity, detect architecture anti-patern and quantify the maintenance cost.</t>
+  </si>
+  <si>
+    <t>good;</t>
+  </si>
+  <si>
+    <t>Good; In this paper, we present a novel approach for visualizing the debt and the interest together. Such visualization helps the stakeholders identifying and prioritizing ATD, by under- standing the impact of different ATD items (specifically non- allowed dependencies) on efficiency. The validation interviews with the stakeholders at VCG confirmed that such tool would be valuable for architects and other stakeholders. It is important for calculate the performance communication between the components in a automotive domain, but can be used in a network distributed system such as a microservice system.</t>
+  </si>
+  <si>
+    <t>good; due to The authors studied a real case for three years and collect data from two large systems about effort and spend the maintenance. The authors analyzed the SVC repository, the bug tracker related to commits, the files changes, and refactoring propagation cust to maintain the systems.</t>
+  </si>
+  <si>
+    <t>Good; The authros proposed an index to check the criticality of architectural smell using pagerank.</t>
+  </si>
+  <si>
+    <t>Good;Due to the applied approuch to identificy the security TD and there is a formula to calculate the Principal of Security TD</t>
+  </si>
+  <si>
+    <t>Good; due to demonstrate how important is the effort waste with TD (36%) and the study showed that Software Architecture and Requirements are the aspects most important because waste more time to fix TD.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good;due to Architectural Technical Debt's findings as an essential kind of TD that happens in the context of embedded systems.</t>
+  </si>
+  <si>
+    <t>Good; because there is ATD debt recognized in survey like: Dependence violations, Complex architecture desgin, different parterns and policies, dependence to external resource and lack of reusabililite in design</t>
+  </si>
+  <si>
+    <t>Weak; due to the author did not study about how to identify, measure or calculate ATD</t>
+  </si>
+  <si>
+    <t>Good; due to the authors conducted a survey to check the perception of architectural technical debt in micro-services, Despite most reported issues being related to Architectural Technical Debt (ATD), our participants did not apply any architectural or service-oriented tools and metrics. So, it is a good oportunite to study ATD in microservices.</t>
+  </si>
+  <si>
+    <t>Good; due to the metrics grouped by the authros</t>
+  </si>
+  <si>
+    <t>Good; due to the authors proposed an effetive way to calculate the principal of TD based on catalog of rules to detect the violations of qualities attributes like performance, securtiy, robustness, trasferability and changeabilite. So, those characteristics are so close to architectural technical debt.</t>
+  </si>
+  <si>
+    <t>Regular; due to even calculating the TD cost, there is NO ATD specif cost</t>
+  </si>
+  <si>
+    <t>Good;due to the authors proposed a method to identify, estimate and prioritize a kind of ATD, more specifically scalability debt.</t>
+  </si>
+  <si>
+    <t>Good;due te the paper show a approuch to identify architectural divergences using Self Admited Technical Debt using comments from source code.</t>
+  </si>
+  <si>
+    <t>Regular; due to the authors highlited that maintanability and evoluation are TD topics with lack studies in services and micro-services based systems.</t>
+  </si>
+  <si>
+    <t>Weak; due to the author did not study about ATD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: good,extra:
+This paper used quantitative and qualitative research to evaluate the proposed framework. </t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: good,extra:The authors cited good references, tools, and important related works about Technical Debt Index. A particular highlight to SonarQube. 
+It was defined as a set of groups of Architectural Smell detection using Arcan Tool.
+The authors defined a set of formulas to represent Architectural Debt Index.
+The authors shown a statistical analysis of the Architectural Debt Index proposed comparing with Qualitas Corpos.
+The authors have detailed a good research design.</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: yes, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: good,extra:The authors cited good references and important related works about Technical Debt analysis and effort. + +Show the analysis process.  Show type of architecture issue identification. Show evaluation of Architectural Roots using som e simple statistical analysis. +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">problem characterization: yes, bibliographic review: no, data collection: no, hypothesis: no, experimentation: no, results: no, final: Weak,extra:Weak. Actually, this is a technical paper with only two pages, and there is no scientific rigor.
+</t>
+  </si>
+  <si>
+    <t>problem characterization: yes, bibliographic review: no, data collection: yes, hypothesis: no, experimentation: yes, results: yes, final: regular</t>
+  </si>
+  <si>
+    <t>There is no calculation formula about cost of ATD</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
   </si>
 </sst>
 </file>
@@ -14404,11 +14390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O8" sqref="O8"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14485,7 +14471,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>978</v>
+        <v>927</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>14</v>
@@ -14494,49 +14480,49 @@
         <v>15</v>
       </c>
       <c r="R1" s="43" t="s">
+        <v>1027</v>
+      </c>
+      <c r="S1" s="43" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T1" s="43" t="s">
+        <v>1029</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>1030</v>
+      </c>
+      <c r="V1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="W1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="X1" s="43" t="s">
+        <v>883</v>
+      </c>
+      <c r="Y1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="Z1" s="43" t="s">
+        <v>891</v>
+      </c>
+      <c r="AA1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="AB1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="AC1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="43" t="s">
-        <v>934</v>
-      </c>
-      <c r="Y1" s="43" t="s">
+      <c r="AD1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="43" t="s">
-        <v>942</v>
-      </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AE1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AF1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="AC1" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD1" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="409" customHeight="1">
@@ -14544,91 +14530,91 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3">
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
       <c r="H2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="M2" s="7">
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>612</v>
+        <v>579</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>990</v>
+        <v>939</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>974</v>
+        <v>923</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>927</v>
+        <v>876</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>613</v>
+        <v>580</v>
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AB2" s="4" t="s">
-        <v>44</v>
+        <v>1026</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>46</v>
+        <v>984</v>
       </c>
       <c r="AE2" s="8"/>
       <c r="AF2" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="409.5" customHeight="1">
@@ -14636,86 +14622,86 @@
         <v>2</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3" s="11">
         <v>13</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F3" s="9">
         <v>2017</v>
       </c>
       <c r="G3" s="39" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>877</v>
+        <v>826</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>614</v>
+        <v>581</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>991</v>
+        <v>940</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>975</v>
+        <v>924</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>615</v>
+        <v>582</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>928</v>
+        <v>877</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
       <c r="AC3" s="10" t="s">
-        <v>61</v>
+        <v>1021</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>62</v>
+        <v>985</v>
       </c>
       <c r="AE3" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="AF3" s="13"/>
     </row>
@@ -14724,97 +14710,97 @@
         <v>3</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11">
         <v>13</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F4" s="9">
         <v>2018</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M4" s="11">
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>992</v>
+        <v>941</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>976</v>
+        <v>925</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>616</v>
+        <v>583</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>617</v>
+        <v>584</v>
       </c>
       <c r="W4" s="12" t="s">
-        <v>930</v>
+        <v>879</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>929</v>
+        <v>878</v>
       </c>
       <c r="Y4" s="14" t="s">
-        <v>945</v>
+        <v>894</v>
       </c>
       <c r="Z4" s="14" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>72</v>
+        <v>1022</v>
       </c>
       <c r="AD4" s="12" t="s">
-        <v>73</v>
+        <v>986</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="409.5" customHeight="1">
@@ -14822,93 +14808,93 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>611</v>
+        <v>578</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F5" s="9">
         <v>2018</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M5" s="11">
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>618</v>
+        <v>585</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>993</v>
+        <v>942</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>619</v>
+        <v>586</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>620</v>
+        <v>587</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="V5" s="12" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="W5" s="12" t="s">
-        <v>621</v>
+        <v>588</v>
       </c>
       <c r="X5" s="12" t="s">
-        <v>888</v>
+        <v>837</v>
       </c>
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
       <c r="AA5" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>88</v>
+        <v>1023</v>
       </c>
       <c r="AD5" s="12" t="s">
-        <v>89</v>
+        <v>987</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="282" customHeight="1">
@@ -14916,97 +14902,97 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C6" s="11">
         <v>8</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9">
         <v>2019</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>870</v>
+        <v>819</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="M6" s="11">
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>622</v>
+        <v>589</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1030</v>
+        <v>979</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>977</v>
+        <v>926</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="R6" s="10" t="s">
-        <v>815</v>
+        <v>772</v>
       </c>
       <c r="S6" s="14" t="s">
-        <v>816</v>
+        <v>773</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>931</v>
+        <v>880</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>623</v>
+        <v>590</v>
       </c>
       <c r="Y6" s="12" t="s">
-        <v>946</v>
+        <v>895</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>814</v>
+        <v>771</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>817</v>
+        <v>774</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>818</v>
+        <v>988</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>819</v>
+        <v>775</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="409.5" customHeight="1">
@@ -15014,97 +15000,97 @@
         <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F7" s="9">
         <v>2019</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M7" s="9">
         <v>12</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>1029</v>
+        <v>978</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>979</v>
+        <v>928</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>624</v>
+        <v>591</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>889</v>
+        <v>838</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>947</v>
+        <v>896</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>826</v>
+        <v>781</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>825</v>
+        <v>780</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>822</v>
+        <v>778</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>823</v>
+        <v>779</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>824</v>
+        <v>989</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>820</v>
+        <v>776</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>821</v>
+        <v>777</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="409.5" customHeight="1">
@@ -15112,97 +15098,97 @@
         <v>9</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C8" s="9">
         <v>58</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F8" s="9">
         <v>2014</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M8" s="9">
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>1031</v>
+        <v>980</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>627</v>
+        <v>594</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>813</v>
+        <v>770</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V8" s="12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="W8" s="12" t="s">
-        <v>903</v>
+        <v>852</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>628</v>
+        <v>595</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>948</v>
+        <v>897</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>810</v>
+        <v>767</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>812</v>
+        <v>769</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>809</v>
+        <v>990</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>811</v>
+        <v>768</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="409.5" customHeight="1">
@@ -15210,97 +15196,97 @@
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C9" s="9">
         <v>34</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F9" s="9">
         <v>2016</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>878</v>
+        <v>827</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>994</v>
+        <v>943</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>799</v>
+        <v>758</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U9" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="V9" s="12" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="W9" s="12" t="s">
-        <v>904</v>
+        <v>853</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>804</v>
+        <v>763</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>949</v>
+        <v>898</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>890</v>
+        <v>839</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>803</v>
+        <v>762</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>802</v>
+        <v>761</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>800</v>
+        <v>759</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>806</v>
+        <v>991</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>801</v>
+        <v>760</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>805</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="409.5" customHeight="1">
@@ -15308,97 +15294,97 @@
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C10" s="11">
         <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F10" s="9">
         <v>2016</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="M10" s="11">
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>851</v>
+        <v>803</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>995</v>
+        <v>944</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="T10" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>806</v>
+      </c>
+      <c r="V10" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="U10" s="12" t="s">
+      <c r="W10" s="12" t="s">
         <v>854</v>
       </c>
-      <c r="V10" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>905</v>
-      </c>
       <c r="X10" s="12" t="s">
-        <v>852</v>
+        <v>804</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>950</v>
+        <v>899</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>853</v>
+        <v>805</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>855</v>
+        <v>807</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>859</v>
+        <v>810</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>823</v>
+        <v>779</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>856</v>
+        <v>992</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>857</v>
+        <v>808</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>858</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="359.25" customHeight="1">
@@ -15406,97 +15392,97 @@
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C11" s="11">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="F11" s="9">
         <v>2018</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="M11" s="9">
         <v>2</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>996</v>
+        <v>945</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>631</v>
+        <v>598</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T11" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U11" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V11" s="12" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="W11" s="12" t="s">
-        <v>906</v>
+        <v>855</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>951</v>
+        <v>900</v>
       </c>
       <c r="Z11" s="12" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="AC11" s="12" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AD11" s="12" t="s">
-        <v>168</v>
+        <v>993</v>
       </c>
       <c r="AE11" s="12" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="395.25" customHeight="1">
@@ -15504,93 +15490,91 @@
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>632</v>
+        <v>599</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="M12" s="11">
         <v>2</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>997</v>
+        <v>946</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>633</v>
+        <v>600</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>634</v>
+        <v>601</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>635</v>
+        <v>602</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V12" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="W12" s="14"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="12" t="s">
-        <v>952</v>
+        <v>901</v>
       </c>
       <c r="Z12" s="12" t="s">
-        <v>636</v>
+        <v>603</v>
       </c>
       <c r="AA12" s="12" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="12" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="AD12" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE12" s="12" t="s">
-        <v>181</v>
-      </c>
+        <v>994</v>
+      </c>
+      <c r="AE12" s="12"/>
       <c r="AF12" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="409.5" customHeight="1">
@@ -15598,73 +15582,73 @@
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C13" s="9">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="F13" s="9">
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>637</v>
+        <v>604</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>875</v>
+        <v>824</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>638</v>
+        <v>605</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>639</v>
+        <v>606</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>998</v>
+        <v>947</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="T13" s="12" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="U13" s="12" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="V13" s="10" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="W13" s="12" t="s">
-        <v>937</v>
+        <v>886</v>
       </c>
       <c r="X13" s="12" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
@@ -15680,97 +15664,97 @@
         <v>17</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C14" s="18">
         <v>16</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="F14" s="9">
         <v>2016</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="M14" s="11">
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>980</v>
+        <v>929</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>999</v>
+        <v>948</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>640</v>
+        <v>607</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U14" s="12" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>907</v>
+        <v>856</v>
       </c>
       <c r="X14" s="12" t="s">
-        <v>641</v>
+        <v>608</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>953</v>
+        <v>902</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AA14" s="26" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="AB14" s="27" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="AC14" s="27" t="s">
-        <v>209</v>
+        <v>1025</v>
       </c>
       <c r="AD14" s="27" t="s">
-        <v>210</v>
+        <v>995</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="AF14" s="28" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="409.5" customHeight="1">
@@ -15778,97 +15762,97 @@
         <v>21</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="C15" s="20">
         <v>36</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="F15" s="9">
         <v>2015</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="M15" s="11">
         <v>10</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>1000</v>
+        <v>949</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="U15" s="12" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="W15" s="12" t="s">
-        <v>899</v>
+        <v>848</v>
       </c>
       <c r="X15" s="12" t="s">
-        <v>891</v>
+        <v>840</v>
       </c>
       <c r="Y15" s="14" t="s">
-        <v>943</v>
+        <v>892</v>
       </c>
       <c r="Z15" s="14" t="s">
-        <v>892</v>
+        <v>841</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>787</v>
+        <v>748</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>788</v>
+        <v>749</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>785</v>
+        <v>40</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>789</v>
+        <v>996</v>
       </c>
       <c r="AE15" s="14" t="s">
-        <v>786</v>
+        <v>747</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>784</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="320.25" customHeight="1">
@@ -15876,97 +15860,97 @@
         <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C16" s="9">
         <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F16" s="9">
         <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="M16" s="9">
         <v>8</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>1001</v>
+        <v>950</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="U16" s="12" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="V16" s="12" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="W16" s="12" t="s">
-        <v>900</v>
+        <v>849</v>
       </c>
       <c r="X16" s="12" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="Y16" s="14" t="s">
-        <v>954</v>
+        <v>903</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>610</v>
+        <v>577</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>893</v>
+        <v>842</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>609</v>
+        <v>545</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>608</v>
+        <v>997</v>
       </c>
       <c r="AE16" s="14" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
       <c r="AF16" s="14" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="409" customHeight="1">
@@ -15974,97 +15958,97 @@
         <v>27</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F17" s="9">
         <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>879</v>
+        <v>828</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>1002</v>
+        <v>951</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>642</v>
+        <v>609</v>
       </c>
       <c r="Q17" s="12" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="R17" s="12" t="s">
-        <v>981</v>
+        <v>930</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>643</v>
+        <v>610</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>901</v>
+        <v>850</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="Y17" s="14" t="s">
-        <v>955</v>
+        <v>904</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>609</v>
+        <v>545</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>744</v>
+        <v>998</v>
       </c>
       <c r="AE17" s="14" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="AF17" s="32" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="409.5" customHeight="1">
@@ -16072,73 +16056,73 @@
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M18" s="9">
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>644</v>
+        <v>611</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>1003</v>
+        <v>952</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="12" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="W18" s="12" t="s">
-        <v>902</v>
+        <v>851</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
@@ -16154,73 +16138,73 @@
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>584</v>
+        <v>555</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>876</v>
+        <v>825</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="M19" s="9">
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>1004</v>
+        <v>953</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="Q19" s="12" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="R19" s="10" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>908</v>
+        <v>857</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>650</v>
+        <v>617</v>
       </c>
       <c r="Y19" s="14"/>
       <c r="Z19" s="14"/>
@@ -16236,97 +16220,97 @@
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="C20" s="9">
         <v>118</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>651</v>
+        <v>618</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>1005</v>
+        <v>954</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>652</v>
+        <v>619</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="W20" s="12" t="s">
-        <v>909</v>
+        <v>858</v>
       </c>
       <c r="X20" s="12" t="s">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="Y20" s="14" t="s">
-        <v>956</v>
+        <v>905</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>838</v>
+        <v>791</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>839</v>
+        <v>792</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>835</v>
+        <v>779</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>837</v>
+        <v>999</v>
       </c>
       <c r="AE20" s="14" t="s">
-        <v>839</v>
+        <v>792</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>836</v>
+        <v>790</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="333.25" customHeight="1">
@@ -16334,97 +16318,97 @@
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C21" s="9">
         <v>25</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>654</v>
+        <v>621</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>1006</v>
+        <v>955</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="Q21" s="12" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="S21" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="U21" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>655</v>
+        <v>622</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>910</v>
+        <v>859</v>
       </c>
       <c r="X21" s="14" t="s">
-        <v>894</v>
+        <v>843</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>957</v>
+        <v>906</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>752</v>
+        <v>533</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>751</v>
+        <v>1000</v>
       </c>
       <c r="AE21" s="14" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="AF21" s="14" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
     </row>
     <row r="22" spans="1:32" ht="409.5" customHeight="1">
@@ -16432,97 +16416,97 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>880</v>
+        <v>829</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>656</v>
+        <v>623</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>1007</v>
+        <v>956</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="Q22" s="14" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="U22" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="W22" s="12" t="s">
-        <v>911</v>
+        <v>860</v>
       </c>
       <c r="X22" s="12" t="s">
-        <v>657</v>
+        <v>624</v>
       </c>
       <c r="Y22" s="14" t="s">
-        <v>958</v>
+        <v>907</v>
       </c>
       <c r="Z22" s="14" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>603</v>
+        <v>1001</v>
       </c>
       <c r="AE22" s="14" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
       <c r="AF22" s="14" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="409.5" customHeight="1">
@@ -16530,97 +16514,97 @@
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="C23" s="9">
         <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>1008</v>
+        <v>957</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>843</v>
+        <v>796</v>
       </c>
       <c r="Q23" s="12" t="s">
-        <v>658</v>
+        <v>625</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="S23" s="14" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="T23" s="14" t="s">
-        <v>850</v>
+        <v>802</v>
       </c>
       <c r="U23" s="12" t="s">
-        <v>846</v>
+        <v>798</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>912</v>
+        <v>861</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>841</v>
+        <v>794</v>
       </c>
       <c r="Y23" s="14" t="s">
-        <v>959</v>
+        <v>908</v>
       </c>
       <c r="Z23" s="14" t="s">
-        <v>842</v>
+        <v>795</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>849</v>
+        <v>801</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>848</v>
+        <v>800</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>844</v>
+        <v>1002</v>
       </c>
       <c r="AE23" s="14" t="s">
-        <v>847</v>
+        <v>799</v>
       </c>
       <c r="AF23" s="14" t="s">
-        <v>845</v>
+        <v>797</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="345.25" customHeight="1">
@@ -16628,93 +16612,93 @@
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>659</v>
+        <v>626</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>1009</v>
+        <v>958</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="12" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="U24" s="12" t="s">
-        <v>667</v>
+        <v>634</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>913</v>
+        <v>862</v>
       </c>
       <c r="X24" s="12" t="s">
-        <v>668</v>
+        <v>635</v>
       </c>
       <c r="Y24" s="14"/>
       <c r="Z24" s="14"/>
       <c r="AA24" s="12" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="AC24" s="12" t="s">
-        <v>179</v>
+        <v>1024</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>333</v>
+        <v>1003</v>
       </c>
       <c r="AE24" s="12" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="AF24" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="409.5" customHeight="1">
@@ -16722,97 +16706,97 @@
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>669</v>
+        <v>636</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>1010</v>
+        <v>959</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>670</v>
+        <v>637</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>671</v>
+        <v>638</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="U25" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V25" s="10" t="s">
-        <v>672</v>
+        <v>639</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>914</v>
+        <v>863</v>
       </c>
       <c r="X25" s="12" t="s">
-        <v>673</v>
+        <v>640</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>960</v>
+        <v>909</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>348</v>
+        <v>1004</v>
       </c>
       <c r="AE25" s="12" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="AF25" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="386" customHeight="1">
@@ -16820,97 +16804,97 @@
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>881</v>
+        <v>830</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>674</v>
+        <v>641</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>1011</v>
+        <v>960</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="Q26" s="12" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>677</v>
+        <v>644</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>915</v>
+        <v>864</v>
       </c>
       <c r="X26" s="12" t="s">
-        <v>678</v>
+        <v>645</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>961</v>
+        <v>910</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>347</v>
+        <v>545</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>362</v>
+        <v>1005</v>
       </c>
       <c r="AE26" s="12" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="AF26" s="12" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="409.5" customHeight="1">
@@ -16918,93 +16902,93 @@
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C27" s="9">
         <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>660</v>
+        <v>627</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>1012</v>
+        <v>961</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>982</v>
+        <v>931</v>
       </c>
       <c r="Q27" s="12" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="U27" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V27" s="10" t="s">
-        <v>661</v>
+        <v>628</v>
       </c>
       <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="12" t="s">
-        <v>962</v>
+        <v>911</v>
       </c>
       <c r="Z27" s="12" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AA27" s="12" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="AC27" s="12" t="s">
-        <v>374</v>
+        <v>533</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>348</v>
+        <v>1004</v>
       </c>
       <c r="AE27" s="12" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="AF27" s="12" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="358.25" customHeight="1">
@@ -17012,97 +16996,97 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>679</v>
+        <v>646</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>882</v>
+        <v>831</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>680</v>
+        <v>647</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>1013</v>
+        <v>962</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="U28" s="12" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>681</v>
+        <v>648</v>
       </c>
       <c r="W28" s="12" t="s">
-        <v>932</v>
+        <v>881</v>
       </c>
       <c r="X28" s="12" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="Y28" s="12" t="s">
-        <v>963</v>
+        <v>912</v>
       </c>
       <c r="Z28" s="12" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="AA28" s="12" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="AC28" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>860</v>
+        <v>1006</v>
       </c>
       <c r="AE28" s="12" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="333.25" customHeight="1">
@@ -17110,97 +17094,97 @@
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>662</v>
+        <v>629</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>1014</v>
+        <v>963</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="Q29" s="12" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="U29" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V29" s="10" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="W29" s="12" t="s">
-        <v>916</v>
+        <v>865</v>
       </c>
       <c r="X29" s="12" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="Y29" s="12" t="s">
-        <v>964</v>
+        <v>913</v>
       </c>
       <c r="Z29" s="12" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="AA29" s="12" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="AC29" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>348</v>
+        <v>1004</v>
       </c>
       <c r="AE29" s="12" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="AF29" s="12" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="409.5" customHeight="1">
@@ -17208,97 +17192,97 @@
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>589</v>
+        <v>560</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>1015</v>
+        <v>964</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="Q30" s="12" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V30" s="25" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="W30" s="12" t="s">
-        <v>917</v>
+        <v>866</v>
       </c>
       <c r="X30" s="12" t="s">
-        <v>664</v>
+        <v>631</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>965</v>
+        <v>914</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="AC30" s="14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>593</v>
+        <v>1007</v>
       </c>
       <c r="AE30" s="14" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="AF30" s="14" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:32" ht="409.5" customHeight="1">
@@ -17306,67 +17290,67 @@
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>586</v>
+        <v>557</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>684</v>
+        <v>651</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>685</v>
+        <v>652</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
       <c r="V31" s="10" t="s">
-        <v>686</v>
+        <v>653</v>
       </c>
       <c r="W31" s="12" t="s">
-        <v>933</v>
+        <v>882</v>
       </c>
       <c r="X31" s="12" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
@@ -17382,97 +17366,97 @@
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>687</v>
+        <v>654</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>871</v>
+        <v>820</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>689</v>
+        <v>656</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>1016</v>
+        <v>965</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="Q32" s="12" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="R32" s="12" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="U32" s="12" t="s">
-        <v>692</v>
+        <v>659</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>941</v>
+        <v>890</v>
       </c>
       <c r="X32" s="12" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>966</v>
+        <v>915</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="AC32" s="12" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>436</v>
+        <v>1008</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>437</v>
+        <v>415</v>
       </c>
       <c r="AF32" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="409.5" customHeight="1">
@@ -17480,93 +17464,93 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>439</v>
+        <v>417</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>1017</v>
+        <v>966</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="Q33" s="12" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="U33" s="12" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>698</v>
+        <v>665</v>
       </c>
       <c r="W33" s="12" t="s">
-        <v>939</v>
+        <v>888</v>
       </c>
       <c r="X33" s="12" t="s">
-        <v>940</v>
+        <v>889</v>
       </c>
       <c r="Y33" s="14"/>
       <c r="Z33" s="14"/>
       <c r="AA33" s="12" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="AB33" s="12" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="AC33" s="12" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="AD33" s="12" t="s">
-        <v>450</v>
+        <v>1009</v>
       </c>
       <c r="AE33" s="12" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="AF33" s="12" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="409.5" customHeight="1">
@@ -17574,97 +17558,97 @@
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>699</v>
+        <v>666</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>872</v>
+        <v>821</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>700</v>
+        <v>667</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>983</v>
+        <v>932</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>1018</v>
+        <v>967</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>984</v>
+        <v>933</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="W34" s="10" t="s">
-        <v>918</v>
+        <v>867</v>
       </c>
       <c r="X34" s="10" t="s">
-        <v>701</v>
+        <v>668</v>
       </c>
       <c r="Y34" s="14" t="s">
-        <v>967</v>
+        <v>916</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>895</v>
+        <v>844</v>
       </c>
       <c r="AA34" s="12" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="AB34" s="12" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>463</v>
+        <v>1010</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="AF34" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="409.5" customHeight="1">
@@ -17672,97 +17656,97 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>702</v>
+        <v>669</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>868</v>
+        <v>817</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>985</v>
+        <v>934</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>1019</v>
+        <v>968</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>986</v>
+        <v>935</v>
       </c>
       <c r="Q35" s="12" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="R35" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S35" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T35" s="14" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="V35" s="10" t="s">
-        <v>703</v>
+        <v>670</v>
       </c>
       <c r="W35" s="10" t="s">
-        <v>935</v>
+        <v>884</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>936</v>
+        <v>885</v>
       </c>
       <c r="Y35" s="12" t="s">
-        <v>968</v>
+        <v>917</v>
       </c>
       <c r="Z35" s="12" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="AA35" s="14" t="s">
-        <v>582</v>
+        <v>553</v>
       </c>
       <c r="AB35" s="14" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="AD35" s="14" t="s">
-        <v>580</v>
+        <v>1011</v>
       </c>
       <c r="AE35" s="14" t="s">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>583</v>
+        <v>554</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="409.5" customHeight="1">
@@ -17770,97 +17754,97 @@
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>887</v>
+        <v>836</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>1020</v>
+        <v>969</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>987</v>
+        <v>936</v>
       </c>
       <c r="Q36" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>827</v>
+        <v>782</v>
       </c>
       <c r="T36" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="W36" s="13" t="s">
-        <v>919</v>
+        <v>868</v>
       </c>
       <c r="X36" s="13" t="s">
-        <v>833</v>
+        <v>788</v>
       </c>
       <c r="Y36" s="14" t="s">
-        <v>969</v>
+        <v>918</v>
       </c>
       <c r="Z36" s="14" t="s">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>832</v>
+        <v>787</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>829</v>
+        <v>784</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>831</v>
+        <v>786</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>829</v>
+        <v>1012</v>
       </c>
       <c r="AE36" s="14" t="s">
-        <v>830</v>
+        <v>785</v>
       </c>
       <c r="AF36" s="34" t="s">
-        <v>828</v>
+        <v>783</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="409.5" customHeight="1">
@@ -17868,59 +17852,59 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>704</v>
+        <v>671</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>883</v>
+        <v>832</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>988</v>
+        <v>937</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>1021</v>
+        <v>970</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="10" t="s">
-        <v>706</v>
+        <v>673</v>
       </c>
       <c r="W37" s="13"/>
       <c r="X37" s="13"/>
@@ -17938,49 +17922,49 @@
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>707</v>
+        <v>674</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>708</v>
+        <v>675</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>709</v>
+        <v>676</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>710</v>
+        <v>677</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>711</v>
+        <v>678</v>
       </c>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
@@ -17988,7 +17972,7 @@
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
       <c r="V38" s="10" t="s">
-        <v>712</v>
+        <v>679</v>
       </c>
       <c r="W38" s="13"/>
       <c r="X38" s="13"/>
@@ -18006,93 +17990,93 @@
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>713</v>
+        <v>680</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>714</v>
+        <v>681</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>1022</v>
+        <v>971</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>989</v>
+        <v>938</v>
       </c>
       <c r="Q39" s="14" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="R39" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T39" s="14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="U39" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="W39" s="13" t="s">
-        <v>938</v>
+        <v>887</v>
       </c>
       <c r="X39" s="13" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="Y39" s="14"/>
       <c r="Z39" s="14"/>
       <c r="AA39" s="14" t="s">
-        <v>866</v>
+        <v>815</v>
       </c>
       <c r="AB39" s="14" t="s">
-        <v>865</v>
+        <v>814</v>
       </c>
       <c r="AC39" s="14" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="AD39" s="14" t="s">
-        <v>863</v>
+        <v>1013</v>
       </c>
       <c r="AE39" s="14" t="s">
-        <v>864</v>
+        <v>813</v>
       </c>
       <c r="AF39" s="14" t="s">
-        <v>861</v>
+        <v>811</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="318.25" customHeight="1">
@@ -18100,95 +18084,95 @@
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>715</v>
+        <v>682</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>884</v>
+        <v>833</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>1023</v>
+        <v>972</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="Q40" s="14"/>
       <c r="R40" s="14" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="S40" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T40" s="14" t="s">
-        <v>562</v>
+        <v>536</v>
       </c>
       <c r="U40" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="W40" s="13" t="s">
-        <v>920</v>
+        <v>869</v>
       </c>
       <c r="X40" s="13" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="Y40" s="14" t="s">
-        <v>970</v>
+        <v>919</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="AA40" s="14" t="s">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="AB40" s="14" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="AC40" s="14" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="AD40" s="14" t="s">
-        <v>556</v>
+        <v>1014</v>
       </c>
       <c r="AE40" s="14" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="AF40" s="14" t="s">
-        <v>558</v>
+        <v>532</v>
       </c>
     </row>
     <row r="41" spans="1:32" ht="404.25" customHeight="1">
@@ -18196,93 +18180,93 @@
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C41" s="9">
         <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>869</v>
+        <v>818</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>1024</v>
+        <v>973</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="Q41" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="R41" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="S41" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="U41" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="V41" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="R41" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="S41" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="T41" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="V41" s="10" t="s">
-        <v>502</v>
-      </c>
       <c r="W41" s="13" t="s">
-        <v>921</v>
+        <v>870</v>
       </c>
       <c r="X41" s="13" t="s">
-        <v>896</v>
+        <v>845</v>
       </c>
       <c r="Y41" s="14"/>
       <c r="Z41" s="14"/>
       <c r="AA41" s="14" t="s">
-        <v>768</v>
+        <v>731</v>
       </c>
       <c r="AB41" s="14" t="s">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="AC41" s="14" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="AD41" s="14" t="s">
-        <v>767</v>
+        <v>1015</v>
       </c>
       <c r="AE41" s="14" t="s">
-        <v>769</v>
+        <v>732</v>
       </c>
       <c r="AF41" s="14" t="s">
-        <v>770</v>
+        <v>733</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="398.75" customHeight="1">
@@ -18290,93 +18274,93 @@
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>563</v>
+        <v>537</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>722</v>
+        <v>689</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>723</v>
+        <v>690</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>724</v>
+        <v>691</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>1033</v>
+        <v>982</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>726</v>
+        <v>693</v>
       </c>
       <c r="Q42" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R42" s="14" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="S42" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>565</v>
+        <v>539</v>
       </c>
       <c r="U42" s="12" t="s">
-        <v>727</v>
+        <v>694</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>728</v>
+        <v>695</v>
       </c>
       <c r="W42" s="13" t="s">
-        <v>922</v>
+        <v>871</v>
       </c>
       <c r="X42" s="13" t="s">
-        <v>569</v>
+        <v>543</v>
       </c>
       <c r="Y42" s="14"/>
       <c r="Z42" s="14"/>
       <c r="AA42" s="14" t="s">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="AB42" s="14" t="s">
-        <v>567</v>
+        <v>541</v>
       </c>
       <c r="AC42" s="14" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="AD42" s="14" t="s">
-        <v>570</v>
+        <v>1016</v>
       </c>
       <c r="AE42" s="14" t="s">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="AF42" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="387" customHeight="1">
@@ -18384,59 +18368,59 @@
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>729</v>
+        <v>696</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>730</v>
+        <v>697</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>731</v>
+        <v>698</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>885</v>
+        <v>834</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>732</v>
+        <v>699</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>1034</v>
+        <v>983</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R43" s="14"/>
       <c r="S43" s="14"/>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="10" t="s">
-        <v>733</v>
+        <v>700</v>
       </c>
       <c r="W43" s="13"/>
       <c r="X43" s="13"/>
@@ -18454,97 +18438,97 @@
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>735</v>
+        <v>702</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>1025</v>
+        <v>974</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>736</v>
+        <v>703</v>
       </c>
       <c r="Q44" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="S44" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>737</v>
+        <v>704</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="V44" s="16" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="W44" s="13" t="s">
-        <v>923</v>
+        <v>872</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>897</v>
+        <v>846</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>944</v>
+        <v>893</v>
       </c>
       <c r="Z44" s="14" t="s">
-        <v>898</v>
+        <v>847</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>571</v>
+        <v>544</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="AC44" s="14" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="AD44" s="14" t="s">
-        <v>572</v>
+        <v>1017</v>
       </c>
       <c r="AE44" s="14" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="AF44" s="14" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
     </row>
     <row r="45" spans="1:32" ht="409.5" customHeight="1">
@@ -18552,97 +18536,97 @@
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>873</v>
+        <v>822</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>738</v>
+        <v>705</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>1026</v>
+        <v>975</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>795</v>
+        <v>754</v>
       </c>
       <c r="Q45" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R45" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S45" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T45" s="12" t="s">
-        <v>739</v>
+        <v>706</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V45" s="10" t="s">
-        <v>740</v>
+        <v>707</v>
       </c>
       <c r="W45" s="13" t="s">
-        <v>924</v>
+        <v>873</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
       <c r="Y45" s="33" t="s">
-        <v>971</v>
+        <v>920</v>
       </c>
       <c r="Z45" s="33" t="s">
-        <v>794</v>
+        <v>753</v>
       </c>
       <c r="AA45" s="14" t="s">
-        <v>793</v>
+        <v>752</v>
       </c>
       <c r="AB45" s="14" t="s">
-        <v>798</v>
+        <v>757</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>796</v>
+        <v>755</v>
       </c>
       <c r="AD45" s="14" t="s">
-        <v>792</v>
+        <v>1018</v>
       </c>
       <c r="AE45" s="14" t="s">
-        <v>797</v>
+        <v>756</v>
       </c>
       <c r="AF45" s="14" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
     </row>
     <row r="46" spans="1:32" ht="409.5" customHeight="1">
@@ -18650,97 +18634,97 @@
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>886</v>
+        <v>835</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>741</v>
+        <v>708</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>874</v>
+        <v>823</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>783</v>
+        <v>745</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>1027</v>
+        <v>976</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>773</v>
+        <v>736</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>774</v>
+        <v>737</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>776</v>
+        <v>739</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>775</v>
+        <v>738</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>777</v>
+        <v>740</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>925</v>
+        <v>874</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>772</v>
+        <v>735</v>
       </c>
       <c r="Y46" s="14" t="s">
-        <v>972</v>
+        <v>921</v>
       </c>
       <c r="Z46" s="14" t="s">
-        <v>771</v>
+        <v>734</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>782</v>
+        <v>744</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>781</v>
+        <v>743</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>779</v>
+        <v>1019</v>
       </c>
       <c r="AE46" s="14" t="s">
-        <v>780</v>
+        <v>742</v>
       </c>
       <c r="AF46" s="14" t="s">
-        <v>778</v>
+        <v>741</v>
       </c>
     </row>
     <row r="47" spans="1:32" ht="337.25" customHeight="1">
@@ -18748,97 +18732,97 @@
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>666</v>
+        <v>633</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>1028</v>
+        <v>977</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="Q47" s="12" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="T47" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="U47" s="12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V47" s="10" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="W47" s="10" t="s">
-        <v>926</v>
+        <v>875</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="Y47" s="12" t="s">
-        <v>973</v>
+        <v>922</v>
       </c>
       <c r="Z47" s="12" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="AD47" s="12" t="s">
-        <v>542</v>
+        <v>1020</v>
       </c>
       <c r="AE47" s="12" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="AF47" s="12" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="48" spans="1:32" ht="409.5" customHeight="1">
@@ -18846,57 +18830,57 @@
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>742</v>
+        <v>709</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>1032</v>
+        <v>981</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="12" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="R48" s="14"/>
       <c r="S48" s="14"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="10" t="s">
-        <v>743</v>
+        <v>710</v>
       </c>
       <c r="W48" s="13"/>
       <c r="X48" s="13"/>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-3000" windowWidth="38400" windowHeight="24000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_3___R._Kazman__Y._Cai__R._Mo__Q._Feng__L._Xiao__S._Haziyev__V._Fedak__and_A._Shapochka._A_case_study_in_locating_the_architectural_roots_of_technical_debt._In_Proc._37th_International_Conference_on_Software__Engineering__May_2015.____8___R._Mo__W._Snip">'Folha 1'!$W$24</definedName>
+    <definedName name="_3___R._Kazman__Y._Cai__R._Mo__Q._Feng__L._Xiao__S._Haziyev__V._Fedak__and_A._Shapochka._A_case_study_in_locating_the_architectural_roots_of_technical_debt._In_Proc._37th_International_Conference_on_Software__Engineering__May_2015.____8___R._Mo__W._Snip">'Folha 1'!$Y$24</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1231" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="1057">
   <si>
     <t>Paper Id</t>
   </si>
@@ -454,12 +454,6 @@
     <t xml:space="preserve">Architectural technical debt, modularity metric, commit, software architecture </t>
   </si>
   <si>
-    <t xml:space="preserve">Empirical investigation - -This study is a holistic multiple case study, in the sense that we investigate multiple OSS projects, i.e., cases, and from each case we extract a single unit of analysis. In this study, as unit of analysis we use the pair of two selected releases of an OSS project. 
-</t>
-  </si>
-  <si>
     <t>You can see in the techniques and approach previous columns</t>
   </si>
   <si>
@@ -535,10 +529,6 @@
     <t xml:space="preserve">Software Architecture, Software Quality, Technical Debt </t>
   </si>
   <si>
-    <t xml:space="preserve">We chose 7 Apache open source projects as our evalua- tion subjects. These projects di↵er in scale, application do- main, length of history, and many other project character- istics. They are: Camel—a integration framework based on Enterprise Integration Patterns; Cassandra—a distributed DBMS; CXF—a Web services framework; Hadoop—a frame- work for reliable, scalable, distributed computing; HBase— the Hadoop distributed, scalable, big data store; PDFBox— a library for working with PDF documents; and Wicket—a component-based web application framework. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was monitored the evolution of ArchDebts.     Although this model can only be obtained after the costs and penalty have accumulated, one could use our approach to detect architecture flaw patterns at any point (as described in [21]), monitor how file groups grow, monitor the formation of debts, and prevent significant costs by investing in proper refactorings [15]. 
@@ -585,25 +575,6 @@
   </si>
   <si>
     <t>Android ATD hotspots</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="14"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">In this research we present a novel approach to identify ATD of Android apps based on architectural guidelines extraction and mod- eling, architecture reverse engineering, and compliance checking. We plan to fully automate the process and extensively evaluate it on large set of Android apps. The approach enables us to con- duct evolutionary studies on the ATD of Android apps, through which a higher precision of the approach could be achieved, e.g. by considering code churn to rank more precisely ATDIs. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
   <si>
     <t>[2] HamidBagheri,JoshuaGarcia,AlirezaSadeghi,SamMalek,andNenadMedvi- dovic. 2016. Software architectural principles in contemporary mobile software:
@@ -916,12 +887,6 @@
     <t xml:space="preserve">It is provided by a formula that is a sum of cost ATDI estimated by developer's participation. </t>
   </si>
   <si>
-    <t xml:space="preserve">Strategic decisions on the prioritization of costly ATD are critical for software companies. To prioritize the refactoring of ATD, companies need to be aware of what interest is being paid and what interest is going to be paid in the future. The current body of knowledge lacks a solid conceptual representation of the interest on the basis of empirical studies, and the community lacks applicable approaches to estimate the interest and to prioritize ATD: as a result, the architects' decisions are based on individual experience and intuitive judgment, and the repayment of ATD is consequently hard to justify for the management. Estimating the extra costs associated with the interest requires knowledge about what phenomena and extra activities are generated by the ATD. In this study, we have collected a broad amount of cases where large software companies experienced on the payment of large amount of interest. We have categorized the ATD in classes and mapped them to costly interest represented by sociotechnical phe- nomena occurring during software development and extra activities generating costs. The paper reports patterns of sociotechnical events that lead to a novel phenomenon, call contagious debt; this is based on vicious cycles of events that cause ATD to propagate in the system and generate a continuous increment of interest. We report evidence that this phenomenon is a potential trigger for the accumulation of compound interest, the source of fast‐growing hidden costs, which might become nonlinear over time. This paper can be considered the first study in reporting a large amount of empirical evidence on the occurrence of compound interest and of the sociotechnical patterns leading to it. Our results provide clear targets for which new informa- tion and, consequently, a new combination of measures are needed to estimate the interest and the compound interest of ATD. Such results can be valuable in making practitioners aware of what kind of interest they might have to pay if the ATD is not repaid. Finally, we provide a list of the factors that cause the debt to propagate throughout the sys- tem, becoming contagious. These factors can be proactively monitored to strategically refactor the ATD, before it becomes too costly to be repaid. Our recent work, involving methods and tools for the estima- tion of the interest on the basis of the factors outlined here, reported several benefits of using such information during software development.  - -P.S. The taxonomy of ATD items might not be complete, because we focused on the most expensive violations mentioned by the practitioners. Also, different contexts might show different effects for the recognized items, in which case the taxonomy might result as different. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Few single case studies were related to code debt (eg, Guo et al24) or code smells.25,26
 24. Guo Y et al. Tracking technical debt—an exploratory case study. In: 2011 27th IEEE International Conference on Software Maintenance (ICSM), Williamsburg, VI, USA; 2011:528‐531.
 25. Sjoberg DIK, Yamashita A, Anda BCD, Mockus A, Dyba T. Quantifying the effect of code smells on maintenance effort. IEEE Trans Softw Eng. 2013;39(8):1144‐1156.
@@ -980,10 +945,6 @@
     <t xml:space="preserve">Architectural deb, Tool experimentation, Architecture assessment </t>
   </si>
   <si>
-    <t xml:space="preserve">we provide our experience report in using three known tools to capture in- formation that can be useful to identify and evaluate the architectural debt of an application. 
-</t>
-  </si>
-  <si>
     <t>The main extracted measures related to architectural evaluation.
 SonarGraph:
 Structural Debt index
@@ -1082,13 +1043,6 @@
 The AD (Architectural Decision) is based on evaluation of Quality Assurante about maintainability and evolvability. </t>
   </si>
   <si>
-    <t xml:space="preserve">Case study - -This is an embedded single case study, since multiple units of analysis (i.e., the participants) are studied for one case: an information system in a large telecommunications company in China.  -
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATD Itens based on templated suggested by authors    For each ATD item is calculated principal and interest using person-days as unit to measurement. </t>
@@ -1371,13 +1325,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">In our earlier work we argued that the software industry needs to adopt ideas and principles from “Manufacturing Execution Systems” into software development practices ([14], [15]). In this work we claimed that an MES-style approach, with integrated, continuously-collected data about process activities can aid in planning and estimation accuracy, process improvement, and product quality. 
-The DRSpace approach provides one piece of this vision—a means by which a project manager or architect can continuously monitor product quality, comparing it to project, organization, or industry norms. And, using the continuously collected information, a manager can make reasoned, economics-based decisions on if and when to refactor. This allows the project to manage and control a form of technical debt: architectural debt. 
-We liken this process to that of a health monitor, that continuously measures a patient’s vital signs, providing timely and critical feedback to health-care professionals. Such feedback is essential to determine whether to stage an intervention and to assess the success of any such intervention. 
-Interventions, in the form of refactorings, are the principle means by which an architecture’s health can be improved. A DRSpace- based analysis not only can aid in determining whether such a refactoring is required, but can aid in assessing the return-on- investment of such an intervention. In this way project stakeholders can make such decisions in confidence, based on hard empirical data. 
-In this paper we reviewed the three main ways, based on our Titan tool chain that we monitor and manage architecture debt: by tracking the architecture roots, by tracking architecture flaws, and by tracking DL. These techniques have now been applied on over 150 projects, including 30 large-scale industrial projects, and have provided valuable insight to project stakeholders. </t>
-  </si>
-  <si>
     <t>Kazman et al. 2015</t>
   </si>
   <si>
@@ -1595,9 +1542,6 @@
 . Architecture root.</t>
   </si>
   <si>
-    <t>Apresenta;cão de ferramenta, características e levantamento de locais que já usaram a ferramenta.</t>
-  </si>
-  <si>
     <t>Arquitectual Roots via DRSpace</t>
   </si>
   <si>
@@ -2168,13 +2112,6 @@
     <t xml:space="preserve">International Conference on Software Maintenance and Evolution (ICSME) </t>
   </si>
   <si>
-    <t xml:space="preserve">We formulated three research questions to set a direction and scope for our study: -RQ1: How do software professionals structure the general evolvability assurance activities for Microservices and for what reasons? 
-RQ2: What tools, metrics, and patterns do software profes- sionals use for assuring the evolvability of Microservices and with what rationales? -RQ3: How do software professionals perceive the quality of their Microservices and assurance processes and what parts are seen as challenging? 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">We conducted 17 interviews with software professionals from 10 companies and talked with them about the evolva- bility assurance for 14 different Microservice-based systems. We found that systems developed for an external customer in a project-like manner generally relied more on central governance for the assurance. Continuous product develop- ment of internal systems exhibited more decentralization and team autonomy for the assurance process. Guidelines like architectural principles or rules for service communication were seen as important to provide a consistent basis for evolvability and to frame an otherwise diverse technology usage. While participants saw automation and tool support as important for evolvability assurance, they still relied a lot on manual activities like code review or boy scouting. Tool and metric usage was very focused on source code quality. No architectural tools and metrics were applied, even though most reported challenges and issues like service cutting were related to software architecture. This may indicate the im- portance of Architectural Technical Debt (ATD) management for Microservices. Likewise, no tools or metrics specifically designed for service orientation were used, even though most participants stated the significance of their underlying design principles. Participants generally perceived their fairly new Microservices as decently evolvable, even though things like distributed code repositories and difficult macroarchitectural assessment would make the assurance process more complex. Future work that covers the areas of maintenance, evolution, and technical debt in the context of Microservices should take these findings and industry sentiments into account. In partic- ular, academia can support industry with methods, metrics, or tools that aid macroarchitectural assessment of Microservices or provide a more system-centric view. We perceived tool support for service cutting activities and metrics to evaluate service granularity, coupling, or cohesion as concrete gaps that could save industry a lot of refactoring efforts. Finally, issues in the area of human evolvability factors with Microservices like the handling of hyped technologies as well as coordinating and exchanging knowledge between decentralized teams were described as important by participants. 
 </t>
   </si>
@@ -2274,9 +2211,6 @@
   </si>
   <si>
     <t>Bogner et al 2018</t>
-  </si>
-  <si>
-    <t>Limiting technical debt with maintainability assurance: an industry survey on used techniques and differences with service- and microservice-based systems</t>
   </si>
   <si>
     <t xml:space="preserve">Maintainability assurance techniques are used to control this qual- ity attribute and limit the accumulation of potentially unknown technical debt. Since the industry state of practice and especially the handling of Service- and Microservice-Based Systems in this regard are not well covered in scientific literature, we created a sur- vey to gather evidence for a) used processes, tools, and metrics in the industry, b) maintainability-related treatment of systems based on service-orientation, and c) influences on developer satisfaction w.r.t. maintainability. 60 software professionals responded to our online questionnaire. The results indicate that using explicit and systematic techniques has benefits for maintainability. The more sophisticated the applied methods the more satisfied participants were with the maintainability of their software while no link to a hindrance in productivity could be established. Other important findings were the absence of architecture-level evolvability control mechanisms as well as a significant neglect of service-oriented par- ticularities for quality assurance. The results suggest that industry has to improve its quality control in these regards to avoid problems with long-living service-based software systems. 
@@ -5737,23 +5671,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">In this study, we investigate the relation between package- level modularity metrics and technical debt principal, as meas- ured by a state-of-the-art tool, namely SonarQube that is based on the SQALE model [11]. SonarQube is an Open Source Software (OSS) platform for the continuous inspection of code quality. SonarQube assesses the technical debt of a software system at the source code level by counting violations of best practices (e.g., Removal of Unused Private Fields, Constructors Should be Used for String Initialization, or @Override Should be Used for Overriding Methods) and estimating the time needed to resolve them. The platform supports a plethora of programming languages and it can offer detailed reports re- garding duplicated code, coding standards, unit tests etc. Nev- ertheless, based on the current TD calculation model it is not clear if the violations that SonarQube can capture are also (di- rectly or indirectly) related to architecture violations, or at least, if the provided measure is correlated with violation of some architecture best practices (e.g. modularity). 
-The main research question of this paper is: “Is TD principal as quantified by SonarQube related to the lack of software modularity?
-RQ1: Is TD principal related to package cohesion? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>RQ2: Is TD principal related to package coupling?</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube
  	− </t>
     </r>
@@ -6091,35 +6008,6 @@
       </rPr>
       <t xml:space="preserve">, and (c) hypothesis testing to check the discriminative power of TD to identify classes with low cohesion and high coupling. 
 The main tool to perform the analysis was the SonarQube.
-</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">To achieve this goal we have performed a large-scale empirical study on more than 1,000 packages written in Java and ex- plored the aforementioned relationship. 
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">It was checked that the metrics coupling and cohesion can be used to identify ATD as modularity metrics.
-TD principal is able to predict the values of coupling and cohesion metrics at a statistically significant level, with however low accuracy. Nevertheless, it should be noted that TD is able to accurately (approx. 90%) predict the value of cohesion divided by cou- pling. This finding is particularity interesting in the sense that the TD assessment offered by SonarQube can be useful at both the implementation and the architecture design level. 
-By </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">comparing coupling and cohesion metrics </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">that we used, one can observe that: (a) TD principal seems to be better relat- ed to cohesion, rather than coupling; and (b) TD principal is more closely related to TCIP rather than ACa. A main differ- ence between the three metrics is that CaPC is a bounded met- ric (expressed as percentage), which therefore can be more easily interpreted. This finding is in accordance to previous studies suggested that bounded metrics are more strongly cor- related with the existence of bad smells [9]. Regarding the two coupling metrics, the intensity of the dependencies seems to be more relevant to high level qualities, compared to a simple count of dependencies. This outcome is affirmed in previous studies (e.g., the MPC metric performs better than CBO) [5]. 
 </t>
     </r>
   </si>
@@ -7100,14 +6988,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Decisions on short-term and long-term prioritization of archi- tecture refactoring need to be balanced and need to rely on the knowledge of the underlying phenomenon of ATD. The current management of ATD is an under-researched topic and we con- tribute to the empirical software engineering body of knowledge by reporting from a multiple case study investigating practitioners’ experiences from 7 large Scandinavian companies employing Agile and developing product lines of embedded software. 
-In this paper we have shown what are the causes of the accu- mulation of ATD, and we outline, through the recognition of differ- ent influencing factors, clear objectives that can be treated or further studied in order to avoid or mitigate the accumulation of ATD (RQ1), therefore easing the ATD management for architects and managers. 
-We have also presented 2 models for describing the accumula- tion and refactoring of ATD over time (RQ2). Such models are the Crisis Model and the Phases Model. Such models can be further stud- ied and tested with the conduction of experiments and the collec- tion of quantitative data by the ISERN community. 
-Based on the models, we have identified possible strategies for refactoring ATD (RQ3) and we provided recommendations with respect to the minimization of development crises. We conclude that complete refactoring is not a possible strategy in the current studied companies, due to the continuous and inevitable accumu- lation of ATD and the impossibility of removing it all. The No refac- toring strategy leads to crises points often, hindering the long-term responsiveness in providing new customer value, as required in ASD. The best strategy is therefore to apply partial refactoring to minimize crises and to push the crisis point as far as possible with respect to the lifecycle of the products. The results highlight differ- ent outcomes related to different ATD prioritization strategies, which would help architects and managers in balancing the ATD management strategies with respect to the business goals and the life-cycle of the products. 
-An important goal in research and industry is to improve the practices and tools to uncover ATD present in the system and to keep track of it. It is also important to identify the best points in time for performing refactoring and therefore repaying the debt that is going to generate more interest effort later on. Such prac- tices need to complement the current Agile process in place, in order to keep responsiveness stable through the whole software development process. 
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yuanfang Cai, Lu Xiao, Rick Kazman, Ran Mo, Qiong Feng 
 </t>
   </si>
@@ -7255,81 +7135,6 @@
   <si>
     <t xml:space="preserve">Software architecture, reverse-engineering, defect prediction, technical debt, code smells, bug localization 
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In this paper, we report on our investigation of using DRSpaces to reveal the architectural impact of bug-prone files. 
-In this paper, we show, using DRSpaces, that we can automatically identify architectural flaws that contribute to bug-proneness in a software project. This is achieved by automatically identifying a minimal set of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">DRSpaces </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">that connect the top bug-prone files in the system. We call these </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">DRSpaces Architecture Roots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">(ArchRoots). We hypothesize that the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ArchRoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">have deep-seated and enduring impacts on the bug-proneness of a project. They propagate bugs among files, making bugs hard to eradicate, and conse- quently causing maintenance costs to increase over time. As we will show, developers can not systematically reduce the bug rate of a project without fixing these </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ArchRoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">first 
-</t>
-    </r>
   </si>
   <si>
     <r>
@@ -8412,9 +8217,6 @@
   <si>
     <t>It was used a private it company catalog to detected violations based on qualite attributes. 
 Tool: AIP by CAST</t>
-  </si>
-  <si>
-    <t>The authors performed a study in a real case using a real it company catalog of rules of architectural and code patterns with real systems. The authors proposed a was to calculate the principal of TD in maney value.</t>
   </si>
   <si>
     <t>The catalog of rules is private. So, only the CAST company can use this catalog. Besides, the value used to calculate the principal of TD is regarding to context of CAST company, thus, it not possible to generalize this value in other companies.</t>
@@ -12355,13 +12157,6 @@
 "</t>
   </si>
   <si>
-    <t>general:"maintainability, architecture flaws, architecture roots, decoupling level, propagation cost, architectural smells, Design Structure Matrix, DRSpace"
- # 
- approuch:"clique, package cicle, modularity violation, crossing, unstable interface"
- #
- tools:"DV8"</t>
-  </si>
-  <si>
     <t>general:"modularity, average number of modified components per commit, ANMCC, index of package changing impact, IPCI, index of package goal focus,  IPGF, source code, revistion history, "
  # 
  approuch:"modularity metrics, Spearman’s correlation tests"
@@ -12542,12 +12337,323 @@
   <si>
     <t>Q4</t>
   </si>
+  <si>
+    <t>Research Type</t>
+  </si>
+  <si>
+    <t>Kind of research 2</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, expert opinion, observantion</t>
+  </si>
+  <si>
+    <t>Case study in industry, expert opinion</t>
+  </si>
+  <si>
+    <t>survey, observations</t>
+  </si>
+  <si>
+    <t>case study in industry</t>
+  </si>
+  <si>
+    <t>general:"maintainability, architecture flaws, architecture roots, decoupling level, propagation cost, architectural smells, Design Structure Matrix, DRSpace"
+ # 
+ approuch:"clique, package cycle, modularity violation, crossing, unstable interface"
+ #
+ tools:"DV8"</t>
+  </si>
+  <si>
+    <t>Empirical study on Apache Projects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical investigation.  + +This study is a holistic multiple case study, in the sense that we investigate multiple OSS projects, i.e., cases, and from each case we extract a single unit of analysis. In this study, as unit of analysis we use the pair of two selected releases of an OSS project. 
+</t>
+  </si>
+  <si>
+    <t>Empirical investigation in OSS projects</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observantion</t>
+  </si>
+  <si>
+    <r>
+      <t>We chose 7 Apache open source projects as our evaluation subjects. These projects di</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">er in scale, application do- main, length of history, and many other project character- istics. They are: Camel—a integration framework based on Enterprise Integration Patterns; Cassandra—a distributed DBMS; CXF—a Web services framework; Hadoop—a frame- work for reliable, scalable, distributed computing; HBase— the Hadoop distributed, scalable, big data store; PDFBox— a library for working with PDF documents; and Wicket—a component-based web application framework. 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">In this research we present a novel approach to identify ATD of Android apps based on architectural guidelines extraction and modeling, architecture reverse engineering, and compliance checking. We plan to fully automate the process and extensively evaluate it on large set of Android apps. The approach enables us to conduct evolutionary studies on the ATD of Android apps, through which a higher precision of the approach could be achieved, e.g. by considering code churn to rank more precisely ATDIs. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Toy examples</t>
+  </si>
+  <si>
+    <t>Tool evaluation</t>
+  </si>
+  <si>
+    <t>There is no data or experimentation about the study.</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry</t>
+  </si>
+  <si>
+    <r>
+      <t>Strategic decisions on the prioritization of costly ATD are critical for software companies. To prioritize the refactoring of ATD, companies need to be aware of what interest is being paid and what interest is going to be paid in the future. The current body of knowledge lacks a solid conceptual representation of the interest on the basis of empirical studies, and the community lacks applicable approaches to estimate the interest and to prioritize ATD: as a result, the architects' decisions are based on individual experience and intuitive judgment, and the repayment of ATD is consequently hard to justify for the management. Estimating the extra costs associated with the interest requires knowledge about what phenomena and extra activities are generated by the ATD. In this study, we have collected a broad amount of cases where large software companies experienced on the payment of large amount of interest. We have categorized the ATD in classes and mapped them to costly interest represented by sociotechnical phe- nomena occurring during software development and extra activities generating costs. The paper reports patterns of sociotechnical events that lead to a novel phenomenon, call contagious debt; this is based on vicious cycles of events that cause ATD to propagate in the system and generate a continuous increment of interest. We report evidence that this phenomenon is a potential trigger for the accumulation of compound interest, the source of fast</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Palatino Linotype"/>
+      </rPr>
+      <t>‐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">growing hidden costs, which might become nonlinear over time. This paper can be considered the first study in reporting a large amount of empirical evidence on the occurrence of compound interest and of the sociotechnical patterns leading to it. Our results provide clear targets for which new informa- tion and, consequently, a new combination of measures are needed to estimate the interest and the compound interest of ATD. Such results can be valuable in making practitioners aware of what kind of interest they might have to pay if the ATD is not repaid. Finally, we provide a list of the factors that cause the debt to propagate throughout the sys- tem, becoming contagious. These factors can be proactively monitored to strategically refactor the ATD, before it becomes too costly to be repaid. Our recent work, involving methods and tools for the estima- tion of the interest on the basis of the factors outlined here, reported several benefits of using such information during software development.  + +P.S. The taxonomy of ATD items might not be complete, because we focused on the most expensive violations mentioned by the practitioners. Also, different contexts might show different effects for the recognized items, in which case the taxonomy might result as different. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>experience report using open source project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we provide our experience report in using three known tools to capture information that can be useful to identify and evaluate the architectural debt of an application. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case study.  + +This is an embedded single case study, since multiple units of analysis (i.e., the participants) are studied for one case: an information system in a large telecommunications company in China.  +
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our earlier work we argued that the software industry needs to adopt ideas and principles from “Manufacturing Execution Systems” into software development practices ([14], [15]). In this work we claimed that an MES-style approach, with integrated, continuously-collected data about process activities can aid in planning and estimation accuracy, process improvement, and product quality. 
+The DRSpace approach provides one piece of this vision—a means by which a project manager or architect can continuously monitor product quality, comparing it to project, organization, or industry norms. And, using the continuously collected information, a manager can make reasoned, economics-based decisions on if and when to refactor. This allows the project to manage and control a form of technical debt: architectural debt. 
+We liken this process to that of a health monitor, that continuously measures a patient’s vital signs, providing timely and critical feedback to health-care professionals. Such feedback is essential to determine whether to stage an intervention and to assess the success of any such intervention. 
+Interventions, in the form of refactorings, are the principle means by which an architecture’s health can be improved. A DRSpace - based analysis not only can aid in determining whether such a refactoring is required, but can aid in assessing the return-on- investment of such an intervention. In this way project stakeholders can make such decisions in confidence, based on hard empirical data. 
+In this paper we reviewed the three main ways, based on our Titan tool chain that we monitor and manage architecture debt: by tracking the architecture roots, by tracking architecture flaws, and by tracking DL. These techniques have now been applied on over 150 projects, including 30 large-scale industrial projects, and have provided valuable insight to project stakeholders. </t>
+  </si>
+  <si>
+    <t>Empirical study on Hadoop Apache Project</t>
+  </si>
+  <si>
+    <t>Apresentação de ferramenta, características e levantamento de locais que já usaram a ferramenta.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this study, we investigate the relation between package-level modularity metrics and technical debt principal, as measured by a state-of-the-art tool, namely SonarQube that is based on the SQALE model [11]. SonarQube is an Open Source Software (OSS) platform for the continuous inspection of code quality. SonarQube assesses the technical debt of a software system at the source code level by counting violations of best practices (e.g., Removal of Unused Private Fields, Constructors Should be Used for String Initialization, or @Override Should be Used for Overriding Methods) and estimating the time needed to resolve them. The platform supports a plethora of programming languages and it can offer detailed reports re- garding duplicated code, coding standards, unit tests etc. Nevertheless, based on the current TD calculation model it is not clear if the violations that SonarQube can capture are also (di- rectly or indirectly) related to architecture violations, or at least, if the provided measure is correlated with violation of some architecture best practices (e.g. modularity). 
+The main research question of this paper is: “Is TD principal as quantified by SonarQube related to the lack of software modularity?
+RQ1: Is TD principal related to package cohesion? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t>RQ2: Is TD principal related to package coupling?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To achieve this goal we have performed a large-scale empirical study on more than 1,000 packages written in Java and explored the aforementioned relationship. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was checked that the metrics coupling and cohesion can be used to identify ATD as modularity metrics.
+TD principal is able to predict the values of coupling and cohesion metrics at a statistically significant level, with however low accuracy. Nevertheless, it should be noted that TD is able to accurately (approx. 90%) predict the value of cohesion divided by cou- pling. This finding is particularity interesting in the sense that the TD assessment offered by SonarQube can be useful at both the implementation and the architecture design level. 
+By </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">comparing coupling and cohesion metrics </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">that we used, one can observe that: (a) TD principal seems to be better related to cohesion, rather than coupling; and (b) TD principal is more closely related to TCIP rather than ACa. A main difference between the three metrics is that CaPC is a bounded metric (expressed as percentage), which therefore can be more easily interpreted. This finding is in accordance to previous studies suggested that bounded metrics are more strongly correlated with the existence of bad smells [9]. Regarding the two coupling metrics, the intensity of the dependencies seems to be more relevant to high level qualities, compared to a simple count of dependencies. This outcome is affirmed in previous studies (e.g., the MPC metric performs better than CBO) [5]. 
+</t>
+    </r>
+  </si>
+  <si>
+    <t>exploratory case study, exploratory case study in industry, industrial practice, expert opinion, observantion, empirical study in industry</t>
+  </si>
+  <si>
+    <t>Empirical study in industry</t>
+  </si>
+  <si>
+    <t>Exploratory case study on Apache Projects</t>
+  </si>
+  <si>
+    <t>Case study on Open Source Project</t>
+  </si>
+  <si>
+    <t>Exploratory case study</t>
+  </si>
+  <si>
+    <t>Propose a Theorical Approach</t>
+  </si>
+  <si>
+    <t>survey</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, survey</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, survey, proposed theorical method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decisions on short-term and long-term prioritization of archi- tecture refactoring need to be balanced and need to rely on the knowledge of the underlying phenomenon of ATD. The current management of ATD is an under-researched topic and we con- tribute to the empirical software engineering body of knowledge by reporting from a multiple case study investigating practitioners’ experiences from 7 large Scandinavian companies employing Agile and developing product lines of embedded software. 
+In this paper we have shown what are the causes of the accumulation of ATD, and we outline, through the recognition of different influencing factors, clear objectives that can be treated or further studied in order to avoid or mitigate the accumulation of ATD (RQ1), therefore easing the ATD management for architects and managers. 
+We have also presented 2 models for describing the accumulation and refactoring of ATD over time (RQ2). Such models are the Crisis Model and the Phases Model. Such models can be further stud- ied and tested with the conduction of experiments and the collec- tion of quantitative data by the ISERN community. 
+Based on the models, we have identified possible strategies for refactoring ATD (RQ3) and we provided recommendations with respect to the minimization of development crises. We conclude that complete refactoring is not a possible strategy in the current studied companies, due to the continuous and inevitable accumu- lation of ATD and the impossibility of removing it all. The No refactoring strategy leads to crises points often, hindering the long-term responsiveness in providing new customer value, as required in ASD. The best strategy is therefore to apply partial refactoring to minimize crises and to push the crisis point as far as possible with respect to the lifecycle of the products. The results highlight differ- ent outcomes related to different ATD prioritization strategies, which would help architects and managers in balancing the ATD management strategies with respect to the business goals and the life-cycle of the products. 
+An important goal in research and industry is to improve the practices and tools to uncover ATD present in the system and to keep track of it. It is also important to identify the best points in time for performing refactoring and therefore repaying the debt that is going to generate more interest effort later on. Such prac- tices need to complement the current Agile process in place, in order to keep responsiveness stable through the whole software development process. 
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In this paper, we report on our investigation of using DRSpaces to reveal the architectural impact of bug-prone files. 
+In this paper, we show, using DRSpaces, that we can automatically identify architectural flaws that contribute to bug-proneness in a software project. This is achieved by automatically identifying a minimal set of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">DRSpaces </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">that connect the top bug-prone files in the system. We call these </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">DRSpaces Architecture Roots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">(ArchRoots). We hypothesize that the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">ArchRoots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">have deep-seated and enduring impacts on the bug-proneness of a project. They propagate bugs among files, making bugs hard to eradicate, and consequently causing maintenance costs to increase over time. As we will show, developers can not systematically reduce the bug rate of a project without fixing these </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">ArchRoots </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Times Roman"/>
+      </rPr>
+      <t xml:space="preserve">first 
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">We formulated three research questions to set a direction and scope for our study: +RQ1: How do software professionals structure the general evolvability assurance activities for Microservices and for what reasons? 
+RQ2: What tools, metrics, and patterns do software professionals use for assuring the evolvability of Microservices and with what rationales? +RQ3: How do software professionals perceive the quality of their Microservices and assurance processes and what parts are seen as challenging? 
+</t>
+  </si>
+  <si>
+    <t>propose a tool</t>
+  </si>
+  <si>
+    <t>The authors performed a study in a real case using a real it company catalog of rules of architectural and code patterns with real systems. The authors proposed a was to calculate the principal of TD in money value.</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, proposed theorical method</t>
+  </si>
+  <si>
+    <t>Limiting technical debt with maintainability assurance: an industry survey on used techniques and differences with service and microservice-based systems</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -12727,6 +12833,11 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Monaco"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Palatino Linotype"/>
     </font>
   </fonts>
   <fills count="4">
@@ -12915,8 +13026,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -13192,7 +13306,7 @@
       <alignment vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -13238,6 +13352,7 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -14388,13 +14503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF48"/>
+  <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V1" sqref="V1"/>
+      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14413,21 +14528,22 @@
     <col min="14" max="14" width="54.6640625" style="1" customWidth="1"/>
     <col min="15" max="15" width="39.33203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="70" style="1" customWidth="1"/>
-    <col min="17" max="17" width="24.83203125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="48.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="44.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="45" style="1" customWidth="1"/>
-    <col min="21" max="21" width="28.83203125" style="1" customWidth="1"/>
-    <col min="22" max="23" width="62.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="69.1640625" style="1" customWidth="1"/>
-    <col min="25" max="26" width="57.1640625" style="1" customWidth="1"/>
-    <col min="27" max="31" width="12.6640625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="25.5" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.33203125" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="16.33203125" style="1"/>
+    <col min="17" max="18" width="27.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="24.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="48.1640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="44.83203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="45" style="1" customWidth="1"/>
+    <col min="23" max="23" width="28.83203125" style="1" customWidth="1"/>
+    <col min="24" max="25" width="62.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="69.1640625" style="1" customWidth="1"/>
+    <col min="27" max="28" width="57.1640625" style="1" customWidth="1"/>
+    <col min="29" max="33" width="12.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="25.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="16.33203125" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28" customHeight="1">
+    <row r="1" spans="1:34" ht="28" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -14471,61 +14587,67 @@
         <v>13</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>927</v>
+        <v>911</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="43" t="s">
+        <v>1014</v>
+      </c>
+      <c r="R1" s="43" t="s">
+        <v>1015</v>
+      </c>
+      <c r="S1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="43" t="s">
-        <v>1027</v>
-      </c>
-      <c r="S1" s="43" t="s">
-        <v>1028</v>
-      </c>
       <c r="T1" s="43" t="s">
-        <v>1029</v>
+        <v>1010</v>
       </c>
       <c r="U1" s="43" t="s">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="V1" s="43" t="s">
+        <v>1012</v>
+      </c>
+      <c r="W1" s="43" t="s">
+        <v>1013</v>
+      </c>
+      <c r="X1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="Y1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="43" t="s">
-        <v>883</v>
-      </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Z1" s="43" t="s">
+        <v>867</v>
+      </c>
+      <c r="AA1" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="43" t="s">
-        <v>891</v>
-      </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AB1" s="43" t="s">
+        <v>875</v>
+      </c>
+      <c r="AC1" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AD1" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AE1" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AF1" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="409" customHeight="1">
+    <row r="2" spans="1:34" ht="409" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -14545,7 +14667,7 @@
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
@@ -14566,58 +14688,62 @@
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>923</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+        <v>907</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="4" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AB2" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AC2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="AE2" s="8"/>
       <c r="AF2" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="409.5" customHeight="1">
+    <row r="3" spans="1:34" ht="409.5" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -14652,60 +14778,64 @@
         <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q3" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12" t="s">
+        <v>1017</v>
+      </c>
+      <c r="S3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="12" t="s">
-        <v>582</v>
-      </c>
-      <c r="S3" s="12" t="s">
+      <c r="T3" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="V3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="X3" s="10" t="s">
+      <c r="Y3" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="Z3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
-      <c r="AC3" s="10" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AD3" s="10" t="s">
-        <v>985</v>
-      </c>
+      <c r="AC3" s="13"/>
+      <c r="AD3" s="13"/>
       <c r="AE3" s="10" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF3" s="10" t="s">
+        <v>968</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="13"/>
+      <c r="AH3" s="13"/>
     </row>
-    <row r="4" spans="1:32" ht="409.5" customHeight="1">
+    <row r="4" spans="1:34" ht="409.5" customHeight="1">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -14746,64 +14876,68 @@
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>925</v>
-      </c>
-      <c r="Q4" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="S4" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>583</v>
-      </c>
       <c r="T4" s="12" t="s">
-        <v>723</v>
-      </c>
-      <c r="U4" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="W4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>879</v>
-      </c>
       <c r="X4" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="AA4" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="Y4" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="AA4" s="14" t="s">
-        <v>726</v>
-      </c>
       <c r="AB4" s="14" t="s">
+        <v>710</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD4" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="12" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>986</v>
-      </c>
       <c r="AE4" s="12" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>969</v>
+      </c>
+      <c r="AG4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="AF4" s="12" t="s">
-        <v>722</v>
+      <c r="AH4" s="12" t="s">
+        <v>707</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="409.5" customHeight="1">
+    <row r="5" spans="1:34" ht="409.5" customHeight="1">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -14811,7 +14945,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>67</v>
@@ -14835,7 +14969,7 @@
         <v>60</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L5" s="10" t="s">
         <v>70</v>
@@ -14844,60 +14978,64 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="Q5" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S5" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R5" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="U5" s="10" t="s">
+      <c r="W5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="X5" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="W5" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="X5" s="12" t="s">
-        <v>837</v>
-      </c>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AB5" s="12" t="s">
+      <c r="AD5" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="AC5" s="12" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>987</v>
-      </c>
       <c r="AE5" s="12" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>970</v>
+      </c>
+      <c r="AG5" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="AF5" s="10" t="s">
+      <c r="AH5" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="282" customHeight="1">
+    <row r="6" spans="1:34" ht="282" customHeight="1">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -14926,7 +15064,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>61</v>
@@ -14938,64 +15076,68 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>926</v>
-      </c>
-      <c r="Q6" s="10" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="R6" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="S6" s="14" t="s">
-        <v>773</v>
-      </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>757</v>
+      </c>
+      <c r="V6" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="W6" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>590</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>895</v>
+      <c r="Y6" s="1" t="s">
+        <v>864</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>771</v>
-      </c>
-      <c r="AA6" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="AB6" s="14" t="s">
-        <v>368</v>
+        <v>580</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>755</v>
       </c>
       <c r="AC6" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>743</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="AG6" s="14" t="s">
         <v>759</v>
       </c>
-      <c r="AD6" s="14" t="s">
-        <v>988</v>
-      </c>
-      <c r="AE6" s="14" t="s">
-        <v>775</v>
-      </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AH6" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="409.5" customHeight="1">
+    <row r="7" spans="1:34" ht="409.5" customHeight="1">
       <c r="A7" s="9">
         <v>7</v>
       </c>
@@ -15039,61 +15181,65 @@
         <v>98</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>978</v>
+        <v>962</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>928</v>
-      </c>
-      <c r="Q7" s="10" t="s">
+        <v>912</v>
+      </c>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="R7" s="12" t="s">
+      <c r="T7" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="S7" s="10" t="s">
+      <c r="U7" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="W7" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="W7" s="12" t="s">
-        <v>591</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>838</v>
-      </c>
       <c r="Y7" s="12" t="s">
-        <v>896</v>
+        <v>581</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>781</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>780</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>778</v>
+        <v>822</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>765</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>989</v>
+        <v>762</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>777</v>
+        <v>972</v>
+      </c>
+      <c r="AG7" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="AH7" s="14" t="s">
+        <v>761</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="409.5" customHeight="1">
+    <row r="8" spans="1:34" ht="409.5" customHeight="1">
       <c r="A8" s="9">
         <v>9</v>
       </c>
@@ -15134,378 +15280,394 @@
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q8" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>1022</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="V8" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="R8" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="T8" s="12" t="s">
+      <c r="W8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="U8" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>852</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>595</v>
-      </c>
-      <c r="Y8" s="14" t="s">
-        <v>897</v>
-      </c>
-      <c r="Z8" s="14" t="s">
-        <v>765</v>
+      <c r="Y8" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>585</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>767</v>
+        <v>881</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>990</v>
+        <v>753</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>768</v>
+        <v>743</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>766</v>
+        <v>973</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>752</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>750</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="409.5" customHeight="1">
+    <row r="9" spans="1:34" ht="409.5" customHeight="1">
       <c r="A9" s="9">
         <v>10</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="9">
         <v>34</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="F9" s="9">
         <v>2016</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>121</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>927</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S9" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>943</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="Q9" s="10" t="s">
+      <c r="T9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="12" t="s">
+      <c r="U9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="S9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="V9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="W9" s="12" t="s">
-        <v>853</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>763</v>
-      </c>
-      <c r="Y9" s="14" t="s">
-        <v>898</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>839</v>
+      <c r="Y9" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>747</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>762</v>
+        <v>882</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>991</v>
+        <v>745</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>764</v>
+        <v>974</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>744</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="409.5" customHeight="1">
+    <row r="10" spans="1:34" ht="409.5" customHeight="1">
       <c r="A10" s="9">
         <v>13</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C10" s="11">
         <v>73</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>131</v>
       </c>
       <c r="F10" s="9">
         <v>2016</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>135</v>
       </c>
       <c r="M10" s="11">
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="Q10" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="S10" s="10" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="U10" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="X10" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>597</v>
-      </c>
-      <c r="S10" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="T10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>806</v>
-      </c>
-      <c r="V10" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>854</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>804</v>
-      </c>
-      <c r="Y10" s="14" t="s">
-        <v>899</v>
-      </c>
-      <c r="Z10" s="14" t="s">
-        <v>805</v>
+      <c r="Y10" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>788</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>807</v>
+        <v>883</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>992</v>
+        <v>794</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>808</v>
+        <v>763</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>809</v>
+        <v>975</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>793</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="359.25" customHeight="1">
+    <row r="11" spans="1:34" ht="359.25" customHeight="1">
       <c r="A11" s="9">
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C11" s="11">
         <v>7</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F11" s="9">
         <v>2018</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>144</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="M11" s="9">
         <v>2</v>
       </c>
       <c r="N11" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="S11" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>945</v>
-      </c>
-      <c r="P11" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="R11" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S11" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T11" s="12" t="s">
-        <v>126</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="V11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>1026</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>839</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC11" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="W11" s="12" t="s">
-        <v>855</v>
-      </c>
-      <c r="X11" s="12" t="s">
+      <c r="AD11" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>900</v>
-      </c>
-      <c r="Z11" s="12" t="s">
+      <c r="AE11" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="AA11" s="12" t="s">
+      <c r="AF11" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="AG11" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="AB11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="AC11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>157</v>
-      </c>
     </row>
-    <row r="12" spans="1:32" ht="395.25" customHeight="1">
+    <row r="12" spans="1:34" ht="395.25" customHeight="1">
       <c r="A12" s="9">
         <v>15</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>28</v>
@@ -15520,445 +15682,467 @@
         <v>31</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M12" s="11">
         <v>2</v>
       </c>
       <c r="N12" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>930</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>946</v>
-      </c>
-      <c r="P12" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q12" s="12" t="s">
+      <c r="AD12" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="R12" s="12" t="s">
-        <v>601</v>
-      </c>
-      <c r="S12" s="12" t="s">
-        <v>602</v>
-      </c>
-      <c r="T12" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="U12" s="12" t="s">
+      <c r="AE12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>977</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AH12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="12" t="s">
-        <v>901</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>603</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD12" s="12" t="s">
-        <v>994</v>
-      </c>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="13" spans="1:32" ht="409.5" customHeight="1">
+    <row r="13" spans="1:34" ht="409.5" customHeight="1">
       <c r="A13" s="9">
         <v>16</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C13" s="9">
         <v>14</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F13" s="9">
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>46</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>947</v>
+        <v>931</v>
       </c>
       <c r="P13" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="V13" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="R13" s="12" t="s">
+      <c r="W13" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="S13" s="12" t="s">
+      <c r="X13" s="10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="Z13" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="U13" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="W13" s="12" t="s">
-        <v>886</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
     </row>
-    <row r="14" spans="1:32" ht="409.5" customHeight="1">
+    <row r="14" spans="1:34" ht="409.5" customHeight="1">
       <c r="A14" s="9">
         <v>17</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="18">
         <v>16</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F14" s="9">
         <v>2016</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="L14" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="I14" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="11">
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>929</v>
+        <v>913</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>948</v>
+        <v>932</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>607</v>
-      </c>
-      <c r="Q14" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="U14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="X14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>840</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC14" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="R14" s="12" t="s">
+      <c r="AD14" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="S14" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="U14" s="12" t="s">
+      <c r="AE14" s="27" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AF14" s="27" t="s">
+        <v>978</v>
+      </c>
+      <c r="AG14" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="V14" s="10" t="s">
+      <c r="AH14" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="W14" s="12" t="s">
-        <v>856</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>902</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA14" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB14" s="27" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC14" s="27" t="s">
-        <v>1025</v>
-      </c>
-      <c r="AD14" s="27" t="s">
-        <v>995</v>
-      </c>
-      <c r="AE14" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF14" s="28" t="s">
-        <v>196</v>
-      </c>
     </row>
-    <row r="15" spans="1:32" ht="409.5" customHeight="1">
+    <row r="15" spans="1:34" ht="409.5" customHeight="1">
       <c r="A15" s="9">
         <v>21</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C15" s="20">
         <v>36</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F15" s="9">
         <v>2015</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M15" s="11">
         <v>10</v>
       </c>
       <c r="N15" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>933</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="X15" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="O15" s="10" t="s">
-        <v>949</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q15" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="R15" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="U15" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="W15" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="X15" s="12" t="s">
-        <v>840</v>
-      </c>
-      <c r="Y15" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="Z15" s="14" t="s">
-        <v>841</v>
+      <c r="Y15" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>824</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>748</v>
+        <v>876</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>749</v>
+        <v>825</v>
       </c>
       <c r="AC15" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD15" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AD15" s="14" t="s">
-        <v>996</v>
-      </c>
-      <c r="AE15" s="14" t="s">
-        <v>747</v>
-      </c>
       <c r="AF15" s="14" t="s">
-        <v>746</v>
+        <v>979</v>
+      </c>
+      <c r="AG15" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="AH15" s="14" t="s">
+        <v>730</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="320.25" customHeight="1">
+    <row r="16" spans="1:34" ht="320.25" customHeight="1">
       <c r="A16" s="9">
         <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C16" s="9">
         <v>86</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F16" s="9">
         <v>2014</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M16" s="9">
         <v>8</v>
       </c>
       <c r="N16" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="O16" s="12" t="s">
+        <v>934</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="W16" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>950</v>
-      </c>
-      <c r="P16" s="12" t="s">
+      <c r="X16" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Y16" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="Z16" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="R16" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="U16" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>903</v>
-      </c>
-      <c r="Z16" s="14" t="s">
-        <v>577</v>
-      </c>
       <c r="AA16" s="14" t="s">
-        <v>842</v>
+        <v>887</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>342</v>
+        <v>567</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>545</v>
+        <v>826</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>997</v>
+        <v>334</v>
       </c>
       <c r="AE16" s="14" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="AF16" s="14" t="s">
-        <v>575</v>
+        <v>980</v>
+      </c>
+      <c r="AG16" s="14" t="s">
+        <v>566</v>
+      </c>
+      <c r="AH16" s="14" t="s">
+        <v>565</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="409" customHeight="1">
+    <row r="17" spans="1:34" ht="409" customHeight="1">
       <c r="A17" s="9">
         <v>27</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="11">
         <v>9</v>
@@ -15967,379 +16151,395 @@
         <v>43</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F17" s="9">
         <v>2016</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>951</v>
+        <v>935</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>232</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="Q17" s="12"/>
       <c r="R17" s="12" t="s">
-        <v>930</v>
+        <v>1030</v>
       </c>
       <c r="S17" s="12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>234</v>
+        <v>914</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>610</v>
+        <v>227</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="X17" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y17" s="14" t="s">
-        <v>904</v>
-      </c>
-      <c r="Z17" s="14" t="s">
-        <v>715</v>
+        <v>229</v>
+      </c>
+      <c r="Y17" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="Z17" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>714</v>
+        <v>888</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>545</v>
+        <v>699</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>998</v>
+        <v>698</v>
       </c>
       <c r="AE17" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="AF17" s="32" t="s">
-        <v>711</v>
+        <v>535</v>
+      </c>
+      <c r="AF17" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="AG17" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="AH17" s="32" t="s">
+        <v>696</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="409.5" customHeight="1">
+    <row r="18" spans="1:34" ht="409.5" customHeight="1">
       <c r="A18" s="9">
         <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C18" s="9">
         <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F18" s="9">
         <v>2018</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M18" s="9">
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>952</v>
+        <v>936</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>243</v>
+        <v>602</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12" t="s">
+        <v>1024</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="T18" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="U18" s="10" t="s">
-        <v>246</v>
+        <v>603</v>
+      </c>
+      <c r="T18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="U18" s="12" t="s">
+        <v>238</v>
       </c>
       <c r="V18" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="W18" s="12" t="s">
-        <v>851</v>
+        <v>239</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="X18" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
+        <v>241</v>
+      </c>
+      <c r="Y18" s="12" t="s">
+        <v>835</v>
+      </c>
+      <c r="Z18" s="12" t="s">
+        <v>242</v>
+      </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="372.25" customHeight="1">
+    <row r="19" spans="1:34" ht="372.25" customHeight="1">
       <c r="A19" s="9">
         <v>38</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C19" s="9">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F19" s="9">
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="M19" s="9">
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>953</v>
+        <v>937</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>257</v>
+        <v>249</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12" t="s">
+        <v>1036</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>616</v>
-      </c>
-      <c r="T19" s="12" t="s">
-        <v>258</v>
+        <v>250</v>
+      </c>
+      <c r="T19" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>259</v>
+        <v>606</v>
       </c>
       <c r="V19" s="12" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>857</v>
+        <v>253</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
+        <v>1035</v>
+      </c>
+      <c r="Y19" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>607</v>
+      </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="409.5" customHeight="1">
+    <row r="20" spans="1:34" ht="409.5" customHeight="1">
       <c r="A20" s="9">
         <v>48</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C20" s="9">
         <v>118</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F20" s="9">
         <v>2015</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="M20" s="9">
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>954</v>
+        <v>938</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>269</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>271</v>
+        <v>1030</v>
+      </c>
+      <c r="S20" s="10" t="s">
+        <v>262</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="U20" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="W20" s="12" t="s">
-        <v>858</v>
-      </c>
-      <c r="X20" s="12" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y20" s="14" t="s">
-        <v>905</v>
-      </c>
-      <c r="Z20" s="14" t="s">
-        <v>793</v>
+        <v>263</v>
+      </c>
+      <c r="U20" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="V20" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="X20" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y20" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z20" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>791</v>
+        <v>889</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>999</v>
+        <v>776</v>
       </c>
       <c r="AE20" s="14" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>790</v>
+        <v>982</v>
+      </c>
+      <c r="AG20" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH20" s="14" t="s">
+        <v>774</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="333.25" customHeight="1">
+    <row r="21" spans="1:34" ht="333.25" customHeight="1">
       <c r="A21" s="9">
         <v>47</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C21" s="9">
         <v>25</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F21" s="9">
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>60</v>
@@ -16348,2112 +16548,2200 @@
         <v>61</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>955</v>
+        <v>939</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>281</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="Q21" s="12"/>
       <c r="R21" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="S21" s="14" t="s">
-        <v>37</v>
+        <v>1030</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="U21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>622</v>
+        <v>276</v>
       </c>
       <c r="W21" s="14" t="s">
-        <v>859</v>
-      </c>
-      <c r="X21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X21" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y21" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="Y21" s="14" t="s">
-        <v>906</v>
-      </c>
       <c r="Z21" s="14" t="s">
-        <v>719</v>
+        <v>827</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>718</v>
+        <v>890</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>533</v>
+        <v>703</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>1000</v>
+        <v>702</v>
       </c>
       <c r="AE21" s="14" t="s">
-        <v>720</v>
+        <v>523</v>
       </c>
       <c r="AF21" s="14" t="s">
-        <v>716</v>
+        <v>983</v>
+      </c>
+      <c r="AG21" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="AH21" s="14" t="s">
+        <v>701</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="409.5" customHeight="1">
+    <row r="22" spans="1:34" ht="409.5" customHeight="1">
       <c r="A22" s="9">
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>956</v>
+        <v>940</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>573</v>
-      </c>
-      <c r="Q22" s="14" t="s">
-        <v>569</v>
-      </c>
-      <c r="R22" s="12" t="s">
-        <v>290</v>
+        <v>563</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>1021</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="T22" s="12" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="U22" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="V22" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="W22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="W22" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="X22" s="12" t="s">
-        <v>624</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>907</v>
-      </c>
-      <c r="Z22" s="14" t="s">
-        <v>574</v>
+      <c r="X22" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y22" s="12" t="s">
+        <v>844</v>
+      </c>
+      <c r="Z22" s="12" t="s">
+        <v>614</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>571</v>
+        <v>891</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>439</v>
+        <v>561</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>1001</v>
+        <v>562</v>
       </c>
       <c r="AE22" s="14" t="s">
-        <v>572</v>
+        <v>431</v>
       </c>
       <c r="AF22" s="14" t="s">
-        <v>568</v>
+        <v>984</v>
+      </c>
+      <c r="AG22" s="14" t="s">
+        <v>562</v>
+      </c>
+      <c r="AH22" s="14" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="409.5" customHeight="1">
+    <row r="23" spans="1:34" ht="409.5" customHeight="1">
       <c r="A23" s="9">
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C23" s="9">
         <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>957</v>
+        <v>941</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q23" s="12" t="s">
-        <v>625</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="S23" s="14" t="s">
-        <v>570</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>802</v>
-      </c>
-      <c r="U23" s="12" t="s">
-        <v>798</v>
-      </c>
-      <c r="V23" s="10" t="s">
-        <v>302</v>
+        <v>780</v>
+      </c>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>786</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>861</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="Y23" s="14" t="s">
-        <v>908</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>795</v>
+        <v>782</v>
+      </c>
+      <c r="X23" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y23" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>778</v>
       </c>
       <c r="AA23" s="14" t="s">
-        <v>801</v>
+        <v>892</v>
       </c>
       <c r="AB23" s="14" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="AC23" s="14" t="s">
-        <v>427</v>
+        <v>785</v>
       </c>
       <c r="AD23" s="14" t="s">
-        <v>1002</v>
+        <v>784</v>
       </c>
       <c r="AE23" s="14" t="s">
-        <v>799</v>
+        <v>419</v>
       </c>
       <c r="AF23" s="14" t="s">
-        <v>797</v>
+        <v>985</v>
+      </c>
+      <c r="AG23" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="AH23" s="14" t="s">
+        <v>781</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="345.25" customHeight="1">
+    <row r="24" spans="1:34" ht="345.25" customHeight="1">
       <c r="A24" s="9">
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>942</v>
+      </c>
+      <c r="P24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S24" s="12" t="s">
+        <v>1037</v>
+      </c>
+      <c r="T24" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="U24" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="V24" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="W24" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="X24" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y24" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z24" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="AD24" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE24" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>986</v>
+      </c>
+      <c r="AG24" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="O24" s="12" t="s">
-        <v>958</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="R24" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="V24" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="W24" s="12" t="s">
-        <v>862</v>
-      </c>
-      <c r="X24" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="AB24" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="AC24" s="12" t="s">
-        <v>1024</v>
-      </c>
-      <c r="AD24" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AE24" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="AF24" s="12" t="s">
+      <c r="AH24" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="409.5" customHeight="1">
+    <row r="25" spans="1:34" ht="409.5" customHeight="1">
       <c r="A25" s="9">
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>636</v>
+        <v>1038</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>959</v>
+        <v>943</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>637</v>
-      </c>
-      <c r="Q25" s="12" t="s">
-        <v>638</v>
-      </c>
+        <v>626</v>
+      </c>
+      <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>325</v>
+        <v>1021</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>37</v>
+        <v>1039</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="U25" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="10" t="s">
-        <v>639</v>
+      <c r="V25" s="12" t="s">
+        <v>318</v>
       </c>
       <c r="W25" s="12" t="s">
-        <v>863</v>
-      </c>
-      <c r="X25" s="12" t="s">
-        <v>640</v>
+        <v>37</v>
+      </c>
+      <c r="X25" s="10" t="s">
+        <v>1040</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>909</v>
+        <v>847</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>327</v>
+        <v>627</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>328</v>
+        <v>893</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AC25" s="12" t="s">
-        <v>545</v>
+        <v>320</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>1004</v>
+        <v>321</v>
       </c>
       <c r="AE25" s="12" t="s">
-        <v>330</v>
+        <v>535</v>
       </c>
       <c r="AF25" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="AG25" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH25" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="386" customHeight="1">
+    <row r="26" spans="1:34" ht="386" customHeight="1">
       <c r="A26" s="9">
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>960</v>
+        <v>944</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>643</v>
-      </c>
+        <v>629</v>
+      </c>
+      <c r="Q26" s="12"/>
       <c r="R26" s="12" t="s">
-        <v>337</v>
+        <v>1041</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>338</v>
+        <v>630</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="U26" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="V26" s="10" t="s">
-        <v>644</v>
+        <v>330</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="W26" s="12" t="s">
-        <v>864</v>
-      </c>
-      <c r="X26" s="12" t="s">
-        <v>645</v>
+        <v>329</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>631</v>
       </c>
       <c r="Y26" s="12" t="s">
-        <v>910</v>
+        <v>848</v>
       </c>
       <c r="Z26" s="12" t="s">
-        <v>340</v>
+        <v>632</v>
       </c>
       <c r="AA26" s="12" t="s">
-        <v>341</v>
+        <v>894</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="AC26" s="12" t="s">
-        <v>545</v>
+        <v>333</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>1005</v>
+        <v>334</v>
       </c>
       <c r="AE26" s="12" t="s">
-        <v>343</v>
+        <v>535</v>
       </c>
       <c r="AF26" s="12" t="s">
-        <v>344</v>
+        <v>988</v>
+      </c>
+      <c r="AG26" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="AH26" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="409.5" customHeight="1">
+    <row r="27" spans="1:34" ht="409.5" customHeight="1">
       <c r="A27" s="9">
         <v>44</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C27" s="9">
         <v>23</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>961</v>
+        <v>945</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q27" s="12" t="s">
-        <v>349</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="Q27" s="12"/>
       <c r="R27" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="T27" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>350</v>
       </c>
       <c r="U27" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="12" t="s">
-        <v>911</v>
-      </c>
-      <c r="Z27" s="12" t="s">
-        <v>351</v>
-      </c>
+      <c r="V27" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="W27" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X27" s="10" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
       <c r="AA27" s="12" t="s">
-        <v>352</v>
+        <v>895</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AC27" s="12" t="s">
-        <v>533</v>
+        <v>344</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>1004</v>
+        <v>345</v>
       </c>
       <c r="AE27" s="12" t="s">
-        <v>354</v>
+        <v>523</v>
       </c>
       <c r="AF27" s="12" t="s">
-        <v>355</v>
+        <v>987</v>
+      </c>
+      <c r="AG27" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH27" s="12" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="358.25" customHeight="1">
+    <row r="28" spans="1:34" ht="358.25" customHeight="1">
       <c r="A28" s="9">
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>962</v>
+        <v>946</v>
       </c>
       <c r="P28" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="S28" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="T28" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="U28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="W28" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC28" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF28" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG28" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="AH28" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="Q28" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="U28" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="V28" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="W28" s="12" t="s">
-        <v>881</v>
-      </c>
-      <c r="X28" s="12" t="s">
-        <v>649</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>912</v>
-      </c>
-      <c r="Z28" s="12" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA28" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB28" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC28" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>1006</v>
-      </c>
-      <c r="AE28" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="AF28" s="12" t="s">
-        <v>370</v>
-      </c>
     </row>
-    <row r="29" spans="1:32" ht="333.25" customHeight="1">
+    <row r="29" spans="1:34" ht="333.25" customHeight="1">
       <c r="A29" s="9">
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>963</v>
+        <v>947</v>
       </c>
       <c r="P29" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="U29" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="V29" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="W29" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="Z29" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA29" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="AC29" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="AD29" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="R29" s="12" t="s">
+      <c r="AE29" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF29" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="AG29" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="S29" s="12" t="s">
+      <c r="AH29" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="U29" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="V29" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="W29" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y29" s="12" t="s">
-        <v>913</v>
-      </c>
-      <c r="Z29" s="12" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA29" s="12" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB29" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="AC29" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD29" s="12" t="s">
-        <v>1004</v>
-      </c>
-      <c r="AE29" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AF29" s="12" t="s">
-        <v>390</v>
-      </c>
     </row>
-    <row r="30" spans="1:32" ht="409.5" customHeight="1">
+    <row r="30" spans="1:34" ht="409.5" customHeight="1">
       <c r="A30" s="9">
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>964</v>
+        <v>948</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="Q30" s="12" t="s">
-        <v>396</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="Q30" s="12"/>
       <c r="R30" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>37</v>
+        <v>1044</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>388</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="U30" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V30" s="25" t="s">
-        <v>398</v>
-      </c>
-      <c r="W30" s="12" t="s">
-        <v>866</v>
-      </c>
-      <c r="X30" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>914</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>567</v>
+      <c r="V30" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X30" s="25" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y30" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="Z30" s="12" t="s">
+        <v>621</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>565</v>
+        <v>898</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AC30" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="AD30" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="AE30" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AD30" s="14" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AE30" s="14" t="s">
-        <v>566</v>
-      </c>
       <c r="AF30" s="14" t="s">
-        <v>563</v>
+        <v>990</v>
+      </c>
+      <c r="AG30" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="AH30" s="14" t="s">
+        <v>553</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="409.5" customHeight="1">
+    <row r="31" spans="1:34" ht="409.5" customHeight="1">
       <c r="A31" s="9">
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q31" s="12" t="s">
-        <v>403</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="Q31" s="12"/>
       <c r="R31" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
+        <v>1045</v>
+      </c>
+      <c r="S31" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="T31" s="12" t="s">
+        <v>396</v>
+      </c>
       <c r="U31" s="14"/>
-      <c r="V31" s="10" t="s">
-        <v>653</v>
-      </c>
-      <c r="W31" s="12" t="s">
-        <v>882</v>
-      </c>
-      <c r="X31" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y31" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="Z31" s="12" t="s">
+        <v>397</v>
+      </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="409.5" customHeight="1">
+    <row r="32" spans="1:34" ht="409.5" customHeight="1">
       <c r="A32" s="9">
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>965</v>
+        <v>949</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>658</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>409</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="Q32" s="12"/>
       <c r="R32" s="12" t="s">
-        <v>410</v>
+        <v>1046</v>
       </c>
       <c r="S32" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="U32" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="T32" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="U32" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>660</v>
+      <c r="V32" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="W32" s="12" t="s">
-        <v>890</v>
-      </c>
-      <c r="X32" s="12" t="s">
-        <v>661</v>
+        <v>646</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>647</v>
       </c>
       <c r="Y32" s="12" t="s">
-        <v>915</v>
+        <v>874</v>
       </c>
       <c r="Z32" s="12" t="s">
-        <v>411</v>
+        <v>648</v>
       </c>
       <c r="AA32" s="12" t="s">
-        <v>412</v>
+        <v>899</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="AC32" s="12" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="AD32" s="12" t="s">
-        <v>1008</v>
+        <v>405</v>
       </c>
       <c r="AE32" s="12" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="AF32" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="AG32" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="AH32" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="409.5" customHeight="1">
+    <row r="33" spans="1:34" ht="409.5" customHeight="1">
       <c r="A33" s="9">
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>966</v>
+        <v>950</v>
       </c>
       <c r="P33" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S33" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="T33" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="U33" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="W33" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="X33" s="10" t="s">
+        <v>652</v>
+      </c>
+      <c r="Y33" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="Z33" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="AD33" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="AE33" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF33" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="AG33" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="AH33" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="R33" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="S33" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="U33" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="V33" s="10" t="s">
-        <v>665</v>
-      </c>
-      <c r="W33" s="12" t="s">
-        <v>888</v>
-      </c>
-      <c r="X33" s="12" t="s">
-        <v>889</v>
-      </c>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="AB33" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="AC33" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="AD33" s="12" t="s">
-        <v>1009</v>
-      </c>
-      <c r="AE33" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="AF33" s="12" t="s">
-        <v>429</v>
-      </c>
     </row>
-    <row r="34" spans="1:32" ht="409.5" customHeight="1">
+    <row r="34" spans="1:34" ht="409.5" customHeight="1">
       <c r="A34" s="9">
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>967</v>
+        <v>951</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>933</v>
-      </c>
-      <c r="Q34" s="12" t="s">
-        <v>433</v>
-      </c>
+        <v>917</v>
+      </c>
+      <c r="Q34" s="12"/>
       <c r="R34" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S34" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="T34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="S34" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>435</v>
-      </c>
       <c r="U34" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="V34" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="W34" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V34" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="W34" s="10" t="s">
-        <v>867</v>
-      </c>
       <c r="X34" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="Y34" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="Z34" s="14" t="s">
-        <v>844</v>
-      </c>
-      <c r="AA34" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="AB34" s="12" t="s">
-        <v>438</v>
+        <v>428</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>851</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>828</v>
       </c>
       <c r="AC34" s="12" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="AD34" s="12" t="s">
-        <v>1010</v>
+        <v>430</v>
       </c>
       <c r="AE34" s="12" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AF34" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="AG34" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH34" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="409.5" customHeight="1">
+    <row r="35" spans="1:34" ht="409.5" customHeight="1">
       <c r="A35" s="9">
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>935</v>
-      </c>
-      <c r="Q35" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="R35" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12" t="s">
+        <v>1049</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="T35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="S35" s="14" t="s">
+      <c r="U35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T35" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="U35" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="V35" s="10" t="s">
-        <v>670</v>
-      </c>
-      <c r="W35" s="10" t="s">
-        <v>884</v>
+      <c r="V35" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="W35" s="14" t="s">
+        <v>540</v>
       </c>
       <c r="X35" s="10" t="s">
-        <v>885</v>
-      </c>
-      <c r="Y35" s="12" t="s">
-        <v>917</v>
-      </c>
-      <c r="Z35" s="12" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA35" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="AB35" s="14" t="s">
-        <v>551</v>
+        <v>657</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>868</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>869</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="AB35" s="12" t="s">
+        <v>539</v>
       </c>
       <c r="AC35" s="14" t="s">
-        <v>427</v>
+        <v>543</v>
       </c>
       <c r="AD35" s="14" t="s">
-        <v>1011</v>
+        <v>541</v>
       </c>
       <c r="AE35" s="14" t="s">
-        <v>552</v>
+        <v>419</v>
       </c>
       <c r="AF35" s="14" t="s">
-        <v>554</v>
+        <v>994</v>
+      </c>
+      <c r="AG35" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="AH35" s="14" t="s">
+        <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="409.5" customHeight="1">
+    <row r="36" spans="1:34" ht="409.5" customHeight="1">
       <c r="A36" s="9">
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>836</v>
+        <v>820</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I36" s="29" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="J36" s="29" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>936</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>454</v>
-      </c>
+        <v>920</v>
+      </c>
+      <c r="Q36" s="12"/>
       <c r="R36" s="12" t="s">
-        <v>37</v>
+        <v>1045</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>782</v>
+        <v>446</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U36" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="V36" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="W36" s="13" t="s">
-        <v>868</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>788</v>
-      </c>
-      <c r="Y36" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="Z36" s="14" t="s">
-        <v>789</v>
+      <c r="W36" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="X36" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y36" s="13" t="s">
+        <v>852</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>772</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>787</v>
+        <v>902</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>1012</v>
+        <v>768</v>
       </c>
       <c r="AE36" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="AF36" s="34" t="s">
-        <v>783</v>
+        <v>770</v>
+      </c>
+      <c r="AF36" s="14" t="s">
+        <v>995</v>
+      </c>
+      <c r="AG36" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="AH36" s="34" t="s">
+        <v>767</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="409.5" customHeight="1">
+    <row r="37" spans="1:34" ht="409.5" customHeight="1">
       <c r="A37" s="9">
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>832</v>
+        <v>816</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>970</v>
+        <v>954</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q37" s="12" t="s">
-        <v>459</v>
-      </c>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
+        <v>659</v>
+      </c>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12" t="s">
+        <v>1048</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>451</v>
+      </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="10" t="s">
-        <v>673</v>
-      </c>
-      <c r="W37" s="13"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="14"/>
-      <c r="Z37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="10" t="s">
+        <v>1050</v>
+      </c>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
       <c r="AF37" s="14"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
     </row>
-    <row r="38" spans="1:32" ht="409.5" customHeight="1">
+    <row r="38" spans="1:34" ht="409.5" customHeight="1">
       <c r="A38" s="9">
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>677</v>
+        <v>1051</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
+        <v>663</v>
+      </c>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12"/>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="W38" s="13"/>
-      <c r="X38" s="13"/>
-      <c r="Y38" s="14"/>
-      <c r="Z38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="10" t="s">
+        <v>664</v>
+      </c>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
       <c r="AA38" s="14"/>
       <c r="AB38" s="14"/>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
       <c r="AE38" s="14"/>
       <c r="AF38" s="14"/>
+      <c r="AG38" s="14"/>
+      <c r="AH38" s="14"/>
     </row>
-    <row r="39" spans="1:32" ht="409.5" customHeight="1">
+    <row r="39" spans="1:34" ht="409.5" customHeight="1">
       <c r="A39" s="9">
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>469</v>
+        <v>1052</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>971</v>
+        <v>955</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>938</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="R39" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="S39" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="T39" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="S39" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T39" s="14" t="s">
-        <v>73</v>
       </c>
       <c r="U39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V39" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="W39" s="13" t="s">
-        <v>887</v>
-      </c>
-      <c r="X39" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="Y39" s="14"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="AB39" s="14" t="s">
-        <v>814</v>
-      </c>
+      <c r="V39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W39" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y39" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z39" s="13" t="s">
+        <v>796</v>
+      </c>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
       <c r="AC39" s="14" t="s">
-        <v>533</v>
+        <v>799</v>
       </c>
       <c r="AD39" s="14" t="s">
-        <v>1013</v>
+        <v>798</v>
       </c>
       <c r="AE39" s="14" t="s">
-        <v>813</v>
+        <v>523</v>
       </c>
       <c r="AF39" s="14" t="s">
-        <v>811</v>
+        <v>996</v>
+      </c>
+      <c r="AG39" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="AH39" s="14" t="s">
+        <v>795</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="318.25" customHeight="1">
+    <row r="40" spans="1:34" ht="318.25" customHeight="1">
       <c r="A40" s="9">
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>833</v>
+        <v>817</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="S40" s="14" t="s">
-        <v>37</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12" t="s">
+        <v>1053</v>
+      </c>
+      <c r="S40" s="14"/>
       <c r="T40" s="14" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="U40" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V40" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="W40" s="13" t="s">
-        <v>869</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="Y40" s="14" t="s">
-        <v>919</v>
-      </c>
-      <c r="Z40" s="14" t="s">
-        <v>528</v>
+      <c r="V40" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="W40" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X40" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y40" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z40" s="13" t="s">
+        <v>520</v>
       </c>
       <c r="AA40" s="14" t="s">
-        <v>535</v>
+        <v>903</v>
       </c>
       <c r="AB40" s="14" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="AC40" s="14" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="AD40" s="14" t="s">
-        <v>1014</v>
+        <v>524</v>
       </c>
       <c r="AE40" s="14" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="AF40" s="14" t="s">
-        <v>532</v>
+        <v>997</v>
+      </c>
+      <c r="AG40" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AH40" s="14" t="s">
+        <v>522</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="404.25" customHeight="1">
+    <row r="41" spans="1:34" ht="404.25" customHeight="1">
       <c r="A41" s="9">
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C41" s="9">
         <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="Q41" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="R41" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="S41" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S41" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="T41" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="U41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T41" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="U41" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="V41" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="W41" s="13" t="s">
-        <v>870</v>
-      </c>
-      <c r="X41" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="AB41" s="14" t="s">
-        <v>732</v>
-      </c>
+      <c r="V41" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="W41" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="X41" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>854</v>
+      </c>
+      <c r="Z41" s="13" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
       <c r="AC41" s="14" t="s">
-        <v>533</v>
+        <v>1054</v>
       </c>
       <c r="AD41" s="14" t="s">
-        <v>1015</v>
+        <v>716</v>
       </c>
       <c r="AE41" s="14" t="s">
-        <v>732</v>
+        <v>523</v>
       </c>
       <c r="AF41" s="14" t="s">
-        <v>733</v>
+        <v>998</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="AH41" s="14" t="s">
+        <v>717</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="398.75" customHeight="1">
+    <row r="42" spans="1:34" ht="398.75" customHeight="1">
       <c r="A42" s="9">
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q42" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="R42" s="14" t="s">
-        <v>542</v>
-      </c>
-      <c r="S42" s="14" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S42" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="U42" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T42" s="14" t="s">
-        <v>539</v>
-      </c>
-      <c r="U42" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>871</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>543</v>
-      </c>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14" t="s">
-        <v>538</v>
-      </c>
-      <c r="AB42" s="14" t="s">
-        <v>541</v>
-      </c>
+      <c r="V42" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="W42" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="X42" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z42" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
       <c r="AC42" s="14" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AD42" s="14" t="s">
-        <v>1016</v>
+        <v>531</v>
       </c>
       <c r="AE42" s="14" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
       <c r="AF42" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="AG42" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="AH42" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="387" customHeight="1">
+    <row r="43" spans="1:34" ht="387" customHeight="1">
       <c r="A43" s="9">
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q43" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
+        <v>477</v>
+      </c>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
-      <c r="V43" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="W43" s="13"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
       <c r="AA43" s="14"/>
       <c r="AB43" s="14"/>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
       <c r="AE43" s="14"/>
       <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
     </row>
-    <row r="44" spans="1:32" ht="409.5" customHeight="1">
+    <row r="44" spans="1:34" ht="409.5" customHeight="1">
       <c r="A44" s="9">
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>28</v>
@@ -18468,322 +18756,332 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>974</v>
+        <v>958</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>454</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="Q44" s="12"/>
       <c r="R44" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="S44" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="S44" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="T44" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="U44" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T44" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="U44" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="V44" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="W44" s="13" t="s">
-        <v>872</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>846</v>
-      </c>
-      <c r="Y44" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="Z44" s="14" t="s">
-        <v>847</v>
+      <c r="V44" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="W44" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>830</v>
       </c>
       <c r="AA44" s="14" t="s">
-        <v>544</v>
+        <v>877</v>
       </c>
       <c r="AB44" s="14" t="s">
-        <v>547</v>
+        <v>831</v>
       </c>
       <c r="AC44" s="14" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="AD44" s="14" t="s">
-        <v>1017</v>
+        <v>537</v>
       </c>
       <c r="AE44" s="14" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="AF44" s="14" t="s">
-        <v>548</v>
+        <v>1000</v>
+      </c>
+      <c r="AG44" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="AH44" s="14" t="s">
+        <v>538</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="409.5" customHeight="1">
+    <row r="45" spans="1:34" ht="409.5" customHeight="1">
       <c r="A45" s="9">
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>754</v>
-      </c>
-      <c r="Q45" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="R45" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12" t="s">
+        <v>1044</v>
+      </c>
+      <c r="S45" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="T45" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="S45" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="T45" s="12" t="s">
-        <v>706</v>
       </c>
       <c r="U45" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="V45" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="W45" s="13" t="s">
-        <v>873</v>
-      </c>
-      <c r="X45" s="13" t="s">
-        <v>751</v>
-      </c>
-      <c r="Y45" s="33" t="s">
-        <v>920</v>
-      </c>
-      <c r="Z45" s="33" t="s">
-        <v>753</v>
-      </c>
-      <c r="AA45" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="AB45" s="14" t="s">
-        <v>757</v>
+      <c r="V45" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="W45" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X45" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>857</v>
+      </c>
+      <c r="Z45" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA45" s="33" t="s">
+        <v>904</v>
+      </c>
+      <c r="AB45" s="33" t="s">
+        <v>737</v>
       </c>
       <c r="AC45" s="14" t="s">
-        <v>755</v>
+        <v>736</v>
       </c>
       <c r="AD45" s="14" t="s">
-        <v>1018</v>
+        <v>741</v>
       </c>
       <c r="AE45" s="14" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="AF45" s="14" t="s">
-        <v>750</v>
+        <v>1001</v>
+      </c>
+      <c r="AG45" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="AH45" s="14" t="s">
+        <v>734</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="409.5" customHeight="1">
+    <row r="46" spans="1:34" ht="409.5" customHeight="1">
       <c r="A46" s="9">
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>835</v>
+        <v>819</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>500</v>
+        <v>1056</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>745</v>
+        <v>729</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="Q46" s="12" t="s">
-        <v>421</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="Q46" s="12"/>
       <c r="R46" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="S46" s="14" t="s">
+        <v>1047</v>
+      </c>
+      <c r="S46" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="T46" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="U46" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T46" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="U46" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="V46" s="10" t="s">
-        <v>740</v>
-      </c>
-      <c r="W46" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="Y46" s="14" t="s">
-        <v>921</v>
-      </c>
-      <c r="Z46" s="14" t="s">
-        <v>734</v>
+      <c r="V46" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="W46" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>719</v>
       </c>
       <c r="AA46" s="14" t="s">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="AB46" s="14" t="s">
-        <v>743</v>
+        <v>718</v>
       </c>
       <c r="AC46" s="14" t="s">
-        <v>533</v>
+        <v>728</v>
       </c>
       <c r="AD46" s="14" t="s">
-        <v>1019</v>
+        <v>727</v>
       </c>
       <c r="AE46" s="14" t="s">
-        <v>742</v>
+        <v>523</v>
       </c>
       <c r="AF46" s="14" t="s">
-        <v>741</v>
+        <v>1002</v>
+      </c>
+      <c r="AG46" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="AH46" s="14" t="s">
+        <v>725</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="337.25" customHeight="1">
+    <row r="47" spans="1:34" ht="337.25" customHeight="1">
       <c r="A47" s="9">
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>977</v>
+        <v>961</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q47" s="12" t="s">
-        <v>511</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="Q47" s="12"/>
       <c r="R47" s="12" t="s">
-        <v>37</v>
+        <v>1046</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>37</v>
+        <v>501</v>
       </c>
       <c r="T47" s="12" t="s">
         <v>37</v>
@@ -18791,133 +19089,142 @@
       <c r="U47" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="V47" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="W47" s="10" t="s">
-        <v>875</v>
+      <c r="V47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="W47" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="X47" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="Y47" s="12" t="s">
-        <v>922</v>
-      </c>
-      <c r="Z47" s="12" t="s">
-        <v>514</v>
+        <v>502</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>859</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="AA47" s="12" t="s">
-        <v>515</v>
+        <v>906</v>
       </c>
       <c r="AB47" s="12" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="AC47" s="12" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="AD47" s="12" t="s">
-        <v>1020</v>
+        <v>506</v>
       </c>
       <c r="AE47" s="12" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="AF47" s="12" t="s">
-        <v>519</v>
+        <v>1003</v>
+      </c>
+      <c r="AG47" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AH47" s="12" t="s">
+        <v>509</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="409.5" customHeight="1">
+    <row r="48" spans="1:34" ht="409.5" customHeight="1">
       <c r="A48" s="9">
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="P48" s="14"/>
-      <c r="Q48" s="12" t="s">
-        <v>454</v>
-      </c>
+      <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
+      <c r="S48" s="12" t="s">
+        <v>446</v>
+      </c>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
-      <c r="V48" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="W48" s="13"/>
-      <c r="X48" s="13"/>
-      <c r="Y48" s="14"/>
-      <c r="Z48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y48" s="13"/>
+      <c r="Z48" s="13"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
       <c r="AC48" s="14"/>
       <c r="AD48" s="14"/>
       <c r="AE48" s="14"/>
       <c r="AF48" s="14"/>
+      <c r="AG48" s="14"/>
+      <c r="AH48" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="A Proposed Model-driven Approach to Manage Architectural Technical Debt Life Cycle _x000a_"/>
-    <hyperlink ref="X4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
-    <hyperlink ref="X8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="Z4" r:id="rId2" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="Z8" r:id="rId3" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
     <hyperlink ref="P11" r:id="rId4" display="In this research we present a novel approach, based on architecture reverse engineering and compliance checking, for identifying ATD hotspots in Android apps _x000a_1) Android architecture guideline extraction (official Android guidelines, Academic research, grey literature, developers interviews)_x000a__x000a_2) Android reference architecture establishment. _x000a_- ADL (Architecture Description Language) Acme_x000a_- OCL (Object Constraint Language)_x000a_3) Reverse engineering of implemented architecture _x000a_this step is constituted by the automated reverse engineering of the most prominent Android architectural components (i.e. Activities, Services, Content providers, and Broadcast receivers) of an Android application and the relations between such building blocks in terms of connectors and ports _x000a_ACME-Generator tool (https://github.com/arsadeghi/ACME-Generator)_x000a__x000a_4) Compliance checking _x000a_model comparison tool EMFCompare (https://www.eclipse.org/emf/compare/)_x000a__x000a_5) Quantitative assessment of compliance violations _x000a_The output of this step is the set of Android ATD hotspots, i.e. the components of the implemented architecture which contain the highest number of non-adherence items w.r.t. the Android reference architecture. "/>
-    <hyperlink ref="Z12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
-    <hyperlink ref="X23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
-    <hyperlink ref="X30" r:id="rId7" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="AB12" r:id="rId5" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="Z23" r:id="rId6" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="Z30" r:id="rId7" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
     <hyperlink ref="D32" r:id="rId8"/>
-    <hyperlink ref="X32" r:id="rId9" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="Z32" r:id="rId9" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
     <hyperlink ref="D33" r:id="rId10"/>
     <hyperlink ref="D34" r:id="rId11" display="Areti Ampatzoglou, Apostolos Ampatzoglou, Alexander Chatzigeorgiou, Paris Avgeriou, Pekka Abrahamsson, Antonio Martini,"/>
     <hyperlink ref="D35" r:id="rId12"/>
     <hyperlink ref="N41" r:id="rId13" display="Analyse a set of application from Cast database system tWe analyzed these applications us- ing CAST’s Application Intelligence Platform (AIP),7 which analyzes an en- tire application using more than 1,200 rules to detect violations of good ar- chitectural and coding practice. We drew these rules from software engi- neering literature, repositories such as the Common Weakness Enumeration (CWE; cwe.mitre.org), online discus- sion groups of structural quality prob- lems, and customer experience as re- ported from defect logs and application architects. As an example, security- related violations would include SQL injection, cross-site scripting, buffer overflows, and other violations from the CWE. _x000a_"/>
-    <hyperlink ref="W4" r:id="rId14" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
-    <hyperlink ref="W8" r:id="rId15" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
-    <hyperlink ref="W23" r:id="rId16" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
-    <hyperlink ref="W30" r:id="rId17" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
-    <hyperlink ref="W32" r:id="rId18" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
-    <hyperlink ref="Y12" r:id="rId19" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
+    <hyperlink ref="Y4" r:id="rId14" display="Different quality or technical debt indexes have been defined in the literature to evaluate a project, as the old Maintainability Index of Coleman [14]. _x000a__x000a_[14]  D. Coleman, D. Ash, B. Lowther, and P. Oman, “Using metrics to evaluate software system maintainability,” Computer, vol. 27, no. 8, pp. 44–49, Aug. 1994. [Online]. Available: http://dx.doi.org/10.1109/2. 303623 _x000a__x000a_We briefly cite below the indexes provided by some tools, while a more extended description of some of them can be found in [7]. _x000a__x000a_[7]  F. Arcelli Fontana, R. Roveda, and M. Zanoni, “Technical debt indexes provided by tools: A preliminary discussion,” in 2016 IEEE 8th Inter. Work. on Managing Technical Debt (MTD), Oct 2016, pp. 28–31. _x000a_Sonargraph tool evaluates Structural Debt1 quantified through two measures: Structural Debt Index (SDI) and Structural Debt Cost (SDC). SonarQube2 implements the SQALE [15] model for the estimation of Technical Debt. Three values are computed on the analyzed project, i.e., Technical Debt (TDI), Technical Debt Ratio (TDR) and SQALE Rating (SR). The TDI computation does not take into _x000a__x000a_[15]  J.-L. Letouzey, “The SQALE method for evaluating technical debt,” in MTD 2012, June 2012, pp. 31–36. _x000a__x000a_account architectural or dependency information. CAST3 estimates the amount of principal in the Technical Debt (TD-Principal) of an application based on detectable structural problems. Structure1014 shows a Structural over-Complexity (SoC) view to estimate the percentage of the system involved in architectural issues. Obviously, other tools are available which are able to compute a huge number of metrics also related to architectural issues, e.g., Massey Architecture Explorer5 com- putes an Antipatterns Score and the Tangledness metric [16], Lattix6 provides Stability, Cyclicality, and Coupling metrics, and STAN7 supports the computations of different R. Martin’s metrics [17]. With respect to the previous indexes, our index is focused only on architectural issues (e.g., AS) and takes into account different features not considered, according to our knowledge, in th"/>
+    <hyperlink ref="Y8" r:id="rId15" display="[3] Brown, N., Cai, Y ., Guo, Y ., Kazman, R., Kim, M., Kruchten, P., Lim, E., Maccormack, A., Nord, R., Ozkaya, I., Sangwan, R., Seaman, C., Sullivan, K., and Zazworka, N., 2010. Managing technical debt in software-reliant systems. In Proceedings of the Proceedings of the FSE/SDP workshop on Future of software engineering research (FoSER'10) (Santa Fe, New Mexico, USA2010), ACM, 1882373, 47-52. DOI= http://dx.doi.org/10.1145/1882362.1882373._x000a__x000a_[5] Curtis, B., Sappidi, J., and Szynkarski, A., 2012. Estimating the size, cost, and types of Technical Debt. In Proceedings of the 3rd International Workshop on Managing Technical Debt (MTD '12), 49-53. DOI= http://dx.doi.org/10.1109/mtd.2012.6226000._x000a__x000a_[12] Marinescu, R., 2012. Assessing technical debt by identifying design flaws in software systems. IBM Journal of Research and Development 56, 5, 9:1-9:13. DOI= http://dx.doi.org/10.1147/JRD.2012.2204512._x000a__x000a_[15] Nord, R.L., Ozkaya, I., Kruchten, P., and Gonzalez-Rojas, M., 2012. In search of a metric for managing architectural technical debt. In Proceedings of the 10th Working IEEE/IFIP Conference on Software Architecture (WICSA '12) IEEE Computer Society, Helsinki, Finland._x000a__x000a__x000a_[18] Seaman, C. and Guo, Y., 2011. Measuring and Monitoring Technical Debt. In Advances in Computers, M. Zelkowitz Ed. Elsevier Science, 25-45._x000a__x000a_In our work, we consider that the estimation of ATD should be calculated on real data (i.e., source code), and the estimation makes more sense within a relative short term, e.g., between two releases. That is, the estimation of the next release is based on the real data of this implemented release."/>
+    <hyperlink ref="Y23" r:id="rId16" display="A. Foundations on technical debt _x000a__x0009_[16]  B. Barton, et al., How to Settle Your Technical Debt: A Manager’s Guide. Arlington, MA: Cutter Consortium, 2010. _x000a__x0009_[17]  M. M. Lehman, Program Evolution: Processes of Software Change. San Diego, CA: Academic Press Professional, 1985. _x000a__x0009_[18]  D. L. Parnas, “Software aging,” Proc. 16th Int. Conf. Software Engineering, ACM Press, May 1994, pp. 279–287. _x000a__x0009_[19]  R. Sindhgatta, N. C. Narendra, and B. Sengupta, “Software evolution in agile development: A case study,” Companion to the Proc. ACM Int. Conf. Object-Oriented Programming, Systems, Languages, and Applications (SPLASH ’10), ACM Press, Oct. 2010, pp. 105–114, doi: 10.1145/1869542.1869560. _x000a__x0009_[20]  C. J. Neill and P. A. Laplante, “Paying down design debt with strategic refactoring,” Computer, vol. 39, no. 12, pp. 131–134, Dec. 2006. _x000a__x0009_[21]  T. Klinger, P. Tarr, P. Wagstrom, and C. Williams, “An enterprise perspective on technical debt,” Proc. 2nd Work. Managing Technical Debt (MTD ’11), ACM Press, May 2011, pp. 35–38, doi: 10.1145/1985362.1985371. _x000a_B. Metrics to guide refactoring and re-architecting process _x000a__x000a__x0009_[22]  M. Fowler, K. Beck, J. Brant, W. Opdyke, and D. Roberts, Refactoring: Improving the Design of Existing Code. Boston: Addison-Wesley Professional, 1999. _x000a__x000a__x0009_[23]  M. Kim and D. Notkin, “Discovering and representing systematic code changes,” Proc. 31st Int. Conf. Software Engineering, May 2009, pp. 309–319, doi: 10.1109/ICSE.2009.5070531. _x000a__x000a__x0009_[24]  K. Sethi, Y. Cai, S. Wong, A. Garcia, and C. Sant'Anna, “From retrospect to prospect: Assessing modularity and stability from software architecture,” Proc. Joint 8th Working IEEE/IFIP Conf. Software Architecture and 3rd Eur. Conf. Software Architecture (WICSA/ECSA), IEEE Press, Sep. 2009, pp. 269–272, doi: 10.1109/WICSA.2009.5290817. _x000a__x000a__x0009_[25]  J. Schumacher, N. Zazworka, F. Shull, C. Seaman, and M. Shaw, “Building empirical support for automated code smell detection,” Proc. 2010 ACM-IEEE Int. Symp. Empirical Software Engineering and Measurement, ACM _x000a_C. Tool support _x000a__x000a__x0009_[27]  O. Gaudin, “Evaluate your technic"/>
+    <hyperlink ref="Y30" r:id="rId17" display="[10] Martin Fowler. 1999. Refactoring: Improving the Design of Existing Code. Addison- Wesley, Boston, USA._x000a_[11] S.G. Ganesh, Tushar Sharma, and Girish Suryanarayana. 2013. Towards a Principle-based Classification of Structural Design Smells. Journal of Object Technology 12, 2 (June 2013), 1:1–29. https://doi.org/10.5381/jot.2013.12.2.a1_x000a_[12] Joshua Garcia, Daniel Popescu, George Edwards, and Nenad Medvidovic. 2009. Identifying Architectural Bad Smells. In 3th European Conference on Software Maintenance and Reengineering, CSMR 2009, Architecture-Centric Maintenance of Large-SCale Software Systems, Kaiserslautern, Germany, 24-27 March 2009. Germany, 255–258. https://doi.org/10.1109/CSMR.2009.59_x000a_[13] R. Kazman, Yuanfang Cai, Ran Mo, Qiong Feng, Lu Xiao, S. Haziyev, V. Fedak, and A. Shapochka. 2015. A Case Study in Locating the Architectural Roots of Technical Debt. In Software Engineering (ICSE), 2015 IEEE/ACM 37th IEEE International Conference on, Vol. 2. 179–188. https://doi.org/10.1109/ICSE.2015.146_x000a_[14] D. M. Le, P. Behnamghader, J. Garcia, D. Link, A. Shahbazian, and N. Medvidovic. 2015. An Empirical Study of Architectural Change in Open-Source Software Systems. In 2015 IEEE/ACM 12th Working Conf. on Mining Software Repositories. https://doi.org/10.1109/MSR.2015.29_x000a_[15] Martin Lippert and Stephen Roock. 2006. Refactoring in Large Software Projects: Performing Complex Restructurings Successfully. Wiley. 286 pages._x000a__x000a_[17] Isela Macía Bertrán. 2013. On the Detection of Architecturally-Relevant Code Anomalies in Software Systems. Ph.D. Dissertation. PUC-Rio, Departamento de Informática, Rio de Janeiro._x000a__x000a_[20] Ran Mo, Yuanfang Cai, Rick Kazman, and Lu Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In Proceedings_x000a__x000a_[21] R. Mo, Y. Cai, R. Kazman, and L. Xiao. 2015. Hotspot Patterns: The Formal Definition and Automatic Detection of Architecture Smells. In 2015 12th Working IEEE/IFIP Conference on Software Architecture. 51–60. https://doi.org/10.1109/_x000a_WICSA.2015.12_x000a_[22] Luca Rizzi, Francesca Arcelli Fo"/>
+    <hyperlink ref="Y32" r:id="rId18" display="a Dagstuhl [10] where a new definition for TD was crafted. The definition was repurposed to be more focused. _x000a__x0009_[10]  Managing Technical Debt in Software Engineering, Dagstuhl Reports, Vol. 6, Issue 4, April 17-22, 2016. [Online] Available: dagstuhl.de/16162 _x000a__x000a_Further, additional attempts were made to include socio-technical aspects of organizations as a form of TD. The work of Tamburri et al. [12] serves as an example_x000a__x0009_[12]  D. Tamburri, Philippe Kruchten, P. Lago, and H. van Vliet. “What is Social debt in Software Engineering,” CHASE 2013, San Francisco US. https://978-1- 4673-6290-0/13 _x000a__x000a_SonarQube [16] implemented a widget into their framework that calculates TD and reports it in terms of days or dollars (i.e. cost) necessary to repay the debt._x000a__x0009_[16]  [Online]Available:sonarqube.org _x000a_ _x000a_Nugroho et al. [13] describe TD as occurrences where problems with the quality in software are able to exacerbate and lead to bigger problems if they are not fixed in a timely manner _x000a__x0009_[13]  Nugroho, A.; Visser, J.; Kuipers, T., “An empirical model of technical debt and interest,” In Proceedings of the 2nd Workshop on Managing Technical Debt (MTD '11). ACM, New York, NY, USA, 1-8. doi:10.1145/1985362.1985364 _x000a_Letouzey and Ilkiewicz [14] used the SQALE method, which estimates the amount of TD based on a quality model. _x000a__x0009_[14]  J.L. Letouzey and M. Ilkiewicz, “Managing Technical Debt with the SQALE Method,” IEEE Software Vol. 29, Issue 6, Nov-Dec 2012, IEEE doi:10.1109/MS.2012.129 _x000a__x000a_Curtis et al. [15] introduce a way to measure TD that focuses on converting the amount of TD in code to a quantity in monetary terms _x0009_[15]  B. Curtis, J. Sappidi, and A. Szynkarski. “Estimating the principal of an application’s Technical Debt,” IEEE Software Software Vol. 29, Issue 6, Nov- Dec 2012, IEEE doi:10.1109/MS.2012.156 _x000a__x000a__x000a_"/>
+    <hyperlink ref="AA12" r:id="rId19" display="[1] http://blog.hello2morrow.com/2016/08/how-to-organize-your-code _x000a__x000a_[2] http://blog.hello2morrow.com/2018/12/a-promising-new-metric-to- _x000a_track-maintainability/ _x000a__x000a_"/>
     <hyperlink ref="P25" r:id="rId20" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -1387,9 +1387,6 @@
     <t xml:space="preserve">Towards Prioritizing Architecture Technical Debt: Information Needs of Architects and Product Owners </t>
   </si>
   <si>
-    <t xml:space="preserve">Architectural Technical Debt is a metaphor for representing sub-optimal architectural solutions that might cause an interest, in terms of effort or quality, to be paid by the organization in the long run. Such metaphor has been regarded as useful for communicating risks of suboptimal solutions between technical and non-technical stakeholders. However, it's fundamental to understand the information needs of the involved stakeholders in order to produce technical debt measurements that would allow proper communication and informed prioritization. We have investigated, through a combination of interviews, observations and a survey, what key information is needed by agile product owners and software architects in order to prioritize the refactoring of risky architectural technical debt items with respect to feature development. </t>
-  </si>
-  <si>
     <t>2015 41st Euromicro Conference on Software Engineering and Advanced Applications</t>
   </si>
   <si>
@@ -1979,9 +1976,6 @@
   </si>
   <si>
     <t xml:space="preserve">The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. </t>
-  </si>
-  <si>
-    <t>The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. In future studies, we plan to include physical measurements and observations, to create a stronger reliability of the data. The result of this research may be affected by some threats to validity.</t>
   </si>
   <si>
     <t>Ampatzoglou et al 2016</t>
@@ -6990,147 +6984,6 @@
   <si>
     <t xml:space="preserve">Yuanfang Cai, Lu Xiao, Rick Kazman, Ran Mo, Qiong Feng 
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">In this paper, we propose an architecture model called </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Design Rule Space (DRSpace)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. We model the architecture of a software system as multiple overlapping </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>DRSpaces</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, reflecting the fact that any complex software system must contain multiple aspects, features, patterns, etc. We show that this model provides new ways to analyze software quality. In particular, we introduce an Architecture Root detection algorithm that captures </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">DRSpaces </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">containing large numbers of a project’s bug-prone files, which are called </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>Architecture Roots (ArchRoots)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">. After investigating </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ArchRoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">calculated from 15 open source projects, the following observations become clear: from 35% to 91% of a project’s most bug-prone files can be captured by just 5 </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t>ArchRoots</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">, meaning that bug-prone files are likely to be architecturally connected. Furthermore, these </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ArchRoots </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">tend to live in the system for significant periods of time, serving as the major source of bug-proneness and high maintainability costs. Moreover, each </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">ArchRoot </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Times Roman"/>
-      </rPr>
-      <t xml:space="preserve">reveals multiple architectural flaws that propagate bugs among files and this will incur high maintenance costs over time. The implication of our study is that the quality, in terms of bug-proneness, of a large, complex software project cannot be fundamentally improved without first fixing its architectural flaws. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Software architecture, reverse-engineering, defect prediction, technical debt, code smells, bug localization 
@@ -12344,13 +12197,7 @@
     <t>Kind of research 2</t>
   </si>
   <si>
-    <t>Case study, case study in industry, expert opinion, observantion</t>
-  </si>
-  <si>
     <t>Case study in industry, expert opinion</t>
-  </si>
-  <si>
-    <t>survey, observations</t>
   </si>
   <si>
     <t>case study in industry</t>
@@ -12375,9 +12222,6 @@
     <t>Empirical investigation in OSS projects</t>
   </si>
   <si>
-    <t>Case study, case study in industry, industrial practice, expert opinion, observantion</t>
-  </si>
-  <si>
     <r>
       <t>We chose 7 Apache open source projects as our evaluation subjects. These projects di</t>
     </r>
@@ -12418,9 +12262,6 @@
   </si>
   <si>
     <t>There is no data or experimentation about the study.</t>
-  </si>
-  <si>
-    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry</t>
   </si>
   <si>
     <r>
@@ -12520,9 +12361,6 @@
     </r>
   </si>
   <si>
-    <t>exploratory case study, exploratory case study in industry, industrial practice, expert opinion, observantion, empirical study in industry</t>
-  </si>
-  <si>
     <t>Empirical study in industry</t>
   </si>
   <si>
@@ -12535,16 +12373,7 @@
     <t>Exploratory case study</t>
   </si>
   <si>
-    <t>Propose a Theorical Approach</t>
-  </si>
-  <si>
     <t>survey</t>
-  </si>
-  <si>
-    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, survey</t>
-  </si>
-  <si>
-    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, survey, proposed theorical method</t>
   </si>
   <si>
     <t xml:space="preserve">Decisions on short-term and long-term prioritization of archi- tecture refactoring need to be balanced and need to rely on the knowledge of the underlying phenomenon of ATD. The current management of ATD is an under-researched topic and we con- tribute to the empirical software engineering body of knowledge by reporting from a multiple case study investigating practitioners’ experiences from 7 large Scandinavian companies employing Agile and developing product lines of embedded software. 
@@ -12643,10 +12472,43 @@
     <t>The authors performed a study in a real case using a real it company catalog of rules of architectural and code patterns with real systems. The authors proposed a was to calculate the principal of TD in money value.</t>
   </si>
   <si>
-    <t>Case study, case study in industry, industrial practice, expert opinion, observantion, empirical study in industry, proposed theorical method</t>
-  </si>
-  <si>
     <t>Limiting technical debt with maintainability assurance: an industry survey on used techniques and differences with service and microservice-based systems</t>
+  </si>
+  <si>
+    <t>survey, observation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architectural Technical Debt is a metaphor for representing sub-optimal architectural solutions that might cause an interest, in terms of effort or quality, to be paid by the organization in the long run. Such metaphor has been regarded as useful for communicating risks of suboptimal solutions between technical and non-technical stakeholders. However, it's fundamental to understand the information needs of the involved stakeholders in order to produce technical debt measurements that would allow proper communication and informed prioritization. We have investigated, through a combination of interviews, observation and a survey, what key information is needed by agile product owners and software architects in order to prioritize the refactoring of risky architectural technical debt items with respect to feature development. </t>
+  </si>
+  <si>
+    <t>The qualitative data derived from the survey are not based on measured or observed data but on estimations made by the respondents. In future studies, we plan to include physical measurements and observation, to create a stronger reliability of the data. The result of this research may be affected by some threats to validity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this paper, we propose an architecture model called Design Rule Space (DRSpace). We model the architecture of a software system as multiple overlapping DRSpaces, reflecting the fact that any complex software system must contain multiple aspects, features, patterns, etc. We show that this model provides new ways to analyze software quality. In particular, we introduce an Architecture Root detection algorithm that captures DRSpaces containing large numbers of a project’s bug-prone files, which are called Architecture Roots (ArchRoots). After investigating ArchRoots calculated from 15 open source projects, the following observation become clear: from 35% to 91% of a project’s most bug-prone files can be captured by just 5 ArchRoots, meaning that bug-prone files are likely to be architecturally connected. Furthermore, these ArchRoots tend to live in the system for significant periods of time, serving as the major source of bug-proneness and high maintainability costs. Moreover, each ArchRoot reveals multiple architectural flaws that propagate bugs among files and this will incur high maintenance costs over time. The implication of our study is that the quality, in terms of bug-proneness, of a large, complex software project cannot be fundamentally improved without first fixing its architectural flaws. </t>
+  </si>
+  <si>
+    <t>proposed theorical method</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, expert opinion, observation</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observation</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observation, empirical study in industry</t>
+  </si>
+  <si>
+    <t>exploratory case study, exploratory case study in industry, industrial practice, expert opinion, observation, empirical study in industry</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observation, empirical study in industry, survey</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observation, empirical study in industry, survey, proposed theorical method</t>
+  </si>
+  <si>
+    <t>Case study, case study in industry, industrial practice, expert opinion, observation, empirical study in industry, proposed theorical method</t>
   </si>
 </sst>
 </file>
@@ -14506,10 +14368,10 @@
   <dimension ref="A1:AH48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14587,31 +14449,31 @@
         <v>13</v>
       </c>
       <c r="O1" s="43" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="P1" s="43" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="43" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="R1" s="43" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>15</v>
       </c>
       <c r="T1" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="U1" s="43" t="s">
+        <v>1008</v>
+      </c>
+      <c r="V1" s="43" t="s">
+        <v>1009</v>
+      </c>
+      <c r="W1" s="43" t="s">
         <v>1010</v>
-      </c>
-      <c r="U1" s="43" t="s">
-        <v>1011</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>1012</v>
-      </c>
-      <c r="W1" s="43" t="s">
-        <v>1013</v>
       </c>
       <c r="X1" s="43" t="s">
         <v>16</v>
@@ -14620,13 +14482,13 @@
         <v>17</v>
       </c>
       <c r="Z1" s="43" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="AA1" s="43" t="s">
         <v>18</v>
       </c>
       <c r="AB1" s="43" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="AC1" s="43" t="s">
         <v>19</v>
@@ -14667,7 +14529,7 @@
         <v>2019</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>28</v>
@@ -14688,17 +14550,17 @@
         <v>5</v>
       </c>
       <c r="N2" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="P2" s="44" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="4" t="s">
-        <v>1016</v>
+        <v>1050</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>33</v>
@@ -14719,10 +14581,10 @@
         <v>38</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
@@ -14730,13 +14592,13 @@
         <v>39</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AE2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AF2" s="4" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="AG2" s="8"/>
       <c r="AH2" s="4" t="s">
@@ -14778,29 +14640,29 @@
         <v>48</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="M3" s="11">
         <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>49</v>
       </c>
       <c r="T3" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="U3" s="12" t="s">
         <v>50</v>
@@ -14815,7 +14677,7 @@
         <v>53</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="Z3" s="10" t="s">
         <v>54</v>
@@ -14825,10 +14687,10 @@
       <c r="AC3" s="13"/>
       <c r="AD3" s="13"/>
       <c r="AE3" s="10" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="AF3" s="10" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="AG3" s="10" t="s">
         <v>55</v>
@@ -14876,65 +14738,65 @@
         <v>9</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>1018</v>
+        <v>1045</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="W4" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Y4" s="12" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="AA4" s="14" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="AB4" s="14" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>64</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="AG4" s="12" t="s">
         <v>64</v>
       </c>
       <c r="AH4" s="12" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="409.5" customHeight="1">
@@ -14945,7 +14807,7 @@
         <v>65</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>67</v>
@@ -14978,23 +14840,23 @@
         <v>4</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>71</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="U5" s="10" t="s">
         <v>72</v>
@@ -15009,10 +14871,10 @@
         <v>75</v>
       </c>
       <c r="Y5" s="12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="Z5" s="12" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
@@ -15023,10 +14885,10 @@
         <v>77</v>
       </c>
       <c r="AE5" s="12" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="AF5" s="12" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="AG5" s="12" t="s">
         <v>78</v>
@@ -15064,7 +14926,7 @@
         <v>84</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>61</v>
@@ -15076,26 +14938,26 @@
         <v>10</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>86</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="U6" s="14" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>87</v>
@@ -15107,31 +14969,31 @@
         <v>89</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="AA6" s="12" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="AB6" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="AC6" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="AC6" s="14" t="s">
-        <v>758</v>
-      </c>
       <c r="AD6" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="AH6" s="14" t="s">
         <v>37</v>
@@ -15181,14 +15043,14 @@
         <v>98</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>99</v>
@@ -15209,34 +15071,34 @@
         <v>103</v>
       </c>
       <c r="Y7" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="Z7" s="12" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AA7" s="12" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="AG7" s="14" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="AH7" s="14" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:34" ht="409.5" customHeight="1">
@@ -15280,26 +15142,26 @@
         <v>10</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="V8" s="12" t="s">
         <v>112</v>
@@ -15311,34 +15173,34 @@
         <v>113</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="Z8" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="AB8" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="AG8" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="AC8" s="14" t="s">
-        <v>751</v>
-      </c>
-      <c r="AD8" s="14" t="s">
-        <v>753</v>
-      </c>
-      <c r="AE8" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="AF8" s="14" t="s">
-        <v>973</v>
-      </c>
-      <c r="AG8" s="14" t="s">
-        <v>752</v>
-      </c>
       <c r="AH8" s="14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:34" ht="409.5" customHeight="1">
@@ -15376,7 +15238,7 @@
         <v>120</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="M9" s="11">
         <v>10</v>
@@ -15385,14 +15247,14 @@
         <v>121</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="P9" s="12" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>122</v>
@@ -15413,34 +15275,34 @@
         <v>127</v>
       </c>
       <c r="Y9" s="12" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="Z9" s="12" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="AD9" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="AH9" s="14" t="s">
         <v>745</v>
-      </c>
-      <c r="AE9" s="14" t="s">
-        <v>743</v>
-      </c>
-      <c r="AF9" s="14" t="s">
-        <v>974</v>
-      </c>
-      <c r="AG9" s="14" t="s">
-        <v>744</v>
-      </c>
-      <c r="AH9" s="14" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="409.5" customHeight="1">
@@ -15484,23 +15346,23 @@
         <v>11</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="U10" s="10" t="s">
         <v>135</v>
@@ -15509,40 +15371,40 @@
         <v>125</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="X10" s="10" t="s">
         <v>136</v>
       </c>
       <c r="Y10" s="12" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="Z10" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>786</v>
+      </c>
+      <c r="AC10" s="14" t="s">
         <v>788</v>
       </c>
-      <c r="AA10" s="14" t="s">
-        <v>883</v>
-      </c>
-      <c r="AB10" s="14" t="s">
+      <c r="AD10" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>972</v>
+      </c>
+      <c r="AG10" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="AC10" s="14" t="s">
-        <v>791</v>
-      </c>
-      <c r="AD10" s="14" t="s">
-        <v>794</v>
-      </c>
-      <c r="AE10" s="14" t="s">
-        <v>763</v>
-      </c>
-      <c r="AF10" s="14" t="s">
-        <v>975</v>
-      </c>
-      <c r="AG10" s="14" t="s">
-        <v>792</v>
-      </c>
       <c r="AH10" s="14" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="11" spans="1:34" ht="359.25" customHeight="1">
@@ -15589,14 +15451,14 @@
         <v>145</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="P11" s="12" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>146</v>
@@ -15614,16 +15476,16 @@
         <v>37</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="Y11" s="12" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="Z11" s="12" t="s">
         <v>148</v>
       </c>
       <c r="AA11" s="12" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="AB11" s="12" t="s">
         <v>149</v>
@@ -15638,7 +15500,7 @@
         <v>152</v>
       </c>
       <c r="AF11" s="12" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="AG11" s="12" t="s">
         <v>153</v>
@@ -15661,7 +15523,7 @@
         <v>156</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F12" s="9">
         <v>2019</v>
@@ -15691,23 +15553,23 @@
         <v>159</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="S12" s="12" t="s">
         <v>160</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="U12" s="12" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>125</v>
@@ -15721,10 +15583,10 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
       <c r="AA12" s="12" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AC12" s="12" t="s">
         <v>162</v>
@@ -15736,10 +15598,10 @@
         <v>164</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>37</v>
@@ -15765,7 +15627,7 @@
         <v>2017</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H13" s="12" t="s">
         <v>46</v>
@@ -15777,26 +15639,26 @@
         <v>167</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M13" s="9">
         <v>18</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="P13" s="12" t="s">
         <v>168</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>169</v>
@@ -15814,10 +15676,10 @@
         <v>173</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="Y13" s="12" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="Z13" s="12" t="s">
         <v>174</v>
@@ -15872,20 +15734,20 @@
         <v>3</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>184</v>
@@ -15903,13 +15765,13 @@
         <v>186</v>
       </c>
       <c r="Y14" s="12" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="Z14" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AA14" s="12" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="AB14" s="12" t="s">
         <v>187</v>
@@ -15921,10 +15783,10 @@
         <v>189</v>
       </c>
       <c r="AE14" s="27" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="AF14" s="27" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="AG14" s="27" t="s">
         <v>190</v>
@@ -15977,17 +15839,17 @@
         <v>200</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="P15" s="12" t="s">
         <v>201</v>
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>202</v>
@@ -16005,34 +15867,34 @@
         <v>205</v>
       </c>
       <c r="Y15" s="12" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="Z15" s="12" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="AA15" s="14" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="AE15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="14" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="AG15" s="14" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="AH15" s="14" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="16" spans="1:34" ht="320.25" customHeight="1">
@@ -16079,14 +15941,14 @@
         <v>214</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>215</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>216</v>
@@ -16107,34 +15969,34 @@
         <v>221</v>
       </c>
       <c r="Y16" s="12" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="Z16" s="12" t="s">
         <v>222</v>
       </c>
       <c r="AA16" s="14" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AE16" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AF16" s="14" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="AG16" s="14" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AH16" s="14" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="409" customHeight="1">
@@ -16172,7 +16034,7 @@
         <v>120</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="M17" s="9">
         <v>8</v>
@@ -16181,20 +16043,20 @@
         <v>225</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>226</v>
       </c>
       <c r="T17" s="12" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="U17" s="12" t="s">
         <v>227</v>
@@ -16203,40 +16065,40 @@
         <v>228</v>
       </c>
       <c r="W17" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="X17" s="12" t="s">
         <v>229</v>
       </c>
       <c r="Y17" s="12" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="Z17" s="12" t="s">
         <v>230</v>
       </c>
       <c r="AA17" s="14" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="AD17" s="14" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="AE17" s="14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AF17" s="14" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="AG17" s="14" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="AH17" s="32" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18" spans="1:34" ht="409.5" customHeight="1">
@@ -16280,20 +16142,20 @@
         <v>16</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12" t="s">
-        <v>1024</v>
+        <v>1051</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>237</v>
@@ -16311,7 +16173,7 @@
         <v>241</v>
       </c>
       <c r="Y18" s="12" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="Z18" s="12" t="s">
         <v>242</v>
@@ -16336,7 +16198,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>244</v>
@@ -16345,7 +16207,7 @@
         <v>2016</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>245</v>
@@ -16357,7 +16219,7 @@
         <v>247</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="L19" s="12" t="s">
         <v>248</v>
@@ -16366,17 +16228,17 @@
         <v>4</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>249</v>
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="12" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>250</v>
@@ -16385,7 +16247,7 @@
         <v>251</v>
       </c>
       <c r="U19" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="V19" s="12" t="s">
         <v>252</v>
@@ -16394,13 +16256,13 @@
         <v>253</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="Y19" s="12" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="Z19" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -16452,17 +16314,17 @@
         <v>10</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>262</v>
@@ -16483,34 +16345,34 @@
         <v>267</v>
       </c>
       <c r="Y20" s="12" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="Z20" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AA20" s="14" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="AD20" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AE20" s="14" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="AF20" s="14" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AG20" s="14" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="AH20" s="14" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="333.25" customHeight="1">
@@ -16533,13 +16395,13 @@
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>270</v>
+        <v>1046</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J21" s="12" t="s">
         <v>60</v>
@@ -16548,71 +16410,71 @@
         <v>61</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M21" s="9">
         <v>8</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S21" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="T21" s="12" t="s">
         <v>274</v>
-      </c>
-      <c r="T21" s="12" t="s">
-        <v>275</v>
       </c>
       <c r="U21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V21" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="W21" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="Y21" s="14" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="AA21" s="14" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="AB21" s="14" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="AC21" s="14" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="AD21" s="14" t="s">
+        <v>699</v>
+      </c>
+      <c r="AE21" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF21" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="AG21" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="AE21" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF21" s="14" t="s">
-        <v>983</v>
-      </c>
-      <c r="AG21" s="14" t="s">
-        <v>705</v>
-      </c>
       <c r="AH21" s="14" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="409.5" customHeight="1">
@@ -16620,101 +16482,101 @@
         <v>20</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C22" s="9">
         <v>2</v>
       </c>
       <c r="D22" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="F22" s="9">
         <v>2019</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="I22" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J22" s="12" t="s">
         <v>281</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>282</v>
       </c>
       <c r="K22" s="12" t="s">
         <v>198</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="M22" s="9">
         <v>8</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="S22" s="14" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="T22" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="V22" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="U22" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="V22" s="12" t="s">
-        <v>284</v>
       </c>
       <c r="W22" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X22" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Y22" s="12" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="Z22" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AA22" s="14" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="AB22" s="14" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AC22" s="14" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AD22" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AE22" s="14" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AF22" s="14" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="AG22" s="14" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="AH22" s="14" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="409.5" customHeight="1">
@@ -16722,101 +16584,101 @@
         <v>33</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C23" s="9">
         <v>154</v>
       </c>
       <c r="D23" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>288</v>
       </c>
       <c r="F23" s="9">
         <v>2012</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>28</v>
       </c>
       <c r="I23" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>291</v>
       </c>
       <c r="K23" s="12" t="s">
         <v>198</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M23" s="9">
         <v>10</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="P23" s="24" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="24" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="T23" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="U23" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="V23" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="X23" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="U23" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="V23" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="W23" s="12" t="s">
+      <c r="Y23" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="Z23" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="AA23" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="AB23" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="AC23" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="X23" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y23" s="12" t="s">
-        <v>845</v>
-      </c>
-      <c r="Z23" s="12" t="s">
+      <c r="AD23" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE23" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF23" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="AG23" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="AH23" s="14" t="s">
         <v>778</v>
-      </c>
-      <c r="AA23" s="14" t="s">
-        <v>892</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>779</v>
-      </c>
-      <c r="AC23" s="14" t="s">
-        <v>785</v>
-      </c>
-      <c r="AD23" s="14" t="s">
-        <v>784</v>
-      </c>
-      <c r="AE23" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF23" s="14" t="s">
-        <v>985</v>
-      </c>
-      <c r="AG23" s="14" t="s">
-        <v>783</v>
-      </c>
-      <c r="AH23" s="14" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="345.25" customHeight="1">
@@ -16824,94 +16686,94 @@
         <v>26</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C24" s="9">
         <v>2</v>
       </c>
       <c r="D24" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F24" s="9">
         <v>2019</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J24" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="K24" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M24" s="9">
         <v>2</v>
       </c>
       <c r="N24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="O24" s="12" t="s">
+        <v>939</v>
+      </c>
+      <c r="P24" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="O24" s="12" t="s">
-        <v>942</v>
-      </c>
-      <c r="P24" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="T24" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="U24" s="12" t="s">
         <v>304</v>
-      </c>
-      <c r="U24" s="12" t="s">
-        <v>305</v>
       </c>
       <c r="V24" s="12" t="s">
         <v>228</v>
       </c>
       <c r="W24" s="12" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="X24" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y24" s="12" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="Z24" s="12" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="AD24" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="AD24" s="12" t="s">
+      <c r="AE24" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AF24" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="AG24" s="12" t="s">
         <v>308</v>
-      </c>
-      <c r="AE24" s="12" t="s">
-        <v>1007</v>
-      </c>
-      <c r="AF24" s="12" t="s">
-        <v>986</v>
-      </c>
-      <c r="AG24" s="12" t="s">
-        <v>309</v>
       </c>
       <c r="AH24" s="12" t="s">
         <v>37</v>
@@ -16922,98 +16784,98 @@
         <v>28</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C25" s="9">
         <v>5</v>
       </c>
       <c r="D25" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="F25" s="9">
         <v>2018</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H25" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="J25" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="K25" s="12" t="s">
         <v>120</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M25" s="11">
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="U25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="V25" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W25" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="Y25" s="12" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AA25" s="12" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="AB25" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC25" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="AC25" s="12" t="s">
+      <c r="AD25" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="AD25" s="12" t="s">
+      <c r="AE25" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF25" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="AG25" s="12" t="s">
         <v>321</v>
-      </c>
-      <c r="AE25" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF25" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="AG25" s="12" t="s">
-        <v>322</v>
       </c>
       <c r="AH25" s="12" t="s">
         <v>37</v>
@@ -17024,101 +16886,101 @@
         <v>31</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C26" s="9">
         <v>20</v>
       </c>
       <c r="D26" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="F26" s="9">
         <v>2015</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I26" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="K26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="M26" s="11">
         <v>8</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12" t="s">
-        <v>1041</v>
+        <v>1053</v>
       </c>
       <c r="S26" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="U26" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="V26" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="W26" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="X26" s="10" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="Z26" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="U26" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="V26" s="12" t="s">
+      <c r="AA26" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="AB26" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="W26" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="X26" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="Y26" s="12" t="s">
-        <v>848</v>
-      </c>
-      <c r="Z26" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA26" s="12" t="s">
-        <v>894</v>
-      </c>
-      <c r="AB26" s="12" t="s">
+      <c r="AC26" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="AC26" s="12" t="s">
+      <c r="AD26" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="AD26" s="12" t="s">
+      <c r="AE26" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG26" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="AE26" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF26" s="12" t="s">
-        <v>988</v>
-      </c>
-      <c r="AG26" s="12" t="s">
+      <c r="AH26" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="AH26" s="12" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="409.5" customHeight="1">
@@ -17135,47 +16997,47 @@
         <v>176</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F27" s="9">
         <v>2016</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H27" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K27" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M27" s="11">
         <v>4</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O27" s="10" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="T27" s="12" t="s">
         <v>37</v>
@@ -17184,39 +17046,39 @@
         <v>37</v>
       </c>
       <c r="V27" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W27" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X27" s="10" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
       <c r="AA27" s="12" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="AB27" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="AC27" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="AC27" s="12" t="s">
+      <c r="AD27" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AE27" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF27" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="AG27" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="AE27" s="12" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>987</v>
-      </c>
-      <c r="AG27" s="12" t="s">
+      <c r="AH27" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="AH27" s="12" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="358.25" customHeight="1">
@@ -17224,101 +17086,101 @@
         <v>43</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C28" s="9">
         <v>35</v>
       </c>
       <c r="D28" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>350</v>
       </c>
       <c r="F28" s="21">
         <v>2016</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I28" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="J28" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="K28" s="12" t="s">
-        <v>353</v>
-      </c>
       <c r="L28" s="10" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="M28" s="11">
         <v>13</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="S28" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="T28" s="12" t="s">
         <v>355</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>356</v>
       </c>
       <c r="U28" s="12" t="s">
         <v>37</v>
       </c>
       <c r="V28" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="W28" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="X28" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y28" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="Z28" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA28" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="AB28" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="X28" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="Y28" s="12" t="s">
-        <v>865</v>
-      </c>
-      <c r="Z28" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA28" s="12" t="s">
-        <v>896</v>
-      </c>
-      <c r="AB28" s="12" t="s">
+      <c r="AC28" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="AC28" s="12" t="s">
+      <c r="AD28" s="12" t="s">
         <v>359</v>
-      </c>
-      <c r="AD28" s="12" t="s">
-        <v>360</v>
       </c>
       <c r="AE28" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AF28" s="12" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="AG28" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH28" s="12" t="s">
         <v>361</v>
-      </c>
-      <c r="AH28" s="12" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="333.25" customHeight="1">
@@ -17326,101 +17188,101 @@
         <v>51</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C29" s="9">
         <v>6</v>
       </c>
       <c r="D29" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>364</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>365</v>
       </c>
       <c r="F29" s="9">
         <v>2019</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H29" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I29" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="K29" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="L29" s="10" t="s">
         <v>369</v>
-      </c>
-      <c r="L29" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="M29" s="11">
         <v>11</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O29" s="10" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="S29" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="T29" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="T29" s="12" t="s">
+      <c r="U29" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="U29" s="12" t="s">
+      <c r="V29" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="V29" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="W29" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X29" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y29" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="Z29" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="Y29" s="12" t="s">
-        <v>849</v>
-      </c>
-      <c r="Z29" s="12" t="s">
+      <c r="AA29" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="AB29" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="AA29" s="12" t="s">
-        <v>897</v>
-      </c>
-      <c r="AB29" s="12" t="s">
+      <c r="AC29" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="AC29" s="12" t="s">
+      <c r="AD29" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="AD29" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="AE29" s="12" t="s">
         <v>40</v>
       </c>
       <c r="AF29" s="12" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="AG29" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="AH29" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="AH29" s="12" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="409.5" customHeight="1">
@@ -17428,101 +17290,101 @@
         <v>52</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C30" s="9">
         <v>4</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F30" s="9">
         <v>2019</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="J30" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="J30" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="K30" s="12" t="s">
         <v>198</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M30" s="11">
         <v>8</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="U30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V30" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W30" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X30" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Y30" s="12" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="Z30" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="AB30" s="14" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AC30" s="14" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AD30" s="14" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="AE30" s="14" t="s">
         <v>40</v>
       </c>
       <c r="AF30" s="14" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="AG30" s="14" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AH30" s="14" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="409.5" customHeight="1">
@@ -17530,71 +17392,71 @@
         <v>63</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C31" s="9">
         <v>4</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F31" s="9">
         <v>2019</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H31" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I31" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K31" s="12" t="s">
         <v>120</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M31" s="11">
         <v>31</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="Q31" s="12"/>
       <c r="R31" s="12" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="S31" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="T31" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>396</v>
       </c>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
       <c r="W31" s="14"/>
       <c r="X31" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="Y31" s="12" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="Z31" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
@@ -17610,59 +17472,59 @@
         <v>73</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C32" s="9">
         <v>8</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F32" s="9">
         <v>2018</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H32" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I32" s="29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="K32" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M32" s="11">
         <v>5</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="S32" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="T32" s="12" t="s">
         <v>401</v>
-      </c>
-      <c r="T32" s="12" t="s">
-        <v>402</v>
       </c>
       <c r="U32" s="12" t="s">
         <v>37</v>
@@ -17671,37 +17533,37 @@
         <v>228</v>
       </c>
       <c r="W32" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="X32" s="10" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y32" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z32" s="12" t="s">
         <v>646</v>
       </c>
-      <c r="X32" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="Y32" s="12" t="s">
-        <v>874</v>
-      </c>
-      <c r="Z32" s="12" t="s">
-        <v>648</v>
-      </c>
       <c r="AA32" s="12" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="AB32" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="AC32" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="AC32" s="12" t="s">
+      <c r="AD32" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="AD32" s="12" t="s">
+      <c r="AE32" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="AE32" s="12" t="s">
+      <c r="AF32" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="AG32" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="AF32" s="12" t="s">
-        <v>991</v>
-      </c>
-      <c r="AG32" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="AH32" s="12" t="s">
         <v>37</v>
@@ -17712,97 +17574,97 @@
         <v>69</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C33" s="9">
         <v>25</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F33" s="9">
         <v>2017</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H33" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I33" s="29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M33" s="11">
         <v>11</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O33" s="10" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="12" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="S33" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="T33" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="T33" s="12" t="s">
-        <v>414</v>
       </c>
       <c r="U33" s="12" t="s">
         <v>37</v>
       </c>
       <c r="V33" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="W33" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="W33" s="12" t="s">
-        <v>416</v>
-      </c>
       <c r="X33" s="10" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="Y33" s="12" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="Z33" s="12" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD33" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="AD33" s="12" t="s">
+      <c r="AE33" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="AE33" s="12" t="s">
+      <c r="AF33" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="AG33" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="AF33" s="12" t="s">
-        <v>992</v>
-      </c>
-      <c r="AG33" s="12" t="s">
-        <v>420</v>
-      </c>
       <c r="AH33" s="12" t="s">
-        <v>421</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="409.5" customHeight="1">
@@ -17810,98 +17672,98 @@
         <v>67</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C34" s="9">
         <v>33</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F34" s="9">
         <v>2016</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H34" s="29" t="s">
         <v>245</v>
       </c>
       <c r="I34" s="29" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="J34" s="29" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="K34" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M34" s="11">
         <v>8</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="T34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U34" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="V34" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="W34" s="12" t="s">
         <v>37</v>
       </c>
       <c r="X34" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>848</v>
+      </c>
+      <c r="Z34" s="10" t="s">
+        <v>653</v>
+      </c>
+      <c r="AA34" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="AB34" s="14" t="s">
+        <v>825</v>
+      </c>
+      <c r="AC34" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="AD34" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="Y34" s="10" t="s">
-        <v>851</v>
-      </c>
-      <c r="Z34" s="10" t="s">
-        <v>655</v>
-      </c>
-      <c r="AA34" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="AB34" s="14" t="s">
-        <v>828</v>
-      </c>
-      <c r="AC34" s="12" t="s">
+      <c r="AE34" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="AD34" s="12" t="s">
+      <c r="AF34" s="12" t="s">
+        <v>990</v>
+      </c>
+      <c r="AG34" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="AE34" s="12" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF34" s="12" t="s">
-        <v>993</v>
-      </c>
-      <c r="AG34" s="12" t="s">
-        <v>432</v>
       </c>
       <c r="AH34" s="12" t="s">
         <v>37</v>
@@ -17912,56 +17774,56 @@
         <v>66</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C35" s="9">
         <v>14</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E35" s="31" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F35" s="9">
         <v>2016</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="H35" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="J35" s="29" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K35" s="12" t="s">
         <v>260</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M35" s="11">
         <v>8</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="T35" s="14" t="s">
         <v>37</v>
@@ -17970,43 +17832,43 @@
         <v>37</v>
       </c>
       <c r="V35" s="14" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W35" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="X35" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y35" s="10" t="s">
+        <v>865</v>
+      </c>
+      <c r="Z35" s="10" t="s">
+        <v>866</v>
+      </c>
+      <c r="AA35" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB35" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="AD35" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE35" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="AF35" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="AG35" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="X35" s="10" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y35" s="10" t="s">
-        <v>868</v>
-      </c>
-      <c r="Z35" s="10" t="s">
-        <v>869</v>
-      </c>
-      <c r="AA35" s="12" t="s">
-        <v>901</v>
-      </c>
-      <c r="AB35" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>543</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>541</v>
-      </c>
-      <c r="AE35" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="AF35" s="14" t="s">
-        <v>994</v>
-      </c>
-      <c r="AG35" s="14" t="s">
+      <c r="AH35" s="14" t="s">
         <v>542</v>
-      </c>
-      <c r="AH35" s="14" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="409.5" customHeight="1">
@@ -18014,62 +17876,62 @@
         <v>96</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C36" s="9">
         <v>0</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E36" s="31" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F36" s="9">
         <v>2017</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H36" s="29" t="s">
         <v>28</v>
       </c>
       <c r="I36" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="J36" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="J36" s="29" t="s">
+      <c r="L36" s="10" t="s">
         <v>442</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>444</v>
       </c>
       <c r="M36" s="11">
         <v>10</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T36" s="12" t="s">
         <v>37</v>
       </c>
       <c r="U36" s="12" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="V36" s="12" t="s">
         <v>37</v>
@@ -18078,37 +17940,37 @@
         <v>37</v>
       </c>
       <c r="X36" s="10" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="Y36" s="13" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="AA36" s="14" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="AB36" s="14" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="AC36" s="14" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="AD36" s="14" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="AE36" s="14" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="AF36" s="14" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="AG36" s="14" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="AH36" s="34" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="409.5" customHeight="1">
@@ -18116,63 +17978,63 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C37" s="9">
         <v>65</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F37" s="9">
         <v>2015</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H37" s="29" t="s">
         <v>46</v>
       </c>
       <c r="I37" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="J37" s="29" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="M37" s="11">
         <v>17</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="O37" s="10" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="10" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
@@ -18190,49 +18052,49 @@
         <v>24</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C38" s="9">
         <v>15</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F38" s="9">
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>661</v>
+        <v>1048</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>28</v>
       </c>
       <c r="I38" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="J38" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K38" s="12" t="s">
         <v>120</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="M38" s="11">
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
@@ -18242,7 +18104,7 @@
       <c r="V38" s="14"/>
       <c r="W38" s="14"/>
       <c r="X38" s="10" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
@@ -18260,56 +18122,56 @@
         <v>77</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C39" s="9">
         <v>10</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F39" s="9">
         <v>2019</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="M39" s="11">
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S39" s="14" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T39" s="14" t="s">
         <v>37</v>
@@ -18324,33 +18186,33 @@
         <v>37</v>
       </c>
       <c r="X39" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Y39" s="13" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="14" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="AD39" s="14" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AE39" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF39" s="14" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="AG39" s="14" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="AH39" s="14" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40" spans="1:34" ht="318.25" customHeight="1">
@@ -18358,99 +18220,99 @@
         <v>78</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C40" s="9">
         <v>12</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="F40" s="9">
         <v>2017</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K40" s="12" t="s">
         <v>120</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="M40" s="11">
         <v>5</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="U40" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V40" s="14" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W40" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X40" s="10" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="Y40" s="13" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="Z40" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="AA40" s="14" t="s">
+        <v>900</v>
+      </c>
+      <c r="AB40" s="14" t="s">
+        <v>516</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="AD40" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE40" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF40" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="AG40" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="AH40" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="AA40" s="14" t="s">
-        <v>903</v>
-      </c>
-      <c r="AB40" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="AC40" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="AD40" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="AE40" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF40" s="14" t="s">
-        <v>997</v>
-      </c>
-      <c r="AG40" s="14" t="s">
-        <v>521</v>
-      </c>
-      <c r="AH40" s="14" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="404.25" customHeight="1">
@@ -18458,97 +18320,97 @@
         <v>81</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C41" s="9">
         <v>109</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F41" s="9">
         <v>2012</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M41" s="11">
         <v>9</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O41" s="10" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S41" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T41" s="14" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="U41" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V41" s="14" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="W41" s="14" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="X41" s="10" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Y41" s="13" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="AD41" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AE41" s="14" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF41" s="14" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AG41" s="14" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="AH41" s="14" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="398.75" customHeight="1">
@@ -18556,94 +18418,94 @@
         <v>82</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C42" s="9">
         <v>106</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F42" s="9">
         <v>2012</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>245</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="K42" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="M42" s="11">
         <v>5</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="S42" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="U42" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V42" s="14" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="W42" s="12" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="X42" s="10" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="Y42" s="13" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AA42" s="14"/>
       <c r="AB42" s="14"/>
       <c r="AC42" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="AD42" s="14" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE42" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF42" s="14" t="s">
+        <v>996</v>
+      </c>
+      <c r="AG42" s="14" t="s">
         <v>528</v>
-      </c>
-      <c r="AD42" s="14" t="s">
-        <v>531</v>
-      </c>
-      <c r="AE42" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF42" s="14" t="s">
-        <v>999</v>
-      </c>
-      <c r="AG42" s="14" t="s">
-        <v>530</v>
       </c>
       <c r="AH42" s="14" t="s">
         <v>37</v>
@@ -18654,61 +18516,61 @@
         <v>85</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C43" s="9">
         <v>1</v>
       </c>
       <c r="D43" s="42" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F43" s="23">
         <v>2018</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="M43" s="11">
         <v>13</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="O43" s="10" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
       <c r="W43" s="14"/>
       <c r="X43" s="10" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
@@ -18726,22 +18588,22 @@
         <v>88</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C44" s="9">
         <v>2</v>
       </c>
       <c r="D44" s="41" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F44" s="23">
         <v>2019</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>28</v>
@@ -18756,71 +18618,71 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M44" s="11">
         <v>5</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="S44" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T44" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="U44" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V44" s="12" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="W44" s="14" t="s">
+        <v>534</v>
+      </c>
+      <c r="X44" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>827</v>
+      </c>
+      <c r="AA44" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="AB44" s="14" t="s">
+        <v>828</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD44" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="AE44" s="14" t="s">
+        <v>533</v>
+      </c>
+      <c r="AF44" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="AG44" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="AH44" s="14" t="s">
         <v>536</v>
-      </c>
-      <c r="X44" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y44" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="Z44" s="13" t="s">
-        <v>830</v>
-      </c>
-      <c r="AA44" s="14" t="s">
-        <v>877</v>
-      </c>
-      <c r="AB44" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="AC44" s="14" t="s">
-        <v>534</v>
-      </c>
-      <c r="AD44" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="AE44" s="14" t="s">
-        <v>535</v>
-      </c>
-      <c r="AF44" s="14" t="s">
-        <v>1000</v>
-      </c>
-      <c r="AG44" s="14" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH44" s="14" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="409.5" customHeight="1">
@@ -18828,56 +18690,56 @@
         <v>90</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C45" s="9">
         <v>6</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F45" s="23">
         <v>2019</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="K45" s="12" t="s">
         <v>120</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M45" s="11">
         <v>10</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="O45" s="10" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="S45" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T45" s="14" t="s">
         <v>37</v>
@@ -18886,43 +18748,43 @@
         <v>37</v>
       </c>
       <c r="V45" s="12" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="W45" s="14" t="s">
         <v>37</v>
       </c>
       <c r="X45" s="10" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="Y45" s="13" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="AA45" s="33" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="AB45" s="33" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD45" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE45" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="AF45" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="AG45" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="AC45" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="AD45" s="14" t="s">
-        <v>741</v>
-      </c>
-      <c r="AE45" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="AF45" s="14" t="s">
-        <v>1001</v>
-      </c>
-      <c r="AG45" s="14" t="s">
-        <v>740</v>
-      </c>
       <c r="AH45" s="14" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="409.5" customHeight="1">
@@ -18930,101 +18792,101 @@
         <v>91</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C46" s="9">
         <v>10</v>
       </c>
       <c r="D46" s="41" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="K46" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M46" s="11">
         <v>9</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="12" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="S46" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="T46" s="12" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="U46" s="14" t="s">
         <v>37</v>
       </c>
       <c r="V46" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="W46" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="X46" s="10" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="AA46" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="AB46" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="AC46" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD46" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE46" s="14" t="s">
+        <v>521</v>
+      </c>
+      <c r="AF46" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="AG46" s="14" t="s">
         <v>723</v>
       </c>
-      <c r="W46" s="14" t="s">
+      <c r="AH46" s="14" t="s">
         <v>722</v>
-      </c>
-      <c r="X46" s="10" t="s">
-        <v>724</v>
-      </c>
-      <c r="Y46" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="Z46" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="AA46" s="14" t="s">
-        <v>905</v>
-      </c>
-      <c r="AB46" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="AC46" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="AD46" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="AE46" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF46" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AG46" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="AH46" s="14" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="337.25" customHeight="1">
@@ -19032,56 +18894,56 @@
         <v>97</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C47" s="9">
         <v>0</v>
       </c>
       <c r="D47" s="41" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F47" s="23">
         <v>2017</v>
       </c>
       <c r="G47" s="16" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>28</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K47" s="12" t="s">
         <v>198</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M47" s="11">
         <v>4</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O47" s="10" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="S47" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="T47" s="12" t="s">
         <v>37</v>
@@ -19096,37 +18958,37 @@
         <v>37</v>
       </c>
       <c r="X47" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y47" s="10" t="s">
+        <v>856</v>
+      </c>
+      <c r="Z47" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="AA47" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="AB47" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="Y47" s="10" t="s">
-        <v>859</v>
-      </c>
-      <c r="Z47" s="10" t="s">
+      <c r="AC47" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="AA47" s="12" t="s">
-        <v>906</v>
-      </c>
-      <c r="AB47" s="12" t="s">
+      <c r="AD47" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="AC47" s="12" t="s">
+      <c r="AE47" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="AD47" s="12" t="s">
+      <c r="AF47" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AG47" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="AE47" s="12" t="s">
+      <c r="AH47" s="12" t="s">
         <v>507</v>
-      </c>
-      <c r="AF47" s="12" t="s">
-        <v>1003</v>
-      </c>
-      <c r="AG47" s="12" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH47" s="12" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="409.5" customHeight="1">
@@ -19134,59 +18996,59 @@
         <v>40</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C48" s="9">
         <v>3</v>
       </c>
       <c r="D48" s="41" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F48" s="23">
         <v>2019</v>
       </c>
       <c r="G48" s="16" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H48" s="10" t="s">
         <v>46</v>
       </c>
       <c r="I48" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="J48" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="L48" s="10" t="s">
         <v>515</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>517</v>
       </c>
       <c r="M48" s="11">
         <v>18</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="O48" s="10" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="P48" s="14"/>
       <c r="Q48" s="14"/>
       <c r="R48" s="14"/>
       <c r="S48" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
       <c r="V48" s="14"/>
       <c r="W48" s="14"/>
       <c r="X48" s="10" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
@@ -19224,7 +19086,6 @@
     <hyperlink ref="P25" r:id="rId20" display="As subjects for this study, we used 20 Java OSS projects, which have been selected based on the following criteria—for more details see Arvanitou et al. [6]: Pearson, Correlations (Correlation), Spearman Correlation (Consistency) and Linear Regression (Predict Power), tool: sonarqube_x000a_ _x0009_− The software is a popular OSS project in sourceforge.net. This criterion ensures that the investigated projects are rec- ognized as important by the OSS community. _x000a__x0009_− The software has more than 20 versions (official releases). We have included this criterion for similar reasons to c1. _x000a__x0009_− The software contains more than 300 classes. This criteri- _x000a_on ensures that we will not include “toy examples” in our _x000a_dataset. _x000a_The software is written in java. We include this criterion _x000a_because the employed metric calculation tools analyse Java bytecode. _x000a__x000a_Coupling and cohesion at the package level have been quantified using three metrics: _x000a_− ACa – Average Coupling Afferent This metric represents the average afferent coupling of packages. Afferent cou- pling is the number of outgoing dependencies of a package to other packages [14]. _x000a__x000a_− TCIP – Total Coupling Intensity between Packages: This metric represents the count of class dependencies that span among different packages. This metric is inspired by the traditional Coupling between Objects metrics [8], which is calculated at the class level. The idea of employing two coupling metrics is that one (ACa) captures the number of dependencies at the architecture level, whereas the other (TCIP) the intensity of the dependency [4]. _x000a__x000a_− CaPC - Cohesion among Package Classes: This metric assesses how closely two classes that belong to the same package collaborate with each other. The metric is inspired by reversing the calculation of Lack of Cohesion of Meth- ods [8]. To calculate this metrics we compute the total number of pairs of classes that belong to one package, and then we investigate the percentage of these pairs that are coherent (i.e., they are coupled to each other). _x000a__x000a_Data Collection and Analysis. Each package of our datas"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataset/Extraction_form.xlsx
+++ b/dataset/Extraction_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="-38260" yWindow="-2260" windowWidth="38260" windowHeight="22140"/>
   </bookViews>
   <sheets>
     <sheet name="Folha 1" sheetId="1" r:id="rId1"/>
@@ -12191,9 +12191,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Research Type</t>
-  </si>
-  <si>
     <t>Kind of research 2</t>
   </si>
   <si>
@@ -12509,6 +12506,9 @@
   </si>
   <si>
     <t>Case study, case study in industry, industrial practice, expert opinion, observation, empirical study in industry, proposed theorical method</t>
+  </si>
+  <si>
+    <t>Research Type (Evaluation Research, Validation Research, Solution Proposal, Philosophycal paper)</t>
   </si>
 </sst>
 </file>
@@ -14367,11 +14367,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -14455,10 +14455,10 @@
         <v>14</v>
       </c>
       <c r="Q1" s="43" t="s">
+        <v>1056</v>
+      </c>
+      <c r="R1" s="43" t="s">
         <v>1011</v>
-      </c>
-      <c r="R1" s="43" t="s">
-        <v>1012</v>
       </c>
       <c r="S1" s="43" t="s">
         <v>15</v>
@@ -14560,7 +14560,7 @@
       </c>
       <c r="Q2" s="44"/>
       <c r="R2" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>33</v>
@@ -14656,7 +14656,7 @@
       </c>
       <c r="Q3" s="12"/>
       <c r="R3" s="12" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="S3" s="12" t="s">
         <v>49</v>
@@ -14748,7 +14748,7 @@
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="S4" s="12" t="s">
         <v>63</v>
@@ -14850,7 +14850,7 @@
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S5" s="10" t="s">
         <v>71</v>
@@ -14941,14 +14941,14 @@
         <v>577</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="P6" s="12" t="s">
         <v>907</v>
       </c>
       <c r="Q6" s="12"/>
       <c r="R6" s="12" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="S6" s="10" t="s">
         <v>86</v>
@@ -15050,7 +15050,7 @@
       </c>
       <c r="Q7" s="12"/>
       <c r="R7" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S7" s="10" t="s">
         <v>99</v>
@@ -15152,10 +15152,10 @@
       </c>
       <c r="Q8" s="12"/>
       <c r="R8" s="12" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>582</v>
@@ -15254,7 +15254,7 @@
       </c>
       <c r="Q9" s="12"/>
       <c r="R9" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S9" s="10" t="s">
         <v>122</v>
@@ -15356,10 +15356,10 @@
       </c>
       <c r="Q10" s="10"/>
       <c r="R10" s="10" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="T10" s="12" t="s">
         <v>585</v>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="Q11" s="12"/>
       <c r="R11" s="12" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="S11" s="10" t="s">
         <v>146</v>
@@ -15476,7 +15476,7 @@
         <v>37</v>
       </c>
       <c r="X11" s="12" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="Y11" s="12" t="s">
         <v>836</v>
@@ -15560,7 +15560,7 @@
       </c>
       <c r="Q12" s="12"/>
       <c r="R12" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S12" s="12" t="s">
         <v>160</v>
@@ -15601,7 +15601,7 @@
         <v>974</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>37</v>
@@ -15658,7 +15658,7 @@
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S13" s="12" t="s">
         <v>169</v>
@@ -15676,7 +15676,7 @@
         <v>173</v>
       </c>
       <c r="X13" s="10" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="Y13" s="12" t="s">
         <v>867</v>
@@ -15744,10 +15744,10 @@
       </c>
       <c r="Q14" s="12"/>
       <c r="R14" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S14" s="10" t="s">
         <v>1025</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>1026</v>
       </c>
       <c r="T14" s="12" t="s">
         <v>184</v>
@@ -15846,10 +15846,10 @@
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="T15" s="12" t="s">
         <v>202</v>
@@ -15948,7 +15948,7 @@
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S16" s="12" t="s">
         <v>216</v>
@@ -16050,7 +16050,7 @@
       </c>
       <c r="Q17" s="12"/>
       <c r="R17" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S17" s="12" t="s">
         <v>226</v>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="S18" s="12" t="s">
         <v>601</v>
@@ -16238,7 +16238,7 @@
       </c>
       <c r="Q19" s="12"/>
       <c r="R19" s="12" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="S19" s="12" t="s">
         <v>250</v>
@@ -16256,7 +16256,7 @@
         <v>253</v>
       </c>
       <c r="X19" s="12" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="Y19" s="12" t="s">
         <v>838</v>
@@ -16324,7 +16324,7 @@
       </c>
       <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>262</v>
@@ -16395,7 +16395,7 @@
         <v>2015</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>28</v>
@@ -16426,7 +16426,7 @@
       </c>
       <c r="Q21" s="12"/>
       <c r="R21" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S21" s="12" t="s">
         <v>273</v>
@@ -16528,7 +16528,7 @@
       </c>
       <c r="Q22" s="14"/>
       <c r="R22" s="14" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S22" s="14" t="s">
         <v>557</v>
@@ -16630,7 +16630,7 @@
       </c>
       <c r="Q23" s="24"/>
       <c r="R23" s="24" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S23" s="12" t="s">
         <v>613</v>
@@ -16732,10 +16732,10 @@
       </c>
       <c r="Q24" s="12"/>
       <c r="R24" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="T24" s="12" t="s">
         <v>303</v>
@@ -16820,7 +16820,7 @@
         <v>4</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="O25" s="10" t="s">
         <v>940</v>
@@ -16830,10 +16830,10 @@
       </c>
       <c r="Q25" s="12"/>
       <c r="R25" s="12" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="T25" s="12" t="s">
         <v>316</v>
@@ -16848,7 +16848,7 @@
         <v>37</v>
       </c>
       <c r="X25" s="10" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="Y25" s="12" t="s">
         <v>844</v>
@@ -16932,7 +16932,7 @@
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="S26" s="12" t="s">
         <v>628</v>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="S27" s="12" t="s">
         <v>340</v>
@@ -17132,7 +17132,7 @@
       </c>
       <c r="Q28" s="12"/>
       <c r="R28" s="12" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="S28" s="12" t="s">
         <v>354</v>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="12" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="S29" s="12" t="s">
         <v>371</v>
@@ -17336,7 +17336,7 @@
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="S30" s="12" t="s">
         <v>387</v>
@@ -17438,7 +17438,7 @@
       </c>
       <c r="Q31" s="12"/>
       <c r="R31" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S31" s="12" t="s">
         <v>394</v>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S32" s="12" t="s">
         <v>400</v>
@@ -17620,7 +17620,7 @@
       </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S33" s="12" t="s">
         <v>412</v>
@@ -17664,7 +17664,7 @@
         <v>419</v>
       </c>
       <c r="AH33" s="12" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="409.5" customHeight="1">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="Q34" s="12"/>
       <c r="R34" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="S34" s="12" t="s">
         <v>423</v>
@@ -17820,7 +17820,7 @@
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="12" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="S35" s="12" t="s">
         <v>435</v>
@@ -17922,7 +17922,7 @@
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="12" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="S36" s="12" t="s">
         <v>444</v>
@@ -18024,7 +18024,7 @@
       </c>
       <c r="Q37" s="12"/>
       <c r="R37" s="12" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="S37" s="12" t="s">
         <v>449</v>
@@ -18034,7 +18034,7 @@
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="10" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
@@ -18067,7 +18067,7 @@
         <v>2018</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>28</v>
@@ -18088,7 +18088,7 @@
         <v>27</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="O38" s="10" t="s">
         <v>961</v>
@@ -18158,7 +18158,7 @@
         <v>11</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="O39" s="10" t="s">
         <v>952</v>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="12" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14" t="s">
@@ -18366,7 +18366,7 @@
       </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S41" s="12" t="s">
         <v>444</v>
@@ -18395,7 +18395,7 @@
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="14" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AD41" s="14" t="s">
         <v>713</v>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="12" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="S42" s="12" t="s">
         <v>444</v>
@@ -18634,7 +18634,7 @@
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="S44" s="12" t="s">
         <v>444</v>
@@ -18736,7 +18736,7 @@
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="S45" s="12" t="s">
         <v>444</v>
@@ -18801,7 +18801,7 @@
         <v>816</v>
       </c>
       <c r="E46" s="38" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F46" s="23">
         <v>2018</v>
@@ -18838,7 +18838,7 @@
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="12" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="S46" s="12" t="s">
         <v>412</v>
@@ -18940,7 +18940,7 @@
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="S47" s="12" t="s">
         <v>499</v>
